--- a/Results/Emissions/RR/Annual_Emission_target.xlsx
+++ b/Results/Emissions/RR/Annual_Emission_target.xlsx
@@ -1,41 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Emissions/RR/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_9E1137D357DABC343DFC4486ED0D6F21A8773DCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE70BD8-3F1F-4108-B4FA-293C54E7A950}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Effective" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided" sheetId="3" r:id="rId3"/>
+    <sheet name="Primary" sheetId="4" r:id="rId4"/>
+    <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>Neodymium</t>
   </si>
@@ -52,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,21 +99,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +143,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,7 +177,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,10 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,16 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CO2" sqref="CO2:CQ5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -694,75 +665,75 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842586929</v>
+        <v>46.87313184258693</v>
       </c>
       <c r="C2">
-        <v>66.331986781950178</v>
+        <v>66.33198678195018</v>
       </c>
       <c r="D2">
-        <v>64.108938462148572</v>
+        <v>64.10893846214857</v>
       </c>
       <c r="E2">
-        <v>60.872877768557323</v>
+        <v>60.87287776855732</v>
       </c>
       <c r="F2">
         <v>97.98477968115175</v>
       </c>
       <c r="G2">
-        <v>70.695165706898081</v>
+        <v>70.69516570689808</v>
       </c>
       <c r="H2">
-        <v>125.77419246421179</v>
+        <v>125.7741924642118</v>
       </c>
       <c r="I2">
-        <v>119.54229371654669</v>
+        <v>119.5422937165467</v>
       </c>
       <c r="J2">
-        <v>112.13006645611451</v>
+        <v>112.1300664561145</v>
       </c>
       <c r="K2">
-        <v>101.20349439851191</v>
+        <v>101.2034943985119</v>
       </c>
       <c r="L2">
         <v>209.8180725960533</v>
       </c>
       <c r="M2">
-        <v>142.80224458285591</v>
+        <v>142.8022445828559</v>
       </c>
       <c r="N2">
-        <v>279.40703161827548</v>
+        <v>279.4070316182755</v>
       </c>
       <c r="O2">
-        <v>301.59464756981941</v>
+        <v>301.5946475698194</v>
       </c>
       <c r="P2">
-        <v>324.09365606202272</v>
+        <v>324.0936560620227</v>
       </c>
       <c r="Q2">
-        <v>709.49655418085547</v>
+        <v>709.4965541808555</v>
       </c>
       <c r="R2">
-        <v>759.70432162412169</v>
+        <v>759.7043216241217</v>
       </c>
       <c r="S2">
-        <v>810.46184150812689</v>
+        <v>810.4618415081269</v>
       </c>
       <c r="T2">
-        <v>862.18408760006002</v>
+        <v>862.18408760006</v>
       </c>
       <c r="U2">
-        <v>914.67402149674842</v>
+        <v>914.6740214967484</v>
       </c>
       <c r="V2">
-        <v>919.14566708772338</v>
+        <v>919.1456670877234</v>
       </c>
       <c r="W2">
-        <v>969.66371895636462</v>
+        <v>969.6637189563646</v>
       </c>
       <c r="X2">
         <v>1020.602565312206</v>
@@ -774,55 +745,55 @@
         <v>1126.112261233817</v>
       </c>
       <c r="AA2">
-        <v>526.17074683908959</v>
+        <v>526.1707468390896</v>
       </c>
       <c r="AB2">
-        <v>540.86217407981519</v>
+        <v>540.8621740798152</v>
       </c>
       <c r="AC2">
-        <v>559.73768990415772</v>
+        <v>559.7376899041577</v>
       </c>
       <c r="AD2">
-        <v>578.00448036981231</v>
+        <v>578.0044803698123</v>
       </c>
       <c r="AE2">
-        <v>599.37954835600124</v>
+        <v>599.3795483560012</v>
       </c>
       <c r="AF2">
-        <v>384.24645449079151</v>
+        <v>384.2464544907915</v>
       </c>
       <c r="AG2">
         <v>387.8741032583473</v>
       </c>
       <c r="AH2">
-        <v>406.83856013767468</v>
+        <v>406.8385601376747</v>
       </c>
       <c r="AI2">
-        <v>440.76573386671748</v>
+        <v>440.7657338667175</v>
       </c>
       <c r="AJ2">
-        <v>473.79368452547891</v>
+        <v>473.7936845254789</v>
       </c>
       <c r="AK2">
-        <v>628.03788667289302</v>
+        <v>628.037886672893</v>
       </c>
       <c r="AL2">
-        <v>707.99448410791035</v>
+        <v>707.9944841079104</v>
       </c>
       <c r="AM2">
-        <v>818.86201128385767</v>
+        <v>818.8620112838577</v>
       </c>
       <c r="AN2">
-        <v>961.95448688301644</v>
+        <v>961.9544868830164</v>
       </c>
       <c r="AO2">
-        <v>1064.4822148414851</v>
+        <v>1064.482214841485</v>
       </c>
       <c r="AP2">
-        <v>1309.8172609531241</v>
+        <v>1309.817260953124</v>
       </c>
       <c r="AQ2">
-        <v>1366.4132949118321</v>
+        <v>1366.413294911832</v>
       </c>
       <c r="AR2">
         <v>1413.931951955773</v>
@@ -831,22 +802,22 @@
         <v>1452.76866360499</v>
       </c>
       <c r="AT2">
-        <v>1492.2044277817531</v>
+        <v>1492.204427781753</v>
       </c>
       <c r="AU2">
         <v>1562.890223336203</v>
       </c>
       <c r="AV2">
-        <v>1547.0396640800609</v>
+        <v>1547.039664080061</v>
       </c>
       <c r="AW2">
-        <v>1446.0974437182811</v>
+        <v>1446.097443718281</v>
       </c>
       <c r="AX2">
-        <v>1282.2069504950159</v>
+        <v>1282.206950495016</v>
       </c>
       <c r="AY2">
-        <v>1200.8686568419871</v>
+        <v>1200.868656841987</v>
       </c>
       <c r="AZ2">
         <v>1150.72802932483</v>
@@ -858,10 +829,10 @@
         <v>1106.180023133739</v>
       </c>
       <c r="BC2">
-        <v>1050.0170291230929</v>
+        <v>1050.017029123093</v>
       </c>
       <c r="BD2">
-        <v>1031.5777422516451</v>
+        <v>1031.577742251645</v>
       </c>
       <c r="BE2">
         <v>1021.705095282653</v>
@@ -870,10 +841,10 @@
         <v>1070.413980292557</v>
       </c>
       <c r="BG2">
-        <v>1145.2530996062701</v>
+        <v>1145.25309960627</v>
       </c>
       <c r="BH2">
-        <v>1248.0166076089949</v>
+        <v>1248.016607608995</v>
       </c>
       <c r="BI2">
         <v>1360.359249269123</v>
@@ -882,7 +853,7 @@
         <v>1460.128199443034</v>
       </c>
       <c r="BK2">
-        <v>1593.5049438265421</v>
+        <v>1593.504943826542</v>
       </c>
       <c r="BL2">
         <v>1730.90236149321</v>
@@ -894,16 +865,16 @@
         <v>1947.837313594001</v>
       </c>
       <c r="BO2">
-        <v>1990.4620755085889</v>
+        <v>1990.462075508589</v>
       </c>
       <c r="BP2">
-        <v>2035.2358928326671</v>
+        <v>2035.235892832667</v>
       </c>
       <c r="BQ2">
-        <v>2071.6234838466939</v>
+        <v>2071.623483846694</v>
       </c>
       <c r="BR2">
-        <v>2084.5982245137789</v>
+        <v>2084.598224513779</v>
       </c>
       <c r="BS2">
         <v>2048.492143762312</v>
@@ -912,28 +883,28 @@
         <v>1951.064108704458</v>
       </c>
       <c r="BU2">
-        <v>1854.6782195561241</v>
+        <v>1854.678219556124</v>
       </c>
       <c r="BV2">
-        <v>1786.7296155132419</v>
+        <v>1786.729615513242</v>
       </c>
       <c r="BW2">
-        <v>1750.7660200137159</v>
+        <v>1750.766020013716</v>
       </c>
       <c r="BX2">
-        <v>1727.5706086469499</v>
+        <v>1727.57060864695</v>
       </c>
       <c r="BY2">
-        <v>1690.3059324480221</v>
+        <v>1690.305932448022</v>
       </c>
       <c r="BZ2">
         <v>1666.47996590049</v>
       </c>
       <c r="CA2">
-        <v>1662.3663382645559</v>
+        <v>1662.366338264556</v>
       </c>
       <c r="CB2">
-        <v>1686.9661889032629</v>
+        <v>1686.966188903263</v>
       </c>
       <c r="CC2">
         <v>1743.872599904247</v>
@@ -945,31 +916,31 @@
         <v>1915.011409031013</v>
       </c>
       <c r="CF2">
-        <v>2025.7771586979479</v>
+        <v>2025.777158697948</v>
       </c>
       <c r="CG2">
-        <v>2142.2571604235109</v>
+        <v>2142.257160423511</v>
       </c>
       <c r="CH2">
-        <v>2265.9115441467738</v>
+        <v>2265.911544146774</v>
       </c>
       <c r="CI2">
-        <v>2364.8670351673491</v>
+        <v>2364.867035167349</v>
       </c>
       <c r="CJ2">
-        <v>2468.4057066072978</v>
+        <v>2468.405706607298</v>
       </c>
       <c r="CK2">
-        <v>2543.8414772970882</v>
+        <v>2543.841477297088</v>
       </c>
       <c r="CL2">
-        <v>2593.7519684782892</v>
+        <v>2593.751968478289</v>
       </c>
       <c r="CM2">
-        <v>2628.0039112580189</v>
+        <v>2628.003911258019</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -980,37 +951,37 @@
         <v>23.38798957595704</v>
       </c>
       <c r="D3">
-        <v>22.579391669388961</v>
+        <v>22.57939166938896</v>
       </c>
       <c r="E3">
-        <v>21.425980261292839</v>
+        <v>21.42598026129284</v>
       </c>
       <c r="F3">
-        <v>34.623369471530722</v>
+        <v>34.62336947153072</v>
       </c>
       <c r="G3">
-        <v>24.894274402423662</v>
+        <v>24.89427440242366</v>
       </c>
       <c r="H3">
-        <v>44.501927053278379</v>
+        <v>44.50192705327838</v>
       </c>
       <c r="I3">
-        <v>42.259438490602903</v>
+        <v>42.2594384906029</v>
       </c>
       <c r="J3">
-        <v>39.610190456359753</v>
+        <v>39.61019045635975</v>
       </c>
       <c r="K3">
-        <v>35.704476774041567</v>
+        <v>35.70447677404157</v>
       </c>
       <c r="L3">
-        <v>74.404180750148498</v>
+        <v>74.4041807501485</v>
       </c>
       <c r="M3">
-        <v>50.511250719232777</v>
+        <v>50.51125071923278</v>
       </c>
       <c r="N3">
-        <v>99.172478982863367</v>
+        <v>99.17247898286337</v>
       </c>
       <c r="O3">
         <v>107.0704907453582</v>
@@ -1019,34 +990,34 @@
         <v>115.0795300856268</v>
       </c>
       <c r="Q3">
-        <v>252.38231425964011</v>
+        <v>252.3823142596401</v>
       </c>
       <c r="R3">
-        <v>270.26397404136458</v>
+        <v>270.2639740413646</v>
       </c>
       <c r="S3">
-        <v>288.34151039530133</v>
+        <v>288.3415103953013</v>
       </c>
       <c r="T3">
-        <v>306.76282211594929</v>
+        <v>306.7628221159493</v>
       </c>
       <c r="U3">
-        <v>325.45769695653411</v>
+        <v>325.4576969565341</v>
       </c>
       <c r="V3">
         <v>327.039303068018</v>
       </c>
       <c r="W3">
-        <v>345.03182300753758</v>
+        <v>345.0318230075376</v>
       </c>
       <c r="X3">
-        <v>363.17433010727001</v>
+        <v>363.17433010727</v>
       </c>
       <c r="Y3">
-        <v>381.69967452055317</v>
+        <v>381.6996745205532</v>
       </c>
       <c r="Z3">
-        <v>400.75359953437271</v>
+        <v>400.7535995343727</v>
       </c>
       <c r="AA3">
         <v>186.9743331802544</v>
@@ -1055,79 +1026,79 @@
         <v>192.1983009227923</v>
       </c>
       <c r="AC3">
-        <v>198.91328010861801</v>
+        <v>198.913280108618</v>
       </c>
       <c r="AD3">
         <v>205.4113716931208</v>
       </c>
       <c r="AE3">
-        <v>213.01705304750871</v>
+        <v>213.0170530475087</v>
       </c>
       <c r="AF3">
-        <v>136.34715193576341</v>
+        <v>136.3471519357634</v>
       </c>
       <c r="AG3">
         <v>137.627217203127</v>
       </c>
       <c r="AH3">
-        <v>144.37261505251141</v>
+        <v>144.3726150525114</v>
       </c>
       <c r="AI3">
-        <v>156.45004307401791</v>
+        <v>156.4500430740179</v>
       </c>
       <c r="AJ3">
-        <v>168.20641959304439</v>
+        <v>168.2064195930444</v>
       </c>
       <c r="AK3">
-        <v>223.15562118478701</v>
+        <v>223.155621184787</v>
       </c>
       <c r="AL3">
-        <v>251.63482162857389</v>
+        <v>251.6348216285739</v>
       </c>
       <c r="AM3">
-        <v>291.12931104548909</v>
+        <v>291.1293110454891</v>
       </c>
       <c r="AN3">
-        <v>342.10747562989002</v>
+        <v>342.10747562989</v>
       </c>
       <c r="AO3">
-        <v>378.63057455907239</v>
+        <v>378.6305745590724</v>
       </c>
       <c r="AP3">
-        <v>466.04065343095971</v>
+        <v>466.0406534309597</v>
       </c>
       <c r="AQ3">
-        <v>486.19626104787619</v>
+        <v>486.1962610478762</v>
       </c>
       <c r="AR3">
-        <v>503.11751069658578</v>
+        <v>503.1175106965858</v>
       </c>
       <c r="AS3">
-        <v>516.94540464785882</v>
+        <v>516.9454046478588</v>
       </c>
       <c r="AT3">
-        <v>530.98736296169693</v>
+        <v>530.9873629616969</v>
       </c>
       <c r="AU3">
-        <v>556.16385431900289</v>
+        <v>556.1638543190029</v>
       </c>
       <c r="AV3">
-        <v>550.50375857019731</v>
+        <v>550.5037585701973</v>
       </c>
       <c r="AW3">
-        <v>514.52035710654172</v>
+        <v>514.5203571065417</v>
       </c>
       <c r="AX3">
-        <v>456.10455919889591</v>
+        <v>456.1045591988959</v>
       </c>
       <c r="AY3">
-        <v>427.10750278992589</v>
+        <v>427.1075027899259</v>
       </c>
       <c r="AZ3">
-        <v>409.22765831726122</v>
+        <v>409.2276583172612</v>
       </c>
       <c r="BA3">
-        <v>406.43196262419252</v>
+        <v>406.4319626241925</v>
       </c>
       <c r="BB3">
         <v>393.3271257802474</v>
@@ -1139,22 +1110,22 @@
         <v>366.7141842259237</v>
       </c>
       <c r="BE3">
-        <v>363.18131174139739</v>
+        <v>363.1813117413974</v>
       </c>
       <c r="BF3">
-        <v>380.52411733906638</v>
+        <v>380.5241173390664</v>
       </c>
       <c r="BG3">
         <v>407.1780286617315</v>
       </c>
       <c r="BH3">
-        <v>443.78256170873749</v>
+        <v>443.7825617087375</v>
       </c>
       <c r="BI3">
-        <v>483.80029414264612</v>
+        <v>483.8002941426461</v>
       </c>
       <c r="BJ3">
-        <v>519.33599774841196</v>
+        <v>519.335997748412</v>
       </c>
       <c r="BK3">
         <v>566.8485249431584</v>
@@ -1163,165 +1134,165 @@
         <v>615.7943221637214</v>
       </c>
       <c r="BM3">
-        <v>661.78827195671352</v>
+        <v>661.7882719567135</v>
       </c>
       <c r="BN3">
-        <v>693.06784037804709</v>
+        <v>693.0678403780471</v>
       </c>
       <c r="BO3">
         <v>708.2393856505978</v>
       </c>
       <c r="BP3">
-        <v>724.17718385656121</v>
+        <v>724.1771838565612</v>
       </c>
       <c r="BQ3">
-        <v>737.12675225414557</v>
+        <v>737.1267522541456</v>
       </c>
       <c r="BR3">
-        <v>741.73312469797929</v>
+        <v>741.7331246979793</v>
       </c>
       <c r="BS3">
-        <v>728.84904344391157</v>
+        <v>728.8490434439116</v>
       </c>
       <c r="BT3">
-        <v>694.11104218433081</v>
+        <v>694.1110421843308</v>
       </c>
       <c r="BU3">
-        <v>659.74451468961138</v>
+        <v>659.7445146896114</v>
       </c>
       <c r="BV3">
-        <v>635.51195004964893</v>
+        <v>635.5119500496489</v>
       </c>
       <c r="BW3">
         <v>622.6776129325749</v>
       </c>
       <c r="BX3">
-        <v>614.39356616501573</v>
+        <v>614.3935661650157</v>
       </c>
       <c r="BY3">
-        <v>601.09467720450539</v>
+        <v>601.0946772045054</v>
       </c>
       <c r="BZ3">
-        <v>592.58468975358267</v>
+        <v>592.5846897535827</v>
       </c>
       <c r="CA3">
-        <v>591.09953486147538</v>
+        <v>591.0995348614754</v>
       </c>
       <c r="CB3">
-        <v>599.84691238438484</v>
+        <v>599.8469123843848</v>
       </c>
       <c r="CC3">
-        <v>620.10721758488694</v>
+        <v>620.1072175848869</v>
       </c>
       <c r="CD3">
-        <v>644.88612937190692</v>
+        <v>644.8861293719069</v>
       </c>
       <c r="CE3">
-        <v>681.05300277275285</v>
+        <v>681.0530027727528</v>
       </c>
       <c r="CF3">
-        <v>720.50431590445669</v>
+        <v>720.5043159044567</v>
       </c>
       <c r="CG3">
-        <v>761.99189417817456</v>
+        <v>761.9918941781746</v>
       </c>
       <c r="CH3">
-        <v>806.03631226050788</v>
+        <v>806.0363122605079</v>
       </c>
       <c r="CI3">
-        <v>841.27841673164255</v>
+        <v>841.2784167316426</v>
       </c>
       <c r="CJ3">
-        <v>878.15352707267925</v>
+        <v>878.1535270726793</v>
       </c>
       <c r="CK3">
-        <v>905.01378823685559</v>
+        <v>905.0137882368556</v>
       </c>
       <c r="CL3">
-        <v>922.77772691352652</v>
+        <v>922.7777269135265</v>
       </c>
       <c r="CM3">
-        <v>934.96156906792623</v>
+        <v>934.9615690679262</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.7552106872258</v>
+        <v>3257.755210687226</v>
       </c>
       <c r="C4">
         <v>2998.522452537542</v>
       </c>
       <c r="D4">
-        <v>2460.8288008535392</v>
+        <v>2460.828800853539</v>
       </c>
       <c r="E4">
-        <v>2804.8228738539642</v>
+        <v>2804.822873853964</v>
       </c>
       <c r="F4">
-        <v>3541.7494978482609</v>
+        <v>3541.749497848261</v>
       </c>
       <c r="G4">
-        <v>3303.7805939530322</v>
+        <v>3303.780593953032</v>
       </c>
       <c r="H4">
         <v>3552.470669265846</v>
       </c>
       <c r="I4">
-        <v>3119.8655250639999</v>
+        <v>3119.865525064</v>
       </c>
       <c r="J4">
-        <v>3390.6339271389988</v>
+        <v>3390.633927138999</v>
       </c>
       <c r="K4">
-        <v>4009.8960819674062</v>
+        <v>4009.896081967406</v>
       </c>
       <c r="L4">
-        <v>3812.4762573769522</v>
+        <v>3812.476257376952</v>
       </c>
       <c r="M4">
-        <v>4417.8143322755859</v>
+        <v>4417.814332275586</v>
       </c>
       <c r="N4">
-        <v>23163.959886587669</v>
+        <v>23163.95988658767</v>
       </c>
       <c r="O4">
-        <v>23354.155958642321</v>
+        <v>23354.15595864232</v>
       </c>
       <c r="P4">
-        <v>23496.046728990099</v>
+        <v>23496.0467289901</v>
       </c>
       <c r="Q4">
-        <v>73776.520854851129</v>
+        <v>73776.52085485113</v>
       </c>
       <c r="R4">
-        <v>73968.826270026242</v>
+        <v>73968.82627002624</v>
       </c>
       <c r="S4">
-        <v>74203.762928182216</v>
+        <v>74203.76292818222</v>
       </c>
       <c r="T4">
         <v>74473.82221465878</v>
       </c>
       <c r="U4">
-        <v>74771.879814698084</v>
+        <v>74771.87981469808</v>
       </c>
       <c r="V4">
-        <v>78190.924472293365</v>
+        <v>78190.92447229337</v>
       </c>
       <c r="W4">
-        <v>78571.864781461976</v>
+        <v>78571.86478146198</v>
       </c>
       <c r="X4">
-        <v>78952.796567258178</v>
+        <v>78952.79656725818</v>
       </c>
       <c r="Y4">
-        <v>79385.900062910761</v>
+        <v>79385.90006291076</v>
       </c>
       <c r="Z4">
-        <v>79892.782856560952</v>
+        <v>79892.78285656095</v>
       </c>
       <c r="AA4">
         <v>24320.0448650207</v>
@@ -1333,7 +1304,7 @@
         <v>25900.26111539255</v>
       </c>
       <c r="AD4">
-        <v>26800.968046097321</v>
+        <v>26800.96804609732</v>
       </c>
       <c r="AE4">
         <v>27949.47245446526</v>
@@ -1348,88 +1319,88 @@
         <v>15429.76012955162</v>
       </c>
       <c r="AI4">
-        <v>18386.652708754609</v>
+        <v>18386.65270875461</v>
       </c>
       <c r="AJ4">
-        <v>22129.398297511791</v>
+        <v>22129.39829751179</v>
       </c>
       <c r="AK4">
-        <v>35804.892830571029</v>
+        <v>35804.89283057103</v>
       </c>
       <c r="AL4">
-        <v>41395.504164761987</v>
+        <v>41395.50416476199</v>
       </c>
       <c r="AM4">
-        <v>47882.491073276309</v>
+        <v>47882.49107327631</v>
       </c>
       <c r="AN4">
-        <v>55150.827626574966</v>
+        <v>55150.82762657497</v>
       </c>
       <c r="AO4">
-        <v>60912.430258612912</v>
+        <v>60912.43025861291</v>
       </c>
       <c r="AP4">
-        <v>76900.742068975378</v>
+        <v>76900.74206897538</v>
       </c>
       <c r="AQ4">
-        <v>80251.848716476161</v>
+        <v>80251.84871647616</v>
       </c>
       <c r="AR4">
-        <v>82716.225575075048</v>
+        <v>82716.22557507505</v>
       </c>
       <c r="AS4">
-        <v>84164.839143132645</v>
+        <v>84164.83914313265</v>
       </c>
       <c r="AT4">
-        <v>84709.932790719453</v>
+        <v>84709.93279071945</v>
       </c>
       <c r="AU4">
-        <v>87596.491867343764</v>
+        <v>87596.49186734376</v>
       </c>
       <c r="AV4">
-        <v>85289.581602896011</v>
+        <v>85289.58160289601</v>
       </c>
       <c r="AW4">
-        <v>80738.466796457709</v>
+        <v>80738.46679645771</v>
       </c>
       <c r="AX4">
-        <v>74627.121257056337</v>
+        <v>74627.12125705634</v>
       </c>
       <c r="AY4">
-        <v>69880.706532475539</v>
+        <v>69880.70653247554</v>
       </c>
       <c r="AZ4">
-        <v>64407.656589369733</v>
+        <v>64407.65658936973</v>
       </c>
       <c r="BA4">
-        <v>61186.228836484501</v>
+        <v>61186.2288364845</v>
       </c>
       <c r="BB4">
-        <v>58037.274070581167</v>
+        <v>58037.27407058117</v>
       </c>
       <c r="BC4">
-        <v>55431.402462412989</v>
+        <v>55431.40246241299</v>
       </c>
       <c r="BD4">
-        <v>53948.651215478967</v>
+        <v>53948.65121547897</v>
       </c>
       <c r="BE4">
-        <v>52576.311063938047</v>
+        <v>52576.31106393805</v>
       </c>
       <c r="BF4">
-        <v>53619.031692447672</v>
+        <v>53619.03169244767</v>
       </c>
       <c r="BG4">
-        <v>56258.905455182088</v>
+        <v>56258.90545518209</v>
       </c>
       <c r="BH4">
-        <v>60322.776649711202</v>
+        <v>60322.7766497112</v>
       </c>
       <c r="BI4">
-        <v>65187.966443532088</v>
+        <v>65187.96644353209</v>
       </c>
       <c r="BJ4">
-        <v>70387.496961303128</v>
+        <v>70387.49696130313</v>
       </c>
       <c r="BK4">
         <v>76074.322879959</v>
@@ -1438,76 +1409,76 @@
         <v>81494.65544374926</v>
       </c>
       <c r="BM4">
-        <v>86310.846958431561</v>
+        <v>86310.84695843156</v>
       </c>
       <c r="BN4">
-        <v>90126.770659226226</v>
+        <v>90126.77065922623</v>
       </c>
       <c r="BO4">
-        <v>93073.389532576344</v>
+        <v>93073.38953257634</v>
       </c>
       <c r="BP4">
-        <v>95436.128112591628</v>
+        <v>95436.12811259163</v>
       </c>
       <c r="BQ4">
-        <v>97141.165247598052</v>
+        <v>97141.16524759805</v>
       </c>
       <c r="BR4">
-        <v>97887.816574994678</v>
+        <v>97887.81657499468</v>
       </c>
       <c r="BS4">
-        <v>97267.147556167183</v>
+        <v>97267.14755616718</v>
       </c>
       <c r="BT4">
-        <v>95062.171151120652</v>
+        <v>95062.17115112065</v>
       </c>
       <c r="BU4">
-        <v>92645.676677622207</v>
+        <v>92645.67667762221</v>
       </c>
       <c r="BV4">
-        <v>90679.121879970524</v>
+        <v>90679.12187997052</v>
       </c>
       <c r="BW4">
-        <v>89300.913163528137</v>
+        <v>89300.91316352814</v>
       </c>
       <c r="BX4">
-        <v>87935.530687596707</v>
+        <v>87935.53068759671</v>
       </c>
       <c r="BY4">
-        <v>85995.302261241013</v>
+        <v>85995.30226124101</v>
       </c>
       <c r="BZ4">
-        <v>84724.188969057141</v>
+        <v>84724.18896905714</v>
       </c>
       <c r="CA4">
-        <v>83862.738080472394</v>
+        <v>83862.73808047239</v>
       </c>
       <c r="CB4">
-        <v>83611.766440697334</v>
+        <v>83611.76644069733</v>
       </c>
       <c r="CC4">
         <v>84112.7406168421</v>
       </c>
       <c r="CD4">
-        <v>84786.267714748959</v>
+        <v>84786.26771474896</v>
       </c>
       <c r="CE4">
-        <v>87414.046138134087</v>
+        <v>87414.04613813409</v>
       </c>
       <c r="CF4">
-        <v>90590.395207886089</v>
+        <v>90590.39520788609</v>
       </c>
       <c r="CG4">
-        <v>94074.779330639823</v>
+        <v>94074.77933063982</v>
       </c>
       <c r="CH4">
-        <v>97674.184697209581</v>
+        <v>97674.18469720958</v>
       </c>
       <c r="CI4">
-        <v>99558.218464642865</v>
+        <v>99558.21846464287</v>
       </c>
       <c r="CJ4">
-        <v>102555.41718169471</v>
+        <v>102555.4171816947</v>
       </c>
       <c r="CK4">
         <v>105017.9910956138</v>
@@ -1519,18 +1490,18 @@
         <v>108595.9153657384</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.0179249503308</v>
+        <v>3598.017924950331</v>
       </c>
       <c r="C5">
         <v>2632.632725924836</v>
       </c>
       <c r="D5">
-        <v>2455.2334676687528</v>
+        <v>2455.233467668753</v>
       </c>
       <c r="E5">
         <v>2355.548952254203</v>
@@ -1539,49 +1510,49 @@
         <v>2721.280146061933</v>
       </c>
       <c r="G5">
-        <v>3512.3298176600151</v>
+        <v>3512.329817660015</v>
       </c>
       <c r="H5">
         <v>3848.574923073038</v>
       </c>
       <c r="I5">
-        <v>3151.5928126534982</v>
+        <v>3151.592812653498</v>
       </c>
       <c r="J5">
-        <v>2983.5002720241469</v>
+        <v>2983.500272024147</v>
       </c>
       <c r="K5">
-        <v>3317.0541646459251</v>
+        <v>3317.054164645925</v>
       </c>
       <c r="L5">
-        <v>3361.7293076364058</v>
+        <v>3361.729307636406</v>
       </c>
       <c r="M5">
         <v>4986.134156023013</v>
       </c>
       <c r="N5">
-        <v>36474.087064433617</v>
+        <v>36474.08706443362</v>
       </c>
       <c r="O5">
-        <v>36531.092456108723</v>
+        <v>36531.09245610872</v>
       </c>
       <c r="P5">
-        <v>36603.657689232467</v>
+        <v>36603.65768923247</v>
       </c>
       <c r="Q5">
-        <v>121572.59824256451</v>
+        <v>121572.5982425645</v>
       </c>
       <c r="R5">
         <v>121684.4098607357</v>
       </c>
       <c r="S5">
-        <v>121820.46158536999</v>
+        <v>121820.46158537</v>
       </c>
       <c r="T5">
         <v>121985.0048701062</v>
       </c>
       <c r="U5">
-        <v>122184.18583063519</v>
+        <v>122184.1858306352</v>
       </c>
       <c r="V5">
         <v>128288.4003884353</v>
@@ -1596,46 +1567,46 @@
         <v>129448.9164096272</v>
       </c>
       <c r="Z5">
-        <v>130073.89211091401</v>
+        <v>130073.892110914</v>
       </c>
       <c r="AA5">
-        <v>37069.977187997261</v>
+        <v>37069.97718799726</v>
       </c>
       <c r="AB5">
-        <v>38144.086028369376</v>
+        <v>38144.08602836938</v>
       </c>
       <c r="AC5">
-        <v>39553.730496943441</v>
+        <v>39553.73049694344</v>
       </c>
       <c r="AD5">
-        <v>41391.966593353151</v>
+        <v>41391.96659335315</v>
       </c>
       <c r="AE5">
-        <v>43762.646861700538</v>
+        <v>43762.64686170054</v>
       </c>
       <c r="AF5">
-        <v>15366.014646693749</v>
+        <v>15366.01464669375</v>
       </c>
       <c r="AG5">
         <v>18703.48135738929</v>
       </c>
       <c r="AH5">
-        <v>22785.324275099541</v>
+        <v>22785.32427509954</v>
       </c>
       <c r="AI5">
-        <v>28215.529290712329</v>
+        <v>28215.52929071233</v>
       </c>
       <c r="AJ5">
-        <v>34579.730586431397</v>
+        <v>34579.7305864314</v>
       </c>
       <c r="AK5">
-        <v>54471.529263491793</v>
+        <v>54471.52926349179</v>
       </c>
       <c r="AL5">
-        <v>62355.809349990559</v>
+        <v>62355.80934999056</v>
       </c>
       <c r="AM5">
-        <v>70700.840510776965</v>
+        <v>70700.84051077696</v>
       </c>
       <c r="AN5">
         <v>79190.40139062042</v>
@@ -1644,7 +1615,7 @@
         <v>87434.68726887033</v>
       </c>
       <c r="AP5">
-        <v>113090.62053982769</v>
+        <v>113090.6205398277</v>
       </c>
       <c r="AQ5">
         <v>119533.3687143907</v>
@@ -1656,19 +1627,19 @@
         <v>127558.4692978854</v>
       </c>
       <c r="AT5">
-        <v>128661.26642100071</v>
+        <v>128661.2664210007</v>
       </c>
       <c r="AU5">
-        <v>132939.24331470061</v>
+        <v>132939.2433147006</v>
       </c>
       <c r="AV5">
-        <v>130147.33369296161</v>
+        <v>130147.3336929616</v>
       </c>
       <c r="AW5">
         <v>125758.5316096937</v>
       </c>
       <c r="AX5">
-        <v>120166.23228336951</v>
+        <v>120166.2322833695</v>
       </c>
       <c r="AY5">
         <v>113840.2012939808</v>
@@ -1677,28 +1648,28 @@
         <v>104193.4544320253</v>
       </c>
       <c r="BA5">
-        <v>97931.919552214662</v>
+        <v>97931.91955221466</v>
       </c>
       <c r="BB5">
-        <v>92442.260027751647</v>
+        <v>92442.26002775165</v>
       </c>
       <c r="BC5">
-        <v>88141.249373170183</v>
+        <v>88141.24937317018</v>
       </c>
       <c r="BD5">
-        <v>85345.395721727517</v>
+        <v>85345.39572172752</v>
       </c>
       <c r="BE5">
         <v>82511.22146921177</v>
       </c>
       <c r="BF5">
-        <v>83159.212851407152</v>
+        <v>83159.21285140715</v>
       </c>
       <c r="BG5">
-        <v>85479.480410936361</v>
+        <v>85479.48041093636</v>
       </c>
       <c r="BH5">
-        <v>89289.812114376313</v>
+        <v>89289.81211437631</v>
       </c>
       <c r="BI5">
         <v>94332.13902900125</v>
@@ -1707,58 +1678,58 @@
         <v>100005.1740041008</v>
       </c>
       <c r="BK5">
-        <v>106569.29669489669</v>
+        <v>106569.2966948967</v>
       </c>
       <c r="BL5">
         <v>113388.3128183037</v>
       </c>
       <c r="BM5">
-        <v>120127.40899936151</v>
+        <v>120127.4089993615</v>
       </c>
       <c r="BN5">
-        <v>126473.24618543241</v>
+        <v>126473.2461854324</v>
       </c>
       <c r="BO5">
         <v>132168.0875221476</v>
       </c>
       <c r="BP5">
-        <v>136954.31053081469</v>
+        <v>136954.3105308147</v>
       </c>
       <c r="BQ5">
-        <v>140690.19958154409</v>
+        <v>140690.1995815441</v>
       </c>
       <c r="BR5">
-        <v>143286.08266056699</v>
+        <v>143286.082660567</v>
       </c>
       <c r="BS5">
-        <v>144724.23627087171</v>
+        <v>144724.2362708717</v>
       </c>
       <c r="BT5">
         <v>144548.6381065998</v>
       </c>
       <c r="BU5">
-        <v>143898.12347678229</v>
+        <v>143898.1234767823</v>
       </c>
       <c r="BV5">
-        <v>142440.74690631509</v>
+        <v>142440.7469063151</v>
       </c>
       <c r="BW5">
         <v>140398.0753664104</v>
       </c>
       <c r="BX5">
-        <v>138018.84365841901</v>
+        <v>138018.843658419</v>
       </c>
       <c r="BY5">
-        <v>134708.96492942539</v>
+        <v>134708.9649294254</v>
       </c>
       <c r="BZ5">
-        <v>132421.28168787301</v>
+        <v>132421.281687873</v>
       </c>
       <c r="CA5">
         <v>130528.2623933602</v>
       </c>
       <c r="CB5">
-        <v>129216.15055078969</v>
+        <v>129216.1505507897</v>
       </c>
       <c r="CC5">
         <v>128622.4867480322</v>
@@ -1773,25 +1744,25 @@
         <v>130246.521486962</v>
       </c>
       <c r="CG5">
-        <v>132780.30147450391</v>
+        <v>132780.3014745039</v>
       </c>
       <c r="CH5">
-        <v>135901.85496075099</v>
+        <v>135901.854960751</v>
       </c>
       <c r="CI5">
-        <v>137210.26670731069</v>
+        <v>137210.2667073107</v>
       </c>
       <c r="CJ5">
-        <v>141033.28637076091</v>
+        <v>141033.2863707609</v>
       </c>
       <c r="CK5">
-        <v>144946.26280912571</v>
+        <v>144946.2628091257</v>
       </c>
       <c r="CL5">
         <v>148778.8118130636</v>
       </c>
       <c r="CM5">
-        <v>152376.06336171931</v>
+        <v>152376.0633617193</v>
       </c>
     </row>
   </sheetData>
@@ -1800,16 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2:CM5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -2081,27 +2050,27 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842573287</v>
+        <v>46.87313184257329</v>
       </c>
       <c r="C2">
-        <v>66.331986781816042</v>
+        <v>66.33198678181604</v>
       </c>
       <c r="D2">
-        <v>64.108938461068206</v>
+        <v>64.10893846106821</v>
       </c>
       <c r="E2">
-        <v>60.872877761227059</v>
+        <v>60.87287776122706</v>
       </c>
       <c r="F2">
-        <v>97.984779638194397</v>
+        <v>97.9847796381944</v>
       </c>
       <c r="G2">
-        <v>70.695165485094805</v>
+        <v>70.6951654850948</v>
       </c>
       <c r="H2">
         <v>125.7741914386047</v>
@@ -2113,40 +2082,40 @@
         <v>112.1300498868369</v>
       </c>
       <c r="K2">
-        <v>101.20343541440241</v>
+        <v>101.2034354144024</v>
       </c>
       <c r="L2">
-        <v>209.81787774346861</v>
+        <v>209.8178777434686</v>
       </c>
       <c r="M2">
         <v>142.8016504878984</v>
       </c>
       <c r="N2">
-        <v>279.40540098502822</v>
+        <v>279.4054009850282</v>
       </c>
       <c r="O2">
-        <v>301.58448654783871</v>
+        <v>301.5844865478387</v>
       </c>
       <c r="P2">
-        <v>324.05761534456809</v>
+        <v>324.0576153445681</v>
       </c>
       <c r="Q2">
-        <v>709.43198347925181</v>
+        <v>709.4319834792518</v>
       </c>
       <c r="R2">
-        <v>759.62713104994543</v>
+        <v>759.6271310499454</v>
       </c>
       <c r="S2">
-        <v>810.36171688615048</v>
+        <v>810.3617168861505</v>
       </c>
       <c r="T2">
-        <v>862.03096586989659</v>
+        <v>862.0309658698966</v>
       </c>
       <c r="U2">
-        <v>914.44078063990708</v>
+        <v>914.4407806399071</v>
       </c>
       <c r="V2">
-        <v>918.77858675040284</v>
+        <v>918.7785867504028</v>
       </c>
       <c r="W2">
         <v>969.1061017268886</v>
@@ -2155,85 +2124,85 @@
         <v>1019.832019334277</v>
       </c>
       <c r="Y2">
-        <v>1071.5851556957321</v>
+        <v>1071.585155695732</v>
       </c>
       <c r="Z2">
-        <v>1124.7580856448351</v>
+        <v>1124.758085644835</v>
       </c>
       <c r="AA2">
-        <v>524.55572022218894</v>
+        <v>524.5557202221889</v>
       </c>
       <c r="AB2">
-        <v>538.93634381057427</v>
+        <v>538.9363438105743</v>
       </c>
       <c r="AC2">
-        <v>557.32782449763818</v>
+        <v>557.3278244976382</v>
       </c>
       <c r="AD2">
-        <v>575.14465676926454</v>
+        <v>575.1446567692645</v>
       </c>
       <c r="AE2">
-        <v>595.94647503750457</v>
+        <v>595.9464750375046</v>
       </c>
       <c r="AF2">
-        <v>380.45124338297938</v>
+        <v>380.4512433829794</v>
       </c>
       <c r="AG2">
-        <v>383.78977355697828</v>
+        <v>383.7897735569783</v>
       </c>
       <c r="AH2">
-        <v>401.79051149698188</v>
+        <v>401.7905114969819</v>
       </c>
       <c r="AI2">
-        <v>434.09781970427832</v>
+        <v>434.0978197042783</v>
       </c>
       <c r="AJ2">
-        <v>465.54368751038157</v>
+        <v>465.5436875103816</v>
       </c>
       <c r="AK2">
-        <v>617.26772905417317</v>
+        <v>617.2677290541732</v>
       </c>
       <c r="AL2">
-        <v>693.55165507785125</v>
+        <v>693.5516550778513</v>
       </c>
       <c r="AM2">
         <v>799.1312286173835</v>
       </c>
       <c r="AN2">
-        <v>935.13232006833016</v>
+        <v>935.1323200683302</v>
       </c>
       <c r="AO2">
-        <v>1032.2723178534079</v>
+        <v>1032.272317853408</v>
       </c>
       <c r="AP2">
-        <v>1274.2260508148049</v>
+        <v>1274.226050814805</v>
       </c>
       <c r="AQ2">
         <v>1327.641002873137</v>
       </c>
       <c r="AR2">
-        <v>1372.2109698419331</v>
+        <v>1372.210969841933</v>
       </c>
       <c r="AS2">
         <v>1408.315907725492</v>
       </c>
       <c r="AT2">
-        <v>1444.7212781800849</v>
+        <v>1444.721278180085</v>
       </c>
       <c r="AU2">
-        <v>1512.7403667122351</v>
+        <v>1512.740366712235</v>
       </c>
       <c r="AV2">
         <v>1496.73726537676</v>
       </c>
       <c r="AW2">
-        <v>1400.8588555260169</v>
+        <v>1400.858855526017</v>
       </c>
       <c r="AX2">
-        <v>1246.3409587980029</v>
+        <v>1246.340958798003</v>
       </c>
       <c r="AY2">
-        <v>1169.4738453130319</v>
+        <v>1169.473845313032</v>
       </c>
       <c r="AZ2">
         <v>1118.433915315788</v>
@@ -2242,7 +2211,7 @@
         <v>1110.246819114906</v>
       </c>
       <c r="BB2">
-        <v>1075.2922640959389</v>
+        <v>1075.292264095939</v>
       </c>
       <c r="BC2">
         <v>1022.599658485219</v>
@@ -2251,16 +2220,16 @@
         <v>1005.050739289587</v>
       </c>
       <c r="BE2">
-        <v>992.57941372637845</v>
+        <v>992.5794137263784</v>
       </c>
       <c r="BF2">
-        <v>1036.8089115146629</v>
+        <v>1036.808911514663</v>
       </c>
       <c r="BG2">
-        <v>1104.7821675606131</v>
+        <v>1104.782167560613</v>
       </c>
       <c r="BH2">
-        <v>1197.8976045718109</v>
+        <v>1197.897604571811</v>
       </c>
       <c r="BI2">
         <v>1299.219126478803</v>
@@ -2272,13 +2241,13 @@
         <v>1505.5749008613</v>
       </c>
       <c r="BL2">
-        <v>1627.3414343569209</v>
+        <v>1627.341434356921</v>
       </c>
       <c r="BM2">
-        <v>1740.7740436891679</v>
+        <v>1740.774043689168</v>
       </c>
       <c r="BN2">
-        <v>1816.4481524393129</v>
+        <v>1816.448152439313</v>
       </c>
       <c r="BO2">
         <v>1850.074506663381</v>
@@ -2287,7 +2256,7 @@
         <v>1886.309280525204</v>
       </c>
       <c r="BQ2">
-        <v>1914.6859424566139</v>
+        <v>1914.685942456614</v>
       </c>
       <c r="BR2">
         <v>1922.076937698969</v>
@@ -2296,55 +2265,55 @@
         <v>1886.288123118851</v>
       </c>
       <c r="BT2">
-        <v>1795.5506265709239</v>
+        <v>1795.550626570924</v>
       </c>
       <c r="BU2">
         <v>1707.898534676164</v>
       </c>
       <c r="BV2">
-        <v>1645.3952325518651</v>
+        <v>1645.395232551865</v>
       </c>
       <c r="BW2">
-        <v>1610.7819160933841</v>
+        <v>1610.781916093384</v>
       </c>
       <c r="BX2">
-        <v>1587.2822432379769</v>
+        <v>1587.282243237977</v>
       </c>
       <c r="BY2">
-        <v>1550.1971733058119</v>
+        <v>1550.197173305812</v>
       </c>
       <c r="BZ2">
         <v>1526.456039156785</v>
       </c>
       <c r="CA2">
-        <v>1519.5187092774161</v>
+        <v>1519.518709277416</v>
       </c>
       <c r="CB2">
-        <v>1536.6939430228911</v>
+        <v>1536.693943022891</v>
       </c>
       <c r="CC2">
         <v>1580.614357222742</v>
       </c>
       <c r="CD2">
-        <v>1632.0731687482639</v>
+        <v>1632.073168748264</v>
       </c>
       <c r="CE2">
-        <v>1711.7379976480941</v>
+        <v>1711.737997648094</v>
       </c>
       <c r="CF2">
         <v>1798.097872859541</v>
       </c>
       <c r="CG2">
-        <v>1888.1472064895599</v>
+        <v>1888.14720648956</v>
       </c>
       <c r="CH2">
-        <v>1982.9521165410999</v>
+        <v>1982.9521165411</v>
       </c>
       <c r="CI2">
-        <v>2052.2649037343499</v>
+        <v>2052.26490373435</v>
       </c>
       <c r="CJ2">
-        <v>2128.5724931780028</v>
+        <v>2128.572493178003</v>
       </c>
       <c r="CK2">
         <v>2181.512739278744</v>
@@ -2356,7 +2325,7 @@
         <v>2232.631077335127</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2367,37 +2336,37 @@
         <v>23.38798957595705</v>
       </c>
       <c r="D3">
-        <v>22.579391669388968</v>
+        <v>22.57939166938897</v>
       </c>
       <c r="E3">
         <v>21.42598026129285</v>
       </c>
       <c r="F3">
-        <v>34.623369471530772</v>
+        <v>34.62336947153077</v>
       </c>
       <c r="G3">
-        <v>24.894274402423669</v>
+        <v>24.89427440242367</v>
       </c>
       <c r="H3">
-        <v>44.501927053278401</v>
+        <v>44.5019270532784</v>
       </c>
       <c r="I3">
-        <v>42.259438490602939</v>
+        <v>42.25943849060294</v>
       </c>
       <c r="J3">
-        <v>39.610190456359767</v>
+        <v>39.61019045635977</v>
       </c>
       <c r="K3">
-        <v>35.704476774041552</v>
+        <v>35.70447677404155</v>
       </c>
       <c r="L3">
-        <v>74.404180750148626</v>
+        <v>74.40418075014863</v>
       </c>
       <c r="M3">
-        <v>50.511250719232727</v>
+        <v>50.51125071923273</v>
       </c>
       <c r="N3">
-        <v>99.172478982863581</v>
+        <v>99.17247898286358</v>
       </c>
       <c r="O3">
         <v>107.0602332830768</v>
@@ -2406,232 +2375,232 @@
         <v>115.0428343441109</v>
       </c>
       <c r="Q3">
-        <v>252.31635849539629</v>
+        <v>252.3163584953963</v>
       </c>
       <c r="R3">
-        <v>270.18529147746699</v>
+        <v>270.185291477467</v>
       </c>
       <c r="S3">
         <v>288.2402587726109</v>
       </c>
       <c r="T3">
-        <v>306.61032358592172</v>
+        <v>306.6103235859217</v>
       </c>
       <c r="U3">
-        <v>325.23125739047123</v>
+        <v>325.2312573904712</v>
       </c>
       <c r="V3">
-        <v>326.69334956798139</v>
+        <v>326.6933495679814</v>
       </c>
       <c r="W3">
-        <v>344.51936815466462</v>
+        <v>344.5193681546646</v>
       </c>
       <c r="X3">
-        <v>362.48121636743758</v>
+        <v>362.4812163674376</v>
       </c>
       <c r="Y3">
-        <v>380.78947514899829</v>
+        <v>380.7894751489983</v>
       </c>
       <c r="Z3">
-        <v>399.57633064764701</v>
+        <v>399.576330647647</v>
       </c>
       <c r="AA3">
-        <v>185.58930642552869</v>
+        <v>185.5893064255287</v>
       </c>
       <c r="AB3">
         <v>190.5663076971135</v>
       </c>
       <c r="AC3">
-        <v>196.89258765091009</v>
+        <v>196.8925876509101</v>
       </c>
       <c r="AD3">
-        <v>203.03620874157099</v>
+        <v>203.036208741571</v>
       </c>
       <c r="AE3">
         <v>210.1909482891509</v>
       </c>
       <c r="AF3">
-        <v>133.24923923454159</v>
+        <v>133.2492392345416</v>
       </c>
       <c r="AG3">
-        <v>134.32094429662229</v>
+        <v>134.3209442966223</v>
       </c>
       <c r="AH3">
-        <v>140.32062464596231</v>
+        <v>140.3206246459623</v>
       </c>
       <c r="AI3">
-        <v>151.14491507436711</v>
+        <v>151.1449150743671</v>
       </c>
       <c r="AJ3">
         <v>161.7043326559685</v>
       </c>
       <c r="AK3">
-        <v>214.75422321202441</v>
+        <v>214.7542232120244</v>
       </c>
       <c r="AL3">
-        <v>240.49538492860111</v>
+        <v>240.4953849286011</v>
       </c>
       <c r="AM3">
-        <v>276.10097890075571</v>
+        <v>276.1009789007557</v>
       </c>
       <c r="AN3">
-        <v>321.95984490295621</v>
+        <v>321.9598449029562</v>
       </c>
       <c r="AO3">
-        <v>354.80531121960109</v>
+        <v>354.8053112196011</v>
       </c>
       <c r="AP3">
         <v>440.1002710433574</v>
       </c>
       <c r="AQ3">
-        <v>458.27476119408271</v>
+        <v>458.2747611940827</v>
       </c>
       <c r="AR3">
-        <v>473.35133376978621</v>
+        <v>473.3513337697862</v>
       </c>
       <c r="AS3">
-        <v>485.44351338169668</v>
+        <v>485.4435133816967</v>
       </c>
       <c r="AT3">
         <v>497.4830885764772</v>
       </c>
       <c r="AU3">
-        <v>520.85122131265473</v>
+        <v>520.8512213126547</v>
       </c>
       <c r="AV3">
-        <v>515.08434654138307</v>
+        <v>515.0843465413831</v>
       </c>
       <c r="AW3">
-        <v>482.60810175041428</v>
+        <v>482.6081017504143</v>
       </c>
       <c r="AX3">
-        <v>430.71587884082493</v>
+        <v>430.7158788408249</v>
       </c>
       <c r="AY3">
         <v>404.7744806096976</v>
       </c>
       <c r="AZ3">
-        <v>386.11327270297448</v>
+        <v>386.1132727029745</v>
       </c>
       <c r="BA3">
-        <v>382.87914661080629</v>
+        <v>382.8791466108063</v>
       </c>
       <c r="BB3">
-        <v>370.87935266616631</v>
+        <v>370.8793526661663</v>
       </c>
       <c r="BC3">
-        <v>353.19767569778651</v>
+        <v>353.1976756977865</v>
       </c>
       <c r="BD3">
-        <v>347.08305612355491</v>
+        <v>347.0830561235549</v>
       </c>
       <c r="BE3">
-        <v>341.41524530671722</v>
+        <v>341.4152453067172</v>
       </c>
       <c r="BF3">
-        <v>355.15565708442762</v>
+        <v>355.1556570844276</v>
       </c>
       <c r="BG3">
-        <v>376.30973265216858</v>
+        <v>376.3097326521686</v>
       </c>
       <c r="BH3">
-        <v>405.15400992364181</v>
+        <v>405.1540099236418</v>
       </c>
       <c r="BI3">
-        <v>436.17996835769452</v>
+        <v>436.1799683576945</v>
       </c>
       <c r="BJ3">
-        <v>461.45751011180329</v>
+        <v>461.4575101118033</v>
       </c>
       <c r="BK3">
-        <v>496.91492091550373</v>
+        <v>496.9149209155037</v>
       </c>
       <c r="BL3">
-        <v>532.57514397849366</v>
+        <v>532.5751439784937</v>
       </c>
       <c r="BM3">
-        <v>564.98996560065234</v>
+        <v>564.9899656006523</v>
       </c>
       <c r="BN3">
-        <v>585.33773541647781</v>
+        <v>585.3377354164778</v>
       </c>
       <c r="BO3">
-        <v>592.00008826836586</v>
+        <v>592.0000882683659</v>
       </c>
       <c r="BP3">
-        <v>599.68398412075555</v>
+        <v>599.6839841207556</v>
       </c>
       <c r="BQ3">
-        <v>604.70947419510799</v>
+        <v>604.709474195108</v>
       </c>
       <c r="BR3">
-        <v>603.35641796884943</v>
+        <v>603.3564179688494</v>
       </c>
       <c r="BS3">
-        <v>589.52179573951366</v>
+        <v>589.5217957395137</v>
       </c>
       <c r="BT3">
-        <v>559.38594374218849</v>
+        <v>559.3859437421885</v>
       </c>
       <c r="BU3">
-        <v>531.53056091317956</v>
+        <v>531.5305609131796</v>
       </c>
       <c r="BV3">
-        <v>511.06384564024358</v>
+        <v>511.0638456402436</v>
       </c>
       <c r="BW3">
-        <v>498.46302159587702</v>
+        <v>498.463021595877</v>
       </c>
       <c r="BX3">
-        <v>488.97785185086002</v>
+        <v>488.97785185086</v>
       </c>
       <c r="BY3">
-        <v>474.93629974343372</v>
+        <v>474.9362997434337</v>
       </c>
       <c r="BZ3">
-        <v>465.62695233606308</v>
+        <v>465.6269523360631</v>
       </c>
       <c r="CA3">
         <v>460.7157784120111</v>
       </c>
       <c r="CB3">
-        <v>461.80459843062329</v>
+        <v>461.8045984306233</v>
       </c>
       <c r="CC3">
-        <v>469.20929000198271</v>
+        <v>469.2092900019827</v>
       </c>
       <c r="CD3">
-        <v>476.23482648905212</v>
+        <v>476.2348264890521</v>
       </c>
       <c r="CE3">
-        <v>490.97894733092022</v>
+        <v>490.9789473309202</v>
       </c>
       <c r="CF3">
-        <v>506.44694134623012</v>
+        <v>506.4469413462301</v>
       </c>
       <c r="CG3">
-        <v>521.83535600392918</v>
+        <v>521.8353560039292</v>
       </c>
       <c r="CH3">
-        <v>537.27471660984691</v>
+        <v>537.2747166098469</v>
       </c>
       <c r="CI3">
-        <v>542.93798875308948</v>
+        <v>542.9379887530895</v>
       </c>
       <c r="CJ3">
         <v>552.3374457607049</v>
       </c>
       <c r="CK3">
-        <v>556.10820727112139</v>
+        <v>556.1082072711214</v>
       </c>
       <c r="CL3">
         <v>555.0841528623148</v>
       </c>
       <c r="CM3">
-        <v>551.11778560978939</v>
+        <v>551.1177856097894</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2639,274 +2608,274 @@
         <v>3257.63914199891</v>
       </c>
       <c r="C4">
-        <v>2998.3108836165179</v>
+        <v>2998.310883616518</v>
       </c>
       <c r="D4">
-        <v>2460.4555257930569</v>
+        <v>2460.455525793057</v>
       </c>
       <c r="E4">
-        <v>2804.1794611739961</v>
+        <v>2804.179461173996</v>
       </c>
       <c r="F4">
-        <v>3540.6613182777128</v>
+        <v>3540.661318277713</v>
       </c>
       <c r="G4">
-        <v>3301.9724747418809</v>
+        <v>3301.972474741881</v>
       </c>
       <c r="H4">
-        <v>3549.5126046408291</v>
+        <v>3549.512604640829</v>
       </c>
       <c r="I4">
-        <v>3115.0674106471379</v>
+        <v>3115.067410647138</v>
       </c>
       <c r="J4">
         <v>3382.797777806557</v>
       </c>
       <c r="K4">
-        <v>3996.6822997601262</v>
+        <v>3996.682299760126</v>
       </c>
       <c r="L4">
-        <v>3788.8478578044242</v>
+        <v>3788.847857804424</v>
       </c>
       <c r="M4">
-        <v>4372.9747163519714</v>
+        <v>4372.974716351971</v>
       </c>
       <c r="N4">
-        <v>23079.317708688839</v>
+        <v>23079.31770868884</v>
       </c>
       <c r="O4">
         <v>23211.97033224261</v>
       </c>
       <c r="P4">
-        <v>23310.271715311421</v>
+        <v>23310.27171531142</v>
       </c>
       <c r="Q4">
-        <v>73558.955932973302</v>
+        <v>73558.9559329733</v>
       </c>
       <c r="R4">
-        <v>73706.272351699008</v>
+        <v>73706.27235169901</v>
       </c>
       <c r="S4">
-        <v>73876.583665378625</v>
+        <v>73876.58366537862</v>
       </c>
       <c r="T4">
-        <v>74063.935465868562</v>
+        <v>74063.93546586856</v>
       </c>
       <c r="U4">
-        <v>74263.235711871865</v>
+        <v>74263.23571187186</v>
       </c>
       <c r="V4">
-        <v>77557.236932927655</v>
+        <v>77557.23693292766</v>
       </c>
       <c r="W4">
-        <v>77787.064855497913</v>
+        <v>77787.06485549791</v>
       </c>
       <c r="X4">
-        <v>78007.766474381671</v>
+        <v>78007.76647438167</v>
       </c>
       <c r="Y4">
-        <v>78246.243774132483</v>
+        <v>78246.24377413248</v>
       </c>
       <c r="Z4">
-        <v>78510.698776141464</v>
+        <v>78510.69877614146</v>
       </c>
       <c r="AA4">
-        <v>22647.150374099561</v>
+        <v>22647.15037409956</v>
       </c>
       <c r="AB4">
-        <v>22950.350176793119</v>
+        <v>22950.35017679312</v>
       </c>
       <c r="AC4">
-        <v>23302.771926434201</v>
+        <v>23302.7719264342</v>
       </c>
       <c r="AD4">
         <v>23638.29506784258</v>
       </c>
       <c r="AE4">
-        <v>24056.047990510189</v>
+        <v>24056.04799051019</v>
       </c>
       <c r="AF4">
-        <v>6601.1964403869724</v>
+        <v>6601.196440386972</v>
       </c>
       <c r="AG4">
-        <v>6980.6242091560216</v>
+        <v>6980.624209156022</v>
       </c>
       <c r="AH4">
-        <v>7607.4967281187237</v>
+        <v>7607.496728118724</v>
       </c>
       <c r="AI4">
-        <v>8533.8173507952979</v>
+        <v>8533.817350795298</v>
       </c>
       <c r="AJ4">
-        <v>9677.1923435385343</v>
+        <v>9677.192343538534</v>
       </c>
       <c r="AK4">
-        <v>20108.698226400062</v>
+        <v>20108.69822640006</v>
       </c>
       <c r="AL4">
-        <v>22066.837278977659</v>
+        <v>22066.83727897766</v>
       </c>
       <c r="AM4">
-        <v>24333.111348123832</v>
+        <v>24333.11134812383</v>
       </c>
       <c r="AN4">
         <v>26865.70904458264</v>
       </c>
       <c r="AO4">
-        <v>28697.162214904711</v>
+        <v>28697.16221490471</v>
       </c>
       <c r="AP4">
-        <v>41710.765317350328</v>
+        <v>41710.76531735033</v>
       </c>
       <c r="AQ4">
-        <v>42515.553000352877</v>
+        <v>42515.55300035288</v>
       </c>
       <c r="AR4">
-        <v>42986.410051601983</v>
+        <v>42986.41005160198</v>
       </c>
       <c r="AS4">
-        <v>43098.870018720438</v>
+        <v>43098.87001872044</v>
       </c>
       <c r="AT4">
-        <v>42922.635747454573</v>
+        <v>42922.63574745457</v>
       </c>
       <c r="AU4">
-        <v>45861.924827453317</v>
+        <v>45861.92482745332</v>
       </c>
       <c r="AV4">
-        <v>44744.396418381963</v>
+        <v>44744.39641838196</v>
       </c>
       <c r="AW4">
-        <v>42859.359254972122</v>
+        <v>42859.35925497212</v>
       </c>
       <c r="AX4">
-        <v>40484.222186435283</v>
+        <v>40484.22218643528</v>
       </c>
       <c r="AY4">
-        <v>38722.416647107282</v>
+        <v>38722.41664710728</v>
       </c>
       <c r="AZ4">
-        <v>35361.015037140482</v>
+        <v>35361.01503714048</v>
       </c>
       <c r="BA4">
-        <v>34252.311348722971</v>
+        <v>34252.31134872297</v>
       </c>
       <c r="BB4">
         <v>33207.81200657312</v>
       </c>
       <c r="BC4">
-        <v>32430.726799883509</v>
+        <v>32430.72679988351</v>
       </c>
       <c r="BD4">
-        <v>31918.067908447691</v>
+        <v>31918.06790844769</v>
       </c>
       <c r="BE4">
-        <v>30499.618584821019</v>
+        <v>30499.61858482102</v>
       </c>
       <c r="BF4">
-        <v>30575.970030917601</v>
+        <v>30575.9700309176</v>
       </c>
       <c r="BG4">
         <v>31209.95747812933</v>
       </c>
       <c r="BH4">
-        <v>32260.644277120529</v>
+        <v>32260.64427712053</v>
       </c>
       <c r="BI4">
-        <v>33491.890157860231</v>
+        <v>33491.89015786023</v>
       </c>
       <c r="BJ4">
-        <v>34621.067121638713</v>
+        <v>34621.06712163871</v>
       </c>
       <c r="BK4">
-        <v>35960.322089242844</v>
+        <v>35960.32208924284</v>
       </c>
       <c r="BL4">
-        <v>37142.370505630301</v>
+        <v>37142.3705056303</v>
       </c>
       <c r="BM4">
-        <v>38080.607220533893</v>
+        <v>38080.60722053389</v>
       </c>
       <c r="BN4">
-        <v>38683.251965742951</v>
+        <v>38683.25196574295</v>
       </c>
       <c r="BO4">
-        <v>39029.884806331247</v>
+        <v>39029.88480633125</v>
       </c>
       <c r="BP4">
-        <v>39213.321579913543</v>
+        <v>39213.32157991354</v>
       </c>
       <c r="BQ4">
-        <v>39234.973971305968</v>
+        <v>39234.97397130597</v>
       </c>
       <c r="BR4">
-        <v>39016.501824712359</v>
+        <v>39016.50182471236</v>
       </c>
       <c r="BS4">
-        <v>38448.323417374362</v>
+        <v>38448.32341737436</v>
       </c>
       <c r="BT4">
-        <v>37263.192754913063</v>
+        <v>37263.19275491306</v>
       </c>
       <c r="BU4">
         <v>36307.58262439703</v>
       </c>
       <c r="BV4">
-        <v>35652.048492209498</v>
+        <v>35652.0484922095</v>
       </c>
       <c r="BW4">
-        <v>35323.674734569737</v>
+        <v>35323.67473456974</v>
       </c>
       <c r="BX4">
-        <v>34935.278229197247</v>
+        <v>34935.27822919725</v>
       </c>
       <c r="BY4">
         <v>33984.47429535204</v>
       </c>
       <c r="BZ4">
-        <v>33587.744301658007</v>
+        <v>33587.74430165801</v>
       </c>
       <c r="CA4">
-        <v>33256.231134506663</v>
+        <v>33256.23113450666</v>
       </c>
       <c r="CB4">
-        <v>33010.850462512601</v>
+        <v>33010.8504625126</v>
       </c>
       <c r="CC4">
-        <v>32823.780488456112</v>
+        <v>32823.78048845611</v>
       </c>
       <c r="CD4">
-        <v>32060.787294732829</v>
+        <v>32060.78729473283</v>
       </c>
       <c r="CE4">
-        <v>32620.034948089371</v>
+        <v>32620.03494808937</v>
       </c>
       <c r="CF4">
-        <v>33293.120581490999</v>
+        <v>33293.120581491</v>
       </c>
       <c r="CG4">
-        <v>34012.355583491837</v>
+        <v>34012.35558349184</v>
       </c>
       <c r="CH4">
-        <v>34725.565460680897</v>
+        <v>34725.5654606809</v>
       </c>
       <c r="CI4">
-        <v>33817.069478657453</v>
+        <v>33817.06947865745</v>
       </c>
       <c r="CJ4">
-        <v>34320.439722241543</v>
+        <v>34320.43972224154</v>
       </c>
       <c r="CK4">
-        <v>34680.374340351453</v>
+        <v>34680.37434035145</v>
       </c>
       <c r="CL4">
-        <v>34926.949214673703</v>
+        <v>34926.9492146737</v>
       </c>
       <c r="CM4">
-        <v>35094.241864180498</v>
+        <v>35094.2418641805</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2917,52 +2886,52 @@
         <v>2632.624663920888</v>
       </c>
       <c r="D5">
-        <v>2455.2193313019989</v>
+        <v>2455.219331301999</v>
       </c>
       <c r="E5">
         <v>2355.52474337274</v>
       </c>
       <c r="F5">
-        <v>2721.2394833350259</v>
+        <v>2721.239483335026</v>
       </c>
       <c r="G5">
-        <v>3512.2628172942741</v>
+        <v>3512.262817294274</v>
       </c>
       <c r="H5">
         <v>3848.466795365483</v>
       </c>
       <c r="I5">
-        <v>3151.4221613213422</v>
+        <v>3151.422161321342</v>
       </c>
       <c r="J5">
-        <v>2983.2370757228659</v>
+        <v>2983.237075722866</v>
       </c>
       <c r="K5">
         <v>3316.65745175355</v>
       </c>
       <c r="L5">
-        <v>3361.1446132692809</v>
+        <v>3361.144613269281</v>
       </c>
       <c r="M5">
-        <v>4985.2909121858911</v>
+        <v>4985.290912185891</v>
       </c>
       <c r="N5">
-        <v>36472.896112839757</v>
+        <v>36472.89611283976</v>
       </c>
       <c r="O5">
-        <v>36525.701800319337</v>
+        <v>36525.70180031934</v>
       </c>
       <c r="P5">
-        <v>36591.299393097062</v>
+        <v>36591.29939309706</v>
       </c>
       <c r="Q5">
         <v>121549.5769781975</v>
       </c>
       <c r="R5">
-        <v>121646.01761098221</v>
+        <v>121646.0176109822</v>
       </c>
       <c r="S5">
-        <v>121760.91952034349</v>
+        <v>121760.9195203435</v>
       </c>
       <c r="T5">
         <v>121897.3930916247</v>
@@ -2983,202 +2952,202 @@
         <v>129021.396009626</v>
       </c>
       <c r="Z5">
-        <v>129495.45694035861</v>
+        <v>129495.4569403586</v>
       </c>
       <c r="AA5">
-        <v>36286.497852625427</v>
+        <v>36286.49785262543</v>
       </c>
       <c r="AB5">
-        <v>37082.100995309687</v>
+        <v>37082.10099530969</v>
       </c>
       <c r="AC5">
-        <v>38115.107950203579</v>
+        <v>38115.10795020358</v>
       </c>
       <c r="AD5">
-        <v>39448.210910180213</v>
+        <v>39448.21091018021</v>
       </c>
       <c r="AE5">
-        <v>41149.418141619622</v>
+        <v>41149.41814161962</v>
       </c>
       <c r="AF5">
-        <v>11878.638804132759</v>
+        <v>11878.63880413276</v>
       </c>
       <c r="AG5">
         <v>14094.44236154564</v>
       </c>
       <c r="AH5">
-        <v>16764.907680846311</v>
+        <v>16764.90768084631</v>
       </c>
       <c r="AI5">
-        <v>20456.887611153499</v>
+        <v>20456.8876111535</v>
       </c>
       <c r="AJ5">
-        <v>24729.565981804149</v>
+        <v>24729.56598180415</v>
       </c>
       <c r="AK5">
-        <v>42167.268759416998</v>
+        <v>42167.268759417</v>
       </c>
       <c r="AL5">
-        <v>47249.516043654388</v>
+        <v>47249.51604365439</v>
       </c>
       <c r="AM5">
-        <v>52489.097419051672</v>
+        <v>52489.09741905167</v>
       </c>
       <c r="AN5">
-        <v>57648.057228920567</v>
+        <v>57648.05722892057</v>
       </c>
       <c r="AO5">
         <v>62448.88364921193</v>
       </c>
       <c r="AP5">
-        <v>84710.879295179955</v>
+        <v>84710.87929517996</v>
       </c>
       <c r="AQ5">
-        <v>88001.790298619846</v>
+        <v>88001.79029861985</v>
       </c>
       <c r="AR5">
-        <v>90196.393436294064</v>
+        <v>90196.39343629406</v>
       </c>
       <c r="AS5">
-        <v>91150.940094182908</v>
+        <v>91150.94009418291</v>
       </c>
       <c r="AT5">
-        <v>90815.105452256801</v>
+        <v>90815.1054522568</v>
       </c>
       <c r="AU5">
         <v>94431.4259386802</v>
       </c>
       <c r="AV5">
-        <v>91760.956796158294</v>
+        <v>91760.95679615829</v>
       </c>
       <c r="AW5">
-        <v>88217.931822902741</v>
+        <v>88217.93182290274</v>
       </c>
       <c r="AX5">
-        <v>84077.398816407775</v>
+        <v>84077.39881640777</v>
       </c>
       <c r="AY5">
-        <v>79641.054829594112</v>
+        <v>79641.05482959411</v>
       </c>
       <c r="AZ5">
         <v>72116.47262890116</v>
       </c>
       <c r="BA5">
-        <v>67980.745211400106</v>
+        <v>67980.74521140011</v>
       </c>
       <c r="BB5">
-        <v>64384.379838536122</v>
+        <v>64384.37983853612</v>
       </c>
       <c r="BC5">
         <v>61519.333655217</v>
       </c>
       <c r="BD5">
-        <v>59508.779219909811</v>
+        <v>59508.77921990981</v>
       </c>
       <c r="BE5">
-        <v>56665.673582136689</v>
+        <v>56665.67358213669</v>
       </c>
       <c r="BF5">
-        <v>56428.834876771747</v>
+        <v>56428.83487677175</v>
       </c>
       <c r="BG5">
-        <v>56971.686654804427</v>
+        <v>56971.68665480443</v>
       </c>
       <c r="BH5">
-        <v>58154.739397665711</v>
+        <v>58154.73939766571</v>
       </c>
       <c r="BI5">
-        <v>59811.302819804507</v>
+        <v>59811.30281980451</v>
       </c>
       <c r="BJ5">
         <v>61468.58407517794</v>
       </c>
       <c r="BK5">
-        <v>63542.956871491609</v>
+        <v>63542.95687149161</v>
       </c>
       <c r="BL5">
-        <v>65573.914744622554</v>
+        <v>65573.91474462255</v>
       </c>
       <c r="BM5">
-        <v>67414.124491936731</v>
+        <v>67414.12449193673</v>
       </c>
       <c r="BN5">
-        <v>68939.958697745504</v>
+        <v>68939.9586977455</v>
       </c>
       <c r="BO5">
-        <v>70074.536486325902</v>
+        <v>70074.5364863259</v>
       </c>
       <c r="BP5">
-        <v>70721.100354391616</v>
+        <v>70721.10035439162</v>
       </c>
       <c r="BQ5">
-        <v>70869.114087286929</v>
+        <v>70869.11408728693</v>
       </c>
       <c r="BR5">
-        <v>70522.753663993295</v>
+        <v>70522.7536639933</v>
       </c>
       <c r="BS5">
-        <v>69715.148847625343</v>
+        <v>69715.14884762534</v>
       </c>
       <c r="BT5">
-        <v>67994.497088714037</v>
+        <v>67994.49708871404</v>
       </c>
       <c r="BU5">
-        <v>66456.192643678267</v>
+        <v>66456.19264367827</v>
       </c>
       <c r="BV5">
-        <v>64679.602790978213</v>
+        <v>64679.60279097821</v>
       </c>
       <c r="BW5">
-        <v>62758.600612320537</v>
+        <v>62758.60061232054</v>
       </c>
       <c r="BX5">
-        <v>60784.782384999977</v>
+        <v>60784.78238499998</v>
       </c>
       <c r="BY5">
-        <v>57989.151383802309</v>
+        <v>57989.15138380231</v>
       </c>
       <c r="BZ5">
-        <v>56144.328491692773</v>
+        <v>56144.32849169277</v>
       </c>
       <c r="CA5">
-        <v>54449.535753326752</v>
+        <v>54449.53575332675</v>
       </c>
       <c r="CB5">
-        <v>52936.269677252167</v>
+        <v>52936.26967725217</v>
       </c>
       <c r="CC5">
         <v>51616.01968845525</v>
       </c>
       <c r="CD5">
-        <v>49044.083607601169</v>
+        <v>49044.08360760117</v>
       </c>
       <c r="CE5">
-        <v>48072.015327410991</v>
+        <v>48072.01532741099</v>
       </c>
       <c r="CF5">
-        <v>47226.464767830337</v>
+        <v>47226.46476783034</v>
       </c>
       <c r="CG5">
-        <v>46463.681908767212</v>
+        <v>46463.68190876721</v>
       </c>
       <c r="CH5">
-        <v>45736.513390357482</v>
+        <v>45736.51339035748</v>
       </c>
       <c r="CI5">
-        <v>42749.862290829748</v>
+        <v>42749.86229082975</v>
       </c>
       <c r="CJ5">
-        <v>41959.501497879042</v>
+        <v>41959.50149787904</v>
       </c>
       <c r="CK5">
-        <v>41081.943808875192</v>
+        <v>41081.94380887519</v>
       </c>
       <c r="CL5">
         <v>40091.72280724442</v>
       </c>
       <c r="CM5">
-        <v>38973.453034128303</v>
+        <v>38973.4530341283</v>
       </c>
     </row>
   </sheetData>
@@ -3187,16 +3156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2:CM5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -3468,7 +3435,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3479,49 +3446,49 @@
         <v>1.341561833097389E-10</v>
       </c>
       <c r="D2">
-        <v>1.0803154225906119E-9</v>
+        <v>1.080315422590612E-09</v>
       </c>
       <c r="E2">
-        <v>7.3302692979698348E-9</v>
+        <v>7.330269297969835E-09</v>
       </c>
       <c r="F2">
-        <v>4.2957351041924837E-8</v>
+        <v>4.295735104192484E-08</v>
       </c>
       <c r="G2">
-        <v>2.2180320951380871E-7</v>
+        <v>2.218032095138087E-07</v>
       </c>
       <c r="H2">
-        <v>1.025607117320097E-6</v>
+        <v>1.025607117320097E-06</v>
       </c>
       <c r="I2">
-        <v>4.3039651572696499E-6</v>
+        <v>4.30396515726965E-06</v>
       </c>
       <c r="J2">
-        <v>1.6569277734575511E-5</v>
+        <v>1.656927773457551E-05</v>
       </c>
       <c r="K2">
-        <v>5.8984109498142307E-5</v>
+        <v>5.898410949814231E-05</v>
       </c>
       <c r="L2">
-        <v>1.9485258483177629E-4</v>
+        <v>0.0001948525848317763</v>
       </c>
       <c r="M2">
-        <v>5.9409495742886436E-4</v>
+        <v>0.0005940949574288644</v>
       </c>
       <c r="N2">
-        <v>1.6306332474009381E-3</v>
+        <v>0.001630633247400938</v>
       </c>
       <c r="O2">
-        <v>1.016102198081586E-2</v>
+        <v>0.01016102198081586</v>
       </c>
       <c r="P2">
-        <v>3.6040717454650567E-2</v>
+        <v>0.03604071745465057</v>
       </c>
       <c r="Q2">
-        <v>6.4570701603988007E-2</v>
+        <v>0.06457070160398801</v>
       </c>
       <c r="R2">
-        <v>7.7190574176562624E-2</v>
+        <v>0.07719057417656262</v>
       </c>
       <c r="S2">
         <v>0.1001246219763533</v>
@@ -3530,25 +3497,25 @@
         <v>0.1531217301626315</v>
       </c>
       <c r="U2">
-        <v>0.23324085683991749</v>
+        <v>0.2332408568399175</v>
       </c>
       <c r="V2">
-        <v>0.36708033732046158</v>
+        <v>0.3670803373204616</v>
       </c>
       <c r="W2">
-        <v>0.55761722947641246</v>
+        <v>0.5576172294764125</v>
       </c>
       <c r="X2">
-        <v>0.77054597792951307</v>
+        <v>0.7705459779295131</v>
       </c>
       <c r="Y2">
-        <v>1.0306073311911821</v>
+        <v>1.030607331191182</v>
       </c>
       <c r="Z2">
         <v>1.354175588981533</v>
       </c>
       <c r="AA2">
-        <v>1.6150266169009291</v>
+        <v>1.615026616900929</v>
       </c>
       <c r="AB2">
         <v>1.925830269242242</v>
@@ -3557,64 +3524,64 @@
         <v>2.4098654065197</v>
       </c>
       <c r="AD2">
-        <v>2.8598236005480282</v>
+        <v>2.859823600548028</v>
       </c>
       <c r="AE2">
         <v>3.433073318496862</v>
       </c>
       <c r="AF2">
-        <v>3.7952111078118711</v>
+        <v>3.795211107811871</v>
       </c>
       <c r="AG2">
-        <v>4.0843297013688957</v>
+        <v>4.084329701368896</v>
       </c>
       <c r="AH2">
-        <v>5.0480486406928016</v>
+        <v>5.048048640692802</v>
       </c>
       <c r="AI2">
-        <v>6.6679141624392946</v>
+        <v>6.667914162439295</v>
       </c>
       <c r="AJ2">
-        <v>8.2499970150969464</v>
+        <v>8.249997015096946</v>
       </c>
       <c r="AK2">
         <v>10.77015761872042</v>
       </c>
       <c r="AL2">
-        <v>14.442829030059089</v>
+        <v>14.44282903005909</v>
       </c>
       <c r="AM2">
         <v>19.7307826664745</v>
       </c>
       <c r="AN2">
-        <v>26.822166814686131</v>
+        <v>26.82216681468613</v>
       </c>
       <c r="AO2">
-        <v>32.209896988077539</v>
+        <v>32.20989698807754</v>
       </c>
       <c r="AP2">
-        <v>35.591210138320257</v>
+        <v>35.59121013832026</v>
       </c>
       <c r="AQ2">
-        <v>38.772292038695909</v>
+        <v>38.77229203869591</v>
       </c>
       <c r="AR2">
         <v>41.72098211383873</v>
       </c>
       <c r="AS2">
-        <v>44.452755879497417</v>
+        <v>44.45275587949742</v>
       </c>
       <c r="AT2">
-        <v>47.483149601669368</v>
+        <v>47.48314960166937</v>
       </c>
       <c r="AU2">
-        <v>50.149856623968923</v>
+        <v>50.14985662396892</v>
       </c>
       <c r="AV2">
-        <v>50.302398703300277</v>
+        <v>50.30239870330028</v>
       </c>
       <c r="AW2">
-        <v>45.238588192263698</v>
+        <v>45.2385881922637</v>
       </c>
       <c r="AX2">
         <v>35.86599169701411</v>
@@ -3623,40 +3590,40 @@
         <v>31.39481152895528</v>
       </c>
       <c r="AZ2">
-        <v>32.294114009042538</v>
+        <v>32.29411400904254</v>
       </c>
       <c r="BA2">
-        <v>32.670769226970343</v>
+        <v>32.67076922697034</v>
       </c>
       <c r="BB2">
-        <v>30.887759037802251</v>
+        <v>30.88775903780225</v>
       </c>
       <c r="BC2">
-        <v>27.417370637874011</v>
+        <v>27.41737063787401</v>
       </c>
       <c r="BD2">
-        <v>26.527002962057232</v>
+        <v>26.52700296205723</v>
       </c>
       <c r="BE2">
-        <v>29.125681556276131</v>
+        <v>29.12568155627613</v>
       </c>
       <c r="BF2">
-        <v>33.605068777893869</v>
+        <v>33.60506877789387</v>
       </c>
       <c r="BG2">
-        <v>40.470932045656987</v>
+        <v>40.47093204565699</v>
       </c>
       <c r="BH2">
-        <v>50.119003037183603</v>
+        <v>50.1190030371836</v>
       </c>
       <c r="BI2">
-        <v>61.140122790319523</v>
+        <v>61.14012279031952</v>
       </c>
       <c r="BJ2">
         <v>73.53526469243323</v>
       </c>
       <c r="BK2">
-        <v>87.930042965242393</v>
+        <v>87.93004296524239</v>
       </c>
       <c r="BL2">
         <v>103.5609271362904</v>
@@ -3665,37 +3632,37 @@
         <v>119.2411418676551</v>
       </c>
       <c r="BN2">
-        <v>131.38916115468979</v>
+        <v>131.3891611546898</v>
       </c>
       <c r="BO2">
-        <v>140.38756884520859</v>
+        <v>140.3875688452086</v>
       </c>
       <c r="BP2">
-        <v>148.92661230746151</v>
+        <v>148.9266123074615</v>
       </c>
       <c r="BQ2">
-        <v>156.93754139008021</v>
+        <v>156.9375413900802</v>
       </c>
       <c r="BR2">
-        <v>162.52128681480741</v>
+        <v>162.5212868148074</v>
       </c>
       <c r="BS2">
-        <v>162.20402064346121</v>
+        <v>162.2040206434612</v>
       </c>
       <c r="BT2">
-        <v>155.51348213353319</v>
+        <v>155.5134821335332</v>
       </c>
       <c r="BU2">
         <v>146.7796848799583</v>
       </c>
       <c r="BV2">
-        <v>141.33438296137771</v>
+        <v>141.3343829613777</v>
       </c>
       <c r="BW2">
         <v>139.9841039203325</v>
       </c>
       <c r="BX2">
-        <v>140.28836540897211</v>
+        <v>140.2883654089721</v>
       </c>
       <c r="BY2">
         <v>140.1087591422102</v>
@@ -3704,10 +3671,10 @@
         <v>140.0239267437037</v>
       </c>
       <c r="CA2">
-        <v>142.84762898713959</v>
+        <v>142.8476289871396</v>
       </c>
       <c r="CB2">
-        <v>150.27224588037231</v>
+        <v>150.2722458803723</v>
       </c>
       <c r="CC2">
         <v>163.2582426815043</v>
@@ -3716,7 +3683,7 @@
         <v>181.3897583462049</v>
       </c>
       <c r="CE2">
-        <v>203.27341138291951</v>
+        <v>203.2734113829195</v>
       </c>
       <c r="CF2">
         <v>227.6792858384085</v>
@@ -3725,25 +3692,25 @@
         <v>254.1099539339485</v>
       </c>
       <c r="CH2">
-        <v>282.95942760567209</v>
+        <v>282.9594276056721</v>
       </c>
       <c r="CI2">
-        <v>312.60213143300098</v>
+        <v>312.602131433001</v>
       </c>
       <c r="CJ2">
-        <v>339.83321342929139</v>
+        <v>339.8332134292914</v>
       </c>
       <c r="CK2">
-        <v>362.32873801834347</v>
+        <v>362.3287380183435</v>
       </c>
       <c r="CL2">
-        <v>380.24897671147119</v>
+        <v>380.2489767114712</v>
       </c>
       <c r="CM2">
         <v>395.3728339228926</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3787,82 +3754,82 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.025746228157005E-2</v>
+        <v>0.01025746228157005</v>
       </c>
       <c r="P3">
-        <v>3.6695741515857527E-2</v>
+        <v>0.03669574151585753</v>
       </c>
       <c r="Q3">
-        <v>6.595576424375095E-2</v>
+        <v>0.06595576424375095</v>
       </c>
       <c r="R3">
-        <v>7.8682563897592511E-2</v>
+        <v>0.07868256389759251</v>
       </c>
       <c r="S3">
-        <v>0.10125162269077879</v>
+        <v>0.1012516226907788</v>
       </c>
       <c r="T3">
-        <v>0.15249853002785899</v>
+        <v>0.152498530027859</v>
       </c>
       <c r="U3">
-        <v>0.22643956606262891</v>
+        <v>0.2264395660626289</v>
       </c>
       <c r="V3">
-        <v>0.34595350003697939</v>
+        <v>0.3459535000369794</v>
       </c>
       <c r="W3">
-        <v>0.51245485287342485</v>
+        <v>0.5124548528734248</v>
       </c>
       <c r="X3">
-        <v>0.69311373983241398</v>
+        <v>0.693113739832414</v>
       </c>
       <c r="Y3">
-        <v>0.91019937155484576</v>
+        <v>0.9101993715548458</v>
       </c>
       <c r="Z3">
-        <v>1.1772688867261061</v>
+        <v>1.177268886726106</v>
       </c>
       <c r="AA3">
-        <v>1.3850267547257009</v>
+        <v>1.385026754725701</v>
       </c>
       <c r="AB3">
         <v>1.631993225679103</v>
       </c>
       <c r="AC3">
-        <v>2.0206924577080838</v>
+        <v>2.020692457708084</v>
       </c>
       <c r="AD3">
-        <v>2.3751629515499002</v>
+        <v>2.3751629515499</v>
       </c>
       <c r="AE3">
-        <v>2.8261047583577432</v>
+        <v>2.826104758357743</v>
       </c>
       <c r="AF3">
-        <v>3.0979127012219259</v>
+        <v>3.097912701221926</v>
       </c>
       <c r="AG3">
-        <v>3.3062729065048928</v>
+        <v>3.306272906504893</v>
       </c>
       <c r="AH3">
-        <v>4.0519904065490859</v>
+        <v>4.051990406549086</v>
       </c>
       <c r="AI3">
-        <v>5.3051279996508116</v>
+        <v>5.305127999650812</v>
       </c>
       <c r="AJ3">
-        <v>6.5020869370758856</v>
+        <v>6.502086937075886</v>
       </c>
       <c r="AK3">
-        <v>8.4013979727625685</v>
+        <v>8.401397972762569</v>
       </c>
       <c r="AL3">
         <v>11.1394366999728</v>
       </c>
       <c r="AM3">
-        <v>15.028332144733641</v>
+        <v>15.02833214473364</v>
       </c>
       <c r="AN3">
-        <v>20.147630726934139</v>
+        <v>20.14763072693414</v>
       </c>
       <c r="AO3">
         <v>23.82526333947169</v>
@@ -3871,79 +3838,79 @@
         <v>25.94038238760222</v>
       </c>
       <c r="AQ3">
-        <v>27.921499853794241</v>
+        <v>27.92149985379424</v>
       </c>
       <c r="AR3">
-        <v>29.766176926799542</v>
+        <v>29.76617692679954</v>
       </c>
       <c r="AS3">
-        <v>31.501891266162929</v>
+        <v>31.50189126616293</v>
       </c>
       <c r="AT3">
-        <v>33.504274385219873</v>
+        <v>33.50427438521987</v>
       </c>
       <c r="AU3">
-        <v>35.312633006348953</v>
+        <v>35.31263300634895</v>
       </c>
       <c r="AV3">
-        <v>35.419412028814243</v>
+        <v>35.41941202881424</v>
       </c>
       <c r="AW3">
-        <v>31.912255356127851</v>
+        <v>31.91225535612785</v>
       </c>
       <c r="AX3">
         <v>25.38868035807155</v>
       </c>
       <c r="AY3">
-        <v>22.333022180228419</v>
+        <v>22.33302218022842</v>
       </c>
       <c r="AZ3">
-        <v>23.114385614286402</v>
+        <v>23.1143856142864</v>
       </c>
       <c r="BA3">
-        <v>23.552816013386291</v>
+        <v>23.55281601338629</v>
       </c>
       <c r="BB3">
-        <v>22.447773114081059</v>
+        <v>22.44777311408106</v>
       </c>
       <c r="BC3">
-        <v>20.101338609086941</v>
+        <v>20.10133860908694</v>
       </c>
       <c r="BD3">
-        <v>19.631128102368891</v>
+        <v>19.63112810236889</v>
       </c>
       <c r="BE3">
-        <v>21.766066434680209</v>
+        <v>21.76606643468021</v>
       </c>
       <c r="BF3">
-        <v>25.368460254639459</v>
+        <v>25.36846025463946</v>
       </c>
       <c r="BG3">
-        <v>30.868296009563259</v>
+        <v>30.86829600956326</v>
       </c>
       <c r="BH3">
-        <v>38.628551785096143</v>
+        <v>38.62855178509614</v>
       </c>
       <c r="BI3">
-        <v>47.620325784951753</v>
+        <v>47.62032578495175</v>
       </c>
       <c r="BJ3">
-        <v>57.878487636608689</v>
+        <v>57.87848763660869</v>
       </c>
       <c r="BK3">
-        <v>69.933604027655562</v>
+        <v>69.93360402765556</v>
       </c>
       <c r="BL3">
-        <v>83.219178185227278</v>
+        <v>83.21917818522728</v>
       </c>
       <c r="BM3">
-        <v>96.798306356061005</v>
+        <v>96.798306356061</v>
       </c>
       <c r="BN3">
-        <v>107.73010496156959</v>
+        <v>107.7301049615696</v>
       </c>
       <c r="BO3">
-        <v>116.23929738223261</v>
+        <v>116.2392973822326</v>
       </c>
       <c r="BP3">
         <v>124.4931997358054</v>
@@ -3952,25 +3919,25 @@
         <v>132.4172780590375</v>
       </c>
       <c r="BR3">
-        <v>138.37670672913029</v>
+        <v>138.3767067291303</v>
       </c>
       <c r="BS3">
-        <v>139.32724770439921</v>
+        <v>139.3272477043992</v>
       </c>
       <c r="BT3">
         <v>134.7250984421425</v>
       </c>
       <c r="BU3">
-        <v>128.21395377643199</v>
+        <v>128.213953776432</v>
       </c>
       <c r="BV3">
         <v>124.4481044094061</v>
       </c>
       <c r="BW3">
-        <v>124.21459133669811</v>
+        <v>124.2145913366981</v>
       </c>
       <c r="BX3">
-        <v>125.41571431415611</v>
+        <v>125.4157143141561</v>
       </c>
       <c r="BY3">
         <v>126.1583774610724</v>
@@ -3982,43 +3949,43 @@
         <v>130.3837564494641</v>
       </c>
       <c r="CB3">
-        <v>138.04231395376229</v>
+        <v>138.0423139537623</v>
       </c>
       <c r="CC3">
-        <v>150.89792758290491</v>
+        <v>150.8979275829049</v>
       </c>
       <c r="CD3">
-        <v>168.65130288285479</v>
+        <v>168.6513028828548</v>
       </c>
       <c r="CE3">
         <v>190.0740554418332</v>
       </c>
       <c r="CF3">
-        <v>214.05737455822671</v>
+        <v>214.0573745582267</v>
       </c>
       <c r="CG3">
-        <v>240.15653817424609</v>
+        <v>240.1565381742461</v>
       </c>
       <c r="CH3">
-        <v>268.76159565066098</v>
+        <v>268.761595650661</v>
       </c>
       <c r="CI3">
-        <v>298.34042797855329</v>
+        <v>298.3404279785533</v>
       </c>
       <c r="CJ3">
-        <v>325.81608131197441</v>
+        <v>325.8160813119744</v>
       </c>
       <c r="CK3">
-        <v>348.90558096573409</v>
+        <v>348.9055809657341</v>
       </c>
       <c r="CL3">
-        <v>367.69357405121161</v>
+        <v>367.6935740512116</v>
       </c>
       <c r="CM3">
-        <v>383.84378345813712</v>
+        <v>383.8437834581371</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4026,112 +3993,112 @@
         <v>0.1160686883156114</v>
       </c>
       <c r="C4">
-        <v>0.21156892102306021</v>
+        <v>0.2115689210230602</v>
       </c>
       <c r="D4">
-        <v>0.37327506048321879</v>
+        <v>0.3732750604832188</v>
       </c>
       <c r="E4">
-        <v>0.64341267996991525</v>
+        <v>0.6434126799699152</v>
       </c>
       <c r="F4">
         <v>1.088179570547241</v>
       </c>
       <c r="G4">
-        <v>1.8081192111517681</v>
+        <v>1.808119211151768</v>
       </c>
       <c r="H4">
-        <v>2.9580646250192042</v>
+        <v>2.958064625019204</v>
       </c>
       <c r="I4">
-        <v>4.7981144168650864</v>
+        <v>4.798114416865086</v>
       </c>
       <c r="J4">
-        <v>7.8361493324419884</v>
+        <v>7.836149332441988</v>
       </c>
       <c r="K4">
-        <v>13.213782207280611</v>
+        <v>13.21378220728061</v>
       </c>
       <c r="L4">
-        <v>23.628399572528242</v>
+        <v>23.62839957252824</v>
       </c>
       <c r="M4">
-        <v>44.839615923613032</v>
+        <v>44.83961592361303</v>
       </c>
       <c r="N4">
-        <v>84.642177898821799</v>
+        <v>84.6421778988218</v>
       </c>
       <c r="O4">
-        <v>142.18562639971739</v>
+        <v>142.1856263997174</v>
       </c>
       <c r="P4">
-        <v>185.77501367867319</v>
+        <v>185.7750136786732</v>
       </c>
       <c r="Q4">
-        <v>217.56492187783761</v>
+        <v>217.5649218778376</v>
       </c>
       <c r="R4">
-        <v>262.55391832720738</v>
+        <v>262.5539183272074</v>
       </c>
       <c r="S4">
-        <v>327.17926280356738</v>
+        <v>327.1792628035674</v>
       </c>
       <c r="T4">
-        <v>409.88674879021579</v>
+        <v>409.8867487902158</v>
       </c>
       <c r="U4">
-        <v>508.64410282624448</v>
+        <v>508.6441028262445</v>
       </c>
       <c r="V4">
         <v>633.6875393656602</v>
       </c>
       <c r="W4">
-        <v>784.79992596401985</v>
+        <v>784.7999259640198</v>
       </c>
       <c r="X4">
-        <v>945.03009287650093</v>
+        <v>945.0300928765009</v>
       </c>
       <c r="Y4">
-        <v>1139.6562887782529</v>
+        <v>1139.656288778253</v>
       </c>
       <c r="Z4">
-        <v>1382.0840804195079</v>
+        <v>1382.084080419508</v>
       </c>
       <c r="AA4">
         <v>1672.89449092114</v>
       </c>
       <c r="AB4">
-        <v>2083.5224402335029</v>
+        <v>2083.522440233503</v>
       </c>
       <c r="AC4">
-        <v>2597.4891889583469</v>
+        <v>2597.489188958347</v>
       </c>
       <c r="AD4">
-        <v>3162.6729782547482</v>
+        <v>3162.672978254748</v>
       </c>
       <c r="AE4">
-        <v>3893.4244639550511</v>
+        <v>3893.424463955051</v>
       </c>
       <c r="AF4">
-        <v>4874.4191523997706</v>
+        <v>4874.419152399771</v>
       </c>
       <c r="AG4">
-        <v>6170.8002212097799</v>
+        <v>6170.80022120978</v>
       </c>
       <c r="AH4">
-        <v>7822.2634014329014</v>
+        <v>7822.263401432901</v>
       </c>
       <c r="AI4">
-        <v>9852.8353579593222</v>
+        <v>9852.835357959322</v>
       </c>
       <c r="AJ4">
-        <v>12452.205953973251</v>
+        <v>12452.20595397325</v>
       </c>
       <c r="AK4">
         <v>15696.19460417096</v>
       </c>
       <c r="AL4">
-        <v>19328.666885784329</v>
+        <v>19328.66688578433</v>
       </c>
       <c r="AM4">
         <v>23549.37972515247</v>
@@ -4140,58 +4107,58 @@
         <v>28285.11858199233</v>
       </c>
       <c r="AO4">
-        <v>32215.268043708202</v>
+        <v>32215.2680437082</v>
       </c>
       <c r="AP4">
         <v>35189.97675162505</v>
       </c>
       <c r="AQ4">
-        <v>37736.295716123248</v>
+        <v>37736.29571612325</v>
       </c>
       <c r="AR4">
-        <v>39729.815523473058</v>
+        <v>39729.81552347306</v>
       </c>
       <c r="AS4">
-        <v>41065.969124412251</v>
+        <v>41065.96912441225</v>
       </c>
       <c r="AT4">
-        <v>41787.297043264873</v>
+        <v>41787.29704326487</v>
       </c>
       <c r="AU4">
-        <v>41734.567039890462</v>
+        <v>41734.56703989046</v>
       </c>
       <c r="AV4">
-        <v>40545.185184514063</v>
+        <v>40545.18518451406</v>
       </c>
       <c r="AW4">
-        <v>37879.107541485573</v>
+        <v>37879.10754148557</v>
       </c>
       <c r="AX4">
-        <v>34142.899070621053</v>
+        <v>34142.89907062105</v>
       </c>
       <c r="AY4">
-        <v>31158.289885368249</v>
+        <v>31158.28988536825</v>
       </c>
       <c r="AZ4">
         <v>29046.64155222927</v>
       </c>
       <c r="BA4">
-        <v>26933.917487761511</v>
+        <v>26933.91748776151</v>
       </c>
       <c r="BB4">
-        <v>24829.462064008079</v>
+        <v>24829.46206400808</v>
       </c>
       <c r="BC4">
         <v>23000.67566252948</v>
       </c>
       <c r="BD4">
-        <v>22030.583307031251</v>
+        <v>22030.58330703125</v>
       </c>
       <c r="BE4">
-        <v>22076.692479117031</v>
+        <v>22076.69247911703</v>
       </c>
       <c r="BF4">
-        <v>23043.061661530061</v>
+        <v>23043.06166153006</v>
       </c>
       <c r="BG4">
         <v>25048.94797705274</v>
@@ -4209,180 +4176,180 @@
         <v>40114.0007907162</v>
       </c>
       <c r="BL4">
-        <v>44352.284938118959</v>
+        <v>44352.28493811896</v>
       </c>
       <c r="BM4">
-        <v>48230.239737897733</v>
+        <v>48230.23973789773</v>
       </c>
       <c r="BN4">
-        <v>51443.518693483238</v>
+        <v>51443.51869348324</v>
       </c>
       <c r="BO4">
-        <v>54043.504726245133</v>
+        <v>54043.50472624513</v>
       </c>
       <c r="BP4">
-        <v>56222.806532678071</v>
+        <v>56222.80653267807</v>
       </c>
       <c r="BQ4">
-        <v>57906.191276292047</v>
+        <v>57906.19127629205</v>
       </c>
       <c r="BR4">
-        <v>58871.314750282327</v>
+        <v>58871.31475028233</v>
       </c>
       <c r="BS4">
-        <v>58818.824138792879</v>
+        <v>58818.82413879288</v>
       </c>
       <c r="BT4">
-        <v>57798.978396207611</v>
+        <v>57798.97839620761</v>
       </c>
       <c r="BU4">
-        <v>56338.094053225192</v>
+        <v>56338.09405322519</v>
       </c>
       <c r="BV4">
-        <v>55027.073387761011</v>
+        <v>55027.07338776101</v>
       </c>
       <c r="BW4">
-        <v>53977.238428958379</v>
+        <v>53977.23842895838</v>
       </c>
       <c r="BX4">
-        <v>53000.252458399453</v>
+        <v>53000.25245839945</v>
       </c>
       <c r="BY4">
-        <v>52010.827965888973</v>
+        <v>52010.82796588897</v>
       </c>
       <c r="BZ4">
-        <v>51136.444667399119</v>
+        <v>51136.44466739912</v>
       </c>
       <c r="CA4">
-        <v>50606.506945965783</v>
+        <v>50606.50694596578</v>
       </c>
       <c r="CB4">
-        <v>50600.915978184727</v>
+        <v>50600.91597818473</v>
       </c>
       <c r="CC4">
-        <v>51288.960128386003</v>
+        <v>51288.960128386</v>
       </c>
       <c r="CD4">
-        <v>52725.480420016152</v>
+        <v>52725.48042001615</v>
       </c>
       <c r="CE4">
-        <v>54794.011190044708</v>
+        <v>54794.01119004471</v>
       </c>
       <c r="CF4">
-        <v>57297.274626395047</v>
+        <v>57297.27462639505</v>
       </c>
       <c r="CG4">
-        <v>60062.423747147986</v>
+        <v>60062.42374714799</v>
       </c>
       <c r="CH4">
-        <v>62948.619236528662</v>
+        <v>62948.61923652866</v>
       </c>
       <c r="CI4">
         <v>65741.14898598539</v>
       </c>
       <c r="CJ4">
-        <v>68234.977459453177</v>
+        <v>68234.97745945318</v>
       </c>
       <c r="CK4">
-        <v>70337.616755262366</v>
+        <v>70337.61675526237</v>
       </c>
       <c r="CL4">
-        <v>72075.064365100567</v>
+        <v>72075.06436510057</v>
       </c>
       <c r="CM4">
-        <v>73501.673501557903</v>
+        <v>73501.6735015579</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.4481658948904773E-3</v>
+        <v>0.004448165894890477</v>
       </c>
       <c r="C5">
-        <v>8.0620039455811705E-3</v>
+        <v>0.008062003945581171</v>
       </c>
       <c r="D5">
-        <v>1.4136366753319011E-2</v>
+        <v>0.01413636675331901</v>
       </c>
       <c r="E5">
-        <v>2.4208881462222911E-2</v>
+        <v>0.02420888146222291</v>
       </c>
       <c r="F5">
-        <v>4.0662726907028719E-2</v>
+        <v>0.04066272690702872</v>
       </c>
       <c r="G5">
-        <v>6.7000365739120687E-2</v>
+        <v>0.06700036573912069</v>
       </c>
       <c r="H5">
         <v>0.1081277075555921</v>
       </c>
       <c r="I5">
-        <v>0.17065133215552961</v>
+        <v>0.1706513321555296</v>
       </c>
       <c r="J5">
-        <v>0.26319630127998628</v>
+        <v>0.2631963012799863</v>
       </c>
       <c r="K5">
-        <v>0.39671289237344021</v>
+        <v>0.3967128923734402</v>
       </c>
       <c r="L5">
-        <v>0.58469436712360578</v>
+        <v>0.5846943671236058</v>
       </c>
       <c r="M5">
-        <v>0.84324383711857109</v>
+        <v>0.8432438371185711</v>
       </c>
       <c r="N5">
-        <v>1.1909515938608879</v>
+        <v>1.190951593860888</v>
       </c>
       <c r="O5">
-        <v>5.3906557893543274</v>
+        <v>5.390655789354327</v>
       </c>
       <c r="P5">
         <v>12.35829613542327</v>
       </c>
       <c r="Q5">
-        <v>23.021264366998139</v>
+        <v>23.02126436699814</v>
       </c>
       <c r="R5">
-        <v>38.392249753404563</v>
+        <v>38.39224975340456</v>
       </c>
       <c r="S5">
-        <v>59.542065026424297</v>
+        <v>59.5420650264243</v>
       </c>
       <c r="T5">
-        <v>87.611778481569118</v>
+        <v>87.61177848156912</v>
       </c>
       <c r="U5">
         <v>123.880947099644</v>
       </c>
       <c r="V5">
-        <v>170.91640537343841</v>
+        <v>170.9164053734384</v>
       </c>
       <c r="W5">
-        <v>233.12148388218961</v>
+        <v>233.1214838821896</v>
       </c>
       <c r="X5">
-        <v>316.04002813131677</v>
+        <v>316.0400281313168</v>
       </c>
       <c r="Y5">
-        <v>427.52040000117222</v>
+        <v>427.5204000011722</v>
       </c>
       <c r="Z5">
-        <v>578.43517055540394</v>
+        <v>578.4351705554039</v>
       </c>
       <c r="AA5">
-        <v>783.47933537183144</v>
+        <v>783.4793353718314</v>
       </c>
       <c r="AB5">
-        <v>1061.9850330596639</v>
+        <v>1061.985033059664</v>
       </c>
       <c r="AC5">
         <v>1438.622546739879</v>
       </c>
       <c r="AD5">
-        <v>1943.7556831729521</v>
+        <v>1943.755683172952</v>
       </c>
       <c r="AE5">
         <v>2613.228720080941</v>
@@ -4391,172 +4358,172 @@
         <v>3487.375842560999</v>
       </c>
       <c r="AG5">
-        <v>4609.0389958436372</v>
+        <v>4609.038995843637</v>
       </c>
       <c r="AH5">
         <v>6020.41659425323</v>
       </c>
       <c r="AI5">
-        <v>7758.6416795588257</v>
+        <v>7758.641679558826</v>
       </c>
       <c r="AJ5">
-        <v>9850.1646046272581</v>
+        <v>9850.164604627258</v>
       </c>
       <c r="AK5">
-        <v>12304.260504074769</v>
+        <v>12304.26050407477</v>
       </c>
       <c r="AL5">
         <v>15106.29330633614</v>
       </c>
       <c r="AM5">
-        <v>18211.743091725239</v>
+        <v>18211.74309172524</v>
       </c>
       <c r="AN5">
-        <v>21542.344161699839</v>
+        <v>21542.34416169984</v>
       </c>
       <c r="AO5">
         <v>24985.8036196584</v>
       </c>
       <c r="AP5">
-        <v>28379.741244647699</v>
+        <v>28379.7412446477</v>
       </c>
       <c r="AQ5">
-        <v>31531.578415770851</v>
+        <v>31531.57841577085</v>
       </c>
       <c r="AR5">
-        <v>34261.442787140011</v>
+        <v>34261.44278714001</v>
       </c>
       <c r="AS5">
-        <v>36407.529203702506</v>
+        <v>36407.52920370251</v>
       </c>
       <c r="AT5">
-        <v>37846.160968743927</v>
+        <v>37846.16096874393</v>
       </c>
       <c r="AU5">
-        <v>38507.817376020423</v>
+        <v>38507.81737602042</v>
       </c>
       <c r="AV5">
-        <v>38386.376896803209</v>
+        <v>38386.37689680321</v>
       </c>
       <c r="AW5">
-        <v>37540.599786790917</v>
+        <v>37540.59978679092</v>
       </c>
       <c r="AX5">
-        <v>36088.833466961718</v>
+        <v>36088.83346696172</v>
       </c>
       <c r="AY5">
-        <v>34199.146464386649</v>
+        <v>34199.14646438665</v>
       </c>
       <c r="AZ5">
         <v>32076.98180312409</v>
       </c>
       <c r="BA5">
-        <v>29951.174340814559</v>
+        <v>29951.17434081456</v>
       </c>
       <c r="BB5">
-        <v>28057.880189215572</v>
+        <v>28057.88018921557</v>
       </c>
       <c r="BC5">
-        <v>26621.915717953139</v>
+        <v>26621.91571795314</v>
       </c>
       <c r="BD5">
-        <v>25836.616501817662</v>
+        <v>25836.61650181766</v>
       </c>
       <c r="BE5">
         <v>25845.54788707507</v>
       </c>
       <c r="BF5">
-        <v>26730.377974635368</v>
+        <v>26730.37797463537</v>
       </c>
       <c r="BG5">
         <v>28507.79375613189</v>
       </c>
       <c r="BH5">
-        <v>31135.072716710591</v>
+        <v>31135.07271671059</v>
       </c>
       <c r="BI5">
-        <v>34520.836209196699</v>
+        <v>34520.8362091967</v>
       </c>
       <c r="BJ5">
-        <v>38536.589928922898</v>
+        <v>38536.5899289229</v>
       </c>
       <c r="BK5">
-        <v>43026.339823405098</v>
+        <v>43026.3398234051</v>
       </c>
       <c r="BL5">
-        <v>47814.398073681157</v>
+        <v>47814.39807368116</v>
       </c>
       <c r="BM5">
-        <v>52713.284507424898</v>
+        <v>52713.2845074249</v>
       </c>
       <c r="BN5">
-        <v>57533.287487686903</v>
+        <v>57533.2874876869</v>
       </c>
       <c r="BO5">
-        <v>62093.551035821809</v>
+        <v>62093.55103582181</v>
       </c>
       <c r="BP5">
-        <v>66233.210176423047</v>
+        <v>66233.21017642305</v>
       </c>
       <c r="BQ5">
-        <v>69821.085494257073</v>
+        <v>69821.08549425707</v>
       </c>
       <c r="BR5">
-        <v>72763.328996573662</v>
+        <v>72763.32899657366</v>
       </c>
       <c r="BS5">
-        <v>75009.087423246412</v>
+        <v>75009.08742324641</v>
       </c>
       <c r="BT5">
-        <v>76554.141017885719</v>
+        <v>76554.14101788572</v>
       </c>
       <c r="BU5">
-        <v>77441.930833104023</v>
+        <v>77441.93083310402</v>
       </c>
       <c r="BV5">
-        <v>77761.144115336807</v>
+        <v>77761.14411533681</v>
       </c>
       <c r="BW5">
-        <v>77639.474754089882</v>
+        <v>77639.47475408988</v>
       </c>
       <c r="BX5">
-        <v>77234.061273419022</v>
+        <v>77234.06127341902</v>
       </c>
       <c r="BY5">
-        <v>76719.813545623037</v>
+        <v>76719.81354562304</v>
       </c>
       <c r="BZ5">
-        <v>76276.953196180184</v>
+        <v>76276.95319618018</v>
       </c>
       <c r="CA5">
-        <v>76078.726640033419</v>
+        <v>76078.72664003342</v>
       </c>
       <c r="CB5">
-        <v>76279.880873537506</v>
+        <v>76279.88087353751</v>
       </c>
       <c r="CC5">
-        <v>77006.467059576971</v>
+        <v>77006.46705957697</v>
       </c>
       <c r="CD5">
-        <v>78347.747115384613</v>
+        <v>78347.74711538461</v>
       </c>
       <c r="CE5">
-        <v>80351.043133540428</v>
+        <v>80351.04313354043</v>
       </c>
       <c r="CF5">
-        <v>83020.056719131695</v>
+        <v>83020.05671913169</v>
       </c>
       <c r="CG5">
-        <v>86316.619565736706</v>
+        <v>86316.61956573671</v>
       </c>
       <c r="CH5">
-        <v>90165.341570393459</v>
+        <v>90165.34157039346</v>
       </c>
       <c r="CI5">
-        <v>94460.404416480902</v>
+        <v>94460.4044164809</v>
       </c>
       <c r="CJ5">
-        <v>99073.784872881923</v>
+        <v>99073.78487288192</v>
       </c>
       <c r="CK5">
         <v>103864.3190002506</v>
@@ -4566,6 +4533,2776 @@
       </c>
       <c r="CM5">
         <v>113402.610327591</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46.87313184253996</v>
+      </c>
+      <c r="C2">
+        <v>66.33198678148759</v>
+      </c>
+      <c r="D2">
+        <v>64.1089384584233</v>
+      </c>
+      <c r="E2">
+        <v>60.87287774328054</v>
+      </c>
+      <c r="F2">
+        <v>97.98477953302294</v>
+      </c>
+      <c r="G2">
+        <v>70.69516494205936</v>
+      </c>
+      <c r="H2">
+        <v>125.7741889276355</v>
+      </c>
+      <c r="I2">
+        <v>119.5422788752873</v>
+      </c>
+      <c r="J2">
+        <v>112.1300093206742</v>
+      </c>
+      <c r="K2">
+        <v>101.2032910050308</v>
+      </c>
+      <c r="L2">
+        <v>209.8174006905885</v>
+      </c>
+      <c r="M2">
+        <v>142.8001959795544</v>
+      </c>
+      <c r="N2">
+        <v>279.4014087450087</v>
+      </c>
+      <c r="O2">
+        <v>301.5596095629891</v>
+      </c>
+      <c r="P2">
+        <v>323.9693777259723</v>
+      </c>
+      <c r="Q2">
+        <v>709.273896589118</v>
+      </c>
+      <c r="R2">
+        <v>759.4381472304098</v>
+      </c>
+      <c r="S2">
+        <v>810.116584190967</v>
+      </c>
+      <c r="T2">
+        <v>861.6560816339812</v>
+      </c>
+      <c r="U2">
+        <v>913.8697426800576</v>
+      </c>
+      <c r="V2">
+        <v>917.879872821101</v>
+      </c>
+      <c r="W2">
+        <v>967.7409009236877</v>
+      </c>
+      <c r="X2">
+        <v>1017.945510215898</v>
+      </c>
+      <c r="Y2">
+        <v>1069.061944643505</v>
+      </c>
+      <c r="Z2">
+        <v>1121.442690237329</v>
+      </c>
+      <c r="AA2">
+        <v>520.6016895394315</v>
+      </c>
+      <c r="AB2">
+        <v>534.2213800479467</v>
+      </c>
+      <c r="AC2">
+        <v>551.427809192021</v>
+      </c>
+      <c r="AD2">
+        <v>568.1430196782676</v>
+      </c>
+      <c r="AE2">
+        <v>587.5413644991157</v>
+      </c>
+      <c r="AF2">
+        <v>371.1595196362676</v>
+      </c>
+      <c r="AG2">
+        <v>373.7902077363855</v>
+      </c>
+      <c r="AH2">
+        <v>389.4314958594237</v>
+      </c>
+      <c r="AI2">
+        <v>417.7729264100304</v>
+      </c>
+      <c r="AJ2">
+        <v>445.3454189561787</v>
+      </c>
+      <c r="AK2">
+        <v>590.8994121255818</v>
+      </c>
+      <c r="AL2">
+        <v>658.1916253835686</v>
+      </c>
+      <c r="AM2">
+        <v>750.8248296753252</v>
+      </c>
+      <c r="AN2">
+        <v>869.4642564875469</v>
+      </c>
+      <c r="AO2">
+        <v>953.4136045377696</v>
+      </c>
+      <c r="AP2">
+        <v>1187.088950131331</v>
+      </c>
+      <c r="AQ2">
+        <v>1232.715736157709</v>
+      </c>
+      <c r="AR2">
+        <v>1270.066496390811</v>
+      </c>
+      <c r="AS2">
+        <v>1299.483298503274</v>
+      </c>
+      <c r="AT2">
+        <v>1328.469429155309</v>
+      </c>
+      <c r="AU2">
+        <v>1389.959683253553</v>
+      </c>
+      <c r="AV2">
+        <v>1373.5831168273</v>
+      </c>
+      <c r="AW2">
+        <v>1290.102312020819</v>
+      </c>
+      <c r="AX2">
+        <v>1158.531117057037</v>
+      </c>
+      <c r="AY2">
+        <v>1092.610686052487</v>
+      </c>
+      <c r="AZ2">
+        <v>1039.369015500546</v>
+      </c>
+      <c r="BA2">
+        <v>1030.259763421289</v>
+      </c>
+      <c r="BB2">
+        <v>999.6705092102849</v>
+      </c>
+      <c r="BC2">
+        <v>955.4743717511135</v>
+      </c>
+      <c r="BD2">
+        <v>940.1053182445507</v>
+      </c>
+      <c r="BE2">
+        <v>921.2717106058403</v>
+      </c>
+      <c r="BF2">
+        <v>954.5344327825782</v>
+      </c>
+      <c r="BG2">
+        <v>1005.698161517797</v>
+      </c>
+      <c r="BH2">
+        <v>1075.192459204913</v>
+      </c>
+      <c r="BI2">
+        <v>1149.531239647331</v>
+      </c>
+      <c r="BJ2">
+        <v>1206.558321193264</v>
+      </c>
+      <c r="BK2">
+        <v>1290.297899118809</v>
+      </c>
+      <c r="BL2">
+        <v>1373.795716195658</v>
+      </c>
+      <c r="BM2">
+        <v>1448.838834289047</v>
+      </c>
+      <c r="BN2">
+        <v>1494.771240646797</v>
+      </c>
+      <c r="BO2">
+        <v>1506.367010525111</v>
+      </c>
+      <c r="BP2">
+        <v>1521.695850393143</v>
+      </c>
+      <c r="BQ2">
+        <v>1530.459548018832</v>
+      </c>
+      <c r="BR2">
+        <v>1524.179994117889</v>
+      </c>
+      <c r="BS2">
+        <v>1489.167934646928</v>
+      </c>
+      <c r="BT2">
+        <v>1414.810722037102</v>
+      </c>
+      <c r="BU2">
+        <v>1348.541375142473</v>
+      </c>
+      <c r="BV2">
+        <v>1299.369674267112</v>
+      </c>
+      <c r="BW2">
+        <v>1268.06221339188</v>
+      </c>
+      <c r="BX2">
+        <v>1243.81762447808</v>
+      </c>
+      <c r="BY2">
+        <v>1207.172280233505</v>
+      </c>
+      <c r="BZ2">
+        <v>1183.638839198062</v>
+      </c>
+      <c r="CA2">
+        <v>1169.788307274419</v>
+      </c>
+      <c r="CB2">
+        <v>1168.786030695082</v>
+      </c>
+      <c r="CC2">
+        <v>1180.913142381818</v>
+      </c>
+      <c r="CD2">
+        <v>1187.981001762728</v>
+      </c>
+      <c r="CE2">
+        <v>1214.068611158878</v>
+      </c>
+      <c r="CF2">
+        <v>1240.676173048265</v>
+      </c>
+      <c r="CG2">
+        <v>1266.015939961618</v>
+      </c>
+      <c r="CH2">
+        <v>1290.189379989282</v>
+      </c>
+      <c r="CI2">
+        <v>1286.928650915624</v>
+      </c>
+      <c r="CJ2">
+        <v>1296.567039609738</v>
+      </c>
+      <c r="CK2">
+        <v>1294.432035854524</v>
+      </c>
+      <c r="CL2">
+        <v>1282.548600507699</v>
+      </c>
+      <c r="CM2">
+        <v>1264.649311523907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.48416770966605</v>
+      </c>
+      <c r="C3">
+        <v>23.38798957595705</v>
+      </c>
+      <c r="D3">
+        <v>22.57939166938897</v>
+      </c>
+      <c r="E3">
+        <v>21.42598026129285</v>
+      </c>
+      <c r="F3">
+        <v>34.62336947153077</v>
+      </c>
+      <c r="G3">
+        <v>24.89427440242367</v>
+      </c>
+      <c r="H3">
+        <v>44.5019270532784</v>
+      </c>
+      <c r="I3">
+        <v>42.25943849060294</v>
+      </c>
+      <c r="J3">
+        <v>39.61019045635977</v>
+      </c>
+      <c r="K3">
+        <v>35.70447677404155</v>
+      </c>
+      <c r="L3">
+        <v>74.40418075014863</v>
+      </c>
+      <c r="M3">
+        <v>50.51125071923273</v>
+      </c>
+      <c r="N3">
+        <v>99.17247898286358</v>
+      </c>
+      <c r="O3">
+        <v>107.057506615888</v>
+      </c>
+      <c r="P3">
+        <v>115.0330797799104</v>
+      </c>
+      <c r="Q3">
+        <v>252.2988259504708</v>
+      </c>
+      <c r="R3">
+        <v>270.1643758592157</v>
+      </c>
+      <c r="S3">
+        <v>288.2133437843007</v>
+      </c>
+      <c r="T3">
+        <v>306.5697860019903</v>
+      </c>
+      <c r="U3">
+        <v>325.1710645944293</v>
+      </c>
+      <c r="V3">
+        <v>326.6013872451868</v>
+      </c>
+      <c r="W3">
+        <v>344.3831459785843</v>
+      </c>
+      <c r="X3">
+        <v>362.2969709429252</v>
+      </c>
+      <c r="Y3">
+        <v>380.5475234173192</v>
+      </c>
+      <c r="Z3">
+        <v>399.2633857537071</v>
+      </c>
+      <c r="AA3">
+        <v>185.221134756551</v>
+      </c>
+      <c r="AB3">
+        <v>190.1324867130722</v>
+      </c>
+      <c r="AC3">
+        <v>196.3554415545574</v>
+      </c>
+      <c r="AD3">
+        <v>202.4048363114121</v>
+      </c>
+      <c r="AE3">
+        <v>209.4397052521191</v>
+      </c>
+      <c r="AF3">
+        <v>132.4257434532041</v>
+      </c>
+      <c r="AG3">
+        <v>133.4420616252729</v>
+      </c>
+      <c r="AH3">
+        <v>139.2435132720695</v>
+      </c>
+      <c r="AI3">
+        <v>149.7346911757257</v>
+      </c>
+      <c r="AJ3">
+        <v>159.9759297992775</v>
+      </c>
+      <c r="AK3">
+        <v>212.5209402066065</v>
+      </c>
+      <c r="AL3">
+        <v>237.5342688437982</v>
+      </c>
+      <c r="AM3">
+        <v>272.1061057989911</v>
+      </c>
+      <c r="AN3">
+        <v>316.6041455957965</v>
+      </c>
+      <c r="AO3">
+        <v>348.4720133698681</v>
+      </c>
+      <c r="AP3">
+        <v>433.2047263580454</v>
+      </c>
+      <c r="AQ3">
+        <v>450.8525903468715</v>
+      </c>
+      <c r="AR3">
+        <v>465.4388057259534</v>
+      </c>
+      <c r="AS3">
+        <v>477.0695929185395</v>
+      </c>
+      <c r="AT3">
+        <v>488.5768890563555</v>
+      </c>
+      <c r="AU3">
+        <v>511.464318867929</v>
+      </c>
+      <c r="AV3">
+        <v>505.6690597995464</v>
+      </c>
+      <c r="AW3">
+        <v>474.1250971620765</v>
+      </c>
+      <c r="AX3">
+        <v>423.9669891253881</v>
+      </c>
+      <c r="AY3">
+        <v>398.837854460523</v>
+      </c>
+      <c r="AZ3">
+        <v>379.9689423498098</v>
+      </c>
+      <c r="BA3">
+        <v>376.6182714680074</v>
+      </c>
+      <c r="BB3">
+        <v>364.9122231041953</v>
+      </c>
+      <c r="BC3">
+        <v>347.8542818903077</v>
+      </c>
+      <c r="BD3">
+        <v>341.8646549824188</v>
+      </c>
+      <c r="BE3">
+        <v>335.6293289126883</v>
+      </c>
+      <c r="BF3">
+        <v>348.4121423331944</v>
+      </c>
+      <c r="BG3">
+        <v>368.1042362445631</v>
+      </c>
+      <c r="BH3">
+        <v>394.8856607149453</v>
+      </c>
+      <c r="BI3">
+        <v>423.5214007439731</v>
+      </c>
+      <c r="BJ3">
+        <v>446.0720893476416</v>
+      </c>
+      <c r="BK3">
+        <v>478.3249755410636</v>
+      </c>
+      <c r="BL3">
+        <v>510.4535902836864</v>
+      </c>
+      <c r="BM3">
+        <v>539.2587702401804</v>
+      </c>
+      <c r="BN3">
+        <v>556.7006189077061</v>
+      </c>
+      <c r="BO3">
+        <v>561.1010345338483</v>
+      </c>
+      <c r="BP3">
+        <v>566.5908550770605</v>
+      </c>
+      <c r="BQ3">
+        <v>569.5099445844778</v>
+      </c>
+      <c r="BR3">
+        <v>566.5727364332579</v>
+      </c>
+      <c r="BS3">
+        <v>552.4854387547999</v>
+      </c>
+      <c r="BT3">
+        <v>523.5729428904797</v>
+      </c>
+      <c r="BU3">
+        <v>497.4483706688115</v>
+      </c>
+      <c r="BV3">
+        <v>477.9827039617938</v>
+      </c>
+      <c r="BW3">
+        <v>465.4439530127041</v>
+      </c>
+      <c r="BX3">
+        <v>455.6394974129198</v>
+      </c>
+      <c r="BY3">
+        <v>441.4005285196044</v>
+      </c>
+      <c r="BZ3">
+        <v>431.8786930225454</v>
+      </c>
+      <c r="CA3">
+        <v>426.0568051786093</v>
+      </c>
+      <c r="CB3">
+        <v>425.1098061138004</v>
+      </c>
+      <c r="CC3">
+        <v>429.0971826698182</v>
+      </c>
+      <c r="CD3">
+        <v>431.4034674948755</v>
+      </c>
+      <c r="CE3">
+        <v>440.4529325932177</v>
+      </c>
+      <c r="CF3">
+        <v>449.545613932018</v>
+      </c>
+      <c r="CG3">
+        <v>457.9962762360917</v>
+      </c>
+      <c r="CH3">
+        <v>465.831760803975</v>
+      </c>
+      <c r="CI3">
+        <v>463.6323053663855</v>
+      </c>
+      <c r="CJ3">
+        <v>465.7281076904332</v>
+      </c>
+      <c r="CK3">
+        <v>463.3611541030148</v>
+      </c>
+      <c r="CL3">
+        <v>457.3428230512332</v>
+      </c>
+      <c r="CM3">
+        <v>449.0833621588923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3257.618659289207</v>
+      </c>
+      <c r="C4">
+        <v>2998.273547924573</v>
+      </c>
+      <c r="D4">
+        <v>2460.38965372356</v>
+      </c>
+      <c r="E4">
+        <v>2804.065917759883</v>
+      </c>
+      <c r="F4">
+        <v>3540.469286588793</v>
+      </c>
+      <c r="G4">
+        <v>3301.653394881089</v>
+      </c>
+      <c r="H4">
+        <v>3548.990593236414</v>
+      </c>
+      <c r="I4">
+        <v>3114.220684573574</v>
+      </c>
+      <c r="J4">
+        <v>3381.414927924362</v>
+      </c>
+      <c r="K4">
+        <v>3994.350455841194</v>
+      </c>
+      <c r="L4">
+        <v>3784.678140232801</v>
+      </c>
+      <c r="M4">
+        <v>4365.061842953687</v>
+      </c>
+      <c r="N4">
+        <v>23064.38085376552</v>
+      </c>
+      <c r="O4">
+        <v>23186.87875111325</v>
+      </c>
+      <c r="P4">
+        <v>23277.48788936812</v>
+      </c>
+      <c r="Q4">
+        <v>73520.56212323015</v>
+      </c>
+      <c r="R4">
+        <v>73659.93930728832</v>
+      </c>
+      <c r="S4">
+        <v>73818.84614841329</v>
+      </c>
+      <c r="T4">
+        <v>73991.60251019971</v>
+      </c>
+      <c r="U4">
+        <v>74173.4749878437</v>
+      </c>
+      <c r="V4">
+        <v>77445.40972009843</v>
+      </c>
+      <c r="W4">
+        <v>77648.57075091603</v>
+      </c>
+      <c r="X4">
+        <v>77840.9964579917</v>
+      </c>
+      <c r="Y4">
+        <v>78045.12795846573</v>
+      </c>
+      <c r="Z4">
+        <v>78266.8015854792</v>
+      </c>
+      <c r="AA4">
+        <v>22351.93369923113</v>
+      </c>
+      <c r="AB4">
+        <v>22582.66974616368</v>
+      </c>
+      <c r="AC4">
+        <v>22844.39148132391</v>
+      </c>
+      <c r="AD4">
+        <v>23080.1763069741</v>
+      </c>
+      <c r="AE4">
+        <v>23368.97308510636</v>
+      </c>
+      <c r="AF4">
+        <v>5741.004825257601</v>
+      </c>
+      <c r="AG4">
+        <v>5891.659464236648</v>
+      </c>
+      <c r="AH4">
+        <v>6227.097304336447</v>
+      </c>
+      <c r="AI4">
+        <v>6795.081699390712</v>
+      </c>
+      <c r="AJ4">
+        <v>7479.744234013842</v>
+      </c>
+      <c r="AK4">
+        <v>17338.78153154636</v>
+      </c>
+      <c r="AL4">
+        <v>18655.89606383925</v>
+      </c>
+      <c r="AM4">
+        <v>20177.33845544987</v>
+      </c>
+      <c r="AN4">
+        <v>21874.21753011341</v>
+      </c>
+      <c r="AO4">
+        <v>23012.11491307386</v>
+      </c>
+      <c r="AP4">
+        <v>35500.76942000473</v>
+      </c>
+      <c r="AQ4">
+        <v>35856.20669750761</v>
+      </c>
+      <c r="AR4">
+        <v>35975.26613569497</v>
+      </c>
+      <c r="AS4">
+        <v>35851.93429088299</v>
+      </c>
+      <c r="AT4">
+        <v>35548.40685746665</v>
+      </c>
+      <c r="AU4">
+        <v>38497.00123217853</v>
+      </c>
+      <c r="AV4">
+        <v>37589.36373876183</v>
+      </c>
+      <c r="AW4">
+        <v>36174.8108652982</v>
+      </c>
+      <c r="AX4">
+        <v>34459.0047033845</v>
+      </c>
+      <c r="AY4">
+        <v>33223.89490263053</v>
+      </c>
+      <c r="AZ4">
+        <v>30235.13711615885</v>
+      </c>
+      <c r="BA4">
+        <v>29499.26708617682</v>
+      </c>
+      <c r="BB4">
+        <v>28826.1422305717</v>
+      </c>
+      <c r="BC4">
+        <v>28371.78403590772</v>
+      </c>
+      <c r="BD4">
+        <v>28030.31791308924</v>
+      </c>
+      <c r="BE4">
+        <v>26603.73167674155</v>
+      </c>
+      <c r="BF4">
+        <v>26509.54738476524</v>
+      </c>
+      <c r="BG4">
+        <v>26789.55489394356</v>
+      </c>
+      <c r="BH4">
+        <v>27308.50327019277</v>
+      </c>
+      <c r="BI4">
+        <v>27898.46493097696</v>
+      </c>
+      <c r="BJ4">
+        <v>28309.34420875675</v>
+      </c>
+      <c r="BK4">
+        <v>28881.3807732341</v>
+      </c>
+      <c r="BL4">
+        <v>29315.49669302107</v>
+      </c>
+      <c r="BM4">
+        <v>29569.38844325781</v>
+      </c>
+      <c r="BN4">
+        <v>29604.98396101061</v>
+      </c>
+      <c r="BO4">
+        <v>29492.79573699387</v>
+      </c>
+      <c r="BP4">
+        <v>29291.6498388527</v>
+      </c>
+      <c r="BQ4">
+        <v>29016.23433431325</v>
+      </c>
+      <c r="BR4">
+        <v>28627.44628054489</v>
+      </c>
+      <c r="BS4">
+        <v>28068.53092229327</v>
+      </c>
+      <c r="BT4">
+        <v>27063.37303793525</v>
+      </c>
+      <c r="BU4">
+        <v>26365.56602676905</v>
+      </c>
+      <c r="BV4">
+        <v>25941.38848260461</v>
+      </c>
+      <c r="BW4">
+        <v>25798.27971769472</v>
+      </c>
+      <c r="BX4">
+        <v>25582.29250124441</v>
+      </c>
+      <c r="BY4">
+        <v>24806.09288960692</v>
+      </c>
+      <c r="BZ4">
+        <v>24563.66583094051</v>
+      </c>
+      <c r="CA4">
+        <v>24325.67108521857</v>
+      </c>
+      <c r="CB4">
+        <v>24081.27705459765</v>
+      </c>
+      <c r="CC4">
+        <v>23772.78752462329</v>
+      </c>
+      <c r="CD4">
+        <v>22756.29075002409</v>
+      </c>
+      <c r="CE4">
+        <v>22950.50356161089</v>
+      </c>
+      <c r="CF4">
+        <v>23181.83682389187</v>
+      </c>
+      <c r="CG4">
+        <v>23413.10433399514</v>
+      </c>
+      <c r="CH4">
+        <v>23616.98559541114</v>
+      </c>
+      <c r="CI4">
+        <v>22215.69024583649</v>
+      </c>
+      <c r="CJ4">
+        <v>22278.9731117498</v>
+      </c>
+      <c r="CK4">
+        <v>22267.85373648162</v>
+      </c>
+      <c r="CL4">
+        <v>22207.82020906772</v>
+      </c>
+      <c r="CM4">
+        <v>22123.35830508205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3598.012364742959</v>
+      </c>
+      <c r="C5">
+        <v>2632.622648419901</v>
+      </c>
+      <c r="D5">
+        <v>2455.215797210311</v>
+      </c>
+      <c r="E5">
+        <v>2355.518691152375</v>
+      </c>
+      <c r="F5">
+        <v>2721.229317653299</v>
+      </c>
+      <c r="G5">
+        <v>3512.246067202839</v>
+      </c>
+      <c r="H5">
+        <v>3848.439763438594</v>
+      </c>
+      <c r="I5">
+        <v>3151.379498488303</v>
+      </c>
+      <c r="J5">
+        <v>2983.171276647547</v>
+      </c>
+      <c r="K5">
+        <v>3316.558273530457</v>
+      </c>
+      <c r="L5">
+        <v>3360.9984396775</v>
+      </c>
+      <c r="M5">
+        <v>4985.080101226611</v>
+      </c>
+      <c r="N5">
+        <v>36472.59837494129</v>
+      </c>
+      <c r="O5">
+        <v>36524.35413637201</v>
+      </c>
+      <c r="P5">
+        <v>36588.2098190632</v>
+      </c>
+      <c r="Q5">
+        <v>121543.8216621058</v>
+      </c>
+      <c r="R5">
+        <v>121636.4195485439</v>
+      </c>
+      <c r="S5">
+        <v>121746.0340040868</v>
+      </c>
+      <c r="T5">
+        <v>121875.4901470043</v>
+      </c>
+      <c r="U5">
+        <v>122029.3346467607</v>
+      </c>
+      <c r="V5">
+        <v>128074.7548817185</v>
+      </c>
+      <c r="W5">
+        <v>128297.4855137161</v>
+      </c>
+      <c r="X5">
+        <v>128571.4523927497</v>
+      </c>
+      <c r="Y5">
+        <v>128914.5159096257</v>
+      </c>
+      <c r="Z5">
+        <v>129350.8481477197</v>
+      </c>
+      <c r="AA5">
+        <v>36090.62801878247</v>
+      </c>
+      <c r="AB5">
+        <v>36816.60473704478</v>
+      </c>
+      <c r="AC5">
+        <v>37755.45231351861</v>
+      </c>
+      <c r="AD5">
+        <v>38962.27198938697</v>
+      </c>
+      <c r="AE5">
+        <v>40496.11096159938</v>
+      </c>
+      <c r="AF5">
+        <v>11006.79484349251</v>
+      </c>
+      <c r="AG5">
+        <v>12942.18261258473</v>
+      </c>
+      <c r="AH5">
+        <v>15259.803532283</v>
+      </c>
+      <c r="AI5">
+        <v>18517.22719126379</v>
+      </c>
+      <c r="AJ5">
+        <v>22267.02483064733</v>
+      </c>
+      <c r="AK5">
+        <v>39091.20363339831</v>
+      </c>
+      <c r="AL5">
+        <v>43472.94271707036</v>
+      </c>
+      <c r="AM5">
+        <v>47936.16164612036</v>
+      </c>
+      <c r="AN5">
+        <v>52262.47118849561</v>
+      </c>
+      <c r="AO5">
+        <v>56202.43274429733</v>
+      </c>
+      <c r="AP5">
+        <v>77615.94398401803</v>
+      </c>
+      <c r="AQ5">
+        <v>80118.89569467714</v>
+      </c>
+      <c r="AR5">
+        <v>81631.03273950906</v>
+      </c>
+      <c r="AS5">
+        <v>82049.05779325728</v>
+      </c>
+      <c r="AT5">
+        <v>81353.56521007082</v>
+      </c>
+      <c r="AU5">
+        <v>84804.47159467509</v>
+      </c>
+      <c r="AV5">
+        <v>82164.36257195749</v>
+      </c>
+      <c r="AW5">
+        <v>78832.78187620502</v>
+      </c>
+      <c r="AX5">
+        <v>75055.19044966735</v>
+      </c>
+      <c r="AY5">
+        <v>71091.26821349745</v>
+      </c>
+      <c r="AZ5">
+        <v>64097.22717812013</v>
+      </c>
+      <c r="BA5">
+        <v>60492.95162619647</v>
+      </c>
+      <c r="BB5">
+        <v>57369.90979123223</v>
+      </c>
+      <c r="BC5">
+        <v>54863.85472572872</v>
+      </c>
+      <c r="BD5">
+        <v>53049.6250944554</v>
+      </c>
+      <c r="BE5">
+        <v>50204.28661036793</v>
+      </c>
+      <c r="BF5">
+        <v>49746.2403831129</v>
+      </c>
+      <c r="BG5">
+        <v>49844.73821577146</v>
+      </c>
+      <c r="BH5">
+        <v>50370.97121848807</v>
+      </c>
+      <c r="BI5">
+        <v>51181.09376750534</v>
+      </c>
+      <c r="BJ5">
+        <v>51834.43659294722</v>
+      </c>
+      <c r="BK5">
+        <v>52786.37191564034</v>
+      </c>
+      <c r="BL5">
+        <v>53620.31522620226</v>
+      </c>
+      <c r="BM5">
+        <v>54235.80336508051</v>
+      </c>
+      <c r="BN5">
+        <v>54556.63682582378</v>
+      </c>
+      <c r="BO5">
+        <v>54551.14872737045</v>
+      </c>
+      <c r="BP5">
+        <v>54162.79781028585</v>
+      </c>
+      <c r="BQ5">
+        <v>53413.84271372266</v>
+      </c>
+      <c r="BR5">
+        <v>52331.92141484989</v>
+      </c>
+      <c r="BS5">
+        <v>50962.87699181375</v>
+      </c>
+      <c r="BT5">
+        <v>48855.96183424262</v>
+      </c>
+      <c r="BU5">
+        <v>47095.70993540226</v>
+      </c>
+      <c r="BV5">
+        <v>45239.31676214402</v>
+      </c>
+      <c r="BW5">
+        <v>43348.73192379808</v>
+      </c>
+      <c r="BX5">
+        <v>41476.26706664523</v>
+      </c>
+      <c r="BY5">
+        <v>38809.19799739656</v>
+      </c>
+      <c r="BZ5">
+        <v>37075.09019264773</v>
+      </c>
+      <c r="CA5">
+        <v>35429.8540933184</v>
+      </c>
+      <c r="CB5">
+        <v>33866.2994588678</v>
+      </c>
+      <c r="CC5">
+        <v>32364.40292356101</v>
+      </c>
+      <c r="CD5">
+        <v>29457.14682875502</v>
+      </c>
+      <c r="CE5">
+        <v>27984.25454402588</v>
+      </c>
+      <c r="CF5">
+        <v>26471.45058804742</v>
+      </c>
+      <c r="CG5">
+        <v>24884.52701733304</v>
+      </c>
+      <c r="CH5">
+        <v>23195.17799775912</v>
+      </c>
+      <c r="CI5">
+        <v>19134.76118670953</v>
+      </c>
+      <c r="CJ5">
+        <v>17191.05527965857</v>
+      </c>
+      <c r="CK5">
+        <v>15115.86405881256</v>
+      </c>
+      <c r="CL5">
+        <v>12919.95055578965</v>
+      </c>
+      <c r="CM5">
+        <v>10622.80045223056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:91">
+      <c r="B1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.332335427828165E-11</v>
+      </c>
+      <c r="C2">
+        <v>3.284513453445332E-10</v>
+      </c>
+      <c r="D2">
+        <v>2.644910172549428E-09</v>
+      </c>
+      <c r="E2">
+        <v>1.794652138468477E-08</v>
+      </c>
+      <c r="F2">
+        <v>1.051714456543677E-07</v>
+      </c>
+      <c r="G2">
+        <v>5.430354439820833E-07</v>
+      </c>
+      <c r="H2">
+        <v>2.510969149300927E-06</v>
+      </c>
+      <c r="I2">
+        <v>1.053729400572914E-05</v>
+      </c>
+      <c r="J2">
+        <v>4.056616272947798E-05</v>
+      </c>
+      <c r="K2">
+        <v>0.0001444093715299346</v>
+      </c>
+      <c r="L2">
+        <v>0.0004770528801053834</v>
+      </c>
+      <c r="M2">
+        <v>0.001454508344049978</v>
+      </c>
+      <c r="N2">
+        <v>0.003992240019498849</v>
+      </c>
+      <c r="O2">
+        <v>0.02487698484958367</v>
+      </c>
+      <c r="P2">
+        <v>0.08823761859586862</v>
+      </c>
+      <c r="Q2">
+        <v>0.1580868901339017</v>
+      </c>
+      <c r="R2">
+        <v>0.1889838195357223</v>
+      </c>
+      <c r="S2">
+        <v>0.2451326951834857</v>
+      </c>
+      <c r="T2">
+        <v>0.3748842359154081</v>
+      </c>
+      <c r="U2">
+        <v>0.5710379598494532</v>
+      </c>
+      <c r="V2">
+        <v>0.8987139293018198</v>
+      </c>
+      <c r="W2">
+        <v>1.365200803200872</v>
+      </c>
+      <c r="X2">
+        <v>1.886509118379152</v>
+      </c>
+      <c r="Y2">
+        <v>2.523211052226688</v>
+      </c>
+      <c r="Z2">
+        <v>3.315395407506512</v>
+      </c>
+      <c r="AA2">
+        <v>3.954030682757446</v>
+      </c>
+      <c r="AB2">
+        <v>4.714963762627557</v>
+      </c>
+      <c r="AC2">
+        <v>5.900015305617195</v>
+      </c>
+      <c r="AD2">
+        <v>7.001637090996896</v>
+      </c>
+      <c r="AE2">
+        <v>8.40511053838887</v>
+      </c>
+      <c r="AF2">
+        <v>9.291723746711821</v>
+      </c>
+      <c r="AG2">
+        <v>9.999565820592814</v>
+      </c>
+      <c r="AH2">
+        <v>12.35901563755824</v>
+      </c>
+      <c r="AI2">
+        <v>16.32489329424793</v>
+      </c>
+      <c r="AJ2">
+        <v>20.19826855420287</v>
+      </c>
+      <c r="AK2">
+        <v>26.36831692859137</v>
+      </c>
+      <c r="AL2">
+        <v>35.36002969428259</v>
+      </c>
+      <c r="AM2">
+        <v>48.30639894205826</v>
+      </c>
+      <c r="AN2">
+        <v>65.6680635807833</v>
+      </c>
+      <c r="AO2">
+        <v>78.8587133156381</v>
+      </c>
+      <c r="AP2">
+        <v>87.13710068347373</v>
+      </c>
+      <c r="AQ2">
+        <v>94.92526671542791</v>
+      </c>
+      <c r="AR2">
+        <v>102.1444734511224</v>
+      </c>
+      <c r="AS2">
+        <v>108.8326092222178</v>
+      </c>
+      <c r="AT2">
+        <v>116.2518490247767</v>
+      </c>
+      <c r="AU2">
+        <v>122.7806834586825</v>
+      </c>
+      <c r="AV2">
+        <v>123.1541485494593</v>
+      </c>
+      <c r="AW2">
+        <v>110.7565435051973</v>
+      </c>
+      <c r="AX2">
+        <v>87.80984174096558</v>
+      </c>
+      <c r="AY2">
+        <v>76.8631592605457</v>
+      </c>
+      <c r="AZ2">
+        <v>79.06489981524209</v>
+      </c>
+      <c r="BA2">
+        <v>79.98705569361704</v>
+      </c>
+      <c r="BB2">
+        <v>75.62175488565377</v>
+      </c>
+      <c r="BC2">
+        <v>67.12528673410534</v>
+      </c>
+      <c r="BD2">
+        <v>64.94542104503665</v>
+      </c>
+      <c r="BE2">
+        <v>71.30770312053811</v>
+      </c>
+      <c r="BF2">
+        <v>82.27447873208499</v>
+      </c>
+      <c r="BG2">
+        <v>99.08400604281537</v>
+      </c>
+      <c r="BH2">
+        <v>122.7051453668978</v>
+      </c>
+      <c r="BI2">
+        <v>149.6878868314719</v>
+      </c>
+      <c r="BJ2">
+        <v>180.0346135573365</v>
+      </c>
+      <c r="BK2">
+        <v>215.27700174249</v>
+      </c>
+      <c r="BL2">
+        <v>253.5457181612628</v>
+      </c>
+      <c r="BM2">
+        <v>291.9352094001211</v>
+      </c>
+      <c r="BN2">
+        <v>321.6769117925165</v>
+      </c>
+      <c r="BO2">
+        <v>343.7074961382693</v>
+      </c>
+      <c r="BP2">
+        <v>364.613430132061</v>
+      </c>
+      <c r="BQ2">
+        <v>384.2263944377826</v>
+      </c>
+      <c r="BR2">
+        <v>397.8969435810801</v>
+      </c>
+      <c r="BS2">
+        <v>397.1201884719223</v>
+      </c>
+      <c r="BT2">
+        <v>380.7399045338227</v>
+      </c>
+      <c r="BU2">
+        <v>359.3571595336909</v>
+      </c>
+      <c r="BV2">
+        <v>346.0255582847523</v>
+      </c>
+      <c r="BW2">
+        <v>342.7197027015036</v>
+      </c>
+      <c r="BX2">
+        <v>343.4646187598971</v>
+      </c>
+      <c r="BY2">
+        <v>343.0248930723078</v>
+      </c>
+      <c r="BZ2">
+        <v>342.8171999587228</v>
+      </c>
+      <c r="CA2">
+        <v>349.730402002997</v>
+      </c>
+      <c r="CB2">
+        <v>367.9079123278082</v>
+      </c>
+      <c r="CC2">
+        <v>399.7012148409243</v>
+      </c>
+      <c r="CD2">
+        <v>444.0921669855362</v>
+      </c>
+      <c r="CE2">
+        <v>497.6693864892167</v>
+      </c>
+      <c r="CF2">
+        <v>557.421699811276</v>
+      </c>
+      <c r="CG2">
+        <v>622.1312665279428</v>
+      </c>
+      <c r="CH2">
+        <v>692.7627365518181</v>
+      </c>
+      <c r="CI2">
+        <v>765.3362528187264</v>
+      </c>
+      <c r="CJ2">
+        <v>832.0054535682651</v>
+      </c>
+      <c r="CK2">
+        <v>887.0807034242202</v>
+      </c>
+      <c r="CL2">
+        <v>930.9543912591192</v>
+      </c>
+      <c r="CM2">
+        <v>967.9817658112198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.002726667188771785</v>
+      </c>
+      <c r="P3">
+        <v>0.009754564200417823</v>
+      </c>
+      <c r="Q3">
+        <v>0.01753254492555404</v>
+      </c>
+      <c r="R3">
+        <v>0.02091561825125876</v>
+      </c>
+      <c r="S3">
+        <v>0.02691498831020701</v>
+      </c>
+      <c r="T3">
+        <v>0.04053758393145619</v>
+      </c>
+      <c r="U3">
+        <v>0.06019279604196462</v>
+      </c>
+      <c r="V3">
+        <v>0.09196232279464008</v>
+      </c>
+      <c r="W3">
+        <v>0.1362221760802775</v>
+      </c>
+      <c r="X3">
+        <v>0.1842454245124138</v>
+      </c>
+      <c r="Y3">
+        <v>0.2419517316791361</v>
+      </c>
+      <c r="Z3">
+        <v>0.3129448939398508</v>
+      </c>
+      <c r="AA3">
+        <v>0.3681716689777179</v>
+      </c>
+      <c r="AB3">
+        <v>0.4338209840412804</v>
+      </c>
+      <c r="AC3">
+        <v>0.5371460963527818</v>
+      </c>
+      <c r="AD3">
+        <v>0.6313724301588339</v>
+      </c>
+      <c r="AE3">
+        <v>0.7512430370318048</v>
+      </c>
+      <c r="AF3">
+        <v>0.8234957813374737</v>
+      </c>
+      <c r="AG3">
+        <v>0.8788826713494017</v>
+      </c>
+      <c r="AH3">
+        <v>1.077111373892795</v>
+      </c>
+      <c r="AI3">
+        <v>1.410223898641354</v>
+      </c>
+      <c r="AJ3">
+        <v>1.728402856691058</v>
+      </c>
+      <c r="AK3">
+        <v>2.233283005417897</v>
+      </c>
+      <c r="AL3">
+        <v>2.961116084802895</v>
+      </c>
+      <c r="AM3">
+        <v>3.994873101764639</v>
+      </c>
+      <c r="AN3">
+        <v>5.355699307159705</v>
+      </c>
+      <c r="AO3">
+        <v>6.333297849732978</v>
+      </c>
+      <c r="AP3">
+        <v>6.895544685311982</v>
+      </c>
+      <c r="AQ3">
+        <v>7.422170847211126</v>
+      </c>
+      <c r="AR3">
+        <v>7.912528043832786</v>
+      </c>
+      <c r="AS3">
+        <v>8.373920463157232</v>
+      </c>
+      <c r="AT3">
+        <v>8.906199520121735</v>
+      </c>
+      <c r="AU3">
+        <v>9.386902444725669</v>
+      </c>
+      <c r="AV3">
+        <v>9.415286741836692</v>
+      </c>
+      <c r="AW3">
+        <v>8.483004588337781</v>
+      </c>
+      <c r="AX3">
+        <v>6.748889715436739</v>
+      </c>
+      <c r="AY3">
+        <v>5.936626149174642</v>
+      </c>
+      <c r="AZ3">
+        <v>6.144330353164738</v>
+      </c>
+      <c r="BA3">
+        <v>6.260875142798884</v>
+      </c>
+      <c r="BB3">
+        <v>5.967129561970914</v>
+      </c>
+      <c r="BC3">
+        <v>5.343393807478805</v>
+      </c>
+      <c r="BD3">
+        <v>5.218401141136033</v>
+      </c>
+      <c r="BE3">
+        <v>5.785916394028914</v>
+      </c>
+      <c r="BF3">
+        <v>6.743514751233271</v>
+      </c>
+      <c r="BG3">
+        <v>8.205496407605422</v>
+      </c>
+      <c r="BH3">
+        <v>10.26834920869644</v>
+      </c>
+      <c r="BI3">
+        <v>12.65856761372135</v>
+      </c>
+      <c r="BJ3">
+        <v>15.3854207641618</v>
+      </c>
+      <c r="BK3">
+        <v>18.58994537444008</v>
+      </c>
+      <c r="BL3">
+        <v>22.12155369480724</v>
+      </c>
+      <c r="BM3">
+        <v>25.7311953604719</v>
+      </c>
+      <c r="BN3">
+        <v>28.63711650877165</v>
+      </c>
+      <c r="BO3">
+        <v>30.89905373451752</v>
+      </c>
+      <c r="BP3">
+        <v>33.09312904369509</v>
+      </c>
+      <c r="BQ3">
+        <v>35.19952961063021</v>
+      </c>
+      <c r="BR3">
+        <v>36.78368153559158</v>
+      </c>
+      <c r="BS3">
+        <v>37.0363569847137</v>
+      </c>
+      <c r="BT3">
+        <v>35.81300085170876</v>
+      </c>
+      <c r="BU3">
+        <v>34.08219024436801</v>
+      </c>
+      <c r="BV3">
+        <v>33.08114167844972</v>
+      </c>
+      <c r="BW3">
+        <v>33.01906858317292</v>
+      </c>
+      <c r="BX3">
+        <v>33.33835443794022</v>
+      </c>
+      <c r="BY3">
+        <v>33.53577122382935</v>
+      </c>
+      <c r="BZ3">
+        <v>33.74825931351775</v>
+      </c>
+      <c r="CA3">
+        <v>34.65897323340184</v>
+      </c>
+      <c r="CB3">
+        <v>36.69479231682288</v>
+      </c>
+      <c r="CC3">
+        <v>40.11210733216458</v>
+      </c>
+      <c r="CD3">
+        <v>44.83135899417659</v>
+      </c>
+      <c r="CE3">
+        <v>50.52601473770248</v>
+      </c>
+      <c r="CF3">
+        <v>56.90132741421213</v>
+      </c>
+      <c r="CG3">
+        <v>63.83907976783755</v>
+      </c>
+      <c r="CH3">
+        <v>71.4429558058719</v>
+      </c>
+      <c r="CI3">
+        <v>79.30568338670402</v>
+      </c>
+      <c r="CJ3">
+        <v>86.60933807027165</v>
+      </c>
+      <c r="CK3">
+        <v>92.74705316810652</v>
+      </c>
+      <c r="CL3">
+        <v>97.74132981108153</v>
+      </c>
+      <c r="CM3">
+        <v>102.0344234508972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.02048270970275495</v>
+      </c>
+      <c r="C4">
+        <v>0.03733569194524593</v>
+      </c>
+      <c r="D4">
+        <v>0.06587206949703862</v>
+      </c>
+      <c r="E4">
+        <v>0.113543414112338</v>
+      </c>
+      <c r="F4">
+        <v>0.1920316889201013</v>
+      </c>
+      <c r="G4">
+        <v>0.3190798607914885</v>
+      </c>
+      <c r="H4">
+        <v>0.5220114044151537</v>
+      </c>
+      <c r="I4">
+        <v>0.8467260735644269</v>
+      </c>
+      <c r="J4">
+        <v>1.382849882195645</v>
+      </c>
+      <c r="K4">
+        <v>2.331843918931873</v>
+      </c>
+      <c r="L4">
+        <v>4.169717571622631</v>
+      </c>
+      <c r="M4">
+        <v>7.912873398284654</v>
+      </c>
+      <c r="N4">
+        <v>14.9368549233215</v>
+      </c>
+      <c r="O4">
+        <v>25.09158112936191</v>
+      </c>
+      <c r="P4">
+        <v>32.78382594329528</v>
+      </c>
+      <c r="Q4">
+        <v>38.39380974314781</v>
+      </c>
+      <c r="R4">
+        <v>46.33304441068367</v>
+      </c>
+      <c r="S4">
+        <v>57.73751696533543</v>
+      </c>
+      <c r="T4">
+        <v>72.33295566886163</v>
+      </c>
+      <c r="U4">
+        <v>89.76072402816081</v>
+      </c>
+      <c r="V4">
+        <v>111.8272128292342</v>
+      </c>
+      <c r="W4">
+        <v>138.4941045818859</v>
+      </c>
+      <c r="X4">
+        <v>166.7700163899708</v>
+      </c>
+      <c r="Y4">
+        <v>201.1158156667506</v>
+      </c>
+      <c r="Z4">
+        <v>243.8971906622661</v>
+      </c>
+      <c r="AA4">
+        <v>295.2166748684366</v>
+      </c>
+      <c r="AB4">
+        <v>367.6804306294418</v>
+      </c>
+      <c r="AC4">
+        <v>458.3804451102966</v>
+      </c>
+      <c r="AD4">
+        <v>558.1187608684851</v>
+      </c>
+      <c r="AE4">
+        <v>687.0749054038325</v>
+      </c>
+      <c r="AF4">
+        <v>860.1916151293713</v>
+      </c>
+      <c r="AG4">
+        <v>1088.964744919373</v>
+      </c>
+      <c r="AH4">
+        <v>1380.399423782277</v>
+      </c>
+      <c r="AI4">
+        <v>1738.735651404586</v>
+      </c>
+      <c r="AJ4">
+        <v>2197.448109524692</v>
+      </c>
+      <c r="AK4">
+        <v>2769.916694853699</v>
+      </c>
+      <c r="AL4">
+        <v>3410.941215138411</v>
+      </c>
+      <c r="AM4">
+        <v>4155.772892673966</v>
+      </c>
+      <c r="AN4">
+        <v>4991.491514469235</v>
+      </c>
+      <c r="AO4">
+        <v>5685.047301830859</v>
+      </c>
+      <c r="AP4">
+        <v>6209.995897345599</v>
+      </c>
+      <c r="AQ4">
+        <v>6659.346302845279</v>
+      </c>
+      <c r="AR4">
+        <v>7011.143915907011</v>
+      </c>
+      <c r="AS4">
+        <v>7246.935727837455</v>
+      </c>
+      <c r="AT4">
+        <v>7374.22888998792</v>
+      </c>
+      <c r="AU4">
+        <v>7364.923595274789</v>
+      </c>
+      <c r="AV4">
+        <v>7155.032679620128</v>
+      </c>
+      <c r="AW4">
+        <v>6684.548389673926</v>
+      </c>
+      <c r="AX4">
+        <v>6025.217483050773</v>
+      </c>
+      <c r="AY4">
+        <v>5498.52174447675</v>
+      </c>
+      <c r="AZ4">
+        <v>5125.877920981636</v>
+      </c>
+      <c r="BA4">
+        <v>4753.044262546149</v>
+      </c>
+      <c r="BB4">
+        <v>4381.669776001426</v>
+      </c>
+      <c r="BC4">
+        <v>4058.942763975791</v>
+      </c>
+      <c r="BD4">
+        <v>3887.749995358455</v>
+      </c>
+      <c r="BE4">
+        <v>3895.886908079478</v>
+      </c>
+      <c r="BF4">
+        <v>4066.422646152364</v>
+      </c>
+      <c r="BG4">
+        <v>4420.402584185777</v>
+      </c>
+      <c r="BH4">
+        <v>4952.141006927764</v>
+      </c>
+      <c r="BI4">
+        <v>5593.425226883269</v>
+      </c>
+      <c r="BJ4">
+        <v>6311.722912881959</v>
+      </c>
+      <c r="BK4">
+        <v>7078.941316008742</v>
+      </c>
+      <c r="BL4">
+        <v>7826.873812609229</v>
+      </c>
+      <c r="BM4">
+        <v>8511.218777276072</v>
+      </c>
+      <c r="BN4">
+        <v>9078.268004732337</v>
+      </c>
+      <c r="BO4">
+        <v>9537.089069337377</v>
+      </c>
+      <c r="BP4">
+        <v>9921.671741060838</v>
+      </c>
+      <c r="BQ4">
+        <v>10218.73963699272</v>
+      </c>
+      <c r="BR4">
+        <v>10389.05554416747</v>
+      </c>
+      <c r="BS4">
+        <v>10379.7924950811</v>
+      </c>
+      <c r="BT4">
+        <v>10199.81971697781</v>
+      </c>
+      <c r="BU4">
+        <v>9942.016597627975</v>
+      </c>
+      <c r="BV4">
+        <v>9710.660009604884</v>
+      </c>
+      <c r="BW4">
+        <v>9525.395016875009</v>
+      </c>
+      <c r="BX4">
+        <v>9352.985727952844</v>
+      </c>
+      <c r="BY4">
+        <v>9178.381405745115</v>
+      </c>
+      <c r="BZ4">
+        <v>9024.078470717493</v>
+      </c>
+      <c r="CA4">
+        <v>8930.56004928808</v>
+      </c>
+      <c r="CB4">
+        <v>8929.573407914953</v>
+      </c>
+      <c r="CC4">
+        <v>9050.992963832825</v>
+      </c>
+      <c r="CD4">
+        <v>9304.496544708731</v>
+      </c>
+      <c r="CE4">
+        <v>9669.531386478478</v>
+      </c>
+      <c r="CF4">
+        <v>10111.28375759913</v>
+      </c>
+      <c r="CG4">
+        <v>10599.2512494967</v>
+      </c>
+      <c r="CH4">
+        <v>11108.57986526977</v>
+      </c>
+      <c r="CI4">
+        <v>11601.37923282095</v>
+      </c>
+      <c r="CJ4">
+        <v>12041.46661049174</v>
+      </c>
+      <c r="CK4">
+        <v>12412.52060386983</v>
+      </c>
+      <c r="CL4">
+        <v>12719.12900560598</v>
+      </c>
+      <c r="CM4">
+        <v>12970.88355909845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.001112041473722619</v>
+      </c>
+      <c r="C5">
+        <v>0.002015500986395293</v>
+      </c>
+      <c r="D5">
+        <v>0.003534091688329751</v>
+      </c>
+      <c r="E5">
+        <v>0.006052220365555725</v>
+      </c>
+      <c r="F5">
+        <v>0.01016568172675718</v>
+      </c>
+      <c r="G5">
+        <v>0.01675009143478017</v>
+      </c>
+      <c r="H5">
+        <v>0.02703192688889803</v>
+      </c>
+      <c r="I5">
+        <v>0.04266283303888239</v>
+      </c>
+      <c r="J5">
+        <v>0.06579907531999656</v>
+      </c>
+      <c r="K5">
+        <v>0.09917822309336001</v>
+      </c>
+      <c r="L5">
+        <v>0.1461735917809014</v>
+      </c>
+      <c r="M5">
+        <v>0.2108109592796427</v>
+      </c>
+      <c r="N5">
+        <v>0.2977378984652219</v>
+      </c>
+      <c r="O5">
+        <v>1.347663947338581</v>
+      </c>
+      <c r="P5">
+        <v>3.089574033855818</v>
+      </c>
+      <c r="Q5">
+        <v>5.755316091749533</v>
+      </c>
+      <c r="R5">
+        <v>9.598062438351135</v>
+      </c>
+      <c r="S5">
+        <v>14.88551625660607</v>
+      </c>
+      <c r="T5">
+        <v>21.90294462039228</v>
+      </c>
+      <c r="U5">
+        <v>30.97023677491098</v>
+      </c>
+      <c r="V5">
+        <v>42.72910134335959</v>
+      </c>
+      <c r="W5">
+        <v>58.28037097054738</v>
+      </c>
+      <c r="X5">
+        <v>79.01000703282918</v>
+      </c>
+      <c r="Y5">
+        <v>106.880100000293</v>
+      </c>
+      <c r="Z5">
+        <v>144.608792638851</v>
+      </c>
+      <c r="AA5">
+        <v>195.8698338429578</v>
+      </c>
+      <c r="AB5">
+        <v>265.496258264916</v>
+      </c>
+      <c r="AC5">
+        <v>359.6556366849697</v>
+      </c>
+      <c r="AD5">
+        <v>485.9389207932379</v>
+      </c>
+      <c r="AE5">
+        <v>653.3071800202351</v>
+      </c>
+      <c r="AF5">
+        <v>871.8439606402496</v>
+      </c>
+      <c r="AG5">
+        <v>1152.259748960909</v>
+      </c>
+      <c r="AH5">
+        <v>1505.104148563307</v>
+      </c>
+      <c r="AI5">
+        <v>1939.660419889706</v>
+      </c>
+      <c r="AJ5">
+        <v>2462.541151156814</v>
+      </c>
+      <c r="AK5">
+        <v>3076.065126018691</v>
+      </c>
+      <c r="AL5">
+        <v>3776.573326584034</v>
+      </c>
+      <c r="AM5">
+        <v>4552.935772931309</v>
+      </c>
+      <c r="AN5">
+        <v>5385.586040424957</v>
+      </c>
+      <c r="AO5">
+        <v>6246.450904914598</v>
+      </c>
+      <c r="AP5">
+        <v>7094.935311161923</v>
+      </c>
+      <c r="AQ5">
+        <v>7882.89460394271</v>
+      </c>
+      <c r="AR5">
+        <v>8565.360696785001</v>
+      </c>
+      <c r="AS5">
+        <v>9101.882300925627</v>
+      </c>
+      <c r="AT5">
+        <v>9461.54024218598</v>
+      </c>
+      <c r="AU5">
+        <v>9626.954344005104</v>
+      </c>
+      <c r="AV5">
+        <v>9596.5942242008</v>
+      </c>
+      <c r="AW5">
+        <v>9385.149946697726</v>
+      </c>
+      <c r="AX5">
+        <v>9022.208366740428</v>
+      </c>
+      <c r="AY5">
+        <v>8549.786616096661</v>
+      </c>
+      <c r="AZ5">
+        <v>8019.245450781022</v>
+      </c>
+      <c r="BA5">
+        <v>7487.793585203637</v>
+      </c>
+      <c r="BB5">
+        <v>7014.470047303891</v>
+      </c>
+      <c r="BC5">
+        <v>6655.478929488282</v>
+      </c>
+      <c r="BD5">
+        <v>6459.154125454413</v>
+      </c>
+      <c r="BE5">
+        <v>6461.386971768767</v>
+      </c>
+      <c r="BF5">
+        <v>6682.594493658842</v>
+      </c>
+      <c r="BG5">
+        <v>7126.948439032971</v>
+      </c>
+      <c r="BH5">
+        <v>7783.768179177644</v>
+      </c>
+      <c r="BI5">
+        <v>8630.209052299173</v>
+      </c>
+      <c r="BJ5">
+        <v>9634.147482230723</v>
+      </c>
+      <c r="BK5">
+        <v>10756.58495585127</v>
+      </c>
+      <c r="BL5">
+        <v>11953.59951842029</v>
+      </c>
+      <c r="BM5">
+        <v>13178.32112685622</v>
+      </c>
+      <c r="BN5">
+        <v>14383.32187192172</v>
+      </c>
+      <c r="BO5">
+        <v>15523.38775895545</v>
+      </c>
+      <c r="BP5">
+        <v>16558.30254410576</v>
+      </c>
+      <c r="BQ5">
+        <v>17455.27137356426</v>
+      </c>
+      <c r="BR5">
+        <v>18190.83224914341</v>
+      </c>
+      <c r="BS5">
+        <v>18752.2718558116</v>
+      </c>
+      <c r="BT5">
+        <v>19138.53525447143</v>
+      </c>
+      <c r="BU5">
+        <v>19360.482708276</v>
+      </c>
+      <c r="BV5">
+        <v>19440.2860288342</v>
+      </c>
+      <c r="BW5">
+        <v>19409.86868852247</v>
+      </c>
+      <c r="BX5">
+        <v>19308.51531835475</v>
+      </c>
+      <c r="BY5">
+        <v>19179.95338640576</v>
+      </c>
+      <c r="BZ5">
+        <v>19069.23829904504</v>
+      </c>
+      <c r="CA5">
+        <v>19019.68166000835</v>
+      </c>
+      <c r="CB5">
+        <v>19069.97021838437</v>
+      </c>
+      <c r="CC5">
+        <v>19251.61676489424</v>
+      </c>
+      <c r="CD5">
+        <v>19586.93677884615</v>
+      </c>
+      <c r="CE5">
+        <v>20087.7607833851</v>
+      </c>
+      <c r="CF5">
+        <v>20755.01417978292</v>
+      </c>
+      <c r="CG5">
+        <v>21579.15489143417</v>
+      </c>
+      <c r="CH5">
+        <v>22541.33539259836</v>
+      </c>
+      <c r="CI5">
+        <v>23615.10110412022</v>
+      </c>
+      <c r="CJ5">
+        <v>24768.44621822047</v>
+      </c>
+      <c r="CK5">
+        <v>25966.07975006263</v>
+      </c>
+      <c r="CL5">
+        <v>27171.77225145477</v>
+      </c>
+      <c r="CM5">
+        <v>28350.65258189774</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Emissions/RR/Annual_Emission_target.xlsx
+++ b/Results/Emissions/RR/Annual_Emission_target.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Emissions/RR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_32331B1326EB026CFB0B0AAE1F8957C7B9FB4A95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B0391F-5FE0-473D-975E-94107CD3B85B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,20 @@
     <sheet name="Primary" sheetId="4" r:id="rId4"/>
     <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +65,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,27 +111,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -177,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,14 +425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CM1" sqref="CM1:CM5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -665,75 +706,75 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.87313184258693</v>
+        <v>46.873131842586929</v>
       </c>
       <c r="C2">
-        <v>66.33198678195018</v>
+        <v>66.331986781950178</v>
       </c>
       <c r="D2">
-        <v>64.10893846214857</v>
+        <v>64.108938462148572</v>
       </c>
       <c r="E2">
-        <v>60.87287776855732</v>
+        <v>60.872877768557323</v>
       </c>
       <c r="F2">
         <v>97.98477968115175</v>
       </c>
       <c r="G2">
-        <v>70.69516570689808</v>
+        <v>70.695165706898081</v>
       </c>
       <c r="H2">
-        <v>125.7741924642118</v>
+        <v>125.77419246421179</v>
       </c>
       <c r="I2">
-        <v>119.5422937165467</v>
+        <v>119.54229371654669</v>
       </c>
       <c r="J2">
-        <v>112.1300664561145</v>
+        <v>112.13006645611451</v>
       </c>
       <c r="K2">
-        <v>101.2034943985119</v>
+        <v>101.20349439851191</v>
       </c>
       <c r="L2">
         <v>209.8180725960533</v>
       </c>
       <c r="M2">
-        <v>142.8022445828559</v>
+        <v>142.80224458285591</v>
       </c>
       <c r="N2">
-        <v>279.4070316182755</v>
+        <v>279.40703161827548</v>
       </c>
       <c r="O2">
-        <v>301.5946475698194</v>
+        <v>301.59464756981941</v>
       </c>
       <c r="P2">
-        <v>324.0936560620227</v>
+        <v>324.09365606202272</v>
       </c>
       <c r="Q2">
-        <v>709.4965541808555</v>
+        <v>709.49655418085547</v>
       </c>
       <c r="R2">
-        <v>759.7043216241217</v>
+        <v>759.70432162412169</v>
       </c>
       <c r="S2">
-        <v>810.4618415081269</v>
+        <v>810.46184150812689</v>
       </c>
       <c r="T2">
-        <v>862.18408760006</v>
+        <v>862.18408760006002</v>
       </c>
       <c r="U2">
-        <v>914.6740214967484</v>
+        <v>914.67402149674842</v>
       </c>
       <c r="V2">
-        <v>919.1456670877234</v>
+        <v>919.14566708772338</v>
       </c>
       <c r="W2">
-        <v>969.6637189563646</v>
+        <v>969.66371895636462</v>
       </c>
       <c r="X2">
         <v>1020.602565312206</v>
@@ -745,55 +786,55 @@
         <v>1126.112261233817</v>
       </c>
       <c r="AA2">
-        <v>526.1707468390896</v>
+        <v>526.17074683908959</v>
       </c>
       <c r="AB2">
-        <v>540.8621740798152</v>
+        <v>540.86217407981519</v>
       </c>
       <c r="AC2">
-        <v>559.7376899041577</v>
+        <v>559.73768990415772</v>
       </c>
       <c r="AD2">
-        <v>578.0044803698123</v>
+        <v>578.00448036981231</v>
       </c>
       <c r="AE2">
-        <v>599.3795483560012</v>
+        <v>599.37954835600124</v>
       </c>
       <c r="AF2">
-        <v>384.2464544907915</v>
+        <v>384.24645449079151</v>
       </c>
       <c r="AG2">
         <v>387.8741032583473</v>
       </c>
       <c r="AH2">
-        <v>406.8385601376747</v>
+        <v>406.83856013767468</v>
       </c>
       <c r="AI2">
-        <v>440.7657338667175</v>
+        <v>440.76573386671748</v>
       </c>
       <c r="AJ2">
-        <v>473.7936845254789</v>
+        <v>473.79368452547891</v>
       </c>
       <c r="AK2">
-        <v>628.037886672893</v>
+        <v>628.03788667289302</v>
       </c>
       <c r="AL2">
-        <v>707.9944841079104</v>
+        <v>707.99448410791035</v>
       </c>
       <c r="AM2">
-        <v>818.8620112838577</v>
+        <v>818.86201128385767</v>
       </c>
       <c r="AN2">
-        <v>961.9544868830164</v>
+        <v>961.95448688301644</v>
       </c>
       <c r="AO2">
-        <v>1064.482214841485</v>
+        <v>1064.4822148414851</v>
       </c>
       <c r="AP2">
-        <v>1309.817260953124</v>
+        <v>1309.8172609531241</v>
       </c>
       <c r="AQ2">
-        <v>1366.413294911832</v>
+        <v>1366.4132949118321</v>
       </c>
       <c r="AR2">
         <v>1413.931951955773</v>
@@ -802,22 +843,22 @@
         <v>1452.76866360499</v>
       </c>
       <c r="AT2">
-        <v>1492.204427781753</v>
+        <v>1492.2044277817531</v>
       </c>
       <c r="AU2">
         <v>1562.890223336203</v>
       </c>
       <c r="AV2">
-        <v>1547.039664080061</v>
+        <v>1547.0396640800609</v>
       </c>
       <c r="AW2">
-        <v>1446.097443718281</v>
+        <v>1446.0974437182811</v>
       </c>
       <c r="AX2">
-        <v>1282.206950495016</v>
+        <v>1282.2069504950159</v>
       </c>
       <c r="AY2">
-        <v>1200.868656841987</v>
+        <v>1200.8686568419871</v>
       </c>
       <c r="AZ2">
         <v>1150.72802932483</v>
@@ -829,10 +870,10 @@
         <v>1106.180023133739</v>
       </c>
       <c r="BC2">
-        <v>1050.017029123093</v>
+        <v>1050.0170291230929</v>
       </c>
       <c r="BD2">
-        <v>1031.577742251645</v>
+        <v>1031.5777422516451</v>
       </c>
       <c r="BE2">
         <v>1021.705095282653</v>
@@ -841,10 +882,10 @@
         <v>1070.413980292557</v>
       </c>
       <c r="BG2">
-        <v>1145.25309960627</v>
+        <v>1145.2530996062701</v>
       </c>
       <c r="BH2">
-        <v>1248.016607608995</v>
+        <v>1248.0166076089949</v>
       </c>
       <c r="BI2">
         <v>1360.359249269123</v>
@@ -853,7 +894,7 @@
         <v>1460.128199443034</v>
       </c>
       <c r="BK2">
-        <v>1593.504943826542</v>
+        <v>1593.5049438265421</v>
       </c>
       <c r="BL2">
         <v>1730.90236149321</v>
@@ -865,16 +906,16 @@
         <v>1947.837313594001</v>
       </c>
       <c r="BO2">
-        <v>1990.462075508589</v>
+        <v>1990.4620755085889</v>
       </c>
       <c r="BP2">
-        <v>2035.235892832667</v>
+        <v>2035.2358928326671</v>
       </c>
       <c r="BQ2">
-        <v>2071.623483846694</v>
+        <v>2071.6234838466939</v>
       </c>
       <c r="BR2">
-        <v>2084.598224513779</v>
+        <v>2084.5982245137789</v>
       </c>
       <c r="BS2">
         <v>2048.492143762312</v>
@@ -883,28 +924,28 @@
         <v>1951.064108704458</v>
       </c>
       <c r="BU2">
-        <v>1854.678219556124</v>
+        <v>1854.6782195561241</v>
       </c>
       <c r="BV2">
-        <v>1786.729615513242</v>
+        <v>1786.7296155132419</v>
       </c>
       <c r="BW2">
-        <v>1750.766020013716</v>
+        <v>1750.7660200137159</v>
       </c>
       <c r="BX2">
-        <v>1727.57060864695</v>
+        <v>1727.5706086469499</v>
       </c>
       <c r="BY2">
-        <v>1690.305932448022</v>
+        <v>1690.3059324480221</v>
       </c>
       <c r="BZ2">
         <v>1666.47996590049</v>
       </c>
       <c r="CA2">
-        <v>1662.366338264556</v>
+        <v>1662.3663382645559</v>
       </c>
       <c r="CB2">
-        <v>1686.966188903263</v>
+        <v>1686.9661889032629</v>
       </c>
       <c r="CC2">
         <v>1743.872599904247</v>
@@ -916,31 +957,31 @@
         <v>1915.011409031013</v>
       </c>
       <c r="CF2">
-        <v>2025.777158697948</v>
+        <v>2025.7771586979479</v>
       </c>
       <c r="CG2">
-        <v>2142.257160423511</v>
+        <v>2142.2571604235109</v>
       </c>
       <c r="CH2">
-        <v>2265.911544146774</v>
+        <v>2265.9115441467738</v>
       </c>
       <c r="CI2">
-        <v>2364.867035167349</v>
+        <v>2364.8670351673491</v>
       </c>
       <c r="CJ2">
-        <v>2468.405706607298</v>
+        <v>2468.4057066072978</v>
       </c>
       <c r="CK2">
-        <v>2543.841477297088</v>
+        <v>2543.8414772970882</v>
       </c>
       <c r="CL2">
-        <v>2593.751968478289</v>
+        <v>2593.7519684782892</v>
       </c>
       <c r="CM2">
-        <v>2628.003911258019</v>
+        <v>2628.0039112580189</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -951,37 +992,37 @@
         <v>23.38798957595704</v>
       </c>
       <c r="D3">
-        <v>22.57939166938896</v>
+        <v>22.579391669388961</v>
       </c>
       <c r="E3">
-        <v>21.42598026129284</v>
+        <v>21.425980261292839</v>
       </c>
       <c r="F3">
-        <v>34.62336947153072</v>
+        <v>34.623369471530722</v>
       </c>
       <c r="G3">
-        <v>24.89427440242366</v>
+        <v>24.894274402423662</v>
       </c>
       <c r="H3">
-        <v>44.50192705327838</v>
+        <v>44.501927053278379</v>
       </c>
       <c r="I3">
-        <v>42.2594384906029</v>
+        <v>42.259438490602903</v>
       </c>
       <c r="J3">
-        <v>39.61019045635975</v>
+        <v>39.610190456359753</v>
       </c>
       <c r="K3">
-        <v>35.70447677404157</v>
+        <v>35.704476774041567</v>
       </c>
       <c r="L3">
-        <v>74.4041807501485</v>
+        <v>74.404180750148498</v>
       </c>
       <c r="M3">
-        <v>50.51125071923278</v>
+        <v>50.511250719232777</v>
       </c>
       <c r="N3">
-        <v>99.17247898286337</v>
+        <v>99.172478982863367</v>
       </c>
       <c r="O3">
         <v>107.0704907453582</v>
@@ -990,34 +1031,34 @@
         <v>115.0795300856268</v>
       </c>
       <c r="Q3">
-        <v>252.3823142596401</v>
+        <v>252.38231425964011</v>
       </c>
       <c r="R3">
-        <v>270.2639740413646</v>
+        <v>270.26397404136458</v>
       </c>
       <c r="S3">
-        <v>288.3415103953013</v>
+        <v>288.34151039530133</v>
       </c>
       <c r="T3">
-        <v>306.7628221159493</v>
+        <v>306.76282211594929</v>
       </c>
       <c r="U3">
-        <v>325.4576969565341</v>
+        <v>325.45769695653411</v>
       </c>
       <c r="V3">
         <v>327.039303068018</v>
       </c>
       <c r="W3">
-        <v>345.0318230075376</v>
+        <v>345.03182300753758</v>
       </c>
       <c r="X3">
-        <v>363.17433010727</v>
+        <v>363.17433010727001</v>
       </c>
       <c r="Y3">
-        <v>381.6996745205532</v>
+        <v>381.69967452055317</v>
       </c>
       <c r="Z3">
-        <v>400.7535995343727</v>
+        <v>400.75359953437271</v>
       </c>
       <c r="AA3">
         <v>186.9743331802544</v>
@@ -1026,79 +1067,79 @@
         <v>192.1983009227923</v>
       </c>
       <c r="AC3">
-        <v>198.913280108618</v>
+        <v>198.91328010861801</v>
       </c>
       <c r="AD3">
         <v>205.4113716931208</v>
       </c>
       <c r="AE3">
-        <v>213.0170530475087</v>
+        <v>213.01705304750871</v>
       </c>
       <c r="AF3">
-        <v>136.3471519357634</v>
+        <v>136.34715193576341</v>
       </c>
       <c r="AG3">
         <v>137.627217203127</v>
       </c>
       <c r="AH3">
-        <v>144.3726150525114</v>
+        <v>144.37261505251141</v>
       </c>
       <c r="AI3">
-        <v>156.4500430740179</v>
+        <v>156.45004307401791</v>
       </c>
       <c r="AJ3">
-        <v>168.2064195930444</v>
+        <v>168.20641959304439</v>
       </c>
       <c r="AK3">
-        <v>223.155621184787</v>
+        <v>223.15562118478701</v>
       </c>
       <c r="AL3">
-        <v>251.6348216285739</v>
+        <v>251.63482162857389</v>
       </c>
       <c r="AM3">
-        <v>291.1293110454891</v>
+        <v>291.12931104548909</v>
       </c>
       <c r="AN3">
-        <v>342.10747562989</v>
+        <v>342.10747562989002</v>
       </c>
       <c r="AO3">
-        <v>378.6305745590724</v>
+        <v>378.63057455907239</v>
       </c>
       <c r="AP3">
-        <v>466.0406534309597</v>
+        <v>466.04065343095971</v>
       </c>
       <c r="AQ3">
-        <v>486.1962610478762</v>
+        <v>486.19626104787619</v>
       </c>
       <c r="AR3">
-        <v>503.1175106965858</v>
+        <v>503.11751069658578</v>
       </c>
       <c r="AS3">
-        <v>516.9454046478588</v>
+        <v>516.94540464785882</v>
       </c>
       <c r="AT3">
-        <v>530.9873629616969</v>
+        <v>530.98736296169693</v>
       </c>
       <c r="AU3">
-        <v>556.1638543190029</v>
+        <v>556.16385431900289</v>
       </c>
       <c r="AV3">
-        <v>550.5037585701973</v>
+        <v>550.50375857019731</v>
       </c>
       <c r="AW3">
-        <v>514.5203571065417</v>
+        <v>514.52035710654172</v>
       </c>
       <c r="AX3">
-        <v>456.1045591988959</v>
+        <v>456.10455919889591</v>
       </c>
       <c r="AY3">
-        <v>427.1075027899259</v>
+        <v>427.10750278992589</v>
       </c>
       <c r="AZ3">
-        <v>409.2276583172612</v>
+        <v>409.22765831726122</v>
       </c>
       <c r="BA3">
-        <v>406.4319626241925</v>
+        <v>406.43196262419252</v>
       </c>
       <c r="BB3">
         <v>393.3271257802474</v>
@@ -1110,22 +1151,22 @@
         <v>366.7141842259237</v>
       </c>
       <c r="BE3">
-        <v>363.1813117413974</v>
+        <v>363.18131174139739</v>
       </c>
       <c r="BF3">
-        <v>380.5241173390664</v>
+        <v>380.52411733906638</v>
       </c>
       <c r="BG3">
         <v>407.1780286617315</v>
       </c>
       <c r="BH3">
-        <v>443.7825617087375</v>
+        <v>443.78256170873749</v>
       </c>
       <c r="BI3">
-        <v>483.8002941426461</v>
+        <v>483.80029414264612</v>
       </c>
       <c r="BJ3">
-        <v>519.335997748412</v>
+        <v>519.33599774841196</v>
       </c>
       <c r="BK3">
         <v>566.8485249431584</v>
@@ -1134,165 +1175,165 @@
         <v>615.7943221637214</v>
       </c>
       <c r="BM3">
-        <v>661.7882719567135</v>
+        <v>661.78827195671352</v>
       </c>
       <c r="BN3">
-        <v>693.0678403780471</v>
+        <v>693.06784037804709</v>
       </c>
       <c r="BO3">
         <v>708.2393856505978</v>
       </c>
       <c r="BP3">
-        <v>724.1771838565612</v>
+        <v>724.17718385656121</v>
       </c>
       <c r="BQ3">
-        <v>737.1267522541456</v>
+        <v>737.12675225414557</v>
       </c>
       <c r="BR3">
-        <v>741.7331246979793</v>
+        <v>741.73312469797929</v>
       </c>
       <c r="BS3">
-        <v>728.8490434439116</v>
+        <v>728.84904344391157</v>
       </c>
       <c r="BT3">
-        <v>694.1110421843308</v>
+        <v>694.11104218433081</v>
       </c>
       <c r="BU3">
-        <v>659.7445146896114</v>
+        <v>659.74451468961138</v>
       </c>
       <c r="BV3">
-        <v>635.5119500496489</v>
+        <v>635.51195004964893</v>
       </c>
       <c r="BW3">
         <v>622.6776129325749</v>
       </c>
       <c r="BX3">
-        <v>614.3935661650157</v>
+        <v>614.39356616501573</v>
       </c>
       <c r="BY3">
-        <v>601.0946772045054</v>
+        <v>601.09467720450539</v>
       </c>
       <c r="BZ3">
-        <v>592.5846897535827</v>
+        <v>592.58468975358267</v>
       </c>
       <c r="CA3">
-        <v>591.0995348614754</v>
+        <v>591.09953486147538</v>
       </c>
       <c r="CB3">
-        <v>599.8469123843848</v>
+        <v>599.84691238438484</v>
       </c>
       <c r="CC3">
-        <v>620.1072175848869</v>
+        <v>620.10721758488694</v>
       </c>
       <c r="CD3">
-        <v>644.8861293719069</v>
+        <v>644.88612937190692</v>
       </c>
       <c r="CE3">
-        <v>681.0530027727528</v>
+        <v>681.05300277275285</v>
       </c>
       <c r="CF3">
-        <v>720.5043159044567</v>
+        <v>720.50431590445669</v>
       </c>
       <c r="CG3">
-        <v>761.9918941781746</v>
+        <v>761.99189417817456</v>
       </c>
       <c r="CH3">
-        <v>806.0363122605079</v>
+        <v>806.03631226050788</v>
       </c>
       <c r="CI3">
-        <v>841.2784167316426</v>
+        <v>841.27841673164255</v>
       </c>
       <c r="CJ3">
-        <v>878.1535270726793</v>
+        <v>878.15352707267925</v>
       </c>
       <c r="CK3">
-        <v>905.0137882368556</v>
+        <v>905.01378823685559</v>
       </c>
       <c r="CL3">
-        <v>922.7777269135265</v>
+        <v>922.77772691352652</v>
       </c>
       <c r="CM3">
-        <v>934.9615690679262</v>
+        <v>934.96156906792623</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.755210687226</v>
+        <v>3257.7552106872258</v>
       </c>
       <c r="C4">
         <v>2998.522452537542</v>
       </c>
       <c r="D4">
-        <v>2460.828800853539</v>
+        <v>2460.8288008535392</v>
       </c>
       <c r="E4">
-        <v>2804.822873853964</v>
+        <v>2804.8228738539642</v>
       </c>
       <c r="F4">
-        <v>3541.749497848261</v>
+        <v>3541.7494978482609</v>
       </c>
       <c r="G4">
-        <v>3303.780593953032</v>
+        <v>3303.7805939530322</v>
       </c>
       <c r="H4">
         <v>3552.470669265846</v>
       </c>
       <c r="I4">
-        <v>3119.865525064</v>
+        <v>3119.8655250639999</v>
       </c>
       <c r="J4">
-        <v>3390.633927138999</v>
+        <v>3390.6339271389988</v>
       </c>
       <c r="K4">
-        <v>4009.896081967406</v>
+        <v>4009.8960819674062</v>
       </c>
       <c r="L4">
-        <v>3812.476257376952</v>
+        <v>3812.4762573769522</v>
       </c>
       <c r="M4">
-        <v>4417.814332275586</v>
+        <v>4417.8143322755859</v>
       </c>
       <c r="N4">
-        <v>23163.95988658767</v>
+        <v>23163.959886587669</v>
       </c>
       <c r="O4">
-        <v>23354.15595864232</v>
+        <v>23354.155958642321</v>
       </c>
       <c r="P4">
-        <v>23496.0467289901</v>
+        <v>23496.046728990099</v>
       </c>
       <c r="Q4">
-        <v>73776.52085485113</v>
+        <v>73776.520854851129</v>
       </c>
       <c r="R4">
-        <v>73968.82627002624</v>
+        <v>73968.826270026242</v>
       </c>
       <c r="S4">
-        <v>74203.76292818222</v>
+        <v>74203.762928182216</v>
       </c>
       <c r="T4">
         <v>74473.82221465878</v>
       </c>
       <c r="U4">
-        <v>74771.87981469808</v>
+        <v>74771.879814698084</v>
       </c>
       <c r="V4">
-        <v>78190.92447229337</v>
+        <v>78190.924472293365</v>
       </c>
       <c r="W4">
-        <v>78571.86478146198</v>
+        <v>78571.864781461976</v>
       </c>
       <c r="X4">
-        <v>78952.79656725818</v>
+        <v>78952.796567258178</v>
       </c>
       <c r="Y4">
-        <v>79385.90006291076</v>
+        <v>79385.900062910761</v>
       </c>
       <c r="Z4">
-        <v>79892.78285656095</v>
+        <v>79892.782856560952</v>
       </c>
       <c r="AA4">
         <v>24320.0448650207</v>
@@ -1304,7 +1345,7 @@
         <v>25900.26111539255</v>
       </c>
       <c r="AD4">
-        <v>26800.96804609732</v>
+        <v>26800.968046097321</v>
       </c>
       <c r="AE4">
         <v>27949.47245446526</v>
@@ -1319,88 +1360,88 @@
         <v>15429.76012955162</v>
       </c>
       <c r="AI4">
-        <v>18386.65270875461</v>
+        <v>18386.652708754609</v>
       </c>
       <c r="AJ4">
-        <v>22129.39829751179</v>
+        <v>22129.398297511791</v>
       </c>
       <c r="AK4">
-        <v>35804.89283057103</v>
+        <v>35804.892830571029</v>
       </c>
       <c r="AL4">
-        <v>41395.50416476199</v>
+        <v>41395.504164761987</v>
       </c>
       <c r="AM4">
-        <v>47882.49107327631</v>
+        <v>47882.491073276309</v>
       </c>
       <c r="AN4">
-        <v>55150.82762657497</v>
+        <v>55150.827626574966</v>
       </c>
       <c r="AO4">
-        <v>60912.43025861291</v>
+        <v>60912.430258612912</v>
       </c>
       <c r="AP4">
-        <v>76900.74206897538</v>
+        <v>76900.742068975378</v>
       </c>
       <c r="AQ4">
-        <v>80251.84871647616</v>
+        <v>80251.848716476161</v>
       </c>
       <c r="AR4">
-        <v>82716.22557507505</v>
+        <v>82716.225575075048</v>
       </c>
       <c r="AS4">
-        <v>84164.83914313265</v>
+        <v>84164.839143132645</v>
       </c>
       <c r="AT4">
-        <v>84709.93279071945</v>
+        <v>84709.932790719453</v>
       </c>
       <c r="AU4">
-        <v>87596.49186734376</v>
+        <v>87596.491867343764</v>
       </c>
       <c r="AV4">
-        <v>85289.58160289601</v>
+        <v>85289.581602896011</v>
       </c>
       <c r="AW4">
-        <v>80738.46679645771</v>
+        <v>80738.466796457709</v>
       </c>
       <c r="AX4">
-        <v>74627.12125705634</v>
+        <v>74627.121257056337</v>
       </c>
       <c r="AY4">
-        <v>69880.70653247554</v>
+        <v>69880.706532475539</v>
       </c>
       <c r="AZ4">
-        <v>64407.65658936973</v>
+        <v>64407.656589369733</v>
       </c>
       <c r="BA4">
-        <v>61186.2288364845</v>
+        <v>61186.228836484501</v>
       </c>
       <c r="BB4">
-        <v>58037.27407058117</v>
+        <v>58037.274070581167</v>
       </c>
       <c r="BC4">
-        <v>55431.40246241299</v>
+        <v>55431.402462412989</v>
       </c>
       <c r="BD4">
-        <v>53948.65121547897</v>
+        <v>53948.651215478967</v>
       </c>
       <c r="BE4">
-        <v>52576.31106393805</v>
+        <v>52576.311063938047</v>
       </c>
       <c r="BF4">
-        <v>53619.03169244767</v>
+        <v>53619.031692447672</v>
       </c>
       <c r="BG4">
-        <v>56258.90545518209</v>
+        <v>56258.905455182088</v>
       </c>
       <c r="BH4">
-        <v>60322.7766497112</v>
+        <v>60322.776649711202</v>
       </c>
       <c r="BI4">
-        <v>65187.96644353209</v>
+        <v>65187.966443532088</v>
       </c>
       <c r="BJ4">
-        <v>70387.49696130313</v>
+        <v>70387.496961303128</v>
       </c>
       <c r="BK4">
         <v>76074.322879959</v>
@@ -1409,76 +1450,76 @@
         <v>81494.65544374926</v>
       </c>
       <c r="BM4">
-        <v>86310.84695843156</v>
+        <v>86310.846958431561</v>
       </c>
       <c r="BN4">
-        <v>90126.77065922623</v>
+        <v>90126.770659226226</v>
       </c>
       <c r="BO4">
-        <v>93073.38953257634</v>
+        <v>93073.389532576344</v>
       </c>
       <c r="BP4">
-        <v>95436.12811259163</v>
+        <v>95436.128112591628</v>
       </c>
       <c r="BQ4">
-        <v>97141.16524759805</v>
+        <v>97141.165247598052</v>
       </c>
       <c r="BR4">
-        <v>97887.81657499468</v>
+        <v>97887.816574994678</v>
       </c>
       <c r="BS4">
-        <v>97267.14755616718</v>
+        <v>97267.147556167183</v>
       </c>
       <c r="BT4">
-        <v>95062.17115112065</v>
+        <v>95062.171151120652</v>
       </c>
       <c r="BU4">
-        <v>92645.67667762221</v>
+        <v>92645.676677622207</v>
       </c>
       <c r="BV4">
-        <v>90679.12187997052</v>
+        <v>90679.121879970524</v>
       </c>
       <c r="BW4">
-        <v>89300.91316352814</v>
+        <v>89300.913163528137</v>
       </c>
       <c r="BX4">
-        <v>87935.53068759671</v>
+        <v>87935.530687596707</v>
       </c>
       <c r="BY4">
-        <v>85995.30226124101</v>
+        <v>85995.302261241013</v>
       </c>
       <c r="BZ4">
-        <v>84724.18896905714</v>
+        <v>84724.188969057141</v>
       </c>
       <c r="CA4">
-        <v>83862.73808047239</v>
+        <v>83862.738080472394</v>
       </c>
       <c r="CB4">
-        <v>83611.76644069733</v>
+        <v>83611.766440697334</v>
       </c>
       <c r="CC4">
         <v>84112.7406168421</v>
       </c>
       <c r="CD4">
-        <v>84786.26771474896</v>
+        <v>84786.267714748959</v>
       </c>
       <c r="CE4">
-        <v>87414.04613813409</v>
+        <v>87414.046138134087</v>
       </c>
       <c r="CF4">
-        <v>90590.39520788609</v>
+        <v>90590.395207886089</v>
       </c>
       <c r="CG4">
-        <v>94074.77933063982</v>
+        <v>94074.779330639823</v>
       </c>
       <c r="CH4">
-        <v>97674.18469720958</v>
+        <v>97674.184697209581</v>
       </c>
       <c r="CI4">
-        <v>99558.21846464287</v>
+        <v>99558.218464642865</v>
       </c>
       <c r="CJ4">
-        <v>102555.4171816947</v>
+        <v>102555.41718169471</v>
       </c>
       <c r="CK4">
         <v>105017.9910956138</v>
@@ -1490,18 +1531,18 @@
         <v>108595.9153657384</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.017924950331</v>
+        <v>3598.0179249503308</v>
       </c>
       <c r="C5">
         <v>2632.632725924836</v>
       </c>
       <c r="D5">
-        <v>2455.233467668753</v>
+        <v>2455.2334676687528</v>
       </c>
       <c r="E5">
         <v>2355.548952254203</v>
@@ -1510,49 +1551,49 @@
         <v>2721.280146061933</v>
       </c>
       <c r="G5">
-        <v>3512.329817660015</v>
+        <v>3512.3298176600151</v>
       </c>
       <c r="H5">
         <v>3848.574923073038</v>
       </c>
       <c r="I5">
-        <v>3151.592812653498</v>
+        <v>3151.5928126534982</v>
       </c>
       <c r="J5">
-        <v>2983.500272024147</v>
+        <v>2983.5002720241469</v>
       </c>
       <c r="K5">
-        <v>3317.054164645925</v>
+        <v>3317.0541646459251</v>
       </c>
       <c r="L5">
-        <v>3361.729307636406</v>
+        <v>3361.7293076364058</v>
       </c>
       <c r="M5">
         <v>4986.134156023013</v>
       </c>
       <c r="N5">
-        <v>36474.08706443362</v>
+        <v>36474.087064433617</v>
       </c>
       <c r="O5">
-        <v>36531.09245610872</v>
+        <v>36531.092456108723</v>
       </c>
       <c r="P5">
-        <v>36603.65768923247</v>
+        <v>36603.657689232467</v>
       </c>
       <c r="Q5">
-        <v>121572.5982425645</v>
+        <v>121572.59824256451</v>
       </c>
       <c r="R5">
         <v>121684.4098607357</v>
       </c>
       <c r="S5">
-        <v>121820.46158537</v>
+        <v>121820.46158536999</v>
       </c>
       <c r="T5">
         <v>121985.0048701062</v>
       </c>
       <c r="U5">
-        <v>122184.1858306352</v>
+        <v>122184.18583063519</v>
       </c>
       <c r="V5">
         <v>128288.4003884353</v>
@@ -1567,46 +1608,46 @@
         <v>129448.9164096272</v>
       </c>
       <c r="Z5">
-        <v>130073.892110914</v>
+        <v>130073.89211091401</v>
       </c>
       <c r="AA5">
-        <v>37069.97718799726</v>
+        <v>37069.977187997261</v>
       </c>
       <c r="AB5">
-        <v>38144.08602836938</v>
+        <v>38144.086028369376</v>
       </c>
       <c r="AC5">
-        <v>39553.73049694344</v>
+        <v>39553.730496943441</v>
       </c>
       <c r="AD5">
-        <v>41391.96659335315</v>
+        <v>41391.966593353151</v>
       </c>
       <c r="AE5">
-        <v>43762.64686170054</v>
+        <v>43762.646861700538</v>
       </c>
       <c r="AF5">
-        <v>15366.01464669375</v>
+        <v>15366.014646693749</v>
       </c>
       <c r="AG5">
         <v>18703.48135738929</v>
       </c>
       <c r="AH5">
-        <v>22785.32427509954</v>
+        <v>22785.324275099541</v>
       </c>
       <c r="AI5">
-        <v>28215.52929071233</v>
+        <v>28215.529290712329</v>
       </c>
       <c r="AJ5">
-        <v>34579.7305864314</v>
+        <v>34579.730586431397</v>
       </c>
       <c r="AK5">
-        <v>54471.52926349179</v>
+        <v>54471.529263491793</v>
       </c>
       <c r="AL5">
-        <v>62355.80934999056</v>
+        <v>62355.809349990559</v>
       </c>
       <c r="AM5">
-        <v>70700.84051077696</v>
+        <v>70700.840510776965</v>
       </c>
       <c r="AN5">
         <v>79190.40139062042</v>
@@ -1615,7 +1656,7 @@
         <v>87434.68726887033</v>
       </c>
       <c r="AP5">
-        <v>113090.6205398277</v>
+        <v>113090.62053982769</v>
       </c>
       <c r="AQ5">
         <v>119533.3687143907</v>
@@ -1627,19 +1668,19 @@
         <v>127558.4692978854</v>
       </c>
       <c r="AT5">
-        <v>128661.2664210007</v>
+        <v>128661.26642100071</v>
       </c>
       <c r="AU5">
-        <v>132939.2433147006</v>
+        <v>132939.24331470061</v>
       </c>
       <c r="AV5">
-        <v>130147.3336929616</v>
+        <v>130147.33369296161</v>
       </c>
       <c r="AW5">
         <v>125758.5316096937</v>
       </c>
       <c r="AX5">
-        <v>120166.2322833695</v>
+        <v>120166.23228336951</v>
       </c>
       <c r="AY5">
         <v>113840.2012939808</v>
@@ -1648,28 +1689,28 @@
         <v>104193.4544320253</v>
       </c>
       <c r="BA5">
-        <v>97931.91955221466</v>
+        <v>97931.919552214662</v>
       </c>
       <c r="BB5">
-        <v>92442.26002775165</v>
+        <v>92442.260027751647</v>
       </c>
       <c r="BC5">
-        <v>88141.24937317018</v>
+        <v>88141.249373170183</v>
       </c>
       <c r="BD5">
-        <v>85345.39572172752</v>
+        <v>85345.395721727517</v>
       </c>
       <c r="BE5">
         <v>82511.22146921177</v>
       </c>
       <c r="BF5">
-        <v>83159.21285140715</v>
+        <v>83159.212851407152</v>
       </c>
       <c r="BG5">
-        <v>85479.48041093636</v>
+        <v>85479.480410936361</v>
       </c>
       <c r="BH5">
-        <v>89289.81211437631</v>
+        <v>89289.812114376313</v>
       </c>
       <c r="BI5">
         <v>94332.13902900125</v>
@@ -1678,58 +1719,58 @@
         <v>100005.1740041008</v>
       </c>
       <c r="BK5">
-        <v>106569.2966948967</v>
+        <v>106569.29669489669</v>
       </c>
       <c r="BL5">
         <v>113388.3128183037</v>
       </c>
       <c r="BM5">
-        <v>120127.4089993615</v>
+        <v>120127.40899936151</v>
       </c>
       <c r="BN5">
-        <v>126473.2461854324</v>
+        <v>126473.24618543241</v>
       </c>
       <c r="BO5">
         <v>132168.0875221476</v>
       </c>
       <c r="BP5">
-        <v>136954.3105308147</v>
+        <v>136954.31053081469</v>
       </c>
       <c r="BQ5">
-        <v>140690.1995815441</v>
+        <v>140690.19958154409</v>
       </c>
       <c r="BR5">
-        <v>143286.082660567</v>
+        <v>143286.08266056699</v>
       </c>
       <c r="BS5">
-        <v>144724.2362708717</v>
+        <v>144724.23627087171</v>
       </c>
       <c r="BT5">
         <v>144548.6381065998</v>
       </c>
       <c r="BU5">
-        <v>143898.1234767823</v>
+        <v>143898.12347678229</v>
       </c>
       <c r="BV5">
-        <v>142440.7469063151</v>
+        <v>142440.74690631509</v>
       </c>
       <c r="BW5">
         <v>140398.0753664104</v>
       </c>
       <c r="BX5">
-        <v>138018.843658419</v>
+        <v>138018.84365841901</v>
       </c>
       <c r="BY5">
-        <v>134708.9649294254</v>
+        <v>134708.96492942539</v>
       </c>
       <c r="BZ5">
-        <v>132421.281687873</v>
+        <v>132421.28168787301</v>
       </c>
       <c r="CA5">
         <v>130528.2623933602</v>
       </c>
       <c r="CB5">
-        <v>129216.1505507897</v>
+        <v>129216.15055078969</v>
       </c>
       <c r="CC5">
         <v>128622.4867480322</v>
@@ -1744,25 +1785,25 @@
         <v>130246.521486962</v>
       </c>
       <c r="CG5">
-        <v>132780.3014745039</v>
+        <v>132780.30147450391</v>
       </c>
       <c r="CH5">
-        <v>135901.854960751</v>
+        <v>135901.85496075099</v>
       </c>
       <c r="CI5">
-        <v>137210.2667073107</v>
+        <v>137210.26670731069</v>
       </c>
       <c r="CJ5">
-        <v>141033.2863707609</v>
+        <v>141033.28637076091</v>
       </c>
       <c r="CK5">
-        <v>144946.2628091257</v>
+        <v>144946.26280912571</v>
       </c>
       <c r="CL5">
         <v>148778.8118130636</v>
       </c>
       <c r="CM5">
-        <v>152376.0633617193</v>
+        <v>152376.06336171931</v>
       </c>
     </row>
   </sheetData>
@@ -1771,14 +1812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:CM5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -2049,28 +2092,29 @@
       <c r="CM1" s="1">
         <v>2100</v>
       </c>
+      <c r="CO1" s="1"/>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.87313184257329</v>
+        <v>46.873131842573287</v>
       </c>
       <c r="C2">
-        <v>66.33198678181604</v>
+        <v>66.331986781816042</v>
       </c>
       <c r="D2">
-        <v>64.10893846106821</v>
+        <v>64.108938461068206</v>
       </c>
       <c r="E2">
-        <v>60.87287776122706</v>
+        <v>60.872877761227059</v>
       </c>
       <c r="F2">
-        <v>97.9847796381944</v>
+        <v>97.984779638194397</v>
       </c>
       <c r="G2">
-        <v>70.6951654850948</v>
+        <v>70.695165485094805</v>
       </c>
       <c r="H2">
         <v>125.7741914386047</v>
@@ -2082,40 +2126,40 @@
         <v>112.1300498868369</v>
       </c>
       <c r="K2">
-        <v>101.2034354144024</v>
+        <v>101.20343541440241</v>
       </c>
       <c r="L2">
-        <v>209.8178777434686</v>
+        <v>209.81787774346861</v>
       </c>
       <c r="M2">
         <v>142.8016504878984</v>
       </c>
       <c r="N2">
-        <v>279.4054009850282</v>
+        <v>279.40540098502822</v>
       </c>
       <c r="O2">
-        <v>301.5844865478387</v>
+        <v>301.58448654783871</v>
       </c>
       <c r="P2">
-        <v>324.0576153445681</v>
+        <v>324.05761534456809</v>
       </c>
       <c r="Q2">
-        <v>709.4319834792518</v>
+        <v>709.43198347925181</v>
       </c>
       <c r="R2">
-        <v>759.6271310499454</v>
+        <v>759.62713104994543</v>
       </c>
       <c r="S2">
-        <v>810.3617168861505</v>
+        <v>810.36171688615048</v>
       </c>
       <c r="T2">
-        <v>862.0309658698966</v>
+        <v>862.03096586989659</v>
       </c>
       <c r="U2">
-        <v>914.4407806399071</v>
+        <v>914.44078063990708</v>
       </c>
       <c r="V2">
-        <v>918.7785867504028</v>
+        <v>918.77858675040284</v>
       </c>
       <c r="W2">
         <v>969.1061017268886</v>
@@ -2124,85 +2168,85 @@
         <v>1019.832019334277</v>
       </c>
       <c r="Y2">
-        <v>1071.585155695732</v>
+        <v>1071.5851556957321</v>
       </c>
       <c r="Z2">
-        <v>1124.758085644835</v>
+        <v>1124.7580856448351</v>
       </c>
       <c r="AA2">
-        <v>524.5557202221889</v>
+        <v>524.55572022218894</v>
       </c>
       <c r="AB2">
-        <v>538.9363438105743</v>
+        <v>538.93634381057427</v>
       </c>
       <c r="AC2">
-        <v>557.3278244976382</v>
+        <v>557.32782449763818</v>
       </c>
       <c r="AD2">
-        <v>575.1446567692645</v>
+        <v>575.14465676926454</v>
       </c>
       <c r="AE2">
-        <v>595.9464750375046</v>
+        <v>595.94647503750457</v>
       </c>
       <c r="AF2">
-        <v>380.4512433829794</v>
+        <v>380.45124338297938</v>
       </c>
       <c r="AG2">
-        <v>383.7897735569783</v>
+        <v>383.78977355697828</v>
       </c>
       <c r="AH2">
-        <v>401.7905114969819</v>
+        <v>401.79051149698188</v>
       </c>
       <c r="AI2">
-        <v>434.0978197042783</v>
+        <v>434.09781970427832</v>
       </c>
       <c r="AJ2">
-        <v>465.5436875103816</v>
+        <v>465.54368751038157</v>
       </c>
       <c r="AK2">
-        <v>617.2677290541732</v>
+        <v>617.26772905417317</v>
       </c>
       <c r="AL2">
-        <v>693.5516550778513</v>
+        <v>693.55165507785125</v>
       </c>
       <c r="AM2">
         <v>799.1312286173835</v>
       </c>
       <c r="AN2">
-        <v>935.1323200683302</v>
+        <v>935.13232006833016</v>
       </c>
       <c r="AO2">
-        <v>1032.272317853408</v>
+        <v>1032.2723178534079</v>
       </c>
       <c r="AP2">
-        <v>1274.226050814805</v>
+        <v>1274.2260508148049</v>
       </c>
       <c r="AQ2">
         <v>1327.641002873137</v>
       </c>
       <c r="AR2">
-        <v>1372.210969841933</v>
+        <v>1372.2109698419331</v>
       </c>
       <c r="AS2">
         <v>1408.315907725492</v>
       </c>
       <c r="AT2">
-        <v>1444.721278180085</v>
+        <v>1444.7212781800849</v>
       </c>
       <c r="AU2">
-        <v>1512.740366712235</v>
+        <v>1512.7403667122351</v>
       </c>
       <c r="AV2">
         <v>1496.73726537676</v>
       </c>
       <c r="AW2">
-        <v>1400.858855526017</v>
+        <v>1400.8588555260169</v>
       </c>
       <c r="AX2">
-        <v>1246.340958798003</v>
+        <v>1246.3409587980029</v>
       </c>
       <c r="AY2">
-        <v>1169.473845313032</v>
+        <v>1169.4738453130319</v>
       </c>
       <c r="AZ2">
         <v>1118.433915315788</v>
@@ -2211,7 +2255,7 @@
         <v>1110.246819114906</v>
       </c>
       <c r="BB2">
-        <v>1075.292264095939</v>
+        <v>1075.2922640959389</v>
       </c>
       <c r="BC2">
         <v>1022.599658485219</v>
@@ -2220,16 +2264,16 @@
         <v>1005.050739289587</v>
       </c>
       <c r="BE2">
-        <v>992.5794137263784</v>
+        <v>992.57941372637845</v>
       </c>
       <c r="BF2">
-        <v>1036.808911514663</v>
+        <v>1036.8089115146629</v>
       </c>
       <c r="BG2">
-        <v>1104.782167560613</v>
+        <v>1104.7821675606131</v>
       </c>
       <c r="BH2">
-        <v>1197.897604571811</v>
+        <v>1197.8976045718109</v>
       </c>
       <c r="BI2">
         <v>1299.219126478803</v>
@@ -2241,13 +2285,13 @@
         <v>1505.5749008613</v>
       </c>
       <c r="BL2">
-        <v>1627.341434356921</v>
+        <v>1627.3414343569209</v>
       </c>
       <c r="BM2">
-        <v>1740.774043689168</v>
+        <v>1740.7740436891679</v>
       </c>
       <c r="BN2">
-        <v>1816.448152439313</v>
+        <v>1816.4481524393129</v>
       </c>
       <c r="BO2">
         <v>1850.074506663381</v>
@@ -2256,7 +2300,7 @@
         <v>1886.309280525204</v>
       </c>
       <c r="BQ2">
-        <v>1914.685942456614</v>
+        <v>1914.6859424566139</v>
       </c>
       <c r="BR2">
         <v>1922.076937698969</v>
@@ -2265,55 +2309,55 @@
         <v>1886.288123118851</v>
       </c>
       <c r="BT2">
-        <v>1795.550626570924</v>
+        <v>1795.5506265709239</v>
       </c>
       <c r="BU2">
         <v>1707.898534676164</v>
       </c>
       <c r="BV2">
-        <v>1645.395232551865</v>
+        <v>1645.3952325518651</v>
       </c>
       <c r="BW2">
-        <v>1610.781916093384</v>
+        <v>1610.7819160933841</v>
       </c>
       <c r="BX2">
-        <v>1587.282243237977</v>
+        <v>1587.2822432379769</v>
       </c>
       <c r="BY2">
-        <v>1550.197173305812</v>
+        <v>1550.1971733058119</v>
       </c>
       <c r="BZ2">
         <v>1526.456039156785</v>
       </c>
       <c r="CA2">
-        <v>1519.518709277416</v>
+        <v>1519.5187092774161</v>
       </c>
       <c r="CB2">
-        <v>1536.693943022891</v>
+        <v>1536.6939430228911</v>
       </c>
       <c r="CC2">
         <v>1580.614357222742</v>
       </c>
       <c r="CD2">
-        <v>1632.073168748264</v>
+        <v>1632.0731687482639</v>
       </c>
       <c r="CE2">
-        <v>1711.737997648094</v>
+        <v>1711.7379976480941</v>
       </c>
       <c r="CF2">
         <v>1798.097872859541</v>
       </c>
       <c r="CG2">
-        <v>1888.14720648956</v>
+        <v>1888.1472064895599</v>
       </c>
       <c r="CH2">
-        <v>1982.9521165411</v>
+        <v>1982.9521165410999</v>
       </c>
       <c r="CI2">
-        <v>2052.26490373435</v>
+        <v>2052.2649037343499</v>
       </c>
       <c r="CJ2">
-        <v>2128.572493178003</v>
+        <v>2128.5724931780028</v>
       </c>
       <c r="CK2">
         <v>2181.512739278744</v>
@@ -2324,8 +2368,9 @@
       <c r="CM2">
         <v>2232.631077335127</v>
       </c>
+      <c r="CQ2" s="2"/>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2336,37 +2381,37 @@
         <v>23.38798957595705</v>
       </c>
       <c r="D3">
-        <v>22.57939166938897</v>
+        <v>22.579391669388968</v>
       </c>
       <c r="E3">
         <v>21.42598026129285</v>
       </c>
       <c r="F3">
-        <v>34.62336947153077</v>
+        <v>34.623369471530772</v>
       </c>
       <c r="G3">
-        <v>24.89427440242367</v>
+        <v>24.894274402423669</v>
       </c>
       <c r="H3">
-        <v>44.5019270532784</v>
+        <v>44.501927053278401</v>
       </c>
       <c r="I3">
-        <v>42.25943849060294</v>
+        <v>42.259438490602939</v>
       </c>
       <c r="J3">
-        <v>39.61019045635977</v>
+        <v>39.610190456359767</v>
       </c>
       <c r="K3">
-        <v>35.70447677404155</v>
+        <v>35.704476774041552</v>
       </c>
       <c r="L3">
-        <v>74.40418075014863</v>
+        <v>74.404180750148626</v>
       </c>
       <c r="M3">
-        <v>50.51125071923273</v>
+        <v>50.511250719232727</v>
       </c>
       <c r="N3">
-        <v>99.17247898286358</v>
+        <v>99.172478982863581</v>
       </c>
       <c r="O3">
         <v>107.0602332830768</v>
@@ -2375,232 +2420,233 @@
         <v>115.0428343441109</v>
       </c>
       <c r="Q3">
-        <v>252.3163584953963</v>
+        <v>252.31635849539629</v>
       </c>
       <c r="R3">
-        <v>270.185291477467</v>
+        <v>270.18529147746699</v>
       </c>
       <c r="S3">
         <v>288.2402587726109</v>
       </c>
       <c r="T3">
-        <v>306.6103235859217</v>
+        <v>306.61032358592172</v>
       </c>
       <c r="U3">
-        <v>325.2312573904712</v>
+        <v>325.23125739047123</v>
       </c>
       <c r="V3">
-        <v>326.6933495679814</v>
+        <v>326.69334956798139</v>
       </c>
       <c r="W3">
-        <v>344.5193681546646</v>
+        <v>344.51936815466462</v>
       </c>
       <c r="X3">
-        <v>362.4812163674376</v>
+        <v>362.48121636743758</v>
       </c>
       <c r="Y3">
-        <v>380.7894751489983</v>
+        <v>380.78947514899829</v>
       </c>
       <c r="Z3">
-        <v>399.576330647647</v>
+        <v>399.57633064764701</v>
       </c>
       <c r="AA3">
-        <v>185.5893064255287</v>
+        <v>185.58930642552869</v>
       </c>
       <c r="AB3">
         <v>190.5663076971135</v>
       </c>
       <c r="AC3">
-        <v>196.8925876509101</v>
+        <v>196.89258765091009</v>
       </c>
       <c r="AD3">
-        <v>203.036208741571</v>
+        <v>203.03620874157099</v>
       </c>
       <c r="AE3">
         <v>210.1909482891509</v>
       </c>
       <c r="AF3">
-        <v>133.2492392345416</v>
+        <v>133.24923923454159</v>
       </c>
       <c r="AG3">
-        <v>134.3209442966223</v>
+        <v>134.32094429662229</v>
       </c>
       <c r="AH3">
-        <v>140.3206246459623</v>
+        <v>140.32062464596231</v>
       </c>
       <c r="AI3">
-        <v>151.1449150743671</v>
+        <v>151.14491507436711</v>
       </c>
       <c r="AJ3">
         <v>161.7043326559685</v>
       </c>
       <c r="AK3">
-        <v>214.7542232120244</v>
+        <v>214.75422321202441</v>
       </c>
       <c r="AL3">
-        <v>240.4953849286011</v>
+        <v>240.49538492860111</v>
       </c>
       <c r="AM3">
-        <v>276.1009789007557</v>
+        <v>276.10097890075571</v>
       </c>
       <c r="AN3">
-        <v>321.9598449029562</v>
+        <v>321.95984490295621</v>
       </c>
       <c r="AO3">
-        <v>354.8053112196011</v>
+        <v>354.80531121960109</v>
       </c>
       <c r="AP3">
         <v>440.1002710433574</v>
       </c>
       <c r="AQ3">
-        <v>458.2747611940827</v>
+        <v>458.27476119408271</v>
       </c>
       <c r="AR3">
-        <v>473.3513337697862</v>
+        <v>473.35133376978621</v>
       </c>
       <c r="AS3">
-        <v>485.4435133816967</v>
+        <v>485.44351338169668</v>
       </c>
       <c r="AT3">
         <v>497.4830885764772</v>
       </c>
       <c r="AU3">
-        <v>520.8512213126547</v>
+        <v>520.85122131265473</v>
       </c>
       <c r="AV3">
-        <v>515.0843465413831</v>
+        <v>515.08434654138307</v>
       </c>
       <c r="AW3">
-        <v>482.6081017504143</v>
+        <v>482.60810175041428</v>
       </c>
       <c r="AX3">
-        <v>430.7158788408249</v>
+        <v>430.71587884082493</v>
       </c>
       <c r="AY3">
         <v>404.7744806096976</v>
       </c>
       <c r="AZ3">
-        <v>386.1132727029745</v>
+        <v>386.11327270297448</v>
       </c>
       <c r="BA3">
-        <v>382.8791466108063</v>
+        <v>382.87914661080629</v>
       </c>
       <c r="BB3">
-        <v>370.8793526661663</v>
+        <v>370.87935266616631</v>
       </c>
       <c r="BC3">
-        <v>353.1976756977865</v>
+        <v>353.19767569778651</v>
       </c>
       <c r="BD3">
-        <v>347.0830561235549</v>
+        <v>347.08305612355491</v>
       </c>
       <c r="BE3">
-        <v>341.4152453067172</v>
+        <v>341.41524530671722</v>
       </c>
       <c r="BF3">
-        <v>355.1556570844276</v>
+        <v>355.15565708442762</v>
       </c>
       <c r="BG3">
-        <v>376.3097326521686</v>
+        <v>376.30973265216858</v>
       </c>
       <c r="BH3">
-        <v>405.1540099236418</v>
+        <v>405.15400992364181</v>
       </c>
       <c r="BI3">
-        <v>436.1799683576945</v>
+        <v>436.17996835769452</v>
       </c>
       <c r="BJ3">
-        <v>461.4575101118033</v>
+        <v>461.45751011180329</v>
       </c>
       <c r="BK3">
-        <v>496.9149209155037</v>
+        <v>496.91492091550373</v>
       </c>
       <c r="BL3">
-        <v>532.5751439784937</v>
+        <v>532.57514397849366</v>
       </c>
       <c r="BM3">
-        <v>564.9899656006523</v>
+        <v>564.98996560065234</v>
       </c>
       <c r="BN3">
-        <v>585.3377354164778</v>
+        <v>585.33773541647781</v>
       </c>
       <c r="BO3">
-        <v>592.0000882683659</v>
+        <v>592.00008826836586</v>
       </c>
       <c r="BP3">
-        <v>599.6839841207556</v>
+        <v>599.68398412075555</v>
       </c>
       <c r="BQ3">
-        <v>604.709474195108</v>
+        <v>604.70947419510799</v>
       </c>
       <c r="BR3">
-        <v>603.3564179688494</v>
+        <v>603.35641796884943</v>
       </c>
       <c r="BS3">
-        <v>589.5217957395137</v>
+        <v>589.52179573951366</v>
       </c>
       <c r="BT3">
-        <v>559.3859437421885</v>
+        <v>559.38594374218849</v>
       </c>
       <c r="BU3">
-        <v>531.5305609131796</v>
+        <v>531.53056091317956</v>
       </c>
       <c r="BV3">
-        <v>511.0638456402436</v>
+        <v>511.06384564024358</v>
       </c>
       <c r="BW3">
-        <v>498.463021595877</v>
+        <v>498.46302159587702</v>
       </c>
       <c r="BX3">
-        <v>488.97785185086</v>
+        <v>488.97785185086002</v>
       </c>
       <c r="BY3">
-        <v>474.9362997434337</v>
+        <v>474.93629974343372</v>
       </c>
       <c r="BZ3">
-        <v>465.6269523360631</v>
+        <v>465.62695233606308</v>
       </c>
       <c r="CA3">
         <v>460.7157784120111</v>
       </c>
       <c r="CB3">
-        <v>461.8045984306233</v>
+        <v>461.80459843062329</v>
       </c>
       <c r="CC3">
-        <v>469.2092900019827</v>
+        <v>469.20929000198271</v>
       </c>
       <c r="CD3">
-        <v>476.2348264890521</v>
+        <v>476.23482648905212</v>
       </c>
       <c r="CE3">
-        <v>490.9789473309202</v>
+        <v>490.97894733092022</v>
       </c>
       <c r="CF3">
-        <v>506.4469413462301</v>
+        <v>506.44694134623012</v>
       </c>
       <c r="CG3">
-        <v>521.8353560039292</v>
+        <v>521.83535600392918</v>
       </c>
       <c r="CH3">
-        <v>537.2747166098469</v>
+        <v>537.27471660984691</v>
       </c>
       <c r="CI3">
-        <v>542.9379887530895</v>
+        <v>542.93798875308948</v>
       </c>
       <c r="CJ3">
         <v>552.3374457607049</v>
       </c>
       <c r="CK3">
-        <v>556.1082072711214</v>
+        <v>556.10820727112139</v>
       </c>
       <c r="CL3">
         <v>555.0841528623148</v>
       </c>
       <c r="CM3">
-        <v>551.1177856097894</v>
-      </c>
+        <v>551.11778560978939</v>
+      </c>
+      <c r="CQ3" s="2"/>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2608,274 +2654,275 @@
         <v>3257.63914199891</v>
       </c>
       <c r="C4">
-        <v>2998.310883616518</v>
+        <v>2998.3108836165179</v>
       </c>
       <c r="D4">
-        <v>2460.455525793057</v>
+        <v>2460.4555257930569</v>
       </c>
       <c r="E4">
-        <v>2804.179461173996</v>
+        <v>2804.1794611739961</v>
       </c>
       <c r="F4">
-        <v>3540.661318277713</v>
+        <v>3540.6613182777128</v>
       </c>
       <c r="G4">
-        <v>3301.972474741881</v>
+        <v>3301.9724747418809</v>
       </c>
       <c r="H4">
-        <v>3549.512604640829</v>
+        <v>3549.5126046408291</v>
       </c>
       <c r="I4">
-        <v>3115.067410647138</v>
+        <v>3115.0674106471379</v>
       </c>
       <c r="J4">
         <v>3382.797777806557</v>
       </c>
       <c r="K4">
-        <v>3996.682299760126</v>
+        <v>3996.6822997601262</v>
       </c>
       <c r="L4">
-        <v>3788.847857804424</v>
+        <v>3788.8478578044242</v>
       </c>
       <c r="M4">
-        <v>4372.974716351971</v>
+        <v>4372.9747163519714</v>
       </c>
       <c r="N4">
-        <v>23079.31770868884</v>
+        <v>23079.317708688839</v>
       </c>
       <c r="O4">
         <v>23211.97033224261</v>
       </c>
       <c r="P4">
-        <v>23310.27171531142</v>
+        <v>23310.271715311421</v>
       </c>
       <c r="Q4">
-        <v>73558.9559329733</v>
+        <v>73558.955932973302</v>
       </c>
       <c r="R4">
-        <v>73706.27235169901</v>
+        <v>73706.272351699008</v>
       </c>
       <c r="S4">
-        <v>73876.58366537862</v>
+        <v>73876.583665378625</v>
       </c>
       <c r="T4">
-        <v>74063.93546586856</v>
+        <v>74063.935465868562</v>
       </c>
       <c r="U4">
-        <v>74263.23571187186</v>
+        <v>74263.235711871865</v>
       </c>
       <c r="V4">
-        <v>77557.23693292766</v>
+        <v>77557.236932927655</v>
       </c>
       <c r="W4">
-        <v>77787.06485549791</v>
+        <v>77787.064855497913</v>
       </c>
       <c r="X4">
-        <v>78007.76647438167</v>
+        <v>78007.766474381671</v>
       </c>
       <c r="Y4">
-        <v>78246.24377413248</v>
+        <v>78246.243774132483</v>
       </c>
       <c r="Z4">
-        <v>78510.69877614146</v>
+        <v>78510.698776141464</v>
       </c>
       <c r="AA4">
-        <v>22647.15037409956</v>
+        <v>22647.150374099561</v>
       </c>
       <c r="AB4">
-        <v>22950.35017679312</v>
+        <v>22950.350176793119</v>
       </c>
       <c r="AC4">
-        <v>23302.7719264342</v>
+        <v>23302.771926434201</v>
       </c>
       <c r="AD4">
         <v>23638.29506784258</v>
       </c>
       <c r="AE4">
-        <v>24056.04799051019</v>
+        <v>24056.047990510189</v>
       </c>
       <c r="AF4">
-        <v>6601.196440386972</v>
+        <v>6601.1964403869724</v>
       </c>
       <c r="AG4">
-        <v>6980.624209156022</v>
+        <v>6980.6242091560216</v>
       </c>
       <c r="AH4">
-        <v>7607.496728118724</v>
+        <v>7607.4967281187237</v>
       </c>
       <c r="AI4">
-        <v>8533.817350795298</v>
+        <v>8533.8173507952979</v>
       </c>
       <c r="AJ4">
-        <v>9677.192343538534</v>
+        <v>9677.1923435385343</v>
       </c>
       <c r="AK4">
-        <v>20108.69822640006</v>
+        <v>20108.698226400062</v>
       </c>
       <c r="AL4">
-        <v>22066.83727897766</v>
+        <v>22066.837278977659</v>
       </c>
       <c r="AM4">
-        <v>24333.11134812383</v>
+        <v>24333.111348123832</v>
       </c>
       <c r="AN4">
         <v>26865.70904458264</v>
       </c>
       <c r="AO4">
-        <v>28697.16221490471</v>
+        <v>28697.162214904711</v>
       </c>
       <c r="AP4">
-        <v>41710.76531735033</v>
+        <v>41710.765317350328</v>
       </c>
       <c r="AQ4">
-        <v>42515.55300035288</v>
+        <v>42515.553000352877</v>
       </c>
       <c r="AR4">
-        <v>42986.41005160198</v>
+        <v>42986.410051601983</v>
       </c>
       <c r="AS4">
-        <v>43098.87001872044</v>
+        <v>43098.870018720438</v>
       </c>
       <c r="AT4">
-        <v>42922.63574745457</v>
+        <v>42922.635747454573</v>
       </c>
       <c r="AU4">
-        <v>45861.92482745332</v>
+        <v>45861.924827453317</v>
       </c>
       <c r="AV4">
-        <v>44744.39641838196</v>
+        <v>44744.396418381963</v>
       </c>
       <c r="AW4">
-        <v>42859.35925497212</v>
+        <v>42859.359254972122</v>
       </c>
       <c r="AX4">
-        <v>40484.22218643528</v>
+        <v>40484.222186435283</v>
       </c>
       <c r="AY4">
-        <v>38722.41664710728</v>
+        <v>38722.416647107282</v>
       </c>
       <c r="AZ4">
-        <v>35361.01503714048</v>
+        <v>35361.015037140482</v>
       </c>
       <c r="BA4">
-        <v>34252.31134872297</v>
+        <v>34252.311348722971</v>
       </c>
       <c r="BB4">
         <v>33207.81200657312</v>
       </c>
       <c r="BC4">
-        <v>32430.72679988351</v>
+        <v>32430.726799883509</v>
       </c>
       <c r="BD4">
-        <v>31918.06790844769</v>
+        <v>31918.067908447691</v>
       </c>
       <c r="BE4">
-        <v>30499.61858482102</v>
+        <v>30499.618584821019</v>
       </c>
       <c r="BF4">
-        <v>30575.9700309176</v>
+        <v>30575.970030917601</v>
       </c>
       <c r="BG4">
         <v>31209.95747812933</v>
       </c>
       <c r="BH4">
-        <v>32260.64427712053</v>
+        <v>32260.644277120529</v>
       </c>
       <c r="BI4">
-        <v>33491.89015786023</v>
+        <v>33491.890157860231</v>
       </c>
       <c r="BJ4">
-        <v>34621.06712163871</v>
+        <v>34621.067121638713</v>
       </c>
       <c r="BK4">
-        <v>35960.32208924284</v>
+        <v>35960.322089242844</v>
       </c>
       <c r="BL4">
-        <v>37142.3705056303</v>
+        <v>37142.370505630301</v>
       </c>
       <c r="BM4">
-        <v>38080.60722053389</v>
+        <v>38080.607220533893</v>
       </c>
       <c r="BN4">
-        <v>38683.25196574295</v>
+        <v>38683.251965742951</v>
       </c>
       <c r="BO4">
-        <v>39029.88480633125</v>
+        <v>39029.884806331247</v>
       </c>
       <c r="BP4">
-        <v>39213.32157991354</v>
+        <v>39213.321579913543</v>
       </c>
       <c r="BQ4">
-        <v>39234.97397130597</v>
+        <v>39234.973971305968</v>
       </c>
       <c r="BR4">
-        <v>39016.50182471236</v>
+        <v>39016.501824712359</v>
       </c>
       <c r="BS4">
-        <v>38448.32341737436</v>
+        <v>38448.323417374362</v>
       </c>
       <c r="BT4">
-        <v>37263.19275491306</v>
+        <v>37263.192754913063</v>
       </c>
       <c r="BU4">
         <v>36307.58262439703</v>
       </c>
       <c r="BV4">
-        <v>35652.0484922095</v>
+        <v>35652.048492209498</v>
       </c>
       <c r="BW4">
-        <v>35323.67473456974</v>
+        <v>35323.674734569737</v>
       </c>
       <c r="BX4">
-        <v>34935.27822919725</v>
+        <v>34935.278229197247</v>
       </c>
       <c r="BY4">
         <v>33984.47429535204</v>
       </c>
       <c r="BZ4">
-        <v>33587.74430165801</v>
+        <v>33587.744301658007</v>
       </c>
       <c r="CA4">
-        <v>33256.23113450666</v>
+        <v>33256.231134506663</v>
       </c>
       <c r="CB4">
-        <v>33010.8504625126</v>
+        <v>33010.850462512601</v>
       </c>
       <c r="CC4">
-        <v>32823.78048845611</v>
+        <v>32823.780488456112</v>
       </c>
       <c r="CD4">
-        <v>32060.78729473283</v>
+        <v>32060.787294732829</v>
       </c>
       <c r="CE4">
-        <v>32620.03494808937</v>
+        <v>32620.034948089371</v>
       </c>
       <c r="CF4">
-        <v>33293.120581491</v>
+        <v>33293.120581490999</v>
       </c>
       <c r="CG4">
-        <v>34012.35558349184</v>
+        <v>34012.355583491837</v>
       </c>
       <c r="CH4">
-        <v>34725.5654606809</v>
+        <v>34725.565460680897</v>
       </c>
       <c r="CI4">
-        <v>33817.06947865745</v>
+        <v>33817.069478657453</v>
       </c>
       <c r="CJ4">
-        <v>34320.43972224154</v>
+        <v>34320.439722241543</v>
       </c>
       <c r="CK4">
-        <v>34680.37434035145</v>
+        <v>34680.374340351453</v>
       </c>
       <c r="CL4">
-        <v>34926.9492146737</v>
+        <v>34926.949214673703</v>
       </c>
       <c r="CM4">
-        <v>35094.2418641805</v>
-      </c>
+        <v>35094.241864180498</v>
+      </c>
+      <c r="CQ4" s="2"/>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2886,52 +2933,52 @@
         <v>2632.624663920888</v>
       </c>
       <c r="D5">
-        <v>2455.219331301999</v>
+        <v>2455.2193313019989</v>
       </c>
       <c r="E5">
         <v>2355.52474337274</v>
       </c>
       <c r="F5">
-        <v>2721.239483335026</v>
+        <v>2721.2394833350259</v>
       </c>
       <c r="G5">
-        <v>3512.262817294274</v>
+        <v>3512.2628172942741</v>
       </c>
       <c r="H5">
         <v>3848.466795365483</v>
       </c>
       <c r="I5">
-        <v>3151.422161321342</v>
+        <v>3151.4221613213422</v>
       </c>
       <c r="J5">
-        <v>2983.237075722866</v>
+        <v>2983.2370757228659</v>
       </c>
       <c r="K5">
         <v>3316.65745175355</v>
       </c>
       <c r="L5">
-        <v>3361.144613269281</v>
+        <v>3361.1446132692809</v>
       </c>
       <c r="M5">
-        <v>4985.290912185891</v>
+        <v>4985.2909121858911</v>
       </c>
       <c r="N5">
-        <v>36472.89611283976</v>
+        <v>36472.896112839757</v>
       </c>
       <c r="O5">
-        <v>36525.70180031934</v>
+        <v>36525.701800319337</v>
       </c>
       <c r="P5">
-        <v>36591.29939309706</v>
+        <v>36591.299393097062</v>
       </c>
       <c r="Q5">
         <v>121549.5769781975</v>
       </c>
       <c r="R5">
-        <v>121646.0176109822</v>
+        <v>121646.01761098221</v>
       </c>
       <c r="S5">
-        <v>121760.9195203435</v>
+        <v>121760.91952034349</v>
       </c>
       <c r="T5">
         <v>121897.3930916247</v>
@@ -2952,203 +2999,204 @@
         <v>129021.396009626</v>
       </c>
       <c r="Z5">
-        <v>129495.4569403586</v>
+        <v>129495.45694035861</v>
       </c>
       <c r="AA5">
-        <v>36286.49785262543</v>
+        <v>36286.497852625427</v>
       </c>
       <c r="AB5">
-        <v>37082.10099530969</v>
+        <v>37082.100995309687</v>
       </c>
       <c r="AC5">
-        <v>38115.10795020358</v>
+        <v>38115.107950203579</v>
       </c>
       <c r="AD5">
-        <v>39448.21091018021</v>
+        <v>39448.210910180213</v>
       </c>
       <c r="AE5">
-        <v>41149.41814161962</v>
+        <v>41149.418141619622</v>
       </c>
       <c r="AF5">
-        <v>11878.63880413276</v>
+        <v>11878.638804132759</v>
       </c>
       <c r="AG5">
         <v>14094.44236154564</v>
       </c>
       <c r="AH5">
-        <v>16764.90768084631</v>
+        <v>16764.907680846311</v>
       </c>
       <c r="AI5">
-        <v>20456.8876111535</v>
+        <v>20456.887611153499</v>
       </c>
       <c r="AJ5">
-        <v>24729.56598180415</v>
+        <v>24729.565981804149</v>
       </c>
       <c r="AK5">
-        <v>42167.268759417</v>
+        <v>42167.268759416998</v>
       </c>
       <c r="AL5">
-        <v>47249.51604365439</v>
+        <v>47249.516043654388</v>
       </c>
       <c r="AM5">
-        <v>52489.09741905167</v>
+        <v>52489.097419051672</v>
       </c>
       <c r="AN5">
-        <v>57648.05722892057</v>
+        <v>57648.057228920567</v>
       </c>
       <c r="AO5">
         <v>62448.88364921193</v>
       </c>
       <c r="AP5">
-        <v>84710.87929517996</v>
+        <v>84710.879295179955</v>
       </c>
       <c r="AQ5">
-        <v>88001.79029861985</v>
+        <v>88001.790298619846</v>
       </c>
       <c r="AR5">
-        <v>90196.39343629406</v>
+        <v>90196.393436294064</v>
       </c>
       <c r="AS5">
-        <v>91150.94009418291</v>
+        <v>91150.940094182908</v>
       </c>
       <c r="AT5">
-        <v>90815.1054522568</v>
+        <v>90815.105452256801</v>
       </c>
       <c r="AU5">
         <v>94431.4259386802</v>
       </c>
       <c r="AV5">
-        <v>91760.95679615829</v>
+        <v>91760.956796158294</v>
       </c>
       <c r="AW5">
-        <v>88217.93182290274</v>
+        <v>88217.931822902741</v>
       </c>
       <c r="AX5">
-        <v>84077.39881640777</v>
+        <v>84077.398816407775</v>
       </c>
       <c r="AY5">
-        <v>79641.05482959411</v>
+        <v>79641.054829594112</v>
       </c>
       <c r="AZ5">
         <v>72116.47262890116</v>
       </c>
       <c r="BA5">
-        <v>67980.74521140011</v>
+        <v>67980.745211400106</v>
       </c>
       <c r="BB5">
-        <v>64384.37983853612</v>
+        <v>64384.379838536122</v>
       </c>
       <c r="BC5">
         <v>61519.333655217</v>
       </c>
       <c r="BD5">
-        <v>59508.77921990981</v>
+        <v>59508.779219909811</v>
       </c>
       <c r="BE5">
-        <v>56665.67358213669</v>
+        <v>56665.673582136689</v>
       </c>
       <c r="BF5">
-        <v>56428.83487677175</v>
+        <v>56428.834876771747</v>
       </c>
       <c r="BG5">
-        <v>56971.68665480443</v>
+        <v>56971.686654804427</v>
       </c>
       <c r="BH5">
-        <v>58154.73939766571</v>
+        <v>58154.739397665711</v>
       </c>
       <c r="BI5">
-        <v>59811.30281980451</v>
+        <v>59811.302819804507</v>
       </c>
       <c r="BJ5">
         <v>61468.58407517794</v>
       </c>
       <c r="BK5">
-        <v>63542.95687149161</v>
+        <v>63542.956871491609</v>
       </c>
       <c r="BL5">
-        <v>65573.91474462255</v>
+        <v>65573.914744622554</v>
       </c>
       <c r="BM5">
-        <v>67414.12449193673</v>
+        <v>67414.124491936731</v>
       </c>
       <c r="BN5">
-        <v>68939.9586977455</v>
+        <v>68939.958697745504</v>
       </c>
       <c r="BO5">
-        <v>70074.5364863259</v>
+        <v>70074.536486325902</v>
       </c>
       <c r="BP5">
-        <v>70721.10035439162</v>
+        <v>70721.100354391616</v>
       </c>
       <c r="BQ5">
-        <v>70869.11408728693</v>
+        <v>70869.114087286929</v>
       </c>
       <c r="BR5">
-        <v>70522.7536639933</v>
+        <v>70522.753663993295</v>
       </c>
       <c r="BS5">
-        <v>69715.14884762534</v>
+        <v>69715.148847625343</v>
       </c>
       <c r="BT5">
-        <v>67994.49708871404</v>
+        <v>67994.497088714037</v>
       </c>
       <c r="BU5">
-        <v>66456.19264367827</v>
+        <v>66456.192643678267</v>
       </c>
       <c r="BV5">
-        <v>64679.60279097821</v>
+        <v>64679.602790978213</v>
       </c>
       <c r="BW5">
-        <v>62758.60061232054</v>
+        <v>62758.600612320537</v>
       </c>
       <c r="BX5">
-        <v>60784.78238499998</v>
+        <v>60784.782384999977</v>
       </c>
       <c r="BY5">
-        <v>57989.15138380231</v>
+        <v>57989.151383802309</v>
       </c>
       <c r="BZ5">
-        <v>56144.32849169277</v>
+        <v>56144.328491692773</v>
       </c>
       <c r="CA5">
-        <v>54449.53575332675</v>
+        <v>54449.535753326752</v>
       </c>
       <c r="CB5">
-        <v>52936.26967725217</v>
+        <v>52936.269677252167</v>
       </c>
       <c r="CC5">
         <v>51616.01968845525</v>
       </c>
       <c r="CD5">
-        <v>49044.08360760117</v>
+        <v>49044.083607601169</v>
       </c>
       <c r="CE5">
-        <v>48072.01532741099</v>
+        <v>48072.015327410991</v>
       </c>
       <c r="CF5">
-        <v>47226.46476783034</v>
+        <v>47226.464767830337</v>
       </c>
       <c r="CG5">
-        <v>46463.68190876721</v>
+        <v>46463.681908767212</v>
       </c>
       <c r="CH5">
-        <v>45736.51339035748</v>
+        <v>45736.513390357482</v>
       </c>
       <c r="CI5">
-        <v>42749.86229082975</v>
+        <v>42749.862290829748</v>
       </c>
       <c r="CJ5">
-        <v>41959.50149787904</v>
+        <v>41959.501497879042</v>
       </c>
       <c r="CK5">
-        <v>41081.94380887519</v>
+        <v>41081.943808875192</v>
       </c>
       <c r="CL5">
         <v>40091.72280724442</v>
       </c>
       <c r="CM5">
-        <v>38973.4530341283</v>
-      </c>
+        <v>38973.453034128303</v>
+      </c>
+      <c r="CQ5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3156,14 +3204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -3435,7 +3483,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3446,49 +3494,49 @@
         <v>1.341561833097389E-10</v>
       </c>
       <c r="D2">
-        <v>1.080315422590612E-09</v>
+        <v>1.0803154225906119E-9</v>
       </c>
       <c r="E2">
-        <v>7.330269297969835E-09</v>
+        <v>7.3302692979698348E-9</v>
       </c>
       <c r="F2">
-        <v>4.295735104192484E-08</v>
+        <v>4.2957351041924837E-8</v>
       </c>
       <c r="G2">
-        <v>2.218032095138087E-07</v>
+        <v>2.2180320951380871E-7</v>
       </c>
       <c r="H2">
-        <v>1.025607117320097E-06</v>
+        <v>1.025607117320097E-6</v>
       </c>
       <c r="I2">
-        <v>4.30396515726965E-06</v>
+        <v>4.3039651572696499E-6</v>
       </c>
       <c r="J2">
-        <v>1.656927773457551E-05</v>
+        <v>1.6569277734575511E-5</v>
       </c>
       <c r="K2">
-        <v>5.898410949814231E-05</v>
+        <v>5.8984109498142307E-5</v>
       </c>
       <c r="L2">
-        <v>0.0001948525848317763</v>
+        <v>1.9485258483177629E-4</v>
       </c>
       <c r="M2">
-        <v>0.0005940949574288644</v>
+        <v>5.9409495742886436E-4</v>
       </c>
       <c r="N2">
-        <v>0.001630633247400938</v>
+        <v>1.6306332474009381E-3</v>
       </c>
       <c r="O2">
-        <v>0.01016102198081586</v>
+        <v>1.016102198081586E-2</v>
       </c>
       <c r="P2">
-        <v>0.03604071745465057</v>
+        <v>3.6040717454650567E-2</v>
       </c>
       <c r="Q2">
-        <v>0.06457070160398801</v>
+        <v>6.4570701603988007E-2</v>
       </c>
       <c r="R2">
-        <v>0.07719057417656262</v>
+        <v>7.7190574176562624E-2</v>
       </c>
       <c r="S2">
         <v>0.1001246219763533</v>
@@ -3497,25 +3545,25 @@
         <v>0.1531217301626315</v>
       </c>
       <c r="U2">
-        <v>0.2332408568399175</v>
+        <v>0.23324085683991749</v>
       </c>
       <c r="V2">
-        <v>0.3670803373204616</v>
+        <v>0.36708033732046158</v>
       </c>
       <c r="W2">
-        <v>0.5576172294764125</v>
+        <v>0.55761722947641246</v>
       </c>
       <c r="X2">
-        <v>0.7705459779295131</v>
+        <v>0.77054597792951307</v>
       </c>
       <c r="Y2">
-        <v>1.030607331191182</v>
+        <v>1.0306073311911821</v>
       </c>
       <c r="Z2">
         <v>1.354175588981533</v>
       </c>
       <c r="AA2">
-        <v>1.615026616900929</v>
+        <v>1.6150266169009291</v>
       </c>
       <c r="AB2">
         <v>1.925830269242242</v>
@@ -3524,64 +3572,64 @@
         <v>2.4098654065197</v>
       </c>
       <c r="AD2">
-        <v>2.859823600548028</v>
+        <v>2.8598236005480282</v>
       </c>
       <c r="AE2">
         <v>3.433073318496862</v>
       </c>
       <c r="AF2">
-        <v>3.795211107811871</v>
+        <v>3.7952111078118711</v>
       </c>
       <c r="AG2">
-        <v>4.084329701368896</v>
+        <v>4.0843297013688957</v>
       </c>
       <c r="AH2">
-        <v>5.048048640692802</v>
+        <v>5.0480486406928016</v>
       </c>
       <c r="AI2">
-        <v>6.667914162439295</v>
+        <v>6.6679141624392946</v>
       </c>
       <c r="AJ2">
-        <v>8.249997015096946</v>
+        <v>8.2499970150969464</v>
       </c>
       <c r="AK2">
         <v>10.77015761872042</v>
       </c>
       <c r="AL2">
-        <v>14.44282903005909</v>
+        <v>14.442829030059089</v>
       </c>
       <c r="AM2">
         <v>19.7307826664745</v>
       </c>
       <c r="AN2">
-        <v>26.82216681468613</v>
+        <v>26.822166814686131</v>
       </c>
       <c r="AO2">
-        <v>32.20989698807754</v>
+        <v>32.209896988077539</v>
       </c>
       <c r="AP2">
-        <v>35.59121013832026</v>
+        <v>35.591210138320257</v>
       </c>
       <c r="AQ2">
-        <v>38.77229203869591</v>
+        <v>38.772292038695909</v>
       </c>
       <c r="AR2">
         <v>41.72098211383873</v>
       </c>
       <c r="AS2">
-        <v>44.45275587949742</v>
+        <v>44.452755879497417</v>
       </c>
       <c r="AT2">
-        <v>47.48314960166937</v>
+        <v>47.483149601669368</v>
       </c>
       <c r="AU2">
-        <v>50.14985662396892</v>
+        <v>50.149856623968923</v>
       </c>
       <c r="AV2">
-        <v>50.30239870330028</v>
+        <v>50.302398703300277</v>
       </c>
       <c r="AW2">
-        <v>45.2385881922637</v>
+        <v>45.238588192263698</v>
       </c>
       <c r="AX2">
         <v>35.86599169701411</v>
@@ -3590,40 +3638,40 @@
         <v>31.39481152895528</v>
       </c>
       <c r="AZ2">
-        <v>32.29411400904254</v>
+        <v>32.294114009042538</v>
       </c>
       <c r="BA2">
-        <v>32.67076922697034</v>
+        <v>32.670769226970343</v>
       </c>
       <c r="BB2">
-        <v>30.88775903780225</v>
+        <v>30.887759037802251</v>
       </c>
       <c r="BC2">
-        <v>27.41737063787401</v>
+        <v>27.417370637874011</v>
       </c>
       <c r="BD2">
-        <v>26.52700296205723</v>
+        <v>26.527002962057232</v>
       </c>
       <c r="BE2">
-        <v>29.12568155627613</v>
+        <v>29.125681556276131</v>
       </c>
       <c r="BF2">
-        <v>33.60506877789387</v>
+        <v>33.605068777893869</v>
       </c>
       <c r="BG2">
-        <v>40.47093204565699</v>
+        <v>40.470932045656987</v>
       </c>
       <c r="BH2">
-        <v>50.1190030371836</v>
+        <v>50.119003037183603</v>
       </c>
       <c r="BI2">
-        <v>61.14012279031952</v>
+        <v>61.140122790319523</v>
       </c>
       <c r="BJ2">
         <v>73.53526469243323</v>
       </c>
       <c r="BK2">
-        <v>87.93004296524239</v>
+        <v>87.930042965242393</v>
       </c>
       <c r="BL2">
         <v>103.5609271362904</v>
@@ -3632,37 +3680,37 @@
         <v>119.2411418676551</v>
       </c>
       <c r="BN2">
-        <v>131.3891611546898</v>
+        <v>131.38916115468979</v>
       </c>
       <c r="BO2">
-        <v>140.3875688452086</v>
+        <v>140.38756884520859</v>
       </c>
       <c r="BP2">
-        <v>148.9266123074615</v>
+        <v>148.92661230746151</v>
       </c>
       <c r="BQ2">
-        <v>156.9375413900802</v>
+        <v>156.93754139008021</v>
       </c>
       <c r="BR2">
-        <v>162.5212868148074</v>
+        <v>162.52128681480741</v>
       </c>
       <c r="BS2">
-        <v>162.2040206434612</v>
+        <v>162.20402064346121</v>
       </c>
       <c r="BT2">
-        <v>155.5134821335332</v>
+        <v>155.51348213353319</v>
       </c>
       <c r="BU2">
         <v>146.7796848799583</v>
       </c>
       <c r="BV2">
-        <v>141.3343829613777</v>
+        <v>141.33438296137771</v>
       </c>
       <c r="BW2">
         <v>139.9841039203325</v>
       </c>
       <c r="BX2">
-        <v>140.2883654089721</v>
+        <v>140.28836540897211</v>
       </c>
       <c r="BY2">
         <v>140.1087591422102</v>
@@ -3671,10 +3719,10 @@
         <v>140.0239267437037</v>
       </c>
       <c r="CA2">
-        <v>142.8476289871396</v>
+        <v>142.84762898713959</v>
       </c>
       <c r="CB2">
-        <v>150.2722458803723</v>
+        <v>150.27224588037231</v>
       </c>
       <c r="CC2">
         <v>163.2582426815043</v>
@@ -3683,7 +3731,7 @@
         <v>181.3897583462049</v>
       </c>
       <c r="CE2">
-        <v>203.2734113829195</v>
+        <v>203.27341138291951</v>
       </c>
       <c r="CF2">
         <v>227.6792858384085</v>
@@ -3692,25 +3740,25 @@
         <v>254.1099539339485</v>
       </c>
       <c r="CH2">
-        <v>282.9594276056721</v>
+        <v>282.95942760567209</v>
       </c>
       <c r="CI2">
-        <v>312.602131433001</v>
+        <v>312.60213143300098</v>
       </c>
       <c r="CJ2">
-        <v>339.8332134292914</v>
+        <v>339.83321342929139</v>
       </c>
       <c r="CK2">
-        <v>362.3287380183435</v>
+        <v>362.32873801834347</v>
       </c>
       <c r="CL2">
-        <v>380.2489767114712</v>
+        <v>380.24897671147119</v>
       </c>
       <c r="CM2">
         <v>395.3728339228926</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3754,82 +3802,82 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01025746228157005</v>
+        <v>1.025746228157005E-2</v>
       </c>
       <c r="P3">
-        <v>0.03669574151585753</v>
+        <v>3.6695741515857527E-2</v>
       </c>
       <c r="Q3">
-        <v>0.06595576424375095</v>
+        <v>6.595576424375095E-2</v>
       </c>
       <c r="R3">
-        <v>0.07868256389759251</v>
+        <v>7.8682563897592511E-2</v>
       </c>
       <c r="S3">
-        <v>0.1012516226907788</v>
+        <v>0.10125162269077879</v>
       </c>
       <c r="T3">
-        <v>0.152498530027859</v>
+        <v>0.15249853002785899</v>
       </c>
       <c r="U3">
-        <v>0.2264395660626289</v>
+        <v>0.22643956606262891</v>
       </c>
       <c r="V3">
-        <v>0.3459535000369794</v>
+        <v>0.34595350003697939</v>
       </c>
       <c r="W3">
-        <v>0.5124548528734248</v>
+        <v>0.51245485287342485</v>
       </c>
       <c r="X3">
-        <v>0.693113739832414</v>
+        <v>0.69311373983241398</v>
       </c>
       <c r="Y3">
-        <v>0.9101993715548458</v>
+        <v>0.91019937155484576</v>
       </c>
       <c r="Z3">
-        <v>1.177268886726106</v>
+        <v>1.1772688867261061</v>
       </c>
       <c r="AA3">
-        <v>1.385026754725701</v>
+        <v>1.3850267547257009</v>
       </c>
       <c r="AB3">
         <v>1.631993225679103</v>
       </c>
       <c r="AC3">
-        <v>2.020692457708084</v>
+        <v>2.0206924577080838</v>
       </c>
       <c r="AD3">
-        <v>2.3751629515499</v>
+        <v>2.3751629515499002</v>
       </c>
       <c r="AE3">
-        <v>2.826104758357743</v>
+        <v>2.8261047583577432</v>
       </c>
       <c r="AF3">
-        <v>3.097912701221926</v>
+        <v>3.0979127012219259</v>
       </c>
       <c r="AG3">
-        <v>3.306272906504893</v>
+        <v>3.3062729065048928</v>
       </c>
       <c r="AH3">
-        <v>4.051990406549086</v>
+        <v>4.0519904065490859</v>
       </c>
       <c r="AI3">
-        <v>5.305127999650812</v>
+        <v>5.3051279996508116</v>
       </c>
       <c r="AJ3">
-        <v>6.502086937075886</v>
+        <v>6.5020869370758856</v>
       </c>
       <c r="AK3">
-        <v>8.401397972762569</v>
+        <v>8.4013979727625685</v>
       </c>
       <c r="AL3">
         <v>11.1394366999728</v>
       </c>
       <c r="AM3">
-        <v>15.02833214473364</v>
+        <v>15.028332144733641</v>
       </c>
       <c r="AN3">
-        <v>20.14763072693414</v>
+        <v>20.147630726934139</v>
       </c>
       <c r="AO3">
         <v>23.82526333947169</v>
@@ -3838,79 +3886,79 @@
         <v>25.94038238760222</v>
       </c>
       <c r="AQ3">
-        <v>27.92149985379424</v>
+        <v>27.921499853794241</v>
       </c>
       <c r="AR3">
-        <v>29.76617692679954</v>
+        <v>29.766176926799542</v>
       </c>
       <c r="AS3">
-        <v>31.50189126616293</v>
+        <v>31.501891266162929</v>
       </c>
       <c r="AT3">
-        <v>33.50427438521987</v>
+        <v>33.504274385219873</v>
       </c>
       <c r="AU3">
-        <v>35.31263300634895</v>
+        <v>35.312633006348953</v>
       </c>
       <c r="AV3">
-        <v>35.41941202881424</v>
+        <v>35.419412028814243</v>
       </c>
       <c r="AW3">
-        <v>31.91225535612785</v>
+        <v>31.912255356127851</v>
       </c>
       <c r="AX3">
         <v>25.38868035807155</v>
       </c>
       <c r="AY3">
-        <v>22.33302218022842</v>
+        <v>22.333022180228419</v>
       </c>
       <c r="AZ3">
-        <v>23.1143856142864</v>
+        <v>23.114385614286402</v>
       </c>
       <c r="BA3">
-        <v>23.55281601338629</v>
+        <v>23.552816013386291</v>
       </c>
       <c r="BB3">
-        <v>22.44777311408106</v>
+        <v>22.447773114081059</v>
       </c>
       <c r="BC3">
-        <v>20.10133860908694</v>
+        <v>20.101338609086941</v>
       </c>
       <c r="BD3">
-        <v>19.63112810236889</v>
+        <v>19.631128102368891</v>
       </c>
       <c r="BE3">
-        <v>21.76606643468021</v>
+        <v>21.766066434680209</v>
       </c>
       <c r="BF3">
-        <v>25.36846025463946</v>
+        <v>25.368460254639459</v>
       </c>
       <c r="BG3">
-        <v>30.86829600956326</v>
+        <v>30.868296009563259</v>
       </c>
       <c r="BH3">
-        <v>38.62855178509614</v>
+        <v>38.628551785096143</v>
       </c>
       <c r="BI3">
-        <v>47.62032578495175</v>
+        <v>47.620325784951753</v>
       </c>
       <c r="BJ3">
-        <v>57.87848763660869</v>
+        <v>57.878487636608689</v>
       </c>
       <c r="BK3">
-        <v>69.93360402765556</v>
+        <v>69.933604027655562</v>
       </c>
       <c r="BL3">
-        <v>83.21917818522728</v>
+        <v>83.219178185227278</v>
       </c>
       <c r="BM3">
-        <v>96.798306356061</v>
+        <v>96.798306356061005</v>
       </c>
       <c r="BN3">
-        <v>107.7301049615696</v>
+        <v>107.73010496156959</v>
       </c>
       <c r="BO3">
-        <v>116.2392973822326</v>
+        <v>116.23929738223261</v>
       </c>
       <c r="BP3">
         <v>124.4931997358054</v>
@@ -3919,25 +3967,25 @@
         <v>132.4172780590375</v>
       </c>
       <c r="BR3">
-        <v>138.3767067291303</v>
+        <v>138.37670672913029</v>
       </c>
       <c r="BS3">
-        <v>139.3272477043992</v>
+        <v>139.32724770439921</v>
       </c>
       <c r="BT3">
         <v>134.7250984421425</v>
       </c>
       <c r="BU3">
-        <v>128.213953776432</v>
+        <v>128.21395377643199</v>
       </c>
       <c r="BV3">
         <v>124.4481044094061</v>
       </c>
       <c r="BW3">
-        <v>124.2145913366981</v>
+        <v>124.21459133669811</v>
       </c>
       <c r="BX3">
-        <v>125.4157143141561</v>
+        <v>125.41571431415611</v>
       </c>
       <c r="BY3">
         <v>126.1583774610724</v>
@@ -3949,43 +3997,43 @@
         <v>130.3837564494641</v>
       </c>
       <c r="CB3">
-        <v>138.0423139537623</v>
+        <v>138.04231395376229</v>
       </c>
       <c r="CC3">
-        <v>150.8979275829049</v>
+        <v>150.89792758290491</v>
       </c>
       <c r="CD3">
-        <v>168.6513028828548</v>
+        <v>168.65130288285479</v>
       </c>
       <c r="CE3">
         <v>190.0740554418332</v>
       </c>
       <c r="CF3">
-        <v>214.0573745582267</v>
+        <v>214.05737455822671</v>
       </c>
       <c r="CG3">
-        <v>240.1565381742461</v>
+        <v>240.15653817424609</v>
       </c>
       <c r="CH3">
-        <v>268.761595650661</v>
+        <v>268.76159565066098</v>
       </c>
       <c r="CI3">
-        <v>298.3404279785533</v>
+        <v>298.34042797855329</v>
       </c>
       <c r="CJ3">
-        <v>325.8160813119744</v>
+        <v>325.81608131197441</v>
       </c>
       <c r="CK3">
-        <v>348.9055809657341</v>
+        <v>348.90558096573409</v>
       </c>
       <c r="CL3">
-        <v>367.6935740512116</v>
+        <v>367.69357405121161</v>
       </c>
       <c r="CM3">
-        <v>383.8437834581371</v>
+        <v>383.84378345813712</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3993,112 +4041,112 @@
         <v>0.1160686883156114</v>
       </c>
       <c r="C4">
-        <v>0.2115689210230602</v>
+        <v>0.21156892102306021</v>
       </c>
       <c r="D4">
-        <v>0.3732750604832188</v>
+        <v>0.37327506048321879</v>
       </c>
       <c r="E4">
-        <v>0.6434126799699152</v>
+        <v>0.64341267996991525</v>
       </c>
       <c r="F4">
         <v>1.088179570547241</v>
       </c>
       <c r="G4">
-        <v>1.808119211151768</v>
+        <v>1.8081192111517681</v>
       </c>
       <c r="H4">
-        <v>2.958064625019204</v>
+        <v>2.9580646250192042</v>
       </c>
       <c r="I4">
-        <v>4.798114416865086</v>
+        <v>4.7981144168650864</v>
       </c>
       <c r="J4">
-        <v>7.836149332441988</v>
+        <v>7.8361493324419884</v>
       </c>
       <c r="K4">
-        <v>13.21378220728061</v>
+        <v>13.213782207280611</v>
       </c>
       <c r="L4">
-        <v>23.62839957252824</v>
+        <v>23.628399572528242</v>
       </c>
       <c r="M4">
-        <v>44.83961592361303</v>
+        <v>44.839615923613032</v>
       </c>
       <c r="N4">
-        <v>84.6421778988218</v>
+        <v>84.642177898821799</v>
       </c>
       <c r="O4">
-        <v>142.1856263997174</v>
+        <v>142.18562639971739</v>
       </c>
       <c r="P4">
-        <v>185.7750136786732</v>
+        <v>185.77501367867319</v>
       </c>
       <c r="Q4">
-        <v>217.5649218778376</v>
+        <v>217.56492187783761</v>
       </c>
       <c r="R4">
-        <v>262.5539183272074</v>
+        <v>262.55391832720738</v>
       </c>
       <c r="S4">
-        <v>327.1792628035674</v>
+        <v>327.17926280356738</v>
       </c>
       <c r="T4">
-        <v>409.8867487902158</v>
+        <v>409.88674879021579</v>
       </c>
       <c r="U4">
-        <v>508.6441028262445</v>
+        <v>508.64410282624448</v>
       </c>
       <c r="V4">
         <v>633.6875393656602</v>
       </c>
       <c r="W4">
-        <v>784.7999259640198</v>
+        <v>784.79992596401985</v>
       </c>
       <c r="X4">
-        <v>945.0300928765009</v>
+        <v>945.03009287650093</v>
       </c>
       <c r="Y4">
-        <v>1139.656288778253</v>
+        <v>1139.6562887782529</v>
       </c>
       <c r="Z4">
-        <v>1382.084080419508</v>
+        <v>1382.0840804195079</v>
       </c>
       <c r="AA4">
         <v>1672.89449092114</v>
       </c>
       <c r="AB4">
-        <v>2083.522440233503</v>
+        <v>2083.5224402335029</v>
       </c>
       <c r="AC4">
-        <v>2597.489188958347</v>
+        <v>2597.4891889583469</v>
       </c>
       <c r="AD4">
-        <v>3162.672978254748</v>
+        <v>3162.6729782547482</v>
       </c>
       <c r="AE4">
-        <v>3893.424463955051</v>
+        <v>3893.4244639550511</v>
       </c>
       <c r="AF4">
-        <v>4874.419152399771</v>
+        <v>4874.4191523997706</v>
       </c>
       <c r="AG4">
-        <v>6170.80022120978</v>
+        <v>6170.8002212097799</v>
       </c>
       <c r="AH4">
-        <v>7822.263401432901</v>
+        <v>7822.2634014329014</v>
       </c>
       <c r="AI4">
-        <v>9852.835357959322</v>
+        <v>9852.8353579593222</v>
       </c>
       <c r="AJ4">
-        <v>12452.20595397325</v>
+        <v>12452.205953973251</v>
       </c>
       <c r="AK4">
         <v>15696.19460417096</v>
       </c>
       <c r="AL4">
-        <v>19328.66688578433</v>
+        <v>19328.666885784329</v>
       </c>
       <c r="AM4">
         <v>23549.37972515247</v>
@@ -4107,58 +4155,58 @@
         <v>28285.11858199233</v>
       </c>
       <c r="AO4">
-        <v>32215.2680437082</v>
+        <v>32215.268043708202</v>
       </c>
       <c r="AP4">
         <v>35189.97675162505</v>
       </c>
       <c r="AQ4">
-        <v>37736.29571612325</v>
+        <v>37736.295716123248</v>
       </c>
       <c r="AR4">
-        <v>39729.81552347306</v>
+        <v>39729.815523473058</v>
       </c>
       <c r="AS4">
-        <v>41065.96912441225</v>
+        <v>41065.969124412251</v>
       </c>
       <c r="AT4">
-        <v>41787.29704326487</v>
+        <v>41787.297043264873</v>
       </c>
       <c r="AU4">
-        <v>41734.56703989046</v>
+        <v>41734.567039890462</v>
       </c>
       <c r="AV4">
-        <v>40545.18518451406</v>
+        <v>40545.185184514063</v>
       </c>
       <c r="AW4">
-        <v>37879.10754148557</v>
+        <v>37879.107541485573</v>
       </c>
       <c r="AX4">
-        <v>34142.89907062105</v>
+        <v>34142.899070621053</v>
       </c>
       <c r="AY4">
-        <v>31158.28988536825</v>
+        <v>31158.289885368249</v>
       </c>
       <c r="AZ4">
         <v>29046.64155222927</v>
       </c>
       <c r="BA4">
-        <v>26933.91748776151</v>
+        <v>26933.917487761511</v>
       </c>
       <c r="BB4">
-        <v>24829.46206400808</v>
+        <v>24829.462064008079</v>
       </c>
       <c r="BC4">
         <v>23000.67566252948</v>
       </c>
       <c r="BD4">
-        <v>22030.58330703125</v>
+        <v>22030.583307031251</v>
       </c>
       <c r="BE4">
-        <v>22076.69247911703</v>
+        <v>22076.692479117031</v>
       </c>
       <c r="BF4">
-        <v>23043.06166153006</v>
+        <v>23043.061661530061</v>
       </c>
       <c r="BG4">
         <v>25048.94797705274</v>
@@ -4176,180 +4224,180 @@
         <v>40114.0007907162</v>
       </c>
       <c r="BL4">
-        <v>44352.28493811896</v>
+        <v>44352.284938118959</v>
       </c>
       <c r="BM4">
-        <v>48230.23973789773</v>
+        <v>48230.239737897733</v>
       </c>
       <c r="BN4">
-        <v>51443.51869348324</v>
+        <v>51443.518693483238</v>
       </c>
       <c r="BO4">
-        <v>54043.50472624513</v>
+        <v>54043.504726245133</v>
       </c>
       <c r="BP4">
-        <v>56222.80653267807</v>
+        <v>56222.806532678071</v>
       </c>
       <c r="BQ4">
-        <v>57906.19127629205</v>
+        <v>57906.191276292047</v>
       </c>
       <c r="BR4">
-        <v>58871.31475028233</v>
+        <v>58871.314750282327</v>
       </c>
       <c r="BS4">
-        <v>58818.82413879288</v>
+        <v>58818.824138792879</v>
       </c>
       <c r="BT4">
-        <v>57798.97839620761</v>
+        <v>57798.978396207611</v>
       </c>
       <c r="BU4">
-        <v>56338.09405322519</v>
+        <v>56338.094053225192</v>
       </c>
       <c r="BV4">
-        <v>55027.07338776101</v>
+        <v>55027.073387761011</v>
       </c>
       <c r="BW4">
-        <v>53977.23842895838</v>
+        <v>53977.238428958379</v>
       </c>
       <c r="BX4">
-        <v>53000.25245839945</v>
+        <v>53000.252458399453</v>
       </c>
       <c r="BY4">
-        <v>52010.82796588897</v>
+        <v>52010.827965888973</v>
       </c>
       <c r="BZ4">
-        <v>51136.44466739912</v>
+        <v>51136.444667399119</v>
       </c>
       <c r="CA4">
-        <v>50606.50694596578</v>
+        <v>50606.506945965783</v>
       </c>
       <c r="CB4">
-        <v>50600.91597818473</v>
+        <v>50600.915978184727</v>
       </c>
       <c r="CC4">
-        <v>51288.960128386</v>
+        <v>51288.960128386003</v>
       </c>
       <c r="CD4">
-        <v>52725.48042001615</v>
+        <v>52725.480420016152</v>
       </c>
       <c r="CE4">
-        <v>54794.01119004471</v>
+        <v>54794.011190044708</v>
       </c>
       <c r="CF4">
-        <v>57297.27462639505</v>
+        <v>57297.274626395047</v>
       </c>
       <c r="CG4">
-        <v>60062.42374714799</v>
+        <v>60062.423747147986</v>
       </c>
       <c r="CH4">
-        <v>62948.61923652866</v>
+        <v>62948.619236528662</v>
       </c>
       <c r="CI4">
         <v>65741.14898598539</v>
       </c>
       <c r="CJ4">
-        <v>68234.97745945318</v>
+        <v>68234.977459453177</v>
       </c>
       <c r="CK4">
-        <v>70337.61675526237</v>
+        <v>70337.616755262366</v>
       </c>
       <c r="CL4">
-        <v>72075.06436510057</v>
+        <v>72075.064365100567</v>
       </c>
       <c r="CM4">
-        <v>73501.6735015579</v>
+        <v>73501.673501557903</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004448165894890477</v>
+        <v>4.4481658948904773E-3</v>
       </c>
       <c r="C5">
-        <v>0.008062003945581171</v>
+        <v>8.0620039455811705E-3</v>
       </c>
       <c r="D5">
-        <v>0.01413636675331901</v>
+        <v>1.4136366753319011E-2</v>
       </c>
       <c r="E5">
-        <v>0.02420888146222291</v>
+        <v>2.4208881462222911E-2</v>
       </c>
       <c r="F5">
-        <v>0.04066272690702872</v>
+        <v>4.0662726907028719E-2</v>
       </c>
       <c r="G5">
-        <v>0.06700036573912069</v>
+        <v>6.7000365739120687E-2</v>
       </c>
       <c r="H5">
         <v>0.1081277075555921</v>
       </c>
       <c r="I5">
-        <v>0.1706513321555296</v>
+        <v>0.17065133215552961</v>
       </c>
       <c r="J5">
-        <v>0.2631963012799863</v>
+        <v>0.26319630127998628</v>
       </c>
       <c r="K5">
-        <v>0.3967128923734402</v>
+        <v>0.39671289237344021</v>
       </c>
       <c r="L5">
-        <v>0.5846943671236058</v>
+        <v>0.58469436712360578</v>
       </c>
       <c r="M5">
-        <v>0.8432438371185711</v>
+        <v>0.84324383711857109</v>
       </c>
       <c r="N5">
-        <v>1.190951593860888</v>
+        <v>1.1909515938608879</v>
       </c>
       <c r="O5">
-        <v>5.390655789354327</v>
+        <v>5.3906557893543274</v>
       </c>
       <c r="P5">
         <v>12.35829613542327</v>
       </c>
       <c r="Q5">
-        <v>23.02126436699814</v>
+        <v>23.021264366998139</v>
       </c>
       <c r="R5">
-        <v>38.39224975340456</v>
+        <v>38.392249753404563</v>
       </c>
       <c r="S5">
-        <v>59.5420650264243</v>
+        <v>59.542065026424297</v>
       </c>
       <c r="T5">
-        <v>87.61177848156912</v>
+        <v>87.611778481569118</v>
       </c>
       <c r="U5">
         <v>123.880947099644</v>
       </c>
       <c r="V5">
-        <v>170.9164053734384</v>
+        <v>170.91640537343841</v>
       </c>
       <c r="W5">
-        <v>233.1214838821896</v>
+        <v>233.12148388218961</v>
       </c>
       <c r="X5">
-        <v>316.0400281313168</v>
+        <v>316.04002813131677</v>
       </c>
       <c r="Y5">
-        <v>427.5204000011722</v>
+        <v>427.52040000117222</v>
       </c>
       <c r="Z5">
-        <v>578.4351705554039</v>
+        <v>578.43517055540394</v>
       </c>
       <c r="AA5">
-        <v>783.4793353718314</v>
+        <v>783.47933537183144</v>
       </c>
       <c r="AB5">
-        <v>1061.985033059664</v>
+        <v>1061.9850330596639</v>
       </c>
       <c r="AC5">
         <v>1438.622546739879</v>
       </c>
       <c r="AD5">
-        <v>1943.755683172952</v>
+        <v>1943.7556831729521</v>
       </c>
       <c r="AE5">
         <v>2613.228720080941</v>
@@ -4358,172 +4406,172 @@
         <v>3487.375842560999</v>
       </c>
       <c r="AG5">
-        <v>4609.038995843637</v>
+        <v>4609.0389958436372</v>
       </c>
       <c r="AH5">
         <v>6020.41659425323</v>
       </c>
       <c r="AI5">
-        <v>7758.641679558826</v>
+        <v>7758.6416795588257</v>
       </c>
       <c r="AJ5">
-        <v>9850.164604627258</v>
+        <v>9850.1646046272581</v>
       </c>
       <c r="AK5">
-        <v>12304.26050407477</v>
+        <v>12304.260504074769</v>
       </c>
       <c r="AL5">
         <v>15106.29330633614</v>
       </c>
       <c r="AM5">
-        <v>18211.74309172524</v>
+        <v>18211.743091725239</v>
       </c>
       <c r="AN5">
-        <v>21542.34416169984</v>
+        <v>21542.344161699839</v>
       </c>
       <c r="AO5">
         <v>24985.8036196584</v>
       </c>
       <c r="AP5">
-        <v>28379.7412446477</v>
+        <v>28379.741244647699</v>
       </c>
       <c r="AQ5">
-        <v>31531.57841577085</v>
+        <v>31531.578415770851</v>
       </c>
       <c r="AR5">
-        <v>34261.44278714001</v>
+        <v>34261.442787140011</v>
       </c>
       <c r="AS5">
-        <v>36407.52920370251</v>
+        <v>36407.529203702506</v>
       </c>
       <c r="AT5">
-        <v>37846.16096874393</v>
+        <v>37846.160968743927</v>
       </c>
       <c r="AU5">
-        <v>38507.81737602042</v>
+        <v>38507.817376020423</v>
       </c>
       <c r="AV5">
-        <v>38386.37689680321</v>
+        <v>38386.376896803209</v>
       </c>
       <c r="AW5">
-        <v>37540.59978679092</v>
+        <v>37540.599786790917</v>
       </c>
       <c r="AX5">
-        <v>36088.83346696172</v>
+        <v>36088.833466961718</v>
       </c>
       <c r="AY5">
-        <v>34199.14646438665</v>
+        <v>34199.146464386649</v>
       </c>
       <c r="AZ5">
         <v>32076.98180312409</v>
       </c>
       <c r="BA5">
-        <v>29951.17434081456</v>
+        <v>29951.174340814559</v>
       </c>
       <c r="BB5">
-        <v>28057.88018921557</v>
+        <v>28057.880189215572</v>
       </c>
       <c r="BC5">
-        <v>26621.91571795314</v>
+        <v>26621.915717953139</v>
       </c>
       <c r="BD5">
-        <v>25836.61650181766</v>
+        <v>25836.616501817662</v>
       </c>
       <c r="BE5">
         <v>25845.54788707507</v>
       </c>
       <c r="BF5">
-        <v>26730.37797463537</v>
+        <v>26730.377974635368</v>
       </c>
       <c r="BG5">
         <v>28507.79375613189</v>
       </c>
       <c r="BH5">
-        <v>31135.07271671059</v>
+        <v>31135.072716710591</v>
       </c>
       <c r="BI5">
-        <v>34520.8362091967</v>
+        <v>34520.836209196699</v>
       </c>
       <c r="BJ5">
-        <v>38536.5899289229</v>
+        <v>38536.589928922898</v>
       </c>
       <c r="BK5">
-        <v>43026.3398234051</v>
+        <v>43026.339823405098</v>
       </c>
       <c r="BL5">
-        <v>47814.39807368116</v>
+        <v>47814.398073681157</v>
       </c>
       <c r="BM5">
-        <v>52713.2845074249</v>
+        <v>52713.284507424898</v>
       </c>
       <c r="BN5">
-        <v>57533.2874876869</v>
+        <v>57533.287487686903</v>
       </c>
       <c r="BO5">
-        <v>62093.55103582181</v>
+        <v>62093.551035821809</v>
       </c>
       <c r="BP5">
-        <v>66233.21017642305</v>
+        <v>66233.210176423047</v>
       </c>
       <c r="BQ5">
-        <v>69821.08549425707</v>
+        <v>69821.085494257073</v>
       </c>
       <c r="BR5">
-        <v>72763.32899657366</v>
+        <v>72763.328996573662</v>
       </c>
       <c r="BS5">
-        <v>75009.08742324641</v>
+        <v>75009.087423246412</v>
       </c>
       <c r="BT5">
-        <v>76554.14101788572</v>
+        <v>76554.141017885719</v>
       </c>
       <c r="BU5">
-        <v>77441.93083310402</v>
+        <v>77441.930833104023</v>
       </c>
       <c r="BV5">
-        <v>77761.14411533681</v>
+        <v>77761.144115336807</v>
       </c>
       <c r="BW5">
-        <v>77639.47475408988</v>
+        <v>77639.474754089882</v>
       </c>
       <c r="BX5">
-        <v>77234.06127341902</v>
+        <v>77234.061273419022</v>
       </c>
       <c r="BY5">
-        <v>76719.81354562304</v>
+        <v>76719.813545623037</v>
       </c>
       <c r="BZ5">
-        <v>76276.95319618018</v>
+        <v>76276.953196180184</v>
       </c>
       <c r="CA5">
-        <v>76078.72664003342</v>
+        <v>76078.726640033419</v>
       </c>
       <c r="CB5">
-        <v>76279.88087353751</v>
+        <v>76279.880873537506</v>
       </c>
       <c r="CC5">
-        <v>77006.46705957697</v>
+        <v>77006.467059576971</v>
       </c>
       <c r="CD5">
-        <v>78347.74711538461</v>
+        <v>78347.747115384613</v>
       </c>
       <c r="CE5">
-        <v>80351.04313354043</v>
+        <v>80351.043133540428</v>
       </c>
       <c r="CF5">
-        <v>83020.05671913169</v>
+        <v>83020.056719131695</v>
       </c>
       <c r="CG5">
-        <v>86316.61956573671</v>
+        <v>86316.619565736706</v>
       </c>
       <c r="CH5">
-        <v>90165.34157039346</v>
+        <v>90165.341570393459</v>
       </c>
       <c r="CI5">
-        <v>94460.4044164809</v>
+        <v>94460.404416480902</v>
       </c>
       <c r="CJ5">
-        <v>99073.78487288192</v>
+        <v>99073.784872881923</v>
       </c>
       <c r="CK5">
         <v>103864.3190002506</v>
@@ -4541,14 +4589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -4820,84 +4868,84 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.87313184253996</v>
+        <v>46.873131842539962</v>
       </c>
       <c r="C2">
-        <v>66.33198678148759</v>
+        <v>66.331986781487586</v>
       </c>
       <c r="D2">
-        <v>64.1089384584233</v>
+        <v>64.108938458423296</v>
       </c>
       <c r="E2">
         <v>60.87287774328054</v>
       </c>
       <c r="F2">
-        <v>97.98477953302294</v>
+        <v>97.984779533022945</v>
       </c>
       <c r="G2">
-        <v>70.69516494205936</v>
+        <v>70.695164942059364</v>
       </c>
       <c r="H2">
-        <v>125.7741889276355</v>
+        <v>125.77418892763551</v>
       </c>
       <c r="I2">
-        <v>119.5422788752873</v>
+        <v>119.54227887528729</v>
       </c>
       <c r="J2">
         <v>112.1300093206742</v>
       </c>
       <c r="K2">
-        <v>101.2032910050308</v>
+        <v>101.20329100503081</v>
       </c>
       <c r="L2">
         <v>209.8174006905885</v>
       </c>
       <c r="M2">
-        <v>142.8001959795544</v>
+        <v>142.80019597955439</v>
       </c>
       <c r="N2">
-        <v>279.4014087450087</v>
+        <v>279.40140874500872</v>
       </c>
       <c r="O2">
-        <v>301.5596095629891</v>
+        <v>301.55960956298912</v>
       </c>
       <c r="P2">
-        <v>323.9693777259723</v>
+        <v>323.96937772597232</v>
       </c>
       <c r="Q2">
-        <v>709.273896589118</v>
+        <v>709.27389658911795</v>
       </c>
       <c r="R2">
-        <v>759.4381472304098</v>
+        <v>759.43814723040975</v>
       </c>
       <c r="S2">
-        <v>810.116584190967</v>
+        <v>810.11658419096705</v>
       </c>
       <c r="T2">
-        <v>861.6560816339812</v>
+        <v>861.65608163398122</v>
       </c>
       <c r="U2">
-        <v>913.8697426800576</v>
+        <v>913.86974268005758</v>
       </c>
       <c r="V2">
         <v>917.879872821101</v>
       </c>
       <c r="W2">
-        <v>967.7409009236877</v>
+        <v>967.74090092368772</v>
       </c>
       <c r="X2">
         <v>1017.945510215898</v>
       </c>
       <c r="Y2">
-        <v>1069.061944643505</v>
+        <v>1069.0619446435051</v>
       </c>
       <c r="Z2">
-        <v>1121.442690237329</v>
+        <v>1121.4426902373291</v>
       </c>
       <c r="AA2">
         <v>520.6016895394315</v>
@@ -4906,61 +4954,61 @@
         <v>534.2213800479467</v>
       </c>
       <c r="AC2">
-        <v>551.427809192021</v>
+        <v>551.42780919202096</v>
       </c>
       <c r="AD2">
-        <v>568.1430196782676</v>
+        <v>568.14301967826759</v>
       </c>
       <c r="AE2">
-        <v>587.5413644991157</v>
+        <v>587.54136449911573</v>
       </c>
       <c r="AF2">
-        <v>371.1595196362676</v>
+        <v>371.15951963626759</v>
       </c>
       <c r="AG2">
-        <v>373.7902077363855</v>
+        <v>373.79020773638553</v>
       </c>
       <c r="AH2">
-        <v>389.4314958594237</v>
+        <v>389.43149585942371</v>
       </c>
       <c r="AI2">
-        <v>417.7729264100304</v>
+        <v>417.77292641003038</v>
       </c>
       <c r="AJ2">
-        <v>445.3454189561787</v>
+        <v>445.34541895617872</v>
       </c>
       <c r="AK2">
-        <v>590.8994121255818</v>
+        <v>590.89941212558176</v>
       </c>
       <c r="AL2">
-        <v>658.1916253835686</v>
+        <v>658.19162538356863</v>
       </c>
       <c r="AM2">
-        <v>750.8248296753252</v>
+        <v>750.82482967532519</v>
       </c>
       <c r="AN2">
-        <v>869.4642564875469</v>
+        <v>869.46425648754689</v>
       </c>
       <c r="AO2">
-        <v>953.4136045377696</v>
+        <v>953.41360453776963</v>
       </c>
       <c r="AP2">
-        <v>1187.088950131331</v>
+        <v>1187.0889501313311</v>
       </c>
       <c r="AQ2">
         <v>1232.715736157709</v>
       </c>
       <c r="AR2">
-        <v>1270.066496390811</v>
+        <v>1270.0664963908109</v>
       </c>
       <c r="AS2">
         <v>1299.483298503274</v>
       </c>
       <c r="AT2">
-        <v>1328.469429155309</v>
+        <v>1328.4694291553089</v>
       </c>
       <c r="AU2">
-        <v>1389.959683253553</v>
+        <v>1389.9596832535531</v>
       </c>
       <c r="AV2">
         <v>1373.5831168273</v>
@@ -4969,40 +5017,40 @@
         <v>1290.102312020819</v>
       </c>
       <c r="AX2">
-        <v>1158.531117057037</v>
+        <v>1158.5311170570369</v>
       </c>
       <c r="AY2">
-        <v>1092.610686052487</v>
+        <v>1092.6106860524869</v>
       </c>
       <c r="AZ2">
-        <v>1039.369015500546</v>
+        <v>1039.3690155005461</v>
       </c>
       <c r="BA2">
-        <v>1030.259763421289</v>
+        <v>1030.2597634212891</v>
       </c>
       <c r="BB2">
-        <v>999.6705092102849</v>
+        <v>999.67050921028488</v>
       </c>
       <c r="BC2">
-        <v>955.4743717511135</v>
+        <v>955.47437175111349</v>
       </c>
       <c r="BD2">
-        <v>940.1053182445507</v>
+        <v>940.10531824455074</v>
       </c>
       <c r="BE2">
-        <v>921.2717106058403</v>
+        <v>921.27171060584033</v>
       </c>
       <c r="BF2">
-        <v>954.5344327825782</v>
+        <v>954.53443278257816</v>
       </c>
       <c r="BG2">
         <v>1005.698161517797</v>
       </c>
       <c r="BH2">
-        <v>1075.192459204913</v>
+        <v>1075.1924592049129</v>
       </c>
       <c r="BI2">
-        <v>1149.531239647331</v>
+        <v>1149.5312396473309</v>
       </c>
       <c r="BJ2">
         <v>1206.558321193264</v>
@@ -5011,10 +5059,10 @@
         <v>1290.297899118809</v>
       </c>
       <c r="BL2">
-        <v>1373.795716195658</v>
+        <v>1373.7957161956581</v>
       </c>
       <c r="BM2">
-        <v>1448.838834289047</v>
+        <v>1448.8388342890471</v>
       </c>
       <c r="BN2">
         <v>1494.771240646797</v>
@@ -5035,7 +5083,7 @@
         <v>1489.167934646928</v>
       </c>
       <c r="BT2">
-        <v>1414.810722037102</v>
+        <v>1414.8107220371021</v>
       </c>
       <c r="BU2">
         <v>1348.541375142473</v>
@@ -5044,7 +5092,7 @@
         <v>1299.369674267112</v>
       </c>
       <c r="BW2">
-        <v>1268.06221339188</v>
+        <v>1268.0622133918801</v>
       </c>
       <c r="BX2">
         <v>1243.81762447808</v>
@@ -5056,7 +5104,7 @@
         <v>1183.638839198062</v>
       </c>
       <c r="CA2">
-        <v>1169.788307274419</v>
+        <v>1169.7883072744189</v>
       </c>
       <c r="CB2">
         <v>1168.786030695082</v>
@@ -5065,22 +5113,22 @@
         <v>1180.913142381818</v>
       </c>
       <c r="CD2">
-        <v>1187.981001762728</v>
+        <v>1187.9810017627281</v>
       </c>
       <c r="CE2">
         <v>1214.068611158878</v>
       </c>
       <c r="CF2">
-        <v>1240.676173048265</v>
+        <v>1240.6761730482649</v>
       </c>
       <c r="CG2">
         <v>1266.015939961618</v>
       </c>
       <c r="CH2">
-        <v>1290.189379989282</v>
+        <v>1290.1893799892821</v>
       </c>
       <c r="CI2">
-        <v>1286.928650915624</v>
+        <v>1286.9286509156241</v>
       </c>
       <c r="CJ2">
         <v>1296.567039609738</v>
@@ -5089,13 +5137,13 @@
         <v>1294.432035854524</v>
       </c>
       <c r="CL2">
-        <v>1282.548600507699</v>
+        <v>1282.5486005076989</v>
       </c>
       <c r="CM2">
         <v>1264.649311523907</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5106,103 +5154,103 @@
         <v>23.38798957595705</v>
       </c>
       <c r="D3">
-        <v>22.57939166938897</v>
+        <v>22.579391669388968</v>
       </c>
       <c r="E3">
         <v>21.42598026129285</v>
       </c>
       <c r="F3">
-        <v>34.62336947153077</v>
+        <v>34.623369471530772</v>
       </c>
       <c r="G3">
-        <v>24.89427440242367</v>
+        <v>24.894274402423669</v>
       </c>
       <c r="H3">
-        <v>44.5019270532784</v>
+        <v>44.501927053278401</v>
       </c>
       <c r="I3">
-        <v>42.25943849060294</v>
+        <v>42.259438490602939</v>
       </c>
       <c r="J3">
-        <v>39.61019045635977</v>
+        <v>39.610190456359767</v>
       </c>
       <c r="K3">
-        <v>35.70447677404155</v>
+        <v>35.704476774041552</v>
       </c>
       <c r="L3">
-        <v>74.40418075014863</v>
+        <v>74.404180750148626</v>
       </c>
       <c r="M3">
-        <v>50.51125071923273</v>
+        <v>50.511250719232727</v>
       </c>
       <c r="N3">
-        <v>99.17247898286358</v>
+        <v>99.172478982863581</v>
       </c>
       <c r="O3">
         <v>107.057506615888</v>
       </c>
       <c r="P3">
-        <v>115.0330797799104</v>
+        <v>115.03307977991039</v>
       </c>
       <c r="Q3">
-        <v>252.2988259504708</v>
+        <v>252.29882595047081</v>
       </c>
       <c r="R3">
-        <v>270.1643758592157</v>
+        <v>270.16437585921568</v>
       </c>
       <c r="S3">
-        <v>288.2133437843007</v>
+        <v>288.21334378430072</v>
       </c>
       <c r="T3">
-        <v>306.5697860019903</v>
+        <v>306.56978600199028</v>
       </c>
       <c r="U3">
-        <v>325.1710645944293</v>
+        <v>325.17106459442931</v>
       </c>
       <c r="V3">
         <v>326.6013872451868</v>
       </c>
       <c r="W3">
-        <v>344.3831459785843</v>
+        <v>344.38314597858431</v>
       </c>
       <c r="X3">
-        <v>362.2969709429252</v>
+        <v>362.29697094292521</v>
       </c>
       <c r="Y3">
-        <v>380.5475234173192</v>
+        <v>380.54752341731921</v>
       </c>
       <c r="Z3">
         <v>399.2633857537071</v>
       </c>
       <c r="AA3">
-        <v>185.221134756551</v>
+        <v>185.22113475655101</v>
       </c>
       <c r="AB3">
-        <v>190.1324867130722</v>
+        <v>190.13248671307221</v>
       </c>
       <c r="AC3">
-        <v>196.3554415545574</v>
+        <v>196.35544155455739</v>
       </c>
       <c r="AD3">
-        <v>202.4048363114121</v>
+        <v>202.40483631141211</v>
       </c>
       <c r="AE3">
         <v>209.4397052521191</v>
       </c>
       <c r="AF3">
-        <v>132.4257434532041</v>
+        <v>132.42574345320409</v>
       </c>
       <c r="AG3">
-        <v>133.4420616252729</v>
+        <v>133.44206162527291</v>
       </c>
       <c r="AH3">
-        <v>139.2435132720695</v>
+        <v>139.24351327206949</v>
       </c>
       <c r="AI3">
-        <v>149.7346911757257</v>
+        <v>149.73469117572569</v>
       </c>
       <c r="AJ3">
-        <v>159.9759297992775</v>
+        <v>159.97592979927751</v>
       </c>
       <c r="AK3">
         <v>212.5209402066065</v>
@@ -5211,124 +5259,124 @@
         <v>237.5342688437982</v>
       </c>
       <c r="AM3">
-        <v>272.1061057989911</v>
+        <v>272.10610579899111</v>
       </c>
       <c r="AN3">
-        <v>316.6041455957965</v>
+        <v>316.60414559579652</v>
       </c>
       <c r="AO3">
-        <v>348.4720133698681</v>
+        <v>348.47201336986808</v>
       </c>
       <c r="AP3">
-        <v>433.2047263580454</v>
+        <v>433.20472635804538</v>
       </c>
       <c r="AQ3">
-        <v>450.8525903468715</v>
+        <v>450.85259034687152</v>
       </c>
       <c r="AR3">
-        <v>465.4388057259534</v>
+        <v>465.43880572595339</v>
       </c>
       <c r="AS3">
-        <v>477.0695929185395</v>
+        <v>477.06959291853951</v>
       </c>
       <c r="AT3">
-        <v>488.5768890563555</v>
+        <v>488.57688905635553</v>
       </c>
       <c r="AU3">
-        <v>511.464318867929</v>
+        <v>511.46431886792902</v>
       </c>
       <c r="AV3">
         <v>505.6690597995464</v>
       </c>
       <c r="AW3">
-        <v>474.1250971620765</v>
+        <v>474.12509716207649</v>
       </c>
       <c r="AX3">
-        <v>423.9669891253881</v>
+        <v>423.96698912538812</v>
       </c>
       <c r="AY3">
-        <v>398.837854460523</v>
+        <v>398.83785446052298</v>
       </c>
       <c r="AZ3">
-        <v>379.9689423498098</v>
+        <v>379.96894234980982</v>
       </c>
       <c r="BA3">
-        <v>376.6182714680074</v>
+        <v>376.61827146800738</v>
       </c>
       <c r="BB3">
-        <v>364.9122231041953</v>
+        <v>364.91222310419528</v>
       </c>
       <c r="BC3">
-        <v>347.8542818903077</v>
+        <v>347.85428189030767</v>
       </c>
       <c r="BD3">
-        <v>341.8646549824188</v>
+        <v>341.86465498241881</v>
       </c>
       <c r="BE3">
-        <v>335.6293289126883</v>
+        <v>335.62932891268832</v>
       </c>
       <c r="BF3">
-        <v>348.4121423331944</v>
+        <v>348.41214233319442</v>
       </c>
       <c r="BG3">
-        <v>368.1042362445631</v>
+        <v>368.10423624456308</v>
       </c>
       <c r="BH3">
-        <v>394.8856607149453</v>
+        <v>394.88566071494529</v>
       </c>
       <c r="BI3">
-        <v>423.5214007439731</v>
+        <v>423.52140074397312</v>
       </c>
       <c r="BJ3">
-        <v>446.0720893476416</v>
+        <v>446.07208934764162</v>
       </c>
       <c r="BK3">
-        <v>478.3249755410636</v>
+        <v>478.32497554106362</v>
       </c>
       <c r="BL3">
-        <v>510.4535902836864</v>
+        <v>510.45359028368642</v>
       </c>
       <c r="BM3">
-        <v>539.2587702401804</v>
+        <v>539.25877024018041</v>
       </c>
       <c r="BN3">
-        <v>556.7006189077061</v>
+        <v>556.70061890770614</v>
       </c>
       <c r="BO3">
-        <v>561.1010345338483</v>
+        <v>561.10103453384829</v>
       </c>
       <c r="BP3">
         <v>566.5908550770605</v>
       </c>
       <c r="BQ3">
-        <v>569.5099445844778</v>
+        <v>569.50994458447781</v>
       </c>
       <c r="BR3">
-        <v>566.5727364332579</v>
+        <v>566.57273643325789</v>
       </c>
       <c r="BS3">
-        <v>552.4854387547999</v>
+        <v>552.48543875479993</v>
       </c>
       <c r="BT3">
-        <v>523.5729428904797</v>
+        <v>523.57294289047968</v>
       </c>
       <c r="BU3">
-        <v>497.4483706688115</v>
+        <v>497.44837066881149</v>
       </c>
       <c r="BV3">
-        <v>477.9827039617938</v>
+        <v>477.98270396179379</v>
       </c>
       <c r="BW3">
-        <v>465.4439530127041</v>
+        <v>465.44395301270413</v>
       </c>
       <c r="BX3">
-        <v>455.6394974129198</v>
+        <v>455.63949741291981</v>
       </c>
       <c r="BY3">
-        <v>441.4005285196044</v>
+        <v>441.40052851960439</v>
       </c>
       <c r="BZ3">
-        <v>431.8786930225454</v>
+        <v>431.87869302254541</v>
       </c>
       <c r="CA3">
         <v>426.0568051786093</v>
@@ -5337,78 +5385,78 @@
         <v>425.1098061138004</v>
       </c>
       <c r="CC3">
-        <v>429.0971826698182</v>
+        <v>429.09718266981821</v>
       </c>
       <c r="CD3">
-        <v>431.4034674948755</v>
+        <v>431.40346749487549</v>
       </c>
       <c r="CE3">
-        <v>440.4529325932177</v>
+        <v>440.45293259321772</v>
       </c>
       <c r="CF3">
         <v>449.545613932018</v>
       </c>
       <c r="CG3">
-        <v>457.9962762360917</v>
+        <v>457.99627623609172</v>
       </c>
       <c r="CH3">
-        <v>465.831760803975</v>
+        <v>465.83176080397499</v>
       </c>
       <c r="CI3">
-        <v>463.6323053663855</v>
+        <v>463.63230536638548</v>
       </c>
       <c r="CJ3">
-        <v>465.7281076904332</v>
+        <v>465.72810769043321</v>
       </c>
       <c r="CK3">
-        <v>463.3611541030148</v>
+        <v>463.36115410301483</v>
       </c>
       <c r="CL3">
-        <v>457.3428230512332</v>
+        <v>457.34282305123321</v>
       </c>
       <c r="CM3">
-        <v>449.0833621588923</v>
+        <v>449.08336215889233</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.618659289207</v>
+        <v>3257.6186592892068</v>
       </c>
       <c r="C4">
         <v>2998.273547924573</v>
       </c>
       <c r="D4">
-        <v>2460.38965372356</v>
+        <v>2460.3896537235601</v>
       </c>
       <c r="E4">
-        <v>2804.065917759883</v>
+        <v>2804.0659177598832</v>
       </c>
       <c r="F4">
-        <v>3540.469286588793</v>
+        <v>3540.4692865887928</v>
       </c>
       <c r="G4">
-        <v>3301.653394881089</v>
+        <v>3301.6533948810888</v>
       </c>
       <c r="H4">
         <v>3548.990593236414</v>
       </c>
       <c r="I4">
-        <v>3114.220684573574</v>
+        <v>3114.2206845735741</v>
       </c>
       <c r="J4">
         <v>3381.414927924362</v>
       </c>
       <c r="K4">
-        <v>3994.350455841194</v>
+        <v>3994.3504558411942</v>
       </c>
       <c r="L4">
-        <v>3784.678140232801</v>
+        <v>3784.6781402328011</v>
       </c>
       <c r="M4">
-        <v>4365.061842953687</v>
+        <v>4365.0618429536871</v>
       </c>
       <c r="N4">
         <v>23064.38085376552</v>
@@ -5420,37 +5468,37 @@
         <v>23277.48788936812</v>
       </c>
       <c r="Q4">
-        <v>73520.56212323015</v>
+        <v>73520.562123230149</v>
       </c>
       <c r="R4">
-        <v>73659.93930728832</v>
+        <v>73659.939307288325</v>
       </c>
       <c r="S4">
-        <v>73818.84614841329</v>
+        <v>73818.846148413286</v>
       </c>
       <c r="T4">
-        <v>73991.60251019971</v>
+        <v>73991.602510199707</v>
       </c>
       <c r="U4">
         <v>74173.4749878437</v>
       </c>
       <c r="V4">
-        <v>77445.40972009843</v>
+        <v>77445.409720098425</v>
       </c>
       <c r="W4">
-        <v>77648.57075091603</v>
+        <v>77648.570750916027</v>
       </c>
       <c r="X4">
         <v>77840.9964579917</v>
       </c>
       <c r="Y4">
-        <v>78045.12795846573</v>
+        <v>78045.127958465731</v>
       </c>
       <c r="Z4">
-        <v>78266.8015854792</v>
+        <v>78266.801585479203</v>
       </c>
       <c r="AA4">
-        <v>22351.93369923113</v>
+        <v>22351.933699231129</v>
       </c>
       <c r="AB4">
         <v>22582.66974616368</v>
@@ -5459,70 +5507,70 @@
         <v>22844.39148132391</v>
       </c>
       <c r="AD4">
-        <v>23080.1763069741</v>
+        <v>23080.176306974099</v>
       </c>
       <c r="AE4">
-        <v>23368.97308510636</v>
+        <v>23368.973085106361</v>
       </c>
       <c r="AF4">
-        <v>5741.004825257601</v>
+        <v>5741.0048252576007</v>
       </c>
       <c r="AG4">
-        <v>5891.659464236648</v>
+        <v>5891.6594642366481</v>
       </c>
       <c r="AH4">
-        <v>6227.097304336447</v>
+        <v>6227.0973043364475</v>
       </c>
       <c r="AI4">
-        <v>6795.081699390712</v>
+        <v>6795.0816993907119</v>
       </c>
       <c r="AJ4">
-        <v>7479.744234013842</v>
+        <v>7479.7442340138423</v>
       </c>
       <c r="AK4">
-        <v>17338.78153154636</v>
+        <v>17338.781531546359</v>
       </c>
       <c r="AL4">
-        <v>18655.89606383925</v>
+        <v>18655.896063839249</v>
       </c>
       <c r="AM4">
         <v>20177.33845544987</v>
       </c>
       <c r="AN4">
-        <v>21874.21753011341</v>
+        <v>21874.217530113408</v>
       </c>
       <c r="AO4">
-        <v>23012.11491307386</v>
+        <v>23012.114913073859</v>
       </c>
       <c r="AP4">
-        <v>35500.76942000473</v>
+        <v>35500.769420004734</v>
       </c>
       <c r="AQ4">
-        <v>35856.20669750761</v>
+        <v>35856.206697507609</v>
       </c>
       <c r="AR4">
-        <v>35975.26613569497</v>
+        <v>35975.266135694968</v>
       </c>
       <c r="AS4">
-        <v>35851.93429088299</v>
+        <v>35851.934290882993</v>
       </c>
       <c r="AT4">
-        <v>35548.40685746665</v>
+        <v>35548.406857466653</v>
       </c>
       <c r="AU4">
-        <v>38497.00123217853</v>
+        <v>38497.001232178533</v>
       </c>
       <c r="AV4">
-        <v>37589.36373876183</v>
+        <v>37589.363738761829</v>
       </c>
       <c r="AW4">
-        <v>36174.8108652982</v>
+        <v>36174.810865298197</v>
       </c>
       <c r="AX4">
-        <v>34459.0047033845</v>
+        <v>34459.004703384497</v>
       </c>
       <c r="AY4">
-        <v>33223.89490263053</v>
+        <v>33223.894902630527</v>
       </c>
       <c r="AZ4">
         <v>30235.13711615885</v>
@@ -5531,40 +5579,40 @@
         <v>29499.26708617682</v>
       </c>
       <c r="BB4">
-        <v>28826.1422305717</v>
+        <v>28826.142230571699</v>
       </c>
       <c r="BC4">
         <v>28371.78403590772</v>
       </c>
       <c r="BD4">
-        <v>28030.31791308924</v>
+        <v>28030.317913089239</v>
       </c>
       <c r="BE4">
         <v>26603.73167674155</v>
       </c>
       <c r="BF4">
-        <v>26509.54738476524</v>
+        <v>26509.547384765239</v>
       </c>
       <c r="BG4">
-        <v>26789.55489394356</v>
+        <v>26789.554893943561</v>
       </c>
       <c r="BH4">
         <v>27308.50327019277</v>
       </c>
       <c r="BI4">
-        <v>27898.46493097696</v>
+        <v>27898.464930976959</v>
       </c>
       <c r="BJ4">
-        <v>28309.34420875675</v>
+        <v>28309.344208756749</v>
       </c>
       <c r="BK4">
-        <v>28881.3807732341</v>
+        <v>28881.380773234101</v>
       </c>
       <c r="BL4">
-        <v>29315.49669302107</v>
+        <v>29315.496693021068</v>
       </c>
       <c r="BM4">
-        <v>29569.38844325781</v>
+        <v>29569.388443257809</v>
       </c>
       <c r="BN4">
         <v>29604.98396101061</v>
@@ -5576,25 +5624,25 @@
         <v>29291.6498388527</v>
       </c>
       <c r="BQ4">
-        <v>29016.23433431325</v>
+        <v>29016.234334313249</v>
       </c>
       <c r="BR4">
-        <v>28627.44628054489</v>
+        <v>28627.446280544889</v>
       </c>
       <c r="BS4">
         <v>28068.53092229327</v>
       </c>
       <c r="BT4">
-        <v>27063.37303793525</v>
+        <v>27063.373037935249</v>
       </c>
       <c r="BU4">
-        <v>26365.56602676905</v>
+        <v>26365.566026769051</v>
       </c>
       <c r="BV4">
-        <v>25941.38848260461</v>
+        <v>25941.388482604609</v>
       </c>
       <c r="BW4">
-        <v>25798.27971769472</v>
+        <v>25798.279717694721</v>
       </c>
       <c r="BX4">
         <v>25582.29250124441</v>
@@ -5606,96 +5654,96 @@
         <v>24563.66583094051</v>
       </c>
       <c r="CA4">
-        <v>24325.67108521857</v>
+        <v>24325.671085218572</v>
       </c>
       <c r="CB4">
-        <v>24081.27705459765</v>
+        <v>24081.277054597649</v>
       </c>
       <c r="CC4">
-        <v>23772.78752462329</v>
+        <v>23772.787524623291</v>
       </c>
       <c r="CD4">
-        <v>22756.29075002409</v>
+        <v>22756.290750024091</v>
       </c>
       <c r="CE4">
-        <v>22950.50356161089</v>
+        <v>22950.503561610891</v>
       </c>
       <c r="CF4">
         <v>23181.83682389187</v>
       </c>
       <c r="CG4">
-        <v>23413.10433399514</v>
+        <v>23413.104333995139</v>
       </c>
       <c r="CH4">
-        <v>23616.98559541114</v>
+        <v>23616.985595411141</v>
       </c>
       <c r="CI4">
-        <v>22215.69024583649</v>
+        <v>22215.690245836489</v>
       </c>
       <c r="CJ4">
-        <v>22278.9731117498</v>
+        <v>22278.973111749801</v>
       </c>
       <c r="CK4">
-        <v>22267.85373648162</v>
+        <v>22267.853736481618</v>
       </c>
       <c r="CL4">
-        <v>22207.82020906772</v>
+        <v>22207.820209067719</v>
       </c>
       <c r="CM4">
-        <v>22123.35830508205</v>
+        <v>22123.358305082049</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.012364742959</v>
+        <v>3598.0123647429591</v>
       </c>
       <c r="C5">
         <v>2632.622648419901</v>
       </c>
       <c r="D5">
-        <v>2455.215797210311</v>
+        <v>2455.2157972103109</v>
       </c>
       <c r="E5">
-        <v>2355.518691152375</v>
+        <v>2355.5186911523751</v>
       </c>
       <c r="F5">
-        <v>2721.229317653299</v>
+        <v>2721.2293176532989</v>
       </c>
       <c r="G5">
-        <v>3512.246067202839</v>
+        <v>3512.2460672028392</v>
       </c>
       <c r="H5">
-        <v>3848.439763438594</v>
+        <v>3848.4397634385941</v>
       </c>
       <c r="I5">
-        <v>3151.379498488303</v>
+        <v>3151.3794984883029</v>
       </c>
       <c r="J5">
-        <v>2983.171276647547</v>
+        <v>2983.1712766475471</v>
       </c>
       <c r="K5">
         <v>3316.558273530457</v>
       </c>
       <c r="L5">
-        <v>3360.9984396775</v>
+        <v>3360.9984396774998</v>
       </c>
       <c r="M5">
-        <v>4985.080101226611</v>
+        <v>4985.0801012266111</v>
       </c>
       <c r="N5">
-        <v>36472.59837494129</v>
+        <v>36472.598374941292</v>
       </c>
       <c r="O5">
-        <v>36524.35413637201</v>
+        <v>36524.354136372007</v>
       </c>
       <c r="P5">
-        <v>36588.2098190632</v>
+        <v>36588.209819063202</v>
       </c>
       <c r="Q5">
-        <v>121543.8216621058</v>
+        <v>121543.82166210579</v>
       </c>
       <c r="R5">
         <v>121636.4195485439</v>
@@ -5713,112 +5761,112 @@
         <v>128074.7548817185</v>
       </c>
       <c r="W5">
-        <v>128297.4855137161</v>
+        <v>128297.48551371611</v>
       </c>
       <c r="X5">
-        <v>128571.4523927497</v>
+        <v>128571.45239274971</v>
       </c>
       <c r="Y5">
         <v>128914.5159096257</v>
       </c>
       <c r="Z5">
-        <v>129350.8481477197</v>
+        <v>129350.84814771971</v>
       </c>
       <c r="AA5">
-        <v>36090.62801878247</v>
+        <v>36090.628018782467</v>
       </c>
       <c r="AB5">
-        <v>36816.60473704478</v>
+        <v>36816.604737044778</v>
       </c>
       <c r="AC5">
         <v>37755.45231351861</v>
       </c>
       <c r="AD5">
-        <v>38962.27198938697</v>
+        <v>38962.271989386973</v>
       </c>
       <c r="AE5">
-        <v>40496.11096159938</v>
+        <v>40496.110961599377</v>
       </c>
       <c r="AF5">
-        <v>11006.79484349251</v>
+        <v>11006.794843492509</v>
       </c>
       <c r="AG5">
-        <v>12942.18261258473</v>
+        <v>12942.182612584729</v>
       </c>
       <c r="AH5">
         <v>15259.803532283</v>
       </c>
       <c r="AI5">
-        <v>18517.22719126379</v>
+        <v>18517.227191263792</v>
       </c>
       <c r="AJ5">
         <v>22267.02483064733</v>
       </c>
       <c r="AK5">
-        <v>39091.20363339831</v>
+        <v>39091.203633398312</v>
       </c>
       <c r="AL5">
-        <v>43472.94271707036</v>
+        <v>43472.942717070357</v>
       </c>
       <c r="AM5">
-        <v>47936.16164612036</v>
+        <v>47936.161646120359</v>
       </c>
       <c r="AN5">
-        <v>52262.47118849561</v>
+        <v>52262.471188495612</v>
       </c>
       <c r="AO5">
         <v>56202.43274429733</v>
       </c>
       <c r="AP5">
-        <v>77615.94398401803</v>
+        <v>77615.943984018028</v>
       </c>
       <c r="AQ5">
-        <v>80118.89569467714</v>
+        <v>80118.895694677136</v>
       </c>
       <c r="AR5">
-        <v>81631.03273950906</v>
+        <v>81631.032739509057</v>
       </c>
       <c r="AS5">
-        <v>82049.05779325728</v>
+        <v>82049.057793257278</v>
       </c>
       <c r="AT5">
-        <v>81353.56521007082</v>
+        <v>81353.565210070825</v>
       </c>
       <c r="AU5">
-        <v>84804.47159467509</v>
+        <v>84804.471594675095</v>
       </c>
       <c r="AV5">
-        <v>82164.36257195749</v>
+        <v>82164.362571957492</v>
       </c>
       <c r="AW5">
-        <v>78832.78187620502</v>
+        <v>78832.781876205016</v>
       </c>
       <c r="AX5">
-        <v>75055.19044966735</v>
+        <v>75055.190449667352</v>
       </c>
       <c r="AY5">
-        <v>71091.26821349745</v>
+        <v>71091.268213497446</v>
       </c>
       <c r="AZ5">
-        <v>64097.22717812013</v>
+        <v>64097.227178120127</v>
       </c>
       <c r="BA5">
-        <v>60492.95162619647</v>
+        <v>60492.951626196467</v>
       </c>
       <c r="BB5">
-        <v>57369.90979123223</v>
+        <v>57369.909791232232</v>
       </c>
       <c r="BC5">
-        <v>54863.85472572872</v>
+        <v>54863.854725728721</v>
       </c>
       <c r="BD5">
-        <v>53049.6250944554</v>
+        <v>53049.625094455398</v>
       </c>
       <c r="BE5">
-        <v>50204.28661036793</v>
+        <v>50204.286610367933</v>
       </c>
       <c r="BF5">
-        <v>49746.2403831129</v>
+        <v>49746.240383112898</v>
       </c>
       <c r="BG5">
         <v>49844.73821577146</v>
@@ -5827,67 +5875,67 @@
         <v>50370.97121848807</v>
       </c>
       <c r="BI5">
-        <v>51181.09376750534</v>
+        <v>51181.093767505343</v>
       </c>
       <c r="BJ5">
-        <v>51834.43659294722</v>
+        <v>51834.436592947219</v>
       </c>
       <c r="BK5">
-        <v>52786.37191564034</v>
+        <v>52786.371915640339</v>
       </c>
       <c r="BL5">
-        <v>53620.31522620226</v>
+        <v>53620.315226202263</v>
       </c>
       <c r="BM5">
-        <v>54235.80336508051</v>
+        <v>54235.803365080508</v>
       </c>
       <c r="BN5">
-        <v>54556.63682582378</v>
+        <v>54556.636825823778</v>
       </c>
       <c r="BO5">
-        <v>54551.14872737045</v>
+        <v>54551.148727370448</v>
       </c>
       <c r="BP5">
-        <v>54162.79781028585</v>
+        <v>54162.797810285847</v>
       </c>
       <c r="BQ5">
-        <v>53413.84271372266</v>
+        <v>53413.842713722661</v>
       </c>
       <c r="BR5">
-        <v>52331.92141484989</v>
+        <v>52331.921414849887</v>
       </c>
       <c r="BS5">
-        <v>50962.87699181375</v>
+        <v>50962.876991813748</v>
       </c>
       <c r="BT5">
-        <v>48855.96183424262</v>
+        <v>48855.961834242618</v>
       </c>
       <c r="BU5">
-        <v>47095.70993540226</v>
+        <v>47095.709935402258</v>
       </c>
       <c r="BV5">
-        <v>45239.31676214402</v>
+        <v>45239.316762144023</v>
       </c>
       <c r="BW5">
-        <v>43348.73192379808</v>
+        <v>43348.731923798077</v>
       </c>
       <c r="BX5">
-        <v>41476.26706664523</v>
+        <v>41476.267066645232</v>
       </c>
       <c r="BY5">
-        <v>38809.19799739656</v>
+        <v>38809.197997396557</v>
       </c>
       <c r="BZ5">
-        <v>37075.09019264773</v>
+        <v>37075.090192647731</v>
       </c>
       <c r="CA5">
-        <v>35429.8540933184</v>
+        <v>35429.854093318398</v>
       </c>
       <c r="CB5">
-        <v>33866.2994588678</v>
+        <v>33866.299458867798</v>
       </c>
       <c r="CC5">
-        <v>32364.40292356101</v>
+        <v>32364.402923561011</v>
       </c>
       <c r="CD5">
         <v>29457.14682875502</v>
@@ -5896,19 +5944,19 @@
         <v>27984.25454402588</v>
       </c>
       <c r="CF5">
-        <v>26471.45058804742</v>
+        <v>26471.450588047421</v>
       </c>
       <c r="CG5">
-        <v>24884.52701733304</v>
+        <v>24884.527017333039</v>
       </c>
       <c r="CH5">
-        <v>23195.17799775912</v>
+        <v>23195.177997759121</v>
       </c>
       <c r="CI5">
-        <v>19134.76118670953</v>
+        <v>19134.761186709529</v>
       </c>
       <c r="CJ5">
-        <v>17191.05527965857</v>
+        <v>17191.055279658569</v>
       </c>
       <c r="CK5">
         <v>15115.86405881256</v>
@@ -5926,14 +5974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -6205,54 +6253,54 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.332335427828165E-11</v>
+        <v>3.3323354278281651E-11</v>
       </c>
       <c r="C2">
-        <v>3.284513453445332E-10</v>
+        <v>3.2845134534453322E-10</v>
       </c>
       <c r="D2">
-        <v>2.644910172549428E-09</v>
+        <v>2.644910172549428E-9</v>
       </c>
       <c r="E2">
-        <v>1.794652138468477E-08</v>
+        <v>1.7946521384684769E-8</v>
       </c>
       <c r="F2">
-        <v>1.051714456543677E-07</v>
+        <v>1.051714456543677E-7</v>
       </c>
       <c r="G2">
-        <v>5.430354439820833E-07</v>
+        <v>5.4303544398208331E-7</v>
       </c>
       <c r="H2">
-        <v>2.510969149300927E-06</v>
+        <v>2.5109691493009271E-6</v>
       </c>
       <c r="I2">
-        <v>1.053729400572914E-05</v>
+        <v>1.053729400572914E-5</v>
       </c>
       <c r="J2">
-        <v>4.056616272947798E-05</v>
+        <v>4.0566162729477982E-5</v>
       </c>
       <c r="K2">
-        <v>0.0001444093715299346</v>
+        <v>1.444093715299346E-4</v>
       </c>
       <c r="L2">
-        <v>0.0004770528801053834</v>
+        <v>4.7705288010538337E-4</v>
       </c>
       <c r="M2">
-        <v>0.001454508344049978</v>
+        <v>1.4545083440499779E-3</v>
       </c>
       <c r="N2">
-        <v>0.003992240019498849</v>
+        <v>3.9922400194988489E-3</v>
       </c>
       <c r="O2">
-        <v>0.02487698484958367</v>
+        <v>2.4876984849583669E-2</v>
       </c>
       <c r="P2">
-        <v>0.08823761859586862</v>
+        <v>8.8237618595868622E-2</v>
       </c>
       <c r="Q2">
         <v>0.1580868901339017</v>
@@ -6261,16 +6309,16 @@
         <v>0.1889838195357223</v>
       </c>
       <c r="S2">
-        <v>0.2451326951834857</v>
+        <v>0.24513269518348571</v>
       </c>
       <c r="T2">
-        <v>0.3748842359154081</v>
+        <v>0.37488423591540809</v>
       </c>
       <c r="U2">
-        <v>0.5710379598494532</v>
+        <v>0.57103795984945316</v>
       </c>
       <c r="V2">
-        <v>0.8987139293018198</v>
+        <v>0.89871392930181981</v>
       </c>
       <c r="W2">
         <v>1.365200803200872</v>
@@ -6279,64 +6327,64 @@
         <v>1.886509118379152</v>
       </c>
       <c r="Y2">
-        <v>2.523211052226688</v>
+        <v>2.5232110522266882</v>
       </c>
       <c r="Z2">
-        <v>3.315395407506512</v>
+        <v>3.3153954075065122</v>
       </c>
       <c r="AA2">
-        <v>3.954030682757446</v>
+        <v>3.9540306827574461</v>
       </c>
       <c r="AB2">
-        <v>4.714963762627557</v>
+        <v>4.7149637626275567</v>
       </c>
       <c r="AC2">
-        <v>5.900015305617195</v>
+        <v>5.9000153056171953</v>
       </c>
       <c r="AD2">
-        <v>7.001637090996896</v>
+        <v>7.0016370909968959</v>
       </c>
       <c r="AE2">
         <v>8.40511053838887</v>
       </c>
       <c r="AF2">
-        <v>9.291723746711821</v>
+        <v>9.2917237467118206</v>
       </c>
       <c r="AG2">
-        <v>9.999565820592814</v>
+        <v>9.9995658205928137</v>
       </c>
       <c r="AH2">
         <v>12.35901563755824</v>
       </c>
       <c r="AI2">
-        <v>16.32489329424793</v>
+        <v>16.324893294247929</v>
       </c>
       <c r="AJ2">
-        <v>20.19826855420287</v>
+        <v>20.198268554202869</v>
       </c>
       <c r="AK2">
-        <v>26.36831692859137</v>
+        <v>26.368316928591369</v>
       </c>
       <c r="AL2">
-        <v>35.36002969428259</v>
+        <v>35.360029694282588</v>
       </c>
       <c r="AM2">
-        <v>48.30639894205826</v>
+        <v>48.306398942058259</v>
       </c>
       <c r="AN2">
-        <v>65.6680635807833</v>
+        <v>65.668063580783297</v>
       </c>
       <c r="AO2">
-        <v>78.8587133156381</v>
+        <v>78.858713315638099</v>
       </c>
       <c r="AP2">
-        <v>87.13710068347373</v>
+        <v>87.137100683473733</v>
       </c>
       <c r="AQ2">
         <v>94.92526671542791</v>
       </c>
       <c r="AR2">
-        <v>102.1444734511224</v>
+        <v>102.14447345112239</v>
       </c>
       <c r="AS2">
         <v>108.8326092222178</v>
@@ -6348,40 +6396,40 @@
         <v>122.7806834586825</v>
       </c>
       <c r="AV2">
-        <v>123.1541485494593</v>
+        <v>123.15414854945929</v>
       </c>
       <c r="AW2">
         <v>110.7565435051973</v>
       </c>
       <c r="AX2">
-        <v>87.80984174096558</v>
+        <v>87.809841740965581</v>
       </c>
       <c r="AY2">
         <v>76.8631592605457</v>
       </c>
       <c r="AZ2">
-        <v>79.06489981524209</v>
+        <v>79.064899815242086</v>
       </c>
       <c r="BA2">
-        <v>79.98705569361704</v>
+        <v>79.987055693617037</v>
       </c>
       <c r="BB2">
-        <v>75.62175488565377</v>
+        <v>75.621754885653772</v>
       </c>
       <c r="BC2">
-        <v>67.12528673410534</v>
+        <v>67.125286734105345</v>
       </c>
       <c r="BD2">
-        <v>64.94542104503665</v>
+        <v>64.945421045036653</v>
       </c>
       <c r="BE2">
-        <v>71.30770312053811</v>
+        <v>71.307703120538108</v>
       </c>
       <c r="BF2">
-        <v>82.27447873208499</v>
+        <v>82.274478732084987</v>
       </c>
       <c r="BG2">
-        <v>99.08400604281537</v>
+        <v>99.084006042815375</v>
       </c>
       <c r="BH2">
         <v>122.7051453668978</v>
@@ -6390,97 +6438,97 @@
         <v>149.6878868314719</v>
       </c>
       <c r="BJ2">
-        <v>180.0346135573365</v>
+        <v>180.03461355733651</v>
       </c>
       <c r="BK2">
         <v>215.27700174249</v>
       </c>
       <c r="BL2">
-        <v>253.5457181612628</v>
+        <v>253.54571816126281</v>
       </c>
       <c r="BM2">
         <v>291.9352094001211</v>
       </c>
       <c r="BN2">
-        <v>321.6769117925165</v>
+        <v>321.67691179251648</v>
       </c>
       <c r="BO2">
-        <v>343.7074961382693</v>
+        <v>343.70749613826928</v>
       </c>
       <c r="BP2">
-        <v>364.613430132061</v>
+        <v>364.61343013206101</v>
       </c>
       <c r="BQ2">
-        <v>384.2263944377826</v>
+        <v>384.22639443778257</v>
       </c>
       <c r="BR2">
-        <v>397.8969435810801</v>
+        <v>397.89694358108011</v>
       </c>
       <c r="BS2">
-        <v>397.1201884719223</v>
+        <v>397.12018847192229</v>
       </c>
       <c r="BT2">
-        <v>380.7399045338227</v>
+        <v>380.73990453382271</v>
       </c>
       <c r="BU2">
-        <v>359.3571595336909</v>
+        <v>359.35715953369089</v>
       </c>
       <c r="BV2">
-        <v>346.0255582847523</v>
+        <v>346.02555828475232</v>
       </c>
       <c r="BW2">
-        <v>342.7197027015036</v>
+        <v>342.71970270150359</v>
       </c>
       <c r="BX2">
-        <v>343.4646187598971</v>
+        <v>343.46461875989712</v>
       </c>
       <c r="BY2">
         <v>343.0248930723078</v>
       </c>
       <c r="BZ2">
-        <v>342.8171999587228</v>
+        <v>342.81719995872282</v>
       </c>
       <c r="CA2">
-        <v>349.730402002997</v>
+        <v>349.73040200299698</v>
       </c>
       <c r="CB2">
-        <v>367.9079123278082</v>
+        <v>367.90791232780822</v>
       </c>
       <c r="CC2">
-        <v>399.7012148409243</v>
+        <v>399.70121484092431</v>
       </c>
       <c r="CD2">
-        <v>444.0921669855362</v>
+        <v>444.09216698553621</v>
       </c>
       <c r="CE2">
-        <v>497.6693864892167</v>
+        <v>497.66938648921672</v>
       </c>
       <c r="CF2">
-        <v>557.421699811276</v>
+        <v>557.42169981127597</v>
       </c>
       <c r="CG2">
-        <v>622.1312665279428</v>
+        <v>622.13126652794278</v>
       </c>
       <c r="CH2">
-        <v>692.7627365518181</v>
+        <v>692.76273655181808</v>
       </c>
       <c r="CI2">
-        <v>765.3362528187264</v>
+        <v>765.33625281872639</v>
       </c>
       <c r="CJ2">
-        <v>832.0054535682651</v>
+        <v>832.00545356826512</v>
       </c>
       <c r="CK2">
-        <v>887.0807034242202</v>
+        <v>887.08070342422025</v>
       </c>
       <c r="CL2">
-        <v>930.9543912591192</v>
+        <v>930.95439125911923</v>
       </c>
       <c r="CM2">
-        <v>967.9817658112198</v>
+        <v>967.98176581121982</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6524,190 +6572,190 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.002726667188771785</v>
+        <v>2.726667188771785E-3</v>
       </c>
       <c r="P3">
-        <v>0.009754564200417823</v>
+        <v>9.7545642004178233E-3</v>
       </c>
       <c r="Q3">
-        <v>0.01753254492555404</v>
+        <v>1.753254492555404E-2</v>
       </c>
       <c r="R3">
-        <v>0.02091561825125876</v>
+        <v>2.0915618251258761E-2</v>
       </c>
       <c r="S3">
-        <v>0.02691498831020701</v>
+        <v>2.691498831020701E-2</v>
       </c>
       <c r="T3">
-        <v>0.04053758393145619</v>
+        <v>4.0537583931456192E-2</v>
       </c>
       <c r="U3">
-        <v>0.06019279604196462</v>
+        <v>6.0192796041964619E-2</v>
       </c>
       <c r="V3">
-        <v>0.09196232279464008</v>
+        <v>9.1962322794640075E-2</v>
       </c>
       <c r="W3">
-        <v>0.1362221760802775</v>
+        <v>0.13622217608027751</v>
       </c>
       <c r="X3">
         <v>0.1842454245124138</v>
       </c>
       <c r="Y3">
-        <v>0.2419517316791361</v>
+        <v>0.24195173167913611</v>
       </c>
       <c r="Z3">
-        <v>0.3129448939398508</v>
+        <v>0.31294489393985081</v>
       </c>
       <c r="AA3">
-        <v>0.3681716689777179</v>
+        <v>0.36817166897771791</v>
       </c>
       <c r="AB3">
-        <v>0.4338209840412804</v>
+        <v>0.43382098404128039</v>
       </c>
       <c r="AC3">
-        <v>0.5371460963527818</v>
+        <v>0.53714609635278177</v>
       </c>
       <c r="AD3">
-        <v>0.6313724301588339</v>
+        <v>0.63137243015883393</v>
       </c>
       <c r="AE3">
-        <v>0.7512430370318048</v>
+        <v>0.75124303703180484</v>
       </c>
       <c r="AF3">
         <v>0.8234957813374737</v>
       </c>
       <c r="AG3">
-        <v>0.8788826713494017</v>
+        <v>0.87888267134940168</v>
       </c>
       <c r="AH3">
-        <v>1.077111373892795</v>
+        <v>1.0771113738927951</v>
       </c>
       <c r="AI3">
         <v>1.410223898641354</v>
       </c>
       <c r="AJ3">
-        <v>1.728402856691058</v>
+        <v>1.7284028566910581</v>
       </c>
       <c r="AK3">
-        <v>2.233283005417897</v>
+        <v>2.2332830054178969</v>
       </c>
       <c r="AL3">
         <v>2.961116084802895</v>
       </c>
       <c r="AM3">
-        <v>3.994873101764639</v>
+        <v>3.9948731017646391</v>
       </c>
       <c r="AN3">
-        <v>5.355699307159705</v>
+        <v>5.3556993071597052</v>
       </c>
       <c r="AO3">
-        <v>6.333297849732978</v>
+        <v>6.3332978497329782</v>
       </c>
       <c r="AP3">
-        <v>6.895544685311982</v>
+        <v>6.8955446853119824</v>
       </c>
       <c r="AQ3">
-        <v>7.422170847211126</v>
+        <v>7.4221708472111256</v>
       </c>
       <c r="AR3">
-        <v>7.912528043832786</v>
+        <v>7.9125280438327863</v>
       </c>
       <c r="AS3">
-        <v>8.373920463157232</v>
+        <v>8.3739204631572317</v>
       </c>
       <c r="AT3">
         <v>8.906199520121735</v>
       </c>
       <c r="AU3">
-        <v>9.386902444725669</v>
+        <v>9.3869024447256688</v>
       </c>
       <c r="AV3">
-        <v>9.415286741836692</v>
+        <v>9.4152867418366917</v>
       </c>
       <c r="AW3">
-        <v>8.483004588337781</v>
+        <v>8.4830045883377814</v>
       </c>
       <c r="AX3">
-        <v>6.748889715436739</v>
+        <v>6.7488897154367393</v>
       </c>
       <c r="AY3">
-        <v>5.936626149174642</v>
+        <v>5.9366261491746419</v>
       </c>
       <c r="AZ3">
-        <v>6.144330353164738</v>
+        <v>6.1443303531647384</v>
       </c>
       <c r="BA3">
-        <v>6.260875142798884</v>
+        <v>6.2608751427988842</v>
       </c>
       <c r="BB3">
-        <v>5.967129561970914</v>
+        <v>5.9671295619709142</v>
       </c>
       <c r="BC3">
-        <v>5.343393807478805</v>
+        <v>5.3433938074788054</v>
       </c>
       <c r="BD3">
-        <v>5.218401141136033</v>
+        <v>5.2184011411360327</v>
       </c>
       <c r="BE3">
-        <v>5.785916394028914</v>
+        <v>5.7859163940289138</v>
       </c>
       <c r="BF3">
-        <v>6.743514751233271</v>
+        <v>6.7435147512332714</v>
       </c>
       <c r="BG3">
-        <v>8.205496407605422</v>
+        <v>8.2054964076054215</v>
       </c>
       <c r="BH3">
         <v>10.26834920869644</v>
       </c>
       <c r="BI3">
-        <v>12.65856761372135</v>
+        <v>12.658567613721351</v>
       </c>
       <c r="BJ3">
         <v>15.3854207641618</v>
       </c>
       <c r="BK3">
-        <v>18.58994537444008</v>
+        <v>18.589945374440081</v>
       </c>
       <c r="BL3">
         <v>22.12155369480724</v>
       </c>
       <c r="BM3">
-        <v>25.7311953604719</v>
+        <v>25.731195360471901</v>
       </c>
       <c r="BN3">
-        <v>28.63711650877165</v>
+        <v>28.637116508771651</v>
       </c>
       <c r="BO3">
-        <v>30.89905373451752</v>
+        <v>30.899053734517519</v>
       </c>
       <c r="BP3">
-        <v>33.09312904369509</v>
+        <v>33.093129043695093</v>
       </c>
       <c r="BQ3">
-        <v>35.19952961063021</v>
+        <v>35.199529610630208</v>
       </c>
       <c r="BR3">
-        <v>36.78368153559158</v>
+        <v>36.783681535591583</v>
       </c>
       <c r="BS3">
-        <v>37.0363569847137</v>
+        <v>37.036356984713699</v>
       </c>
       <c r="BT3">
-        <v>35.81300085170876</v>
+        <v>35.813000851708757</v>
       </c>
       <c r="BU3">
-        <v>34.08219024436801</v>
+        <v>34.082190244368007</v>
       </c>
       <c r="BV3">
-        <v>33.08114167844972</v>
+        <v>33.081141678449718</v>
       </c>
       <c r="BW3">
-        <v>33.01906858317292</v>
+        <v>33.019068583172917</v>
       </c>
       <c r="BX3">
-        <v>33.33835443794022</v>
+        <v>33.338354437940218</v>
       </c>
       <c r="BY3">
         <v>33.53577122382935</v>
@@ -6716,120 +6764,120 @@
         <v>33.74825931351775</v>
       </c>
       <c r="CA3">
-        <v>34.65897323340184</v>
+        <v>34.658973233401838</v>
       </c>
       <c r="CB3">
-        <v>36.69479231682288</v>
+        <v>36.694792316822877</v>
       </c>
       <c r="CC3">
-        <v>40.11210733216458</v>
+        <v>40.112107332164577</v>
       </c>
       <c r="CD3">
         <v>44.83135899417659</v>
       </c>
       <c r="CE3">
-        <v>50.52601473770248</v>
+        <v>50.526014737702482</v>
       </c>
       <c r="CF3">
-        <v>56.90132741421213</v>
+        <v>56.901327414212133</v>
       </c>
       <c r="CG3">
-        <v>63.83907976783755</v>
+        <v>63.839079767837553</v>
       </c>
       <c r="CH3">
-        <v>71.4429558058719</v>
+        <v>71.442955805871904</v>
       </c>
       <c r="CI3">
-        <v>79.30568338670402</v>
+        <v>79.305683386704018</v>
       </c>
       <c r="CJ3">
-        <v>86.60933807027165</v>
+        <v>86.609338070271647</v>
       </c>
       <c r="CK3">
-        <v>92.74705316810652</v>
+        <v>92.747053168106518</v>
       </c>
       <c r="CL3">
-        <v>97.74132981108153</v>
+        <v>97.741329811081528</v>
       </c>
       <c r="CM3">
-        <v>102.0344234508972</v>
+        <v>102.03442345089719</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02048270970275495</v>
+        <v>2.048270970275495E-2</v>
       </c>
       <c r="C4">
-        <v>0.03733569194524593</v>
+        <v>3.7335691945245927E-2</v>
       </c>
       <c r="D4">
-        <v>0.06587206949703862</v>
+        <v>6.5872069497038624E-2</v>
       </c>
       <c r="E4">
         <v>0.113543414112338</v>
       </c>
       <c r="F4">
-        <v>0.1920316889201013</v>
+        <v>0.19203168892010131</v>
       </c>
       <c r="G4">
-        <v>0.3190798607914885</v>
+        <v>0.31907986079148848</v>
       </c>
       <c r="H4">
         <v>0.5220114044151537</v>
       </c>
       <c r="I4">
-        <v>0.8467260735644269</v>
+        <v>0.84672607356442686</v>
       </c>
       <c r="J4">
         <v>1.382849882195645</v>
       </c>
       <c r="K4">
-        <v>2.331843918931873</v>
+        <v>2.3318439189318729</v>
       </c>
       <c r="L4">
-        <v>4.169717571622631</v>
+        <v>4.1697175716226313</v>
       </c>
       <c r="M4">
-        <v>7.912873398284654</v>
+        <v>7.9128733982846544</v>
       </c>
       <c r="N4">
         <v>14.9368549233215</v>
       </c>
       <c r="O4">
-        <v>25.09158112936191</v>
+        <v>25.091581129361909</v>
       </c>
       <c r="P4">
-        <v>32.78382594329528</v>
+        <v>32.783825943295277</v>
       </c>
       <c r="Q4">
-        <v>38.39380974314781</v>
+        <v>38.393809743147813</v>
       </c>
       <c r="R4">
-        <v>46.33304441068367</v>
+        <v>46.333044410683669</v>
       </c>
       <c r="S4">
-        <v>57.73751696533543</v>
+        <v>57.737516965335431</v>
       </c>
       <c r="T4">
-        <v>72.33295566886163</v>
+        <v>72.332955668861629</v>
       </c>
       <c r="U4">
-        <v>89.76072402816081</v>
+        <v>89.760724028160809</v>
       </c>
       <c r="V4">
         <v>111.8272128292342</v>
       </c>
       <c r="W4">
-        <v>138.4941045818859</v>
+        <v>138.49410458188589</v>
       </c>
       <c r="X4">
-        <v>166.7700163899708</v>
+        <v>166.77001638997081</v>
       </c>
       <c r="Y4">
-        <v>201.1158156667506</v>
+        <v>201.11581566675059</v>
       </c>
       <c r="Z4">
         <v>243.8971906622661</v>
@@ -6838,25 +6886,25 @@
         <v>295.2166748684366</v>
       </c>
       <c r="AB4">
-        <v>367.6804306294418</v>
+        <v>367.68043062944179</v>
       </c>
       <c r="AC4">
-        <v>458.3804451102966</v>
+        <v>458.38044511029659</v>
       </c>
       <c r="AD4">
-        <v>558.1187608684851</v>
+        <v>558.11876086848508</v>
       </c>
       <c r="AE4">
-        <v>687.0749054038325</v>
+        <v>687.07490540383253</v>
       </c>
       <c r="AF4">
-        <v>860.1916151293713</v>
+        <v>860.19161512937126</v>
       </c>
       <c r="AG4">
-        <v>1088.964744919373</v>
+        <v>1088.9647449193731</v>
       </c>
       <c r="AH4">
-        <v>1380.399423782277</v>
+        <v>1380.3994237822769</v>
       </c>
       <c r="AI4">
         <v>1738.735651404586</v>
@@ -6868,61 +6916,61 @@
         <v>2769.916694853699</v>
       </c>
       <c r="AL4">
-        <v>3410.941215138411</v>
+        <v>3410.9412151384108</v>
       </c>
       <c r="AM4">
-        <v>4155.772892673966</v>
+        <v>4155.7728926739665</v>
       </c>
       <c r="AN4">
         <v>4991.491514469235</v>
       </c>
       <c r="AO4">
-        <v>5685.047301830859</v>
+        <v>5685.0473018308594</v>
       </c>
       <c r="AP4">
-        <v>6209.995897345599</v>
+        <v>6209.9958973455987</v>
       </c>
       <c r="AQ4">
-        <v>6659.346302845279</v>
+        <v>6659.3463028452788</v>
       </c>
       <c r="AR4">
-        <v>7011.143915907011</v>
+        <v>7011.1439159070114</v>
       </c>
       <c r="AS4">
-        <v>7246.935727837455</v>
+        <v>7246.9357278374546</v>
       </c>
       <c r="AT4">
-        <v>7374.22888998792</v>
+        <v>7374.2288899879204</v>
       </c>
       <c r="AU4">
-        <v>7364.923595274789</v>
+        <v>7364.9235952747886</v>
       </c>
       <c r="AV4">
         <v>7155.032679620128</v>
       </c>
       <c r="AW4">
-        <v>6684.548389673926</v>
+        <v>6684.5483896739261</v>
       </c>
       <c r="AX4">
-        <v>6025.217483050773</v>
+        <v>6025.2174830507729</v>
       </c>
       <c r="AY4">
-        <v>5498.52174447675</v>
+        <v>5498.5217444767504</v>
       </c>
       <c r="AZ4">
-        <v>5125.877920981636</v>
+        <v>5125.8779209816357</v>
       </c>
       <c r="BA4">
-        <v>4753.044262546149</v>
+        <v>4753.0442625461492</v>
       </c>
       <c r="BB4">
-        <v>4381.669776001426</v>
+        <v>4381.6697760014258</v>
       </c>
       <c r="BC4">
         <v>4058.942763975791</v>
       </c>
       <c r="BD4">
-        <v>3887.749995358455</v>
+        <v>3887.7499953584552</v>
       </c>
       <c r="BE4">
         <v>3895.886908079478</v>
@@ -6931,43 +6979,43 @@
         <v>4066.422646152364</v>
       </c>
       <c r="BG4">
-        <v>4420.402584185777</v>
+        <v>4420.4025841857774</v>
       </c>
       <c r="BH4">
-        <v>4952.141006927764</v>
+        <v>4952.1410069277636</v>
       </c>
       <c r="BI4">
-        <v>5593.425226883269</v>
+        <v>5593.4252268832688</v>
       </c>
       <c r="BJ4">
         <v>6311.722912881959</v>
       </c>
       <c r="BK4">
-        <v>7078.941316008742</v>
+        <v>7078.9413160087424</v>
       </c>
       <c r="BL4">
-        <v>7826.873812609229</v>
+        <v>7826.8738126092294</v>
       </c>
       <c r="BM4">
-        <v>8511.218777276072</v>
+        <v>8511.2187772760717</v>
       </c>
       <c r="BN4">
-        <v>9078.268004732337</v>
+        <v>9078.2680047323374</v>
       </c>
       <c r="BO4">
-        <v>9537.089069337377</v>
+        <v>9537.0890693373767</v>
       </c>
       <c r="BP4">
         <v>9921.671741060838</v>
       </c>
       <c r="BQ4">
-        <v>10218.73963699272</v>
+        <v>10218.739636992719</v>
       </c>
       <c r="BR4">
         <v>10389.05554416747</v>
       </c>
       <c r="BS4">
-        <v>10379.7924950811</v>
+        <v>10379.792495081099</v>
       </c>
       <c r="BT4">
         <v>10199.81971697781</v>
@@ -6976,37 +7024,37 @@
         <v>9942.016597627975</v>
       </c>
       <c r="BV4">
-        <v>9710.660009604884</v>
+        <v>9710.6600096048842</v>
       </c>
       <c r="BW4">
-        <v>9525.395016875009</v>
+        <v>9525.3950168750089</v>
       </c>
       <c r="BX4">
-        <v>9352.985727952844</v>
+        <v>9352.9857279528442</v>
       </c>
       <c r="BY4">
-        <v>9178.381405745115</v>
+        <v>9178.3814057451145</v>
       </c>
       <c r="BZ4">
-        <v>9024.078470717493</v>
+        <v>9024.0784707174935</v>
       </c>
       <c r="CA4">
-        <v>8930.56004928808</v>
+        <v>8930.5600492880803</v>
       </c>
       <c r="CB4">
-        <v>8929.573407914953</v>
+        <v>8929.5734079149533</v>
       </c>
       <c r="CC4">
-        <v>9050.992963832825</v>
+        <v>9050.9929638328249</v>
       </c>
       <c r="CD4">
-        <v>9304.496544708731</v>
+        <v>9304.4965447087307</v>
       </c>
       <c r="CE4">
-        <v>9669.531386478478</v>
+        <v>9669.5313864784785</v>
       </c>
       <c r="CF4">
-        <v>10111.28375759913</v>
+        <v>10111.283757599131</v>
       </c>
       <c r="CG4">
         <v>10599.2512494967</v>
@@ -7015,63 +7063,63 @@
         <v>11108.57986526977</v>
       </c>
       <c r="CI4">
-        <v>11601.37923282095</v>
+        <v>11601.379232820949</v>
       </c>
       <c r="CJ4">
         <v>12041.46661049174</v>
       </c>
       <c r="CK4">
-        <v>12412.52060386983</v>
+        <v>12412.520603869831</v>
       </c>
       <c r="CL4">
-        <v>12719.12900560598</v>
+        <v>12719.129005605981</v>
       </c>
       <c r="CM4">
-        <v>12970.88355909845</v>
+        <v>12970.883559098451</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001112041473722619</v>
+        <v>1.1120414737226191E-3</v>
       </c>
       <c r="C5">
-        <v>0.002015500986395293</v>
+        <v>2.0155009863952931E-3</v>
       </c>
       <c r="D5">
-        <v>0.003534091688329751</v>
+        <v>3.5340916883297509E-3</v>
       </c>
       <c r="E5">
-        <v>0.006052220365555725</v>
+        <v>6.0522203655557251E-3</v>
       </c>
       <c r="F5">
-        <v>0.01016568172675718</v>
+        <v>1.016568172675718E-2</v>
       </c>
       <c r="G5">
-        <v>0.01675009143478017</v>
+        <v>1.6750091434780168E-2</v>
       </c>
       <c r="H5">
-        <v>0.02703192688889803</v>
+        <v>2.7031926888898029E-2</v>
       </c>
       <c r="I5">
-        <v>0.04266283303888239</v>
+        <v>4.2662833038882388E-2</v>
       </c>
       <c r="J5">
-        <v>0.06579907531999656</v>
+        <v>6.5799075319996556E-2</v>
       </c>
       <c r="K5">
-        <v>0.09917822309336001</v>
+        <v>9.917822309336001E-2</v>
       </c>
       <c r="L5">
-        <v>0.1461735917809014</v>
+        <v>0.14617359178090139</v>
       </c>
       <c r="M5">
-        <v>0.2108109592796427</v>
+        <v>0.21081095927964269</v>
       </c>
       <c r="N5">
-        <v>0.2977378984652219</v>
+        <v>0.29773789846522192</v>
       </c>
       <c r="O5">
         <v>1.347663947338581</v>
@@ -7083,10 +7131,10 @@
         <v>5.755316091749533</v>
       </c>
       <c r="R5">
-        <v>9.598062438351135</v>
+        <v>9.5980624383511355</v>
       </c>
       <c r="S5">
-        <v>14.88551625660607</v>
+        <v>14.885516256606071</v>
       </c>
       <c r="T5">
         <v>21.90294462039228</v>
@@ -7095,40 +7143,40 @@
         <v>30.97023677491098</v>
       </c>
       <c r="V5">
-        <v>42.72910134335959</v>
+        <v>42.729101343359588</v>
       </c>
       <c r="W5">
-        <v>58.28037097054738</v>
+        <v>58.280370970547381</v>
       </c>
       <c r="X5">
-        <v>79.01000703282918</v>
+        <v>79.010007032829179</v>
       </c>
       <c r="Y5">
         <v>106.880100000293</v>
       </c>
       <c r="Z5">
-        <v>144.608792638851</v>
+        <v>144.60879263885101</v>
       </c>
       <c r="AA5">
         <v>195.8698338429578</v>
       </c>
       <c r="AB5">
-        <v>265.496258264916</v>
+        <v>265.49625826491598</v>
       </c>
       <c r="AC5">
-        <v>359.6556366849697</v>
+        <v>359.65563668496969</v>
       </c>
       <c r="AD5">
-        <v>485.9389207932379</v>
+        <v>485.93892079323791</v>
       </c>
       <c r="AE5">
-        <v>653.3071800202351</v>
+        <v>653.30718002023514</v>
       </c>
       <c r="AF5">
-        <v>871.8439606402496</v>
+        <v>871.84396064024963</v>
       </c>
       <c r="AG5">
-        <v>1152.259748960909</v>
+        <v>1152.2597489609091</v>
       </c>
       <c r="AH5">
         <v>1505.104148563307</v>
@@ -7137,7 +7185,7 @@
         <v>1939.660419889706</v>
       </c>
       <c r="AJ5">
-        <v>2462.541151156814</v>
+        <v>2462.5411511568141</v>
       </c>
       <c r="AK5">
         <v>3076.065126018691</v>
@@ -7146,67 +7194,67 @@
         <v>3776.573326584034</v>
       </c>
       <c r="AM5">
-        <v>4552.935772931309</v>
+        <v>4552.9357729313087</v>
       </c>
       <c r="AN5">
         <v>5385.586040424957</v>
       </c>
       <c r="AO5">
-        <v>6246.450904914598</v>
+        <v>6246.4509049145981</v>
       </c>
       <c r="AP5">
         <v>7094.935311161923</v>
       </c>
       <c r="AQ5">
-        <v>7882.89460394271</v>
+        <v>7882.8946039427101</v>
       </c>
       <c r="AR5">
         <v>8565.360696785001</v>
       </c>
       <c r="AS5">
-        <v>9101.882300925627</v>
+        <v>9101.8823009256266</v>
       </c>
       <c r="AT5">
-        <v>9461.54024218598</v>
+        <v>9461.5402421859799</v>
       </c>
       <c r="AU5">
-        <v>9626.954344005104</v>
+        <v>9626.9543440051038</v>
       </c>
       <c r="AV5">
-        <v>9596.5942242008</v>
+        <v>9596.5942242008005</v>
       </c>
       <c r="AW5">
-        <v>9385.149946697726</v>
+        <v>9385.1499466977257</v>
       </c>
       <c r="AX5">
-        <v>9022.208366740428</v>
+        <v>9022.2083667404277</v>
       </c>
       <c r="AY5">
-        <v>8549.786616096661</v>
+        <v>8549.7866160966605</v>
       </c>
       <c r="AZ5">
-        <v>8019.245450781022</v>
+        <v>8019.2454507810216</v>
       </c>
       <c r="BA5">
-        <v>7487.793585203637</v>
+        <v>7487.7935852036371</v>
       </c>
       <c r="BB5">
-        <v>7014.470047303891</v>
+        <v>7014.4700473038911</v>
       </c>
       <c r="BC5">
-        <v>6655.478929488282</v>
+        <v>6655.4789294882821</v>
       </c>
       <c r="BD5">
-        <v>6459.154125454413</v>
+        <v>6459.1541254544127</v>
       </c>
       <c r="BE5">
-        <v>6461.386971768767</v>
+        <v>6461.3869717687667</v>
       </c>
       <c r="BF5">
-        <v>6682.594493658842</v>
+        <v>6682.5944936588421</v>
       </c>
       <c r="BG5">
-        <v>7126.948439032971</v>
+        <v>7126.9484390329708</v>
       </c>
       <c r="BH5">
         <v>7783.768179177644</v>
@@ -7215,16 +7263,16 @@
         <v>8630.209052299173</v>
       </c>
       <c r="BJ5">
-        <v>9634.147482230723</v>
+        <v>9634.1474822307227</v>
       </c>
       <c r="BK5">
-        <v>10756.58495585127</v>
+        <v>10756.584955851269</v>
       </c>
       <c r="BL5">
-        <v>11953.59951842029</v>
+        <v>11953.599518420289</v>
       </c>
       <c r="BM5">
-        <v>13178.32112685622</v>
+        <v>13178.321126856221</v>
       </c>
       <c r="BN5">
         <v>14383.32187192172</v>
@@ -7233,46 +7281,46 @@
         <v>15523.38775895545</v>
       </c>
       <c r="BP5">
-        <v>16558.30254410576</v>
+        <v>16558.302544105762</v>
       </c>
       <c r="BQ5">
-        <v>17455.27137356426</v>
+        <v>17455.271373564261</v>
       </c>
       <c r="BR5">
-        <v>18190.83224914341</v>
+        <v>18190.832249143408</v>
       </c>
       <c r="BS5">
-        <v>18752.2718558116</v>
+        <v>18752.271855811599</v>
       </c>
       <c r="BT5">
         <v>19138.53525447143</v>
       </c>
       <c r="BU5">
-        <v>19360.482708276</v>
+        <v>19360.482708275998</v>
       </c>
       <c r="BV5">
-        <v>19440.2860288342</v>
+        <v>19440.286028834202</v>
       </c>
       <c r="BW5">
-        <v>19409.86868852247</v>
+        <v>19409.868688522471</v>
       </c>
       <c r="BX5">
-        <v>19308.51531835475</v>
+        <v>19308.515318354752</v>
       </c>
       <c r="BY5">
-        <v>19179.95338640576</v>
+        <v>19179.953386405759</v>
       </c>
       <c r="BZ5">
-        <v>19069.23829904504</v>
+        <v>19069.238299045039</v>
       </c>
       <c r="CA5">
-        <v>19019.68166000835</v>
+        <v>19019.681660008351</v>
       </c>
       <c r="CB5">
-        <v>19069.97021838437</v>
+        <v>19069.970218384369</v>
       </c>
       <c r="CC5">
-        <v>19251.61676489424</v>
+        <v>19251.616764894239</v>
       </c>
       <c r="CD5">
         <v>19586.93677884615</v>
@@ -7284,25 +7332,25 @@
         <v>20755.01417978292</v>
       </c>
       <c r="CG5">
-        <v>21579.15489143417</v>
+        <v>21579.154891434169</v>
       </c>
       <c r="CH5">
-        <v>22541.33539259836</v>
+        <v>22541.335392598361</v>
       </c>
       <c r="CI5">
-        <v>23615.10110412022</v>
+        <v>23615.101104120218</v>
       </c>
       <c r="CJ5">
         <v>24768.44621822047</v>
       </c>
       <c r="CK5">
-        <v>25966.07975006263</v>
+        <v>25966.079750062629</v>
       </c>
       <c r="CL5">
-        <v>27171.77225145477</v>
+        <v>27171.772251454771</v>
       </c>
       <c r="CM5">
-        <v>28350.65258189774</v>
+        <v>28350.652581897739</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Emissions/RR/Annual_Emission_target.xlsx
+++ b/Results/Emissions/RR/Annual_Emission_target.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Results/Emissions/RR/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_32331B1326EB026CFB0B0AAE1F8957C7B9FB4A95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B0391F-5FE0-473D-975E-94107CD3B85B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -19,20 +13,7 @@
     <sheet name="Primary" sheetId="4" r:id="rId4"/>
     <sheet name="Secondary" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +46,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,38 +85,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +143,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +177,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,16 +386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CM1" sqref="CM1:CM5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -706,75 +665,75 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842586929</v>
+        <v>46.87313184258693</v>
       </c>
       <c r="C2">
-        <v>66.331986781950178</v>
+        <v>66.33198678195018</v>
       </c>
       <c r="D2">
-        <v>64.108938462148572</v>
+        <v>64.10893846214857</v>
       </c>
       <c r="E2">
-        <v>60.872877768557323</v>
+        <v>60.87287776855732</v>
       </c>
       <c r="F2">
         <v>97.98477968115175</v>
       </c>
       <c r="G2">
-        <v>70.695165706898081</v>
+        <v>70.69516570689808</v>
       </c>
       <c r="H2">
-        <v>125.77419246421179</v>
+        <v>125.7741924642118</v>
       </c>
       <c r="I2">
-        <v>119.54229371654669</v>
+        <v>119.5422937165467</v>
       </c>
       <c r="J2">
-        <v>112.13006645611451</v>
+        <v>112.1300664561145</v>
       </c>
       <c r="K2">
-        <v>101.20349439851191</v>
+        <v>101.2034943985119</v>
       </c>
       <c r="L2">
         <v>209.8180725960533</v>
       </c>
       <c r="M2">
-        <v>142.80224458285591</v>
+        <v>142.8022445828559</v>
       </c>
       <c r="N2">
-        <v>279.40703161827548</v>
+        <v>279.4070316182755</v>
       </c>
       <c r="O2">
-        <v>301.59464756981941</v>
+        <v>301.5946475698194</v>
       </c>
       <c r="P2">
-        <v>324.09365606202272</v>
+        <v>324.0936560620227</v>
       </c>
       <c r="Q2">
-        <v>709.49655418085547</v>
+        <v>709.4965541808555</v>
       </c>
       <c r="R2">
-        <v>759.70432162412169</v>
+        <v>759.7043216241217</v>
       </c>
       <c r="S2">
-        <v>810.46184150812689</v>
+        <v>810.4618415081269</v>
       </c>
       <c r="T2">
-        <v>862.18408760006002</v>
+        <v>862.18408760006</v>
       </c>
       <c r="U2">
-        <v>914.67402149674842</v>
+        <v>914.6740214967484</v>
       </c>
       <c r="V2">
-        <v>919.14566708772338</v>
+        <v>919.1456670877234</v>
       </c>
       <c r="W2">
-        <v>969.66371895636462</v>
+        <v>969.6637189563646</v>
       </c>
       <c r="X2">
         <v>1020.602565312206</v>
@@ -786,55 +745,55 @@
         <v>1126.112261233817</v>
       </c>
       <c r="AA2">
-        <v>526.17074683908959</v>
+        <v>526.1707468390896</v>
       </c>
       <c r="AB2">
-        <v>540.86217407981519</v>
+        <v>540.8621740798152</v>
       </c>
       <c r="AC2">
-        <v>559.73768990415772</v>
+        <v>559.7376899041577</v>
       </c>
       <c r="AD2">
-        <v>578.00448036981231</v>
+        <v>578.0044803698123</v>
       </c>
       <c r="AE2">
-        <v>599.37954835600124</v>
+        <v>599.3795483560012</v>
       </c>
       <c r="AF2">
-        <v>384.24645449079151</v>
+        <v>384.2464544907915</v>
       </c>
       <c r="AG2">
         <v>387.8741032583473</v>
       </c>
       <c r="AH2">
-        <v>406.83856013767468</v>
+        <v>406.8385601376747</v>
       </c>
       <c r="AI2">
-        <v>440.76573386671748</v>
+        <v>440.7657338667175</v>
       </c>
       <c r="AJ2">
-        <v>473.79368452547891</v>
+        <v>473.7936845254789</v>
       </c>
       <c r="AK2">
-        <v>628.03788667289302</v>
+        <v>628.037886672893</v>
       </c>
       <c r="AL2">
-        <v>707.99448410791035</v>
+        <v>707.9944841079104</v>
       </c>
       <c r="AM2">
-        <v>818.86201128385767</v>
+        <v>818.8620112838577</v>
       </c>
       <c r="AN2">
-        <v>961.95448688301644</v>
+        <v>961.9544868830164</v>
       </c>
       <c r="AO2">
-        <v>1064.4822148414851</v>
+        <v>1064.482214841485</v>
       </c>
       <c r="AP2">
-        <v>1309.8172609531241</v>
+        <v>1309.817260953124</v>
       </c>
       <c r="AQ2">
-        <v>1366.4132949118321</v>
+        <v>1366.413294911832</v>
       </c>
       <c r="AR2">
         <v>1413.931951955773</v>
@@ -843,22 +802,22 @@
         <v>1452.76866360499</v>
       </c>
       <c r="AT2">
-        <v>1492.2044277817531</v>
+        <v>1492.204427781753</v>
       </c>
       <c r="AU2">
         <v>1562.890223336203</v>
       </c>
       <c r="AV2">
-        <v>1547.0396640800609</v>
+        <v>1547.039664080061</v>
       </c>
       <c r="AW2">
-        <v>1446.0974437182811</v>
+        <v>1446.097443718281</v>
       </c>
       <c r="AX2">
-        <v>1282.2069504950159</v>
+        <v>1282.206950495016</v>
       </c>
       <c r="AY2">
-        <v>1200.8686568419871</v>
+        <v>1200.868656841987</v>
       </c>
       <c r="AZ2">
         <v>1150.72802932483</v>
@@ -870,10 +829,10 @@
         <v>1106.180023133739</v>
       </c>
       <c r="BC2">
-        <v>1050.0170291230929</v>
+        <v>1050.017029123093</v>
       </c>
       <c r="BD2">
-        <v>1031.5777422516451</v>
+        <v>1031.577742251645</v>
       </c>
       <c r="BE2">
         <v>1021.705095282653</v>
@@ -882,10 +841,10 @@
         <v>1070.413980292557</v>
       </c>
       <c r="BG2">
-        <v>1145.2530996062701</v>
+        <v>1145.25309960627</v>
       </c>
       <c r="BH2">
-        <v>1248.0166076089949</v>
+        <v>1248.016607608995</v>
       </c>
       <c r="BI2">
         <v>1360.359249269123</v>
@@ -894,7 +853,7 @@
         <v>1460.128199443034</v>
       </c>
       <c r="BK2">
-        <v>1593.5049438265421</v>
+        <v>1593.504943826542</v>
       </c>
       <c r="BL2">
         <v>1730.90236149321</v>
@@ -906,16 +865,16 @@
         <v>1947.837313594001</v>
       </c>
       <c r="BO2">
-        <v>1990.4620755085889</v>
+        <v>1990.462075508589</v>
       </c>
       <c r="BP2">
-        <v>2035.2358928326671</v>
+        <v>2035.235892832667</v>
       </c>
       <c r="BQ2">
-        <v>2071.6234838466939</v>
+        <v>2071.623483846694</v>
       </c>
       <c r="BR2">
-        <v>2084.5982245137789</v>
+        <v>2084.598224513779</v>
       </c>
       <c r="BS2">
         <v>2048.492143762312</v>
@@ -924,28 +883,28 @@
         <v>1951.064108704458</v>
       </c>
       <c r="BU2">
-        <v>1854.6782195561241</v>
+        <v>1854.678219556124</v>
       </c>
       <c r="BV2">
-        <v>1786.7296155132419</v>
+        <v>1786.729615513242</v>
       </c>
       <c r="BW2">
-        <v>1750.7660200137159</v>
+        <v>1750.766020013716</v>
       </c>
       <c r="BX2">
-        <v>1727.5706086469499</v>
+        <v>1727.57060864695</v>
       </c>
       <c r="BY2">
-        <v>1690.3059324480221</v>
+        <v>1690.305932448022</v>
       </c>
       <c r="BZ2">
         <v>1666.47996590049</v>
       </c>
       <c r="CA2">
-        <v>1662.3663382645559</v>
+        <v>1662.366338264556</v>
       </c>
       <c r="CB2">
-        <v>1686.9661889032629</v>
+        <v>1686.966188903263</v>
       </c>
       <c r="CC2">
         <v>1743.872599904247</v>
@@ -957,31 +916,31 @@
         <v>1915.011409031013</v>
       </c>
       <c r="CF2">
-        <v>2025.7771586979479</v>
+        <v>2025.777158697948</v>
       </c>
       <c r="CG2">
-        <v>2142.2571604235109</v>
+        <v>2142.257160423511</v>
       </c>
       <c r="CH2">
-        <v>2265.9115441467738</v>
+        <v>2265.911544146774</v>
       </c>
       <c r="CI2">
-        <v>2364.8670351673491</v>
+        <v>2364.867035167349</v>
       </c>
       <c r="CJ2">
-        <v>2468.4057066072978</v>
+        <v>2468.405706607298</v>
       </c>
       <c r="CK2">
-        <v>2543.8414772970882</v>
+        <v>2543.841477297088</v>
       </c>
       <c r="CL2">
-        <v>2593.7519684782892</v>
+        <v>2593.751968478289</v>
       </c>
       <c r="CM2">
-        <v>2628.0039112580189</v>
+        <v>2628.003911258019</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -992,37 +951,37 @@
         <v>23.38798957595704</v>
       </c>
       <c r="D3">
-        <v>22.579391669388961</v>
+        <v>22.57939166938896</v>
       </c>
       <c r="E3">
-        <v>21.425980261292839</v>
+        <v>21.42598026129284</v>
       </c>
       <c r="F3">
-        <v>34.623369471530722</v>
+        <v>34.62336947153072</v>
       </c>
       <c r="G3">
-        <v>24.894274402423662</v>
+        <v>24.89427440242366</v>
       </c>
       <c r="H3">
-        <v>44.501927053278379</v>
+        <v>44.50192705327838</v>
       </c>
       <c r="I3">
-        <v>42.259438490602903</v>
+        <v>42.2594384906029</v>
       </c>
       <c r="J3">
-        <v>39.610190456359753</v>
+        <v>39.61019045635975</v>
       </c>
       <c r="K3">
-        <v>35.704476774041567</v>
+        <v>35.70447677404157</v>
       </c>
       <c r="L3">
-        <v>74.404180750148498</v>
+        <v>74.4041807501485</v>
       </c>
       <c r="M3">
-        <v>50.511250719232777</v>
+        <v>50.51125071923278</v>
       </c>
       <c r="N3">
-        <v>99.172478982863367</v>
+        <v>99.17247898286337</v>
       </c>
       <c r="O3">
         <v>107.0704907453582</v>
@@ -1031,34 +990,34 @@
         <v>115.0795300856268</v>
       </c>
       <c r="Q3">
-        <v>252.38231425964011</v>
+        <v>252.3823142596401</v>
       </c>
       <c r="R3">
-        <v>270.26397404136458</v>
+        <v>270.2639740413646</v>
       </c>
       <c r="S3">
-        <v>288.34151039530133</v>
+        <v>288.3415103953013</v>
       </c>
       <c r="T3">
-        <v>306.76282211594929</v>
+        <v>306.7628221159493</v>
       </c>
       <c r="U3">
-        <v>325.45769695653411</v>
+        <v>325.4576969565341</v>
       </c>
       <c r="V3">
         <v>327.039303068018</v>
       </c>
       <c r="W3">
-        <v>345.03182300753758</v>
+        <v>345.0318230075376</v>
       </c>
       <c r="X3">
-        <v>363.17433010727001</v>
+        <v>363.17433010727</v>
       </c>
       <c r="Y3">
-        <v>381.69967452055317</v>
+        <v>381.6996745205532</v>
       </c>
       <c r="Z3">
-        <v>400.75359953437271</v>
+        <v>400.7535995343727</v>
       </c>
       <c r="AA3">
         <v>186.9743331802544</v>
@@ -1067,79 +1026,79 @@
         <v>192.1983009227923</v>
       </c>
       <c r="AC3">
-        <v>198.91328010861801</v>
+        <v>198.913280108618</v>
       </c>
       <c r="AD3">
         <v>205.4113716931208</v>
       </c>
       <c r="AE3">
-        <v>213.01705304750871</v>
+        <v>213.0170530475087</v>
       </c>
       <c r="AF3">
-        <v>136.34715193576341</v>
+        <v>136.3471519357634</v>
       </c>
       <c r="AG3">
         <v>137.627217203127</v>
       </c>
       <c r="AH3">
-        <v>144.37261505251141</v>
+        <v>144.3726150525114</v>
       </c>
       <c r="AI3">
-        <v>156.45004307401791</v>
+        <v>156.4500430740179</v>
       </c>
       <c r="AJ3">
-        <v>168.20641959304439</v>
+        <v>168.2064195930444</v>
       </c>
       <c r="AK3">
-        <v>223.15562118478701</v>
+        <v>223.155621184787</v>
       </c>
       <c r="AL3">
-        <v>251.63482162857389</v>
+        <v>251.6348216285739</v>
       </c>
       <c r="AM3">
-        <v>291.12931104548909</v>
+        <v>291.1293110454891</v>
       </c>
       <c r="AN3">
-        <v>342.10747562989002</v>
+        <v>342.10747562989</v>
       </c>
       <c r="AO3">
-        <v>378.63057455907239</v>
+        <v>378.6305745590724</v>
       </c>
       <c r="AP3">
-        <v>466.04065343095971</v>
+        <v>466.0406534309597</v>
       </c>
       <c r="AQ3">
-        <v>486.19626104787619</v>
+        <v>486.1962610478762</v>
       </c>
       <c r="AR3">
-        <v>503.11751069658578</v>
+        <v>503.1175106965858</v>
       </c>
       <c r="AS3">
-        <v>516.94540464785882</v>
+        <v>516.9454046478588</v>
       </c>
       <c r="AT3">
-        <v>530.98736296169693</v>
+        <v>530.9873629616969</v>
       </c>
       <c r="AU3">
-        <v>556.16385431900289</v>
+        <v>556.1638543190029</v>
       </c>
       <c r="AV3">
-        <v>550.50375857019731</v>
+        <v>550.5037585701973</v>
       </c>
       <c r="AW3">
-        <v>514.52035710654172</v>
+        <v>514.5203571065417</v>
       </c>
       <c r="AX3">
-        <v>456.10455919889591</v>
+        <v>456.1045591988959</v>
       </c>
       <c r="AY3">
-        <v>427.10750278992589</v>
+        <v>427.1075027899259</v>
       </c>
       <c r="AZ3">
-        <v>409.22765831726122</v>
+        <v>409.2276583172612</v>
       </c>
       <c r="BA3">
-        <v>406.43196262419252</v>
+        <v>406.4319626241925</v>
       </c>
       <c r="BB3">
         <v>393.3271257802474</v>
@@ -1151,22 +1110,22 @@
         <v>366.7141842259237</v>
       </c>
       <c r="BE3">
-        <v>363.18131174139739</v>
+        <v>363.1813117413974</v>
       </c>
       <c r="BF3">
-        <v>380.52411733906638</v>
+        <v>380.5241173390664</v>
       </c>
       <c r="BG3">
         <v>407.1780286617315</v>
       </c>
       <c r="BH3">
-        <v>443.78256170873749</v>
+        <v>443.7825617087375</v>
       </c>
       <c r="BI3">
-        <v>483.80029414264612</v>
+        <v>483.8002941426461</v>
       </c>
       <c r="BJ3">
-        <v>519.33599774841196</v>
+        <v>519.335997748412</v>
       </c>
       <c r="BK3">
         <v>566.8485249431584</v>
@@ -1175,165 +1134,165 @@
         <v>615.7943221637214</v>
       </c>
       <c r="BM3">
-        <v>661.78827195671352</v>
+        <v>661.7882719567135</v>
       </c>
       <c r="BN3">
-        <v>693.06784037804709</v>
+        <v>693.0678403780471</v>
       </c>
       <c r="BO3">
         <v>708.2393856505978</v>
       </c>
       <c r="BP3">
-        <v>724.17718385656121</v>
+        <v>724.1771838565612</v>
       </c>
       <c r="BQ3">
-        <v>737.12675225414557</v>
+        <v>737.1267522541456</v>
       </c>
       <c r="BR3">
-        <v>741.73312469797929</v>
+        <v>741.7331246979793</v>
       </c>
       <c r="BS3">
-        <v>728.84904344391157</v>
+        <v>728.8490434439116</v>
       </c>
       <c r="BT3">
-        <v>694.11104218433081</v>
+        <v>694.1110421843308</v>
       </c>
       <c r="BU3">
-        <v>659.74451468961138</v>
+        <v>659.7445146896114</v>
       </c>
       <c r="BV3">
-        <v>635.51195004964893</v>
+        <v>635.5119500496489</v>
       </c>
       <c r="BW3">
         <v>622.6776129325749</v>
       </c>
       <c r="BX3">
-        <v>614.39356616501573</v>
+        <v>614.3935661650157</v>
       </c>
       <c r="BY3">
-        <v>601.09467720450539</v>
+        <v>601.0946772045054</v>
       </c>
       <c r="BZ3">
-        <v>592.58468975358267</v>
+        <v>592.5846897535827</v>
       </c>
       <c r="CA3">
-        <v>591.09953486147538</v>
+        <v>591.0995348614754</v>
       </c>
       <c r="CB3">
-        <v>599.84691238438484</v>
+        <v>599.8469123843848</v>
       </c>
       <c r="CC3">
-        <v>620.10721758488694</v>
+        <v>620.1072175848869</v>
       </c>
       <c r="CD3">
-        <v>644.88612937190692</v>
+        <v>644.8861293719069</v>
       </c>
       <c r="CE3">
-        <v>681.05300277275285</v>
+        <v>681.0530027727528</v>
       </c>
       <c r="CF3">
-        <v>720.50431590445669</v>
+        <v>720.5043159044567</v>
       </c>
       <c r="CG3">
-        <v>761.99189417817456</v>
+        <v>761.9918941781746</v>
       </c>
       <c r="CH3">
-        <v>806.03631226050788</v>
+        <v>806.0363122605079</v>
       </c>
       <c r="CI3">
-        <v>841.27841673164255</v>
+        <v>841.2784167316426</v>
       </c>
       <c r="CJ3">
-        <v>878.15352707267925</v>
+        <v>878.1535270726793</v>
       </c>
       <c r="CK3">
-        <v>905.01378823685559</v>
+        <v>905.0137882368556</v>
       </c>
       <c r="CL3">
-        <v>922.77772691352652</v>
+        <v>922.7777269135265</v>
       </c>
       <c r="CM3">
-        <v>934.96156906792623</v>
+        <v>934.9615690679262</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.7552106872258</v>
+        <v>3257.755210687226</v>
       </c>
       <c r="C4">
         <v>2998.522452537542</v>
       </c>
       <c r="D4">
-        <v>2460.8288008535392</v>
+        <v>2460.828800853539</v>
       </c>
       <c r="E4">
-        <v>2804.8228738539642</v>
+        <v>2804.822873853964</v>
       </c>
       <c r="F4">
-        <v>3541.7494978482609</v>
+        <v>3541.749497848261</v>
       </c>
       <c r="G4">
-        <v>3303.7805939530322</v>
+        <v>3303.780593953032</v>
       </c>
       <c r="H4">
         <v>3552.470669265846</v>
       </c>
       <c r="I4">
-        <v>3119.8655250639999</v>
+        <v>3119.865525064</v>
       </c>
       <c r="J4">
-        <v>3390.6339271389988</v>
+        <v>3390.633927138999</v>
       </c>
       <c r="K4">
-        <v>4009.8960819674062</v>
+        <v>4009.896081967406</v>
       </c>
       <c r="L4">
-        <v>3812.4762573769522</v>
+        <v>3812.476257376952</v>
       </c>
       <c r="M4">
-        <v>4417.8143322755859</v>
+        <v>4417.814332275586</v>
       </c>
       <c r="N4">
-        <v>23163.959886587669</v>
+        <v>23163.95988658767</v>
       </c>
       <c r="O4">
-        <v>23354.155958642321</v>
+        <v>23354.15595864232</v>
       </c>
       <c r="P4">
-        <v>23496.046728990099</v>
+        <v>23496.0467289901</v>
       </c>
       <c r="Q4">
-        <v>73776.520854851129</v>
+        <v>73776.52085485113</v>
       </c>
       <c r="R4">
-        <v>73968.826270026242</v>
+        <v>73968.82627002624</v>
       </c>
       <c r="S4">
-        <v>74203.762928182216</v>
+        <v>74203.76292818222</v>
       </c>
       <c r="T4">
         <v>74473.82221465878</v>
       </c>
       <c r="U4">
-        <v>74771.879814698084</v>
+        <v>74771.87981469808</v>
       </c>
       <c r="V4">
-        <v>78190.924472293365</v>
+        <v>78190.92447229337</v>
       </c>
       <c r="W4">
-        <v>78571.864781461976</v>
+        <v>78571.86478146198</v>
       </c>
       <c r="X4">
-        <v>78952.796567258178</v>
+        <v>78952.79656725818</v>
       </c>
       <c r="Y4">
-        <v>79385.900062910761</v>
+        <v>79385.90006291076</v>
       </c>
       <c r="Z4">
-        <v>79892.782856560952</v>
+        <v>79892.78285656095</v>
       </c>
       <c r="AA4">
         <v>24320.0448650207</v>
@@ -1345,7 +1304,7 @@
         <v>25900.26111539255</v>
       </c>
       <c r="AD4">
-        <v>26800.968046097321</v>
+        <v>26800.96804609732</v>
       </c>
       <c r="AE4">
         <v>27949.47245446526</v>
@@ -1360,88 +1319,88 @@
         <v>15429.76012955162</v>
       </c>
       <c r="AI4">
-        <v>18386.652708754609</v>
+        <v>18386.65270875461</v>
       </c>
       <c r="AJ4">
-        <v>22129.398297511791</v>
+        <v>22129.39829751179</v>
       </c>
       <c r="AK4">
-        <v>35804.892830571029</v>
+        <v>35804.89283057103</v>
       </c>
       <c r="AL4">
-        <v>41395.504164761987</v>
+        <v>41395.50416476199</v>
       </c>
       <c r="AM4">
-        <v>47882.491073276309</v>
+        <v>47882.49107327631</v>
       </c>
       <c r="AN4">
-        <v>55150.827626574966</v>
+        <v>55150.82762657497</v>
       </c>
       <c r="AO4">
-        <v>60912.430258612912</v>
+        <v>60912.43025861291</v>
       </c>
       <c r="AP4">
-        <v>76900.742068975378</v>
+        <v>76900.74206897538</v>
       </c>
       <c r="AQ4">
-        <v>80251.848716476161</v>
+        <v>80251.84871647616</v>
       </c>
       <c r="AR4">
-        <v>82716.225575075048</v>
+        <v>82716.22557507505</v>
       </c>
       <c r="AS4">
-        <v>84164.839143132645</v>
+        <v>84164.83914313265</v>
       </c>
       <c r="AT4">
-        <v>84709.932790719453</v>
+        <v>84709.93279071945</v>
       </c>
       <c r="AU4">
-        <v>87596.491867343764</v>
+        <v>87596.49186734376</v>
       </c>
       <c r="AV4">
-        <v>85289.581602896011</v>
+        <v>85289.58160289601</v>
       </c>
       <c r="AW4">
-        <v>80738.466796457709</v>
+        <v>80738.46679645771</v>
       </c>
       <c r="AX4">
-        <v>74627.121257056337</v>
+        <v>74627.12125705634</v>
       </c>
       <c r="AY4">
-        <v>69880.706532475539</v>
+        <v>69880.70653247554</v>
       </c>
       <c r="AZ4">
-        <v>64407.656589369733</v>
+        <v>64407.65658936973</v>
       </c>
       <c r="BA4">
-        <v>61186.228836484501</v>
+        <v>61186.2288364845</v>
       </c>
       <c r="BB4">
-        <v>58037.274070581167</v>
+        <v>58037.27407058117</v>
       </c>
       <c r="BC4">
-        <v>55431.402462412989</v>
+        <v>55431.40246241299</v>
       </c>
       <c r="BD4">
-        <v>53948.651215478967</v>
+        <v>53948.65121547897</v>
       </c>
       <c r="BE4">
-        <v>52576.311063938047</v>
+        <v>52576.31106393805</v>
       </c>
       <c r="BF4">
-        <v>53619.031692447672</v>
+        <v>53619.03169244767</v>
       </c>
       <c r="BG4">
-        <v>56258.905455182088</v>
+        <v>56258.90545518209</v>
       </c>
       <c r="BH4">
-        <v>60322.776649711202</v>
+        <v>60322.7766497112</v>
       </c>
       <c r="BI4">
-        <v>65187.966443532088</v>
+        <v>65187.96644353209</v>
       </c>
       <c r="BJ4">
-        <v>70387.496961303128</v>
+        <v>70387.49696130313</v>
       </c>
       <c r="BK4">
         <v>76074.322879959</v>
@@ -1450,76 +1409,76 @@
         <v>81494.65544374926</v>
       </c>
       <c r="BM4">
-        <v>86310.846958431561</v>
+        <v>86310.84695843156</v>
       </c>
       <c r="BN4">
-        <v>90126.770659226226</v>
+        <v>90126.77065922623</v>
       </c>
       <c r="BO4">
-        <v>93073.389532576344</v>
+        <v>93073.38953257634</v>
       </c>
       <c r="BP4">
-        <v>95436.128112591628</v>
+        <v>95436.12811259163</v>
       </c>
       <c r="BQ4">
-        <v>97141.165247598052</v>
+        <v>97141.16524759805</v>
       </c>
       <c r="BR4">
-        <v>97887.816574994678</v>
+        <v>97887.81657499468</v>
       </c>
       <c r="BS4">
-        <v>97267.147556167183</v>
+        <v>97267.14755616718</v>
       </c>
       <c r="BT4">
-        <v>95062.171151120652</v>
+        <v>95062.17115112065</v>
       </c>
       <c r="BU4">
-        <v>92645.676677622207</v>
+        <v>92645.67667762221</v>
       </c>
       <c r="BV4">
-        <v>90679.121879970524</v>
+        <v>90679.12187997052</v>
       </c>
       <c r="BW4">
-        <v>89300.913163528137</v>
+        <v>89300.91316352814</v>
       </c>
       <c r="BX4">
-        <v>87935.530687596707</v>
+        <v>87935.53068759671</v>
       </c>
       <c r="BY4">
-        <v>85995.302261241013</v>
+        <v>85995.30226124101</v>
       </c>
       <c r="BZ4">
-        <v>84724.188969057141</v>
+        <v>84724.18896905714</v>
       </c>
       <c r="CA4">
-        <v>83862.738080472394</v>
+        <v>83862.73808047239</v>
       </c>
       <c r="CB4">
-        <v>83611.766440697334</v>
+        <v>83611.76644069733</v>
       </c>
       <c r="CC4">
         <v>84112.7406168421</v>
       </c>
       <c r="CD4">
-        <v>84786.267714748959</v>
+        <v>84786.26771474896</v>
       </c>
       <c r="CE4">
-        <v>87414.046138134087</v>
+        <v>87414.04613813409</v>
       </c>
       <c r="CF4">
-        <v>90590.395207886089</v>
+        <v>90590.39520788609</v>
       </c>
       <c r="CG4">
-        <v>94074.779330639823</v>
+        <v>94074.77933063982</v>
       </c>
       <c r="CH4">
-        <v>97674.184697209581</v>
+        <v>97674.18469720958</v>
       </c>
       <c r="CI4">
-        <v>99558.218464642865</v>
+        <v>99558.21846464287</v>
       </c>
       <c r="CJ4">
-        <v>102555.41718169471</v>
+        <v>102555.4171816947</v>
       </c>
       <c r="CK4">
         <v>105017.9910956138</v>
@@ -1531,18 +1490,18 @@
         <v>108595.9153657384</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.0179249503308</v>
+        <v>3598.017924950331</v>
       </c>
       <c r="C5">
         <v>2632.632725924836</v>
       </c>
       <c r="D5">
-        <v>2455.2334676687528</v>
+        <v>2455.233467668753</v>
       </c>
       <c r="E5">
         <v>2355.548952254203</v>
@@ -1551,49 +1510,49 @@
         <v>2721.280146061933</v>
       </c>
       <c r="G5">
-        <v>3512.3298176600151</v>
+        <v>3512.329817660015</v>
       </c>
       <c r="H5">
         <v>3848.574923073038</v>
       </c>
       <c r="I5">
-        <v>3151.5928126534982</v>
+        <v>3151.592812653498</v>
       </c>
       <c r="J5">
-        <v>2983.5002720241469</v>
+        <v>2983.500272024147</v>
       </c>
       <c r="K5">
-        <v>3317.0541646459251</v>
+        <v>3317.054164645925</v>
       </c>
       <c r="L5">
-        <v>3361.7293076364058</v>
+        <v>3361.729307636406</v>
       </c>
       <c r="M5">
         <v>4986.134156023013</v>
       </c>
       <c r="N5">
-        <v>36474.087064433617</v>
+        <v>36474.08706443362</v>
       </c>
       <c r="O5">
-        <v>36531.092456108723</v>
+        <v>36531.09245610872</v>
       </c>
       <c r="P5">
-        <v>36603.657689232467</v>
+        <v>36603.65768923247</v>
       </c>
       <c r="Q5">
-        <v>121572.59824256451</v>
+        <v>121572.5982425645</v>
       </c>
       <c r="R5">
         <v>121684.4098607357</v>
       </c>
       <c r="S5">
-        <v>121820.46158536999</v>
+        <v>121820.46158537</v>
       </c>
       <c r="T5">
         <v>121985.0048701062</v>
       </c>
       <c r="U5">
-        <v>122184.18583063519</v>
+        <v>122184.1858306352</v>
       </c>
       <c r="V5">
         <v>128288.4003884353</v>
@@ -1608,46 +1567,46 @@
         <v>129448.9164096272</v>
       </c>
       <c r="Z5">
-        <v>130073.89211091401</v>
+        <v>130073.892110914</v>
       </c>
       <c r="AA5">
-        <v>37069.977187997261</v>
+        <v>37069.97718799726</v>
       </c>
       <c r="AB5">
-        <v>38144.086028369376</v>
+        <v>38144.08602836938</v>
       </c>
       <c r="AC5">
-        <v>39553.730496943441</v>
+        <v>39553.73049694344</v>
       </c>
       <c r="AD5">
-        <v>41391.966593353151</v>
+        <v>41391.96659335315</v>
       </c>
       <c r="AE5">
-        <v>43762.646861700538</v>
+        <v>43762.64686170054</v>
       </c>
       <c r="AF5">
-        <v>15366.014646693749</v>
+        <v>15366.01464669375</v>
       </c>
       <c r="AG5">
         <v>18703.48135738929</v>
       </c>
       <c r="AH5">
-        <v>22785.324275099541</v>
+        <v>22785.32427509954</v>
       </c>
       <c r="AI5">
-        <v>28215.529290712329</v>
+        <v>28215.52929071233</v>
       </c>
       <c r="AJ5">
-        <v>34579.730586431397</v>
+        <v>34579.7305864314</v>
       </c>
       <c r="AK5">
-        <v>54471.529263491793</v>
+        <v>54471.52926349179</v>
       </c>
       <c r="AL5">
-        <v>62355.809349990559</v>
+        <v>62355.80934999056</v>
       </c>
       <c r="AM5">
-        <v>70700.840510776965</v>
+        <v>70700.84051077696</v>
       </c>
       <c r="AN5">
         <v>79190.40139062042</v>
@@ -1656,7 +1615,7 @@
         <v>87434.68726887033</v>
       </c>
       <c r="AP5">
-        <v>113090.62053982769</v>
+        <v>113090.6205398277</v>
       </c>
       <c r="AQ5">
         <v>119533.3687143907</v>
@@ -1668,19 +1627,19 @@
         <v>127558.4692978854</v>
       </c>
       <c r="AT5">
-        <v>128661.26642100071</v>
+        <v>128661.2664210007</v>
       </c>
       <c r="AU5">
-        <v>132939.24331470061</v>
+        <v>132939.2433147006</v>
       </c>
       <c r="AV5">
-        <v>130147.33369296161</v>
+        <v>130147.3336929616</v>
       </c>
       <c r="AW5">
         <v>125758.5316096937</v>
       </c>
       <c r="AX5">
-        <v>120166.23228336951</v>
+        <v>120166.2322833695</v>
       </c>
       <c r="AY5">
         <v>113840.2012939808</v>
@@ -1689,28 +1648,28 @@
         <v>104193.4544320253</v>
       </c>
       <c r="BA5">
-        <v>97931.919552214662</v>
+        <v>97931.91955221466</v>
       </c>
       <c r="BB5">
-        <v>92442.260027751647</v>
+        <v>92442.26002775165</v>
       </c>
       <c r="BC5">
-        <v>88141.249373170183</v>
+        <v>88141.24937317018</v>
       </c>
       <c r="BD5">
-        <v>85345.395721727517</v>
+        <v>85345.39572172752</v>
       </c>
       <c r="BE5">
         <v>82511.22146921177</v>
       </c>
       <c r="BF5">
-        <v>83159.212851407152</v>
+        <v>83159.21285140715</v>
       </c>
       <c r="BG5">
-        <v>85479.480410936361</v>
+        <v>85479.48041093636</v>
       </c>
       <c r="BH5">
-        <v>89289.812114376313</v>
+        <v>89289.81211437631</v>
       </c>
       <c r="BI5">
         <v>94332.13902900125</v>
@@ -1719,58 +1678,58 @@
         <v>100005.1740041008</v>
       </c>
       <c r="BK5">
-        <v>106569.29669489669</v>
+        <v>106569.2966948967</v>
       </c>
       <c r="BL5">
         <v>113388.3128183037</v>
       </c>
       <c r="BM5">
-        <v>120127.40899936151</v>
+        <v>120127.4089993615</v>
       </c>
       <c r="BN5">
-        <v>126473.24618543241</v>
+        <v>126473.2461854324</v>
       </c>
       <c r="BO5">
         <v>132168.0875221476</v>
       </c>
       <c r="BP5">
-        <v>136954.31053081469</v>
+        <v>136954.3105308147</v>
       </c>
       <c r="BQ5">
-        <v>140690.19958154409</v>
+        <v>140690.1995815441</v>
       </c>
       <c r="BR5">
-        <v>143286.08266056699</v>
+        <v>143286.082660567</v>
       </c>
       <c r="BS5">
-        <v>144724.23627087171</v>
+        <v>144724.2362708717</v>
       </c>
       <c r="BT5">
         <v>144548.6381065998</v>
       </c>
       <c r="BU5">
-        <v>143898.12347678229</v>
+        <v>143898.1234767823</v>
       </c>
       <c r="BV5">
-        <v>142440.74690631509</v>
+        <v>142440.7469063151</v>
       </c>
       <c r="BW5">
         <v>140398.0753664104</v>
       </c>
       <c r="BX5">
-        <v>138018.84365841901</v>
+        <v>138018.843658419</v>
       </c>
       <c r="BY5">
-        <v>134708.96492942539</v>
+        <v>134708.9649294254</v>
       </c>
       <c r="BZ5">
-        <v>132421.28168787301</v>
+        <v>132421.281687873</v>
       </c>
       <c r="CA5">
         <v>130528.2623933602</v>
       </c>
       <c r="CB5">
-        <v>129216.15055078969</v>
+        <v>129216.1505507897</v>
       </c>
       <c r="CC5">
         <v>128622.4867480322</v>
@@ -1785,25 +1744,25 @@
         <v>130246.521486962</v>
       </c>
       <c r="CG5">
-        <v>132780.30147450391</v>
+        <v>132780.3014745039</v>
       </c>
       <c r="CH5">
-        <v>135901.85496075099</v>
+        <v>135901.854960751</v>
       </c>
       <c r="CI5">
-        <v>137210.26670731069</v>
+        <v>137210.2667073107</v>
       </c>
       <c r="CJ5">
-        <v>141033.28637076091</v>
+        <v>141033.2863707609</v>
       </c>
       <c r="CK5">
-        <v>144946.26280912571</v>
+        <v>144946.2628091257</v>
       </c>
       <c r="CL5">
         <v>148778.8118130636</v>
       </c>
       <c r="CM5">
-        <v>152376.06336171931</v>
+        <v>152376.0633617193</v>
       </c>
     </row>
   </sheetData>
@@ -1812,16 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CQ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CM5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -2092,29 +2049,28 @@
       <c r="CM1" s="1">
         <v>2100</v>
       </c>
-      <c r="CO1" s="1"/>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842573287</v>
+        <v>46.87313184257329</v>
       </c>
       <c r="C2">
-        <v>66.331986781816042</v>
+        <v>66.33198678181604</v>
       </c>
       <c r="D2">
-        <v>64.108938461068206</v>
+        <v>64.10893846106821</v>
       </c>
       <c r="E2">
-        <v>60.872877761227059</v>
+        <v>60.87287776122706</v>
       </c>
       <c r="F2">
-        <v>97.984779638194397</v>
+        <v>97.9847796381944</v>
       </c>
       <c r="G2">
-        <v>70.695165485094805</v>
+        <v>70.6951654850948</v>
       </c>
       <c r="H2">
         <v>125.7741914386047</v>
@@ -2126,40 +2082,40 @@
         <v>112.1300498868369</v>
       </c>
       <c r="K2">
-        <v>101.20343541440241</v>
+        <v>101.2034354144024</v>
       </c>
       <c r="L2">
-        <v>209.81787774346861</v>
+        <v>209.8178777434686</v>
       </c>
       <c r="M2">
         <v>142.8016504878984</v>
       </c>
       <c r="N2">
-        <v>279.40540098502822</v>
+        <v>279.4054009850282</v>
       </c>
       <c r="O2">
-        <v>301.58448654783871</v>
+        <v>301.5844865478387</v>
       </c>
       <c r="P2">
-        <v>324.05761534456809</v>
+        <v>324.0576153445681</v>
       </c>
       <c r="Q2">
-        <v>709.43198347925181</v>
+        <v>709.4319834792518</v>
       </c>
       <c r="R2">
-        <v>759.62713104994543</v>
+        <v>759.6271310499454</v>
       </c>
       <c r="S2">
-        <v>810.36171688615048</v>
+        <v>810.3617168861505</v>
       </c>
       <c r="T2">
-        <v>862.03096586989659</v>
+        <v>862.0309658698966</v>
       </c>
       <c r="U2">
-        <v>914.44078063990708</v>
+        <v>914.4407806399071</v>
       </c>
       <c r="V2">
-        <v>918.77858675040284</v>
+        <v>918.7785867504028</v>
       </c>
       <c r="W2">
         <v>969.1061017268886</v>
@@ -2168,85 +2124,85 @@
         <v>1019.832019334277</v>
       </c>
       <c r="Y2">
-        <v>1071.5851556957321</v>
+        <v>1071.585155695732</v>
       </c>
       <c r="Z2">
-        <v>1124.7580856448351</v>
+        <v>1124.758085644835</v>
       </c>
       <c r="AA2">
-        <v>524.55572022218894</v>
+        <v>524.5557202221889</v>
       </c>
       <c r="AB2">
-        <v>538.93634381057427</v>
+        <v>538.9363438105743</v>
       </c>
       <c r="AC2">
-        <v>557.32782449763818</v>
+        <v>557.3278244976382</v>
       </c>
       <c r="AD2">
-        <v>575.14465676926454</v>
+        <v>575.1446567692645</v>
       </c>
       <c r="AE2">
-        <v>595.94647503750457</v>
+        <v>595.9464750375046</v>
       </c>
       <c r="AF2">
-        <v>380.45124338297938</v>
+        <v>380.4512433829794</v>
       </c>
       <c r="AG2">
-        <v>383.78977355697828</v>
+        <v>383.7897735569783</v>
       </c>
       <c r="AH2">
-        <v>401.79051149698188</v>
+        <v>401.7905114969819</v>
       </c>
       <c r="AI2">
-        <v>434.09781970427832</v>
+        <v>434.0978197042783</v>
       </c>
       <c r="AJ2">
-        <v>465.54368751038157</v>
+        <v>465.5436875103816</v>
       </c>
       <c r="AK2">
-        <v>617.26772905417317</v>
+        <v>617.2677290541732</v>
       </c>
       <c r="AL2">
-        <v>693.55165507785125</v>
+        <v>693.5516550778513</v>
       </c>
       <c r="AM2">
         <v>799.1312286173835</v>
       </c>
       <c r="AN2">
-        <v>935.13232006833016</v>
+        <v>935.1323200683302</v>
       </c>
       <c r="AO2">
-        <v>1032.2723178534079</v>
+        <v>1032.272317853408</v>
       </c>
       <c r="AP2">
-        <v>1274.2260508148049</v>
+        <v>1274.226050814805</v>
       </c>
       <c r="AQ2">
         <v>1327.641002873137</v>
       </c>
       <c r="AR2">
-        <v>1372.2109698419331</v>
+        <v>1372.210969841933</v>
       </c>
       <c r="AS2">
         <v>1408.315907725492</v>
       </c>
       <c r="AT2">
-        <v>1444.7212781800849</v>
+        <v>1444.721278180085</v>
       </c>
       <c r="AU2">
-        <v>1512.7403667122351</v>
+        <v>1512.740366712235</v>
       </c>
       <c r="AV2">
         <v>1496.73726537676</v>
       </c>
       <c r="AW2">
-        <v>1400.8588555260169</v>
+        <v>1400.858855526017</v>
       </c>
       <c r="AX2">
-        <v>1246.3409587980029</v>
+        <v>1246.340958798003</v>
       </c>
       <c r="AY2">
-        <v>1169.4738453130319</v>
+        <v>1169.473845313032</v>
       </c>
       <c r="AZ2">
         <v>1118.433915315788</v>
@@ -2255,7 +2211,7 @@
         <v>1110.246819114906</v>
       </c>
       <c r="BB2">
-        <v>1075.2922640959389</v>
+        <v>1075.292264095939</v>
       </c>
       <c r="BC2">
         <v>1022.599658485219</v>
@@ -2264,16 +2220,16 @@
         <v>1005.050739289587</v>
       </c>
       <c r="BE2">
-        <v>992.57941372637845</v>
+        <v>992.5794137263784</v>
       </c>
       <c r="BF2">
-        <v>1036.8089115146629</v>
+        <v>1036.808911514663</v>
       </c>
       <c r="BG2">
-        <v>1104.7821675606131</v>
+        <v>1104.782167560613</v>
       </c>
       <c r="BH2">
-        <v>1197.8976045718109</v>
+        <v>1197.897604571811</v>
       </c>
       <c r="BI2">
         <v>1299.219126478803</v>
@@ -2285,13 +2241,13 @@
         <v>1505.5749008613</v>
       </c>
       <c r="BL2">
-        <v>1627.3414343569209</v>
+        <v>1627.341434356921</v>
       </c>
       <c r="BM2">
-        <v>1740.7740436891679</v>
+        <v>1740.774043689168</v>
       </c>
       <c r="BN2">
-        <v>1816.4481524393129</v>
+        <v>1816.448152439313</v>
       </c>
       <c r="BO2">
         <v>1850.074506663381</v>
@@ -2300,7 +2256,7 @@
         <v>1886.309280525204</v>
       </c>
       <c r="BQ2">
-        <v>1914.6859424566139</v>
+        <v>1914.685942456614</v>
       </c>
       <c r="BR2">
         <v>1922.076937698969</v>
@@ -2309,55 +2265,55 @@
         <v>1886.288123118851</v>
       </c>
       <c r="BT2">
-        <v>1795.5506265709239</v>
+        <v>1795.550626570924</v>
       </c>
       <c r="BU2">
         <v>1707.898534676164</v>
       </c>
       <c r="BV2">
-        <v>1645.3952325518651</v>
+        <v>1645.395232551865</v>
       </c>
       <c r="BW2">
-        <v>1610.7819160933841</v>
+        <v>1610.781916093384</v>
       </c>
       <c r="BX2">
-        <v>1587.2822432379769</v>
+        <v>1587.282243237977</v>
       </c>
       <c r="BY2">
-        <v>1550.1971733058119</v>
+        <v>1550.197173305812</v>
       </c>
       <c r="BZ2">
         <v>1526.456039156785</v>
       </c>
       <c r="CA2">
-        <v>1519.5187092774161</v>
+        <v>1519.518709277416</v>
       </c>
       <c r="CB2">
-        <v>1536.6939430228911</v>
+        <v>1536.693943022891</v>
       </c>
       <c r="CC2">
         <v>1580.614357222742</v>
       </c>
       <c r="CD2">
-        <v>1632.0731687482639</v>
+        <v>1632.073168748264</v>
       </c>
       <c r="CE2">
-        <v>1711.7379976480941</v>
+        <v>1711.737997648094</v>
       </c>
       <c r="CF2">
         <v>1798.097872859541</v>
       </c>
       <c r="CG2">
-        <v>1888.1472064895599</v>
+        <v>1888.14720648956</v>
       </c>
       <c r="CH2">
-        <v>1982.9521165410999</v>
+        <v>1982.9521165411</v>
       </c>
       <c r="CI2">
-        <v>2052.2649037343499</v>
+        <v>2052.26490373435</v>
       </c>
       <c r="CJ2">
-        <v>2128.5724931780028</v>
+        <v>2128.572493178003</v>
       </c>
       <c r="CK2">
         <v>2181.512739278744</v>
@@ -2368,9 +2324,8 @@
       <c r="CM2">
         <v>2232.631077335127</v>
       </c>
-      <c r="CQ2" s="2"/>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2381,37 +2336,37 @@
         <v>23.38798957595705</v>
       </c>
       <c r="D3">
-        <v>22.579391669388968</v>
+        <v>22.57939166938897</v>
       </c>
       <c r="E3">
         <v>21.42598026129285</v>
       </c>
       <c r="F3">
-        <v>34.623369471530772</v>
+        <v>34.62336947153077</v>
       </c>
       <c r="G3">
-        <v>24.894274402423669</v>
+        <v>24.89427440242367</v>
       </c>
       <c r="H3">
-        <v>44.501927053278401</v>
+        <v>44.5019270532784</v>
       </c>
       <c r="I3">
-        <v>42.259438490602939</v>
+        <v>42.25943849060294</v>
       </c>
       <c r="J3">
-        <v>39.610190456359767</v>
+        <v>39.61019045635977</v>
       </c>
       <c r="K3">
-        <v>35.704476774041552</v>
+        <v>35.70447677404155</v>
       </c>
       <c r="L3">
-        <v>74.404180750148626</v>
+        <v>74.40418075014863</v>
       </c>
       <c r="M3">
-        <v>50.511250719232727</v>
+        <v>50.51125071923273</v>
       </c>
       <c r="N3">
-        <v>99.172478982863581</v>
+        <v>99.17247898286358</v>
       </c>
       <c r="O3">
         <v>107.0602332830768</v>
@@ -2420,233 +2375,232 @@
         <v>115.0428343441109</v>
       </c>
       <c r="Q3">
-        <v>252.31635849539629</v>
+        <v>252.3163584953963</v>
       </c>
       <c r="R3">
-        <v>270.18529147746699</v>
+        <v>270.185291477467</v>
       </c>
       <c r="S3">
         <v>288.2402587726109</v>
       </c>
       <c r="T3">
-        <v>306.61032358592172</v>
+        <v>306.6103235859217</v>
       </c>
       <c r="U3">
-        <v>325.23125739047123</v>
+        <v>325.2312573904712</v>
       </c>
       <c r="V3">
-        <v>326.69334956798139</v>
+        <v>326.6933495679814</v>
       </c>
       <c r="W3">
-        <v>344.51936815466462</v>
+        <v>344.5193681546646</v>
       </c>
       <c r="X3">
-        <v>362.48121636743758</v>
+        <v>362.4812163674376</v>
       </c>
       <c r="Y3">
-        <v>380.78947514899829</v>
+        <v>380.7894751489983</v>
       </c>
       <c r="Z3">
-        <v>399.57633064764701</v>
+        <v>399.576330647647</v>
       </c>
       <c r="AA3">
-        <v>185.58930642552869</v>
+        <v>185.5893064255287</v>
       </c>
       <c r="AB3">
         <v>190.5663076971135</v>
       </c>
       <c r="AC3">
-        <v>196.89258765091009</v>
+        <v>196.8925876509101</v>
       </c>
       <c r="AD3">
-        <v>203.03620874157099</v>
+        <v>203.036208741571</v>
       </c>
       <c r="AE3">
         <v>210.1909482891509</v>
       </c>
       <c r="AF3">
-        <v>133.24923923454159</v>
+        <v>133.2492392345416</v>
       </c>
       <c r="AG3">
-        <v>134.32094429662229</v>
+        <v>134.3209442966223</v>
       </c>
       <c r="AH3">
-        <v>140.32062464596231</v>
+        <v>140.3206246459623</v>
       </c>
       <c r="AI3">
-        <v>151.14491507436711</v>
+        <v>151.1449150743671</v>
       </c>
       <c r="AJ3">
         <v>161.7043326559685</v>
       </c>
       <c r="AK3">
-        <v>214.75422321202441</v>
+        <v>214.7542232120244</v>
       </c>
       <c r="AL3">
-        <v>240.49538492860111</v>
+        <v>240.4953849286011</v>
       </c>
       <c r="AM3">
-        <v>276.10097890075571</v>
+        <v>276.1009789007557</v>
       </c>
       <c r="AN3">
-        <v>321.95984490295621</v>
+        <v>321.9598449029562</v>
       </c>
       <c r="AO3">
-        <v>354.80531121960109</v>
+        <v>354.8053112196011</v>
       </c>
       <c r="AP3">
         <v>440.1002710433574</v>
       </c>
       <c r="AQ3">
-        <v>458.27476119408271</v>
+        <v>458.2747611940827</v>
       </c>
       <c r="AR3">
-        <v>473.35133376978621</v>
+        <v>473.3513337697862</v>
       </c>
       <c r="AS3">
-        <v>485.44351338169668</v>
+        <v>485.4435133816967</v>
       </c>
       <c r="AT3">
         <v>497.4830885764772</v>
       </c>
       <c r="AU3">
-        <v>520.85122131265473</v>
+        <v>520.8512213126547</v>
       </c>
       <c r="AV3">
-        <v>515.08434654138307</v>
+        <v>515.0843465413831</v>
       </c>
       <c r="AW3">
-        <v>482.60810175041428</v>
+        <v>482.6081017504143</v>
       </c>
       <c r="AX3">
-        <v>430.71587884082493</v>
+        <v>430.7158788408249</v>
       </c>
       <c r="AY3">
         <v>404.7744806096976</v>
       </c>
       <c r="AZ3">
-        <v>386.11327270297448</v>
+        <v>386.1132727029745</v>
       </c>
       <c r="BA3">
-        <v>382.87914661080629</v>
+        <v>382.8791466108063</v>
       </c>
       <c r="BB3">
-        <v>370.87935266616631</v>
+        <v>370.8793526661663</v>
       </c>
       <c r="BC3">
-        <v>353.19767569778651</v>
+        <v>353.1976756977865</v>
       </c>
       <c r="BD3">
-        <v>347.08305612355491</v>
+        <v>347.0830561235549</v>
       </c>
       <c r="BE3">
-        <v>341.41524530671722</v>
+        <v>341.4152453067172</v>
       </c>
       <c r="BF3">
-        <v>355.15565708442762</v>
+        <v>355.1556570844276</v>
       </c>
       <c r="BG3">
-        <v>376.30973265216858</v>
+        <v>376.3097326521686</v>
       </c>
       <c r="BH3">
-        <v>405.15400992364181</v>
+        <v>405.1540099236418</v>
       </c>
       <c r="BI3">
-        <v>436.17996835769452</v>
+        <v>436.1799683576945</v>
       </c>
       <c r="BJ3">
-        <v>461.45751011180329</v>
+        <v>461.4575101118033</v>
       </c>
       <c r="BK3">
-        <v>496.91492091550373</v>
+        <v>496.9149209155037</v>
       </c>
       <c r="BL3">
-        <v>532.57514397849366</v>
+        <v>532.5751439784937</v>
       </c>
       <c r="BM3">
-        <v>564.98996560065234</v>
+        <v>564.9899656006523</v>
       </c>
       <c r="BN3">
-        <v>585.33773541647781</v>
+        <v>585.3377354164778</v>
       </c>
       <c r="BO3">
-        <v>592.00008826836586</v>
+        <v>592.0000882683659</v>
       </c>
       <c r="BP3">
-        <v>599.68398412075555</v>
+        <v>599.6839841207556</v>
       </c>
       <c r="BQ3">
-        <v>604.70947419510799</v>
+        <v>604.709474195108</v>
       </c>
       <c r="BR3">
-        <v>603.35641796884943</v>
+        <v>603.3564179688494</v>
       </c>
       <c r="BS3">
-        <v>589.52179573951366</v>
+        <v>589.5217957395137</v>
       </c>
       <c r="BT3">
-        <v>559.38594374218849</v>
+        <v>559.3859437421885</v>
       </c>
       <c r="BU3">
-        <v>531.53056091317956</v>
+        <v>531.5305609131796</v>
       </c>
       <c r="BV3">
-        <v>511.06384564024358</v>
+        <v>511.0638456402436</v>
       </c>
       <c r="BW3">
-        <v>498.46302159587702</v>
+        <v>498.463021595877</v>
       </c>
       <c r="BX3">
-        <v>488.97785185086002</v>
+        <v>488.97785185086</v>
       </c>
       <c r="BY3">
-        <v>474.93629974343372</v>
+        <v>474.9362997434337</v>
       </c>
       <c r="BZ3">
-        <v>465.62695233606308</v>
+        <v>465.6269523360631</v>
       </c>
       <c r="CA3">
         <v>460.7157784120111</v>
       </c>
       <c r="CB3">
-        <v>461.80459843062329</v>
+        <v>461.8045984306233</v>
       </c>
       <c r="CC3">
-        <v>469.20929000198271</v>
+        <v>469.2092900019827</v>
       </c>
       <c r="CD3">
-        <v>476.23482648905212</v>
+        <v>476.2348264890521</v>
       </c>
       <c r="CE3">
-        <v>490.97894733092022</v>
+        <v>490.9789473309202</v>
       </c>
       <c r="CF3">
-        <v>506.44694134623012</v>
+        <v>506.4469413462301</v>
       </c>
       <c r="CG3">
-        <v>521.83535600392918</v>
+        <v>521.8353560039292</v>
       </c>
       <c r="CH3">
-        <v>537.27471660984691</v>
+        <v>537.2747166098469</v>
       </c>
       <c r="CI3">
-        <v>542.93798875308948</v>
+        <v>542.9379887530895</v>
       </c>
       <c r="CJ3">
         <v>552.3374457607049</v>
       </c>
       <c r="CK3">
-        <v>556.10820727112139</v>
+        <v>556.1082072711214</v>
       </c>
       <c r="CL3">
         <v>555.0841528623148</v>
       </c>
       <c r="CM3">
-        <v>551.11778560978939</v>
-      </c>
-      <c r="CQ3" s="2"/>
+        <v>551.1177856097894</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2654,275 +2608,274 @@
         <v>3257.63914199891</v>
       </c>
       <c r="C4">
-        <v>2998.3108836165179</v>
+        <v>2998.310883616518</v>
       </c>
       <c r="D4">
-        <v>2460.4555257930569</v>
+        <v>2460.455525793057</v>
       </c>
       <c r="E4">
-        <v>2804.1794611739961</v>
+        <v>2804.179461173996</v>
       </c>
       <c r="F4">
-        <v>3540.6613182777128</v>
+        <v>3540.661318277713</v>
       </c>
       <c r="G4">
-        <v>3301.9724747418809</v>
+        <v>3301.972474741881</v>
       </c>
       <c r="H4">
-        <v>3549.5126046408291</v>
+        <v>3549.512604640829</v>
       </c>
       <c r="I4">
-        <v>3115.0674106471379</v>
+        <v>3115.067410647138</v>
       </c>
       <c r="J4">
         <v>3382.797777806557</v>
       </c>
       <c r="K4">
-        <v>3996.6822997601262</v>
+        <v>3996.682299760126</v>
       </c>
       <c r="L4">
-        <v>3788.8478578044242</v>
+        <v>3788.847857804424</v>
       </c>
       <c r="M4">
-        <v>4372.9747163519714</v>
+        <v>4372.974716351971</v>
       </c>
       <c r="N4">
-        <v>23079.317708688839</v>
+        <v>23079.31770868884</v>
       </c>
       <c r="O4">
         <v>23211.97033224261</v>
       </c>
       <c r="P4">
-        <v>23310.271715311421</v>
+        <v>23310.27171531142</v>
       </c>
       <c r="Q4">
-        <v>73558.955932973302</v>
+        <v>73558.9559329733</v>
       </c>
       <c r="R4">
-        <v>73706.272351699008</v>
+        <v>73706.27235169901</v>
       </c>
       <c r="S4">
-        <v>73876.583665378625</v>
+        <v>73876.58366537862</v>
       </c>
       <c r="T4">
-        <v>74063.935465868562</v>
+        <v>74063.93546586856</v>
       </c>
       <c r="U4">
-        <v>74263.235711871865</v>
+        <v>74263.23571187186</v>
       </c>
       <c r="V4">
-        <v>77557.236932927655</v>
+        <v>77557.23693292766</v>
       </c>
       <c r="W4">
-        <v>77787.064855497913</v>
+        <v>77787.06485549791</v>
       </c>
       <c r="X4">
-        <v>78007.766474381671</v>
+        <v>78007.76647438167</v>
       </c>
       <c r="Y4">
-        <v>78246.243774132483</v>
+        <v>78246.24377413248</v>
       </c>
       <c r="Z4">
-        <v>78510.698776141464</v>
+        <v>78510.69877614146</v>
       </c>
       <c r="AA4">
-        <v>22647.150374099561</v>
+        <v>22647.15037409956</v>
       </c>
       <c r="AB4">
-        <v>22950.350176793119</v>
+        <v>22950.35017679312</v>
       </c>
       <c r="AC4">
-        <v>23302.771926434201</v>
+        <v>23302.7719264342</v>
       </c>
       <c r="AD4">
         <v>23638.29506784258</v>
       </c>
       <c r="AE4">
-        <v>24056.047990510189</v>
+        <v>24056.04799051019</v>
       </c>
       <c r="AF4">
-        <v>6601.1964403869724</v>
+        <v>6601.196440386972</v>
       </c>
       <c r="AG4">
-        <v>6980.6242091560216</v>
+        <v>6980.624209156022</v>
       </c>
       <c r="AH4">
-        <v>7607.4967281187237</v>
+        <v>7607.496728118724</v>
       </c>
       <c r="AI4">
-        <v>8533.8173507952979</v>
+        <v>8533.817350795298</v>
       </c>
       <c r="AJ4">
-        <v>9677.1923435385343</v>
+        <v>9677.192343538534</v>
       </c>
       <c r="AK4">
-        <v>20108.698226400062</v>
+        <v>20108.69822640006</v>
       </c>
       <c r="AL4">
-        <v>22066.837278977659</v>
+        <v>22066.83727897766</v>
       </c>
       <c r="AM4">
-        <v>24333.111348123832</v>
+        <v>24333.11134812383</v>
       </c>
       <c r="AN4">
         <v>26865.70904458264</v>
       </c>
       <c r="AO4">
-        <v>28697.162214904711</v>
+        <v>28697.16221490471</v>
       </c>
       <c r="AP4">
-        <v>41710.765317350328</v>
+        <v>41710.76531735033</v>
       </c>
       <c r="AQ4">
-        <v>42515.553000352877</v>
+        <v>42515.55300035288</v>
       </c>
       <c r="AR4">
-        <v>42986.410051601983</v>
+        <v>42986.41005160198</v>
       </c>
       <c r="AS4">
-        <v>43098.870018720438</v>
+        <v>43098.87001872044</v>
       </c>
       <c r="AT4">
-        <v>42922.635747454573</v>
+        <v>42922.63574745457</v>
       </c>
       <c r="AU4">
-        <v>45861.924827453317</v>
+        <v>45861.92482745332</v>
       </c>
       <c r="AV4">
-        <v>44744.396418381963</v>
+        <v>44744.39641838196</v>
       </c>
       <c r="AW4">
-        <v>42859.359254972122</v>
+        <v>42859.35925497212</v>
       </c>
       <c r="AX4">
-        <v>40484.222186435283</v>
+        <v>40484.22218643528</v>
       </c>
       <c r="AY4">
-        <v>38722.416647107282</v>
+        <v>38722.41664710728</v>
       </c>
       <c r="AZ4">
-        <v>35361.015037140482</v>
+        <v>35361.01503714048</v>
       </c>
       <c r="BA4">
-        <v>34252.311348722971</v>
+        <v>34252.31134872297</v>
       </c>
       <c r="BB4">
         <v>33207.81200657312</v>
       </c>
       <c r="BC4">
-        <v>32430.726799883509</v>
+        <v>32430.72679988351</v>
       </c>
       <c r="BD4">
-        <v>31918.067908447691</v>
+        <v>31918.06790844769</v>
       </c>
       <c r="BE4">
-        <v>30499.618584821019</v>
+        <v>30499.61858482102</v>
       </c>
       <c r="BF4">
-        <v>30575.970030917601</v>
+        <v>30575.9700309176</v>
       </c>
       <c r="BG4">
         <v>31209.95747812933</v>
       </c>
       <c r="BH4">
-        <v>32260.644277120529</v>
+        <v>32260.64427712053</v>
       </c>
       <c r="BI4">
-        <v>33491.890157860231</v>
+        <v>33491.89015786023</v>
       </c>
       <c r="BJ4">
-        <v>34621.067121638713</v>
+        <v>34621.06712163871</v>
       </c>
       <c r="BK4">
-        <v>35960.322089242844</v>
+        <v>35960.32208924284</v>
       </c>
       <c r="BL4">
-        <v>37142.370505630301</v>
+        <v>37142.3705056303</v>
       </c>
       <c r="BM4">
-        <v>38080.607220533893</v>
+        <v>38080.60722053389</v>
       </c>
       <c r="BN4">
-        <v>38683.251965742951</v>
+        <v>38683.25196574295</v>
       </c>
       <c r="BO4">
-        <v>39029.884806331247</v>
+        <v>39029.88480633125</v>
       </c>
       <c r="BP4">
-        <v>39213.321579913543</v>
+        <v>39213.32157991354</v>
       </c>
       <c r="BQ4">
-        <v>39234.973971305968</v>
+        <v>39234.97397130597</v>
       </c>
       <c r="BR4">
-        <v>39016.501824712359</v>
+        <v>39016.50182471236</v>
       </c>
       <c r="BS4">
-        <v>38448.323417374362</v>
+        <v>38448.32341737436</v>
       </c>
       <c r="BT4">
-        <v>37263.192754913063</v>
+        <v>37263.19275491306</v>
       </c>
       <c r="BU4">
         <v>36307.58262439703</v>
       </c>
       <c r="BV4">
-        <v>35652.048492209498</v>
+        <v>35652.0484922095</v>
       </c>
       <c r="BW4">
-        <v>35323.674734569737</v>
+        <v>35323.67473456974</v>
       </c>
       <c r="BX4">
-        <v>34935.278229197247</v>
+        <v>34935.27822919725</v>
       </c>
       <c r="BY4">
         <v>33984.47429535204</v>
       </c>
       <c r="BZ4">
-        <v>33587.744301658007</v>
+        <v>33587.74430165801</v>
       </c>
       <c r="CA4">
-        <v>33256.231134506663</v>
+        <v>33256.23113450666</v>
       </c>
       <c r="CB4">
-        <v>33010.850462512601</v>
+        <v>33010.8504625126</v>
       </c>
       <c r="CC4">
-        <v>32823.780488456112</v>
+        <v>32823.78048845611</v>
       </c>
       <c r="CD4">
-        <v>32060.787294732829</v>
+        <v>32060.78729473283</v>
       </c>
       <c r="CE4">
-        <v>32620.034948089371</v>
+        <v>32620.03494808937</v>
       </c>
       <c r="CF4">
-        <v>33293.120581490999</v>
+        <v>33293.120581491</v>
       </c>
       <c r="CG4">
-        <v>34012.355583491837</v>
+        <v>34012.35558349184</v>
       </c>
       <c r="CH4">
-        <v>34725.565460680897</v>
+        <v>34725.5654606809</v>
       </c>
       <c r="CI4">
-        <v>33817.069478657453</v>
+        <v>33817.06947865745</v>
       </c>
       <c r="CJ4">
-        <v>34320.439722241543</v>
+        <v>34320.43972224154</v>
       </c>
       <c r="CK4">
-        <v>34680.374340351453</v>
+        <v>34680.37434035145</v>
       </c>
       <c r="CL4">
-        <v>34926.949214673703</v>
+        <v>34926.9492146737</v>
       </c>
       <c r="CM4">
-        <v>35094.241864180498</v>
-      </c>
-      <c r="CQ4" s="2"/>
+        <v>35094.2418641805</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2933,52 +2886,52 @@
         <v>2632.624663920888</v>
       </c>
       <c r="D5">
-        <v>2455.2193313019989</v>
+        <v>2455.219331301999</v>
       </c>
       <c r="E5">
         <v>2355.52474337274</v>
       </c>
       <c r="F5">
-        <v>2721.2394833350259</v>
+        <v>2721.239483335026</v>
       </c>
       <c r="G5">
-        <v>3512.2628172942741</v>
+        <v>3512.262817294274</v>
       </c>
       <c r="H5">
         <v>3848.466795365483</v>
       </c>
       <c r="I5">
-        <v>3151.4221613213422</v>
+        <v>3151.422161321342</v>
       </c>
       <c r="J5">
-        <v>2983.2370757228659</v>
+        <v>2983.237075722866</v>
       </c>
       <c r="K5">
         <v>3316.65745175355</v>
       </c>
       <c r="L5">
-        <v>3361.1446132692809</v>
+        <v>3361.144613269281</v>
       </c>
       <c r="M5">
-        <v>4985.2909121858911</v>
+        <v>4985.290912185891</v>
       </c>
       <c r="N5">
-        <v>36472.896112839757</v>
+        <v>36472.89611283976</v>
       </c>
       <c r="O5">
-        <v>36525.701800319337</v>
+        <v>36525.70180031934</v>
       </c>
       <c r="P5">
-        <v>36591.299393097062</v>
+        <v>36591.29939309706</v>
       </c>
       <c r="Q5">
         <v>121549.5769781975</v>
       </c>
       <c r="R5">
-        <v>121646.01761098221</v>
+        <v>121646.0176109822</v>
       </c>
       <c r="S5">
-        <v>121760.91952034349</v>
+        <v>121760.9195203435</v>
       </c>
       <c r="T5">
         <v>121897.3930916247</v>
@@ -2999,204 +2952,203 @@
         <v>129021.396009626</v>
       </c>
       <c r="Z5">
-        <v>129495.45694035861</v>
+        <v>129495.4569403586</v>
       </c>
       <c r="AA5">
-        <v>36286.497852625427</v>
+        <v>36286.49785262543</v>
       </c>
       <c r="AB5">
-        <v>37082.100995309687</v>
+        <v>37082.10099530969</v>
       </c>
       <c r="AC5">
-        <v>38115.107950203579</v>
+        <v>38115.10795020358</v>
       </c>
       <c r="AD5">
-        <v>39448.210910180213</v>
+        <v>39448.21091018021</v>
       </c>
       <c r="AE5">
-        <v>41149.418141619622</v>
+        <v>41149.41814161962</v>
       </c>
       <c r="AF5">
-        <v>11878.638804132759</v>
+        <v>11878.63880413276</v>
       </c>
       <c r="AG5">
         <v>14094.44236154564</v>
       </c>
       <c r="AH5">
-        <v>16764.907680846311</v>
+        <v>16764.90768084631</v>
       </c>
       <c r="AI5">
-        <v>20456.887611153499</v>
+        <v>20456.8876111535</v>
       </c>
       <c r="AJ5">
-        <v>24729.565981804149</v>
+        <v>24729.56598180415</v>
       </c>
       <c r="AK5">
-        <v>42167.268759416998</v>
+        <v>42167.268759417</v>
       </c>
       <c r="AL5">
-        <v>47249.516043654388</v>
+        <v>47249.51604365439</v>
       </c>
       <c r="AM5">
-        <v>52489.097419051672</v>
+        <v>52489.09741905167</v>
       </c>
       <c r="AN5">
-        <v>57648.057228920567</v>
+        <v>57648.05722892057</v>
       </c>
       <c r="AO5">
         <v>62448.88364921193</v>
       </c>
       <c r="AP5">
-        <v>84710.879295179955</v>
+        <v>84710.87929517996</v>
       </c>
       <c r="AQ5">
-        <v>88001.790298619846</v>
+        <v>88001.79029861985</v>
       </c>
       <c r="AR5">
-        <v>90196.393436294064</v>
+        <v>90196.39343629406</v>
       </c>
       <c r="AS5">
-        <v>91150.940094182908</v>
+        <v>91150.94009418291</v>
       </c>
       <c r="AT5">
-        <v>90815.105452256801</v>
+        <v>90815.1054522568</v>
       </c>
       <c r="AU5">
         <v>94431.4259386802</v>
       </c>
       <c r="AV5">
-        <v>91760.956796158294</v>
+        <v>91760.95679615829</v>
       </c>
       <c r="AW5">
-        <v>88217.931822902741</v>
+        <v>88217.93182290274</v>
       </c>
       <c r="AX5">
-        <v>84077.398816407775</v>
+        <v>84077.39881640777</v>
       </c>
       <c r="AY5">
-        <v>79641.054829594112</v>
+        <v>79641.05482959411</v>
       </c>
       <c r="AZ5">
         <v>72116.47262890116</v>
       </c>
       <c r="BA5">
-        <v>67980.745211400106</v>
+        <v>67980.74521140011</v>
       </c>
       <c r="BB5">
-        <v>64384.379838536122</v>
+        <v>64384.37983853612</v>
       </c>
       <c r="BC5">
         <v>61519.333655217</v>
       </c>
       <c r="BD5">
-        <v>59508.779219909811</v>
+        <v>59508.77921990981</v>
       </c>
       <c r="BE5">
-        <v>56665.673582136689</v>
+        <v>56665.67358213669</v>
       </c>
       <c r="BF5">
-        <v>56428.834876771747</v>
+        <v>56428.83487677175</v>
       </c>
       <c r="BG5">
-        <v>56971.686654804427</v>
+        <v>56971.68665480443</v>
       </c>
       <c r="BH5">
-        <v>58154.739397665711</v>
+        <v>58154.73939766571</v>
       </c>
       <c r="BI5">
-        <v>59811.302819804507</v>
+        <v>59811.30281980451</v>
       </c>
       <c r="BJ5">
         <v>61468.58407517794</v>
       </c>
       <c r="BK5">
-        <v>63542.956871491609</v>
+        <v>63542.95687149161</v>
       </c>
       <c r="BL5">
-        <v>65573.914744622554</v>
+        <v>65573.91474462255</v>
       </c>
       <c r="BM5">
-        <v>67414.124491936731</v>
+        <v>67414.12449193673</v>
       </c>
       <c r="BN5">
-        <v>68939.958697745504</v>
+        <v>68939.9586977455</v>
       </c>
       <c r="BO5">
-        <v>70074.536486325902</v>
+        <v>70074.5364863259</v>
       </c>
       <c r="BP5">
-        <v>70721.100354391616</v>
+        <v>70721.10035439162</v>
       </c>
       <c r="BQ5">
-        <v>70869.114087286929</v>
+        <v>70869.11408728693</v>
       </c>
       <c r="BR5">
-        <v>70522.753663993295</v>
+        <v>70522.7536639933</v>
       </c>
       <c r="BS5">
-        <v>69715.148847625343</v>
+        <v>69715.14884762534</v>
       </c>
       <c r="BT5">
-        <v>67994.497088714037</v>
+        <v>67994.49708871404</v>
       </c>
       <c r="BU5">
-        <v>66456.192643678267</v>
+        <v>66456.19264367827</v>
       </c>
       <c r="BV5">
-        <v>64679.602790978213</v>
+        <v>64679.60279097821</v>
       </c>
       <c r="BW5">
-        <v>62758.600612320537</v>
+        <v>62758.60061232054</v>
       </c>
       <c r="BX5">
-        <v>60784.782384999977</v>
+        <v>60784.78238499998</v>
       </c>
       <c r="BY5">
-        <v>57989.151383802309</v>
+        <v>57989.15138380231</v>
       </c>
       <c r="BZ5">
-        <v>56144.328491692773</v>
+        <v>56144.32849169277</v>
       </c>
       <c r="CA5">
-        <v>54449.535753326752</v>
+        <v>54449.53575332675</v>
       </c>
       <c r="CB5">
-        <v>52936.269677252167</v>
+        <v>52936.26967725217</v>
       </c>
       <c r="CC5">
         <v>51616.01968845525</v>
       </c>
       <c r="CD5">
-        <v>49044.083607601169</v>
+        <v>49044.08360760117</v>
       </c>
       <c r="CE5">
-        <v>48072.015327410991</v>
+        <v>48072.01532741099</v>
       </c>
       <c r="CF5">
-        <v>47226.464767830337</v>
+        <v>47226.46476783034</v>
       </c>
       <c r="CG5">
-        <v>46463.681908767212</v>
+        <v>46463.68190876721</v>
       </c>
       <c r="CH5">
-        <v>45736.513390357482</v>
+        <v>45736.51339035748</v>
       </c>
       <c r="CI5">
-        <v>42749.862290829748</v>
+        <v>42749.86229082975</v>
       </c>
       <c r="CJ5">
-        <v>41959.501497879042</v>
+        <v>41959.50149787904</v>
       </c>
       <c r="CK5">
-        <v>41081.943808875192</v>
+        <v>41081.94380887519</v>
       </c>
       <c r="CL5">
         <v>40091.72280724442</v>
       </c>
       <c r="CM5">
-        <v>38973.453034128303</v>
-      </c>
-      <c r="CQ5" s="2"/>
+        <v>38973.4530341283</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3204,14 +3156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -3483,7 +3435,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3494,49 +3446,49 @@
         <v>1.341561833097389E-10</v>
       </c>
       <c r="D2">
-        <v>1.0803154225906119E-9</v>
+        <v>1.080315422590612E-09</v>
       </c>
       <c r="E2">
-        <v>7.3302692979698348E-9</v>
+        <v>7.330269297969835E-09</v>
       </c>
       <c r="F2">
-        <v>4.2957351041924837E-8</v>
+        <v>4.295735104192484E-08</v>
       </c>
       <c r="G2">
-        <v>2.2180320951380871E-7</v>
+        <v>2.218032095138087E-07</v>
       </c>
       <c r="H2">
-        <v>1.025607117320097E-6</v>
+        <v>1.025607117320097E-06</v>
       </c>
       <c r="I2">
-        <v>4.3039651572696499E-6</v>
+        <v>4.30396515726965E-06</v>
       </c>
       <c r="J2">
-        <v>1.6569277734575511E-5</v>
+        <v>1.656927773457551E-05</v>
       </c>
       <c r="K2">
-        <v>5.8984109498142307E-5</v>
+        <v>5.898410949814231E-05</v>
       </c>
       <c r="L2">
-        <v>1.9485258483177629E-4</v>
+        <v>0.0001948525848317763</v>
       </c>
       <c r="M2">
-        <v>5.9409495742886436E-4</v>
+        <v>0.0005940949574288644</v>
       </c>
       <c r="N2">
-        <v>1.6306332474009381E-3</v>
+        <v>0.001630633247400938</v>
       </c>
       <c r="O2">
-        <v>1.016102198081586E-2</v>
+        <v>0.01016102198081586</v>
       </c>
       <c r="P2">
-        <v>3.6040717454650567E-2</v>
+        <v>0.03604071745465057</v>
       </c>
       <c r="Q2">
-        <v>6.4570701603988007E-2</v>
+        <v>0.06457070160398801</v>
       </c>
       <c r="R2">
-        <v>7.7190574176562624E-2</v>
+        <v>0.07719057417656262</v>
       </c>
       <c r="S2">
         <v>0.1001246219763533</v>
@@ -3545,25 +3497,25 @@
         <v>0.1531217301626315</v>
       </c>
       <c r="U2">
-        <v>0.23324085683991749</v>
+        <v>0.2332408568399175</v>
       </c>
       <c r="V2">
-        <v>0.36708033732046158</v>
+        <v>0.3670803373204616</v>
       </c>
       <c r="W2">
-        <v>0.55761722947641246</v>
+        <v>0.5576172294764125</v>
       </c>
       <c r="X2">
-        <v>0.77054597792951307</v>
+        <v>0.7705459779295131</v>
       </c>
       <c r="Y2">
-        <v>1.0306073311911821</v>
+        <v>1.030607331191182</v>
       </c>
       <c r="Z2">
         <v>1.354175588981533</v>
       </c>
       <c r="AA2">
-        <v>1.6150266169009291</v>
+        <v>1.615026616900929</v>
       </c>
       <c r="AB2">
         <v>1.925830269242242</v>
@@ -3572,64 +3524,64 @@
         <v>2.4098654065197</v>
       </c>
       <c r="AD2">
-        <v>2.8598236005480282</v>
+        <v>2.859823600548028</v>
       </c>
       <c r="AE2">
         <v>3.433073318496862</v>
       </c>
       <c r="AF2">
-        <v>3.7952111078118711</v>
+        <v>3.795211107811871</v>
       </c>
       <c r="AG2">
-        <v>4.0843297013688957</v>
+        <v>4.084329701368896</v>
       </c>
       <c r="AH2">
-        <v>5.0480486406928016</v>
+        <v>5.048048640692802</v>
       </c>
       <c r="AI2">
-        <v>6.6679141624392946</v>
+        <v>6.667914162439295</v>
       </c>
       <c r="AJ2">
-        <v>8.2499970150969464</v>
+        <v>8.249997015096946</v>
       </c>
       <c r="AK2">
         <v>10.77015761872042</v>
       </c>
       <c r="AL2">
-        <v>14.442829030059089</v>
+        <v>14.44282903005909</v>
       </c>
       <c r="AM2">
         <v>19.7307826664745</v>
       </c>
       <c r="AN2">
-        <v>26.822166814686131</v>
+        <v>26.82216681468613</v>
       </c>
       <c r="AO2">
-        <v>32.209896988077539</v>
+        <v>32.20989698807754</v>
       </c>
       <c r="AP2">
-        <v>35.591210138320257</v>
+        <v>35.59121013832026</v>
       </c>
       <c r="AQ2">
-        <v>38.772292038695909</v>
+        <v>38.77229203869591</v>
       </c>
       <c r="AR2">
         <v>41.72098211383873</v>
       </c>
       <c r="AS2">
-        <v>44.452755879497417</v>
+        <v>44.45275587949742</v>
       </c>
       <c r="AT2">
-        <v>47.483149601669368</v>
+        <v>47.48314960166937</v>
       </c>
       <c r="AU2">
-        <v>50.149856623968923</v>
+        <v>50.14985662396892</v>
       </c>
       <c r="AV2">
-        <v>50.302398703300277</v>
+        <v>50.30239870330028</v>
       </c>
       <c r="AW2">
-        <v>45.238588192263698</v>
+        <v>45.2385881922637</v>
       </c>
       <c r="AX2">
         <v>35.86599169701411</v>
@@ -3638,40 +3590,40 @@
         <v>31.39481152895528</v>
       </c>
       <c r="AZ2">
-        <v>32.294114009042538</v>
+        <v>32.29411400904254</v>
       </c>
       <c r="BA2">
-        <v>32.670769226970343</v>
+        <v>32.67076922697034</v>
       </c>
       <c r="BB2">
-        <v>30.887759037802251</v>
+        <v>30.88775903780225</v>
       </c>
       <c r="BC2">
-        <v>27.417370637874011</v>
+        <v>27.41737063787401</v>
       </c>
       <c r="BD2">
-        <v>26.527002962057232</v>
+        <v>26.52700296205723</v>
       </c>
       <c r="BE2">
-        <v>29.125681556276131</v>
+        <v>29.12568155627613</v>
       </c>
       <c r="BF2">
-        <v>33.605068777893869</v>
+        <v>33.60506877789387</v>
       </c>
       <c r="BG2">
-        <v>40.470932045656987</v>
+        <v>40.47093204565699</v>
       </c>
       <c r="BH2">
-        <v>50.119003037183603</v>
+        <v>50.1190030371836</v>
       </c>
       <c r="BI2">
-        <v>61.140122790319523</v>
+        <v>61.14012279031952</v>
       </c>
       <c r="BJ2">
         <v>73.53526469243323</v>
       </c>
       <c r="BK2">
-        <v>87.930042965242393</v>
+        <v>87.93004296524239</v>
       </c>
       <c r="BL2">
         <v>103.5609271362904</v>
@@ -3680,37 +3632,37 @@
         <v>119.2411418676551</v>
       </c>
       <c r="BN2">
-        <v>131.38916115468979</v>
+        <v>131.3891611546898</v>
       </c>
       <c r="BO2">
-        <v>140.38756884520859</v>
+        <v>140.3875688452086</v>
       </c>
       <c r="BP2">
-        <v>148.92661230746151</v>
+        <v>148.9266123074615</v>
       </c>
       <c r="BQ2">
-        <v>156.93754139008021</v>
+        <v>156.9375413900802</v>
       </c>
       <c r="BR2">
-        <v>162.52128681480741</v>
+        <v>162.5212868148074</v>
       </c>
       <c r="BS2">
-        <v>162.20402064346121</v>
+        <v>162.2040206434612</v>
       </c>
       <c r="BT2">
-        <v>155.51348213353319</v>
+        <v>155.5134821335332</v>
       </c>
       <c r="BU2">
         <v>146.7796848799583</v>
       </c>
       <c r="BV2">
-        <v>141.33438296137771</v>
+        <v>141.3343829613777</v>
       </c>
       <c r="BW2">
         <v>139.9841039203325</v>
       </c>
       <c r="BX2">
-        <v>140.28836540897211</v>
+        <v>140.2883654089721</v>
       </c>
       <c r="BY2">
         <v>140.1087591422102</v>
@@ -3719,10 +3671,10 @@
         <v>140.0239267437037</v>
       </c>
       <c r="CA2">
-        <v>142.84762898713959</v>
+        <v>142.8476289871396</v>
       </c>
       <c r="CB2">
-        <v>150.27224588037231</v>
+        <v>150.2722458803723</v>
       </c>
       <c r="CC2">
         <v>163.2582426815043</v>
@@ -3731,7 +3683,7 @@
         <v>181.3897583462049</v>
       </c>
       <c r="CE2">
-        <v>203.27341138291951</v>
+        <v>203.2734113829195</v>
       </c>
       <c r="CF2">
         <v>227.6792858384085</v>
@@ -3740,25 +3692,25 @@
         <v>254.1099539339485</v>
       </c>
       <c r="CH2">
-        <v>282.95942760567209</v>
+        <v>282.9594276056721</v>
       </c>
       <c r="CI2">
-        <v>312.60213143300098</v>
+        <v>312.602131433001</v>
       </c>
       <c r="CJ2">
-        <v>339.83321342929139</v>
+        <v>339.8332134292914</v>
       </c>
       <c r="CK2">
-        <v>362.32873801834347</v>
+        <v>362.3287380183435</v>
       </c>
       <c r="CL2">
-        <v>380.24897671147119</v>
+        <v>380.2489767114712</v>
       </c>
       <c r="CM2">
         <v>395.3728339228926</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3802,82 +3754,82 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.025746228157005E-2</v>
+        <v>0.01025746228157005</v>
       </c>
       <c r="P3">
-        <v>3.6695741515857527E-2</v>
+        <v>0.03669574151585753</v>
       </c>
       <c r="Q3">
-        <v>6.595576424375095E-2</v>
+        <v>0.06595576424375095</v>
       </c>
       <c r="R3">
-        <v>7.8682563897592511E-2</v>
+        <v>0.07868256389759251</v>
       </c>
       <c r="S3">
-        <v>0.10125162269077879</v>
+        <v>0.1012516226907788</v>
       </c>
       <c r="T3">
-        <v>0.15249853002785899</v>
+        <v>0.152498530027859</v>
       </c>
       <c r="U3">
-        <v>0.22643956606262891</v>
+        <v>0.2264395660626289</v>
       </c>
       <c r="V3">
-        <v>0.34595350003697939</v>
+        <v>0.3459535000369794</v>
       </c>
       <c r="W3">
-        <v>0.51245485287342485</v>
+        <v>0.5124548528734248</v>
       </c>
       <c r="X3">
-        <v>0.69311373983241398</v>
+        <v>0.693113739832414</v>
       </c>
       <c r="Y3">
-        <v>0.91019937155484576</v>
+        <v>0.9101993715548458</v>
       </c>
       <c r="Z3">
-        <v>1.1772688867261061</v>
+        <v>1.177268886726106</v>
       </c>
       <c r="AA3">
-        <v>1.3850267547257009</v>
+        <v>1.385026754725701</v>
       </c>
       <c r="AB3">
         <v>1.631993225679103</v>
       </c>
       <c r="AC3">
-        <v>2.0206924577080838</v>
+        <v>2.020692457708084</v>
       </c>
       <c r="AD3">
-        <v>2.3751629515499002</v>
+        <v>2.3751629515499</v>
       </c>
       <c r="AE3">
-        <v>2.8261047583577432</v>
+        <v>2.826104758357743</v>
       </c>
       <c r="AF3">
-        <v>3.0979127012219259</v>
+        <v>3.097912701221926</v>
       </c>
       <c r="AG3">
-        <v>3.3062729065048928</v>
+        <v>3.306272906504893</v>
       </c>
       <c r="AH3">
-        <v>4.0519904065490859</v>
+        <v>4.051990406549086</v>
       </c>
       <c r="AI3">
-        <v>5.3051279996508116</v>
+        <v>5.305127999650812</v>
       </c>
       <c r="AJ3">
-        <v>6.5020869370758856</v>
+        <v>6.502086937075886</v>
       </c>
       <c r="AK3">
-        <v>8.4013979727625685</v>
+        <v>8.401397972762569</v>
       </c>
       <c r="AL3">
         <v>11.1394366999728</v>
       </c>
       <c r="AM3">
-        <v>15.028332144733641</v>
+        <v>15.02833214473364</v>
       </c>
       <c r="AN3">
-        <v>20.147630726934139</v>
+        <v>20.14763072693414</v>
       </c>
       <c r="AO3">
         <v>23.82526333947169</v>
@@ -3886,79 +3838,79 @@
         <v>25.94038238760222</v>
       </c>
       <c r="AQ3">
-        <v>27.921499853794241</v>
+        <v>27.92149985379424</v>
       </c>
       <c r="AR3">
-        <v>29.766176926799542</v>
+        <v>29.76617692679954</v>
       </c>
       <c r="AS3">
-        <v>31.501891266162929</v>
+        <v>31.50189126616293</v>
       </c>
       <c r="AT3">
-        <v>33.504274385219873</v>
+        <v>33.50427438521987</v>
       </c>
       <c r="AU3">
-        <v>35.312633006348953</v>
+        <v>35.31263300634895</v>
       </c>
       <c r="AV3">
-        <v>35.419412028814243</v>
+        <v>35.41941202881424</v>
       </c>
       <c r="AW3">
-        <v>31.912255356127851</v>
+        <v>31.91225535612785</v>
       </c>
       <c r="AX3">
         <v>25.38868035807155</v>
       </c>
       <c r="AY3">
-        <v>22.333022180228419</v>
+        <v>22.33302218022842</v>
       </c>
       <c r="AZ3">
-        <v>23.114385614286402</v>
+        <v>23.1143856142864</v>
       </c>
       <c r="BA3">
-        <v>23.552816013386291</v>
+        <v>23.55281601338629</v>
       </c>
       <c r="BB3">
-        <v>22.447773114081059</v>
+        <v>22.44777311408106</v>
       </c>
       <c r="BC3">
-        <v>20.101338609086941</v>
+        <v>20.10133860908694</v>
       </c>
       <c r="BD3">
-        <v>19.631128102368891</v>
+        <v>19.63112810236889</v>
       </c>
       <c r="BE3">
-        <v>21.766066434680209</v>
+        <v>21.76606643468021</v>
       </c>
       <c r="BF3">
-        <v>25.368460254639459</v>
+        <v>25.36846025463946</v>
       </c>
       <c r="BG3">
-        <v>30.868296009563259</v>
+        <v>30.86829600956326</v>
       </c>
       <c r="BH3">
-        <v>38.628551785096143</v>
+        <v>38.62855178509614</v>
       </c>
       <c r="BI3">
-        <v>47.620325784951753</v>
+        <v>47.62032578495175</v>
       </c>
       <c r="BJ3">
-        <v>57.878487636608689</v>
+        <v>57.87848763660869</v>
       </c>
       <c r="BK3">
-        <v>69.933604027655562</v>
+        <v>69.93360402765556</v>
       </c>
       <c r="BL3">
-        <v>83.219178185227278</v>
+        <v>83.21917818522728</v>
       </c>
       <c r="BM3">
-        <v>96.798306356061005</v>
+        <v>96.798306356061</v>
       </c>
       <c r="BN3">
-        <v>107.73010496156959</v>
+        <v>107.7301049615696</v>
       </c>
       <c r="BO3">
-        <v>116.23929738223261</v>
+        <v>116.2392973822326</v>
       </c>
       <c r="BP3">
         <v>124.4931997358054</v>
@@ -3967,25 +3919,25 @@
         <v>132.4172780590375</v>
       </c>
       <c r="BR3">
-        <v>138.37670672913029</v>
+        <v>138.3767067291303</v>
       </c>
       <c r="BS3">
-        <v>139.32724770439921</v>
+        <v>139.3272477043992</v>
       </c>
       <c r="BT3">
         <v>134.7250984421425</v>
       </c>
       <c r="BU3">
-        <v>128.21395377643199</v>
+        <v>128.213953776432</v>
       </c>
       <c r="BV3">
         <v>124.4481044094061</v>
       </c>
       <c r="BW3">
-        <v>124.21459133669811</v>
+        <v>124.2145913366981</v>
       </c>
       <c r="BX3">
-        <v>125.41571431415611</v>
+        <v>125.4157143141561</v>
       </c>
       <c r="BY3">
         <v>126.1583774610724</v>
@@ -3997,43 +3949,43 @@
         <v>130.3837564494641</v>
       </c>
       <c r="CB3">
-        <v>138.04231395376229</v>
+        <v>138.0423139537623</v>
       </c>
       <c r="CC3">
-        <v>150.89792758290491</v>
+        <v>150.8979275829049</v>
       </c>
       <c r="CD3">
-        <v>168.65130288285479</v>
+        <v>168.6513028828548</v>
       </c>
       <c r="CE3">
         <v>190.0740554418332</v>
       </c>
       <c r="CF3">
-        <v>214.05737455822671</v>
+        <v>214.0573745582267</v>
       </c>
       <c r="CG3">
-        <v>240.15653817424609</v>
+        <v>240.1565381742461</v>
       </c>
       <c r="CH3">
-        <v>268.76159565066098</v>
+        <v>268.761595650661</v>
       </c>
       <c r="CI3">
-        <v>298.34042797855329</v>
+        <v>298.3404279785533</v>
       </c>
       <c r="CJ3">
-        <v>325.81608131197441</v>
+        <v>325.8160813119744</v>
       </c>
       <c r="CK3">
-        <v>348.90558096573409</v>
+        <v>348.9055809657341</v>
       </c>
       <c r="CL3">
-        <v>367.69357405121161</v>
+        <v>367.6935740512116</v>
       </c>
       <c r="CM3">
-        <v>383.84378345813712</v>
+        <v>383.8437834581371</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4041,112 +3993,112 @@
         <v>0.1160686883156114</v>
       </c>
       <c r="C4">
-        <v>0.21156892102306021</v>
+        <v>0.2115689210230602</v>
       </c>
       <c r="D4">
-        <v>0.37327506048321879</v>
+        <v>0.3732750604832188</v>
       </c>
       <c r="E4">
-        <v>0.64341267996991525</v>
+        <v>0.6434126799699152</v>
       </c>
       <c r="F4">
         <v>1.088179570547241</v>
       </c>
       <c r="G4">
-        <v>1.8081192111517681</v>
+        <v>1.808119211151768</v>
       </c>
       <c r="H4">
-        <v>2.9580646250192042</v>
+        <v>2.958064625019204</v>
       </c>
       <c r="I4">
-        <v>4.7981144168650864</v>
+        <v>4.798114416865086</v>
       </c>
       <c r="J4">
-        <v>7.8361493324419884</v>
+        <v>7.836149332441988</v>
       </c>
       <c r="K4">
-        <v>13.213782207280611</v>
+        <v>13.21378220728061</v>
       </c>
       <c r="L4">
-        <v>23.628399572528242</v>
+        <v>23.62839957252824</v>
       </c>
       <c r="M4">
-        <v>44.839615923613032</v>
+        <v>44.83961592361303</v>
       </c>
       <c r="N4">
-        <v>84.642177898821799</v>
+        <v>84.6421778988218</v>
       </c>
       <c r="O4">
-        <v>142.18562639971739</v>
+        <v>142.1856263997174</v>
       </c>
       <c r="P4">
-        <v>185.77501367867319</v>
+        <v>185.7750136786732</v>
       </c>
       <c r="Q4">
-        <v>217.56492187783761</v>
+        <v>217.5649218778376</v>
       </c>
       <c r="R4">
-        <v>262.55391832720738</v>
+        <v>262.5539183272074</v>
       </c>
       <c r="S4">
-        <v>327.17926280356738</v>
+        <v>327.1792628035674</v>
       </c>
       <c r="T4">
-        <v>409.88674879021579</v>
+        <v>409.8867487902158</v>
       </c>
       <c r="U4">
-        <v>508.64410282624448</v>
+        <v>508.6441028262445</v>
       </c>
       <c r="V4">
         <v>633.6875393656602</v>
       </c>
       <c r="W4">
-        <v>784.79992596401985</v>
+        <v>784.7999259640198</v>
       </c>
       <c r="X4">
-        <v>945.03009287650093</v>
+        <v>945.0300928765009</v>
       </c>
       <c r="Y4">
-        <v>1139.6562887782529</v>
+        <v>1139.656288778253</v>
       </c>
       <c r="Z4">
-        <v>1382.0840804195079</v>
+        <v>1382.084080419508</v>
       </c>
       <c r="AA4">
         <v>1672.89449092114</v>
       </c>
       <c r="AB4">
-        <v>2083.5224402335029</v>
+        <v>2083.522440233503</v>
       </c>
       <c r="AC4">
-        <v>2597.4891889583469</v>
+        <v>2597.489188958347</v>
       </c>
       <c r="AD4">
-        <v>3162.6729782547482</v>
+        <v>3162.672978254748</v>
       </c>
       <c r="AE4">
-        <v>3893.4244639550511</v>
+        <v>3893.424463955051</v>
       </c>
       <c r="AF4">
-        <v>4874.4191523997706</v>
+        <v>4874.419152399771</v>
       </c>
       <c r="AG4">
-        <v>6170.8002212097799</v>
+        <v>6170.80022120978</v>
       </c>
       <c r="AH4">
-        <v>7822.2634014329014</v>
+        <v>7822.263401432901</v>
       </c>
       <c r="AI4">
-        <v>9852.8353579593222</v>
+        <v>9852.835357959322</v>
       </c>
       <c r="AJ4">
-        <v>12452.205953973251</v>
+        <v>12452.20595397325</v>
       </c>
       <c r="AK4">
         <v>15696.19460417096</v>
       </c>
       <c r="AL4">
-        <v>19328.666885784329</v>
+        <v>19328.66688578433</v>
       </c>
       <c r="AM4">
         <v>23549.37972515247</v>
@@ -4155,58 +4107,58 @@
         <v>28285.11858199233</v>
       </c>
       <c r="AO4">
-        <v>32215.268043708202</v>
+        <v>32215.2680437082</v>
       </c>
       <c r="AP4">
         <v>35189.97675162505</v>
       </c>
       <c r="AQ4">
-        <v>37736.295716123248</v>
+        <v>37736.29571612325</v>
       </c>
       <c r="AR4">
-        <v>39729.815523473058</v>
+        <v>39729.81552347306</v>
       </c>
       <c r="AS4">
-        <v>41065.969124412251</v>
+        <v>41065.96912441225</v>
       </c>
       <c r="AT4">
-        <v>41787.297043264873</v>
+        <v>41787.29704326487</v>
       </c>
       <c r="AU4">
-        <v>41734.567039890462</v>
+        <v>41734.56703989046</v>
       </c>
       <c r="AV4">
-        <v>40545.185184514063</v>
+        <v>40545.18518451406</v>
       </c>
       <c r="AW4">
-        <v>37879.107541485573</v>
+        <v>37879.10754148557</v>
       </c>
       <c r="AX4">
-        <v>34142.899070621053</v>
+        <v>34142.89907062105</v>
       </c>
       <c r="AY4">
-        <v>31158.289885368249</v>
+        <v>31158.28988536825</v>
       </c>
       <c r="AZ4">
         <v>29046.64155222927</v>
       </c>
       <c r="BA4">
-        <v>26933.917487761511</v>
+        <v>26933.91748776151</v>
       </c>
       <c r="BB4">
-        <v>24829.462064008079</v>
+        <v>24829.46206400808</v>
       </c>
       <c r="BC4">
         <v>23000.67566252948</v>
       </c>
       <c r="BD4">
-        <v>22030.583307031251</v>
+        <v>22030.58330703125</v>
       </c>
       <c r="BE4">
-        <v>22076.692479117031</v>
+        <v>22076.69247911703</v>
       </c>
       <c r="BF4">
-        <v>23043.061661530061</v>
+        <v>23043.06166153006</v>
       </c>
       <c r="BG4">
         <v>25048.94797705274</v>
@@ -4224,180 +4176,180 @@
         <v>40114.0007907162</v>
       </c>
       <c r="BL4">
-        <v>44352.284938118959</v>
+        <v>44352.28493811896</v>
       </c>
       <c r="BM4">
-        <v>48230.239737897733</v>
+        <v>48230.23973789773</v>
       </c>
       <c r="BN4">
-        <v>51443.518693483238</v>
+        <v>51443.51869348324</v>
       </c>
       <c r="BO4">
-        <v>54043.504726245133</v>
+        <v>54043.50472624513</v>
       </c>
       <c r="BP4">
-        <v>56222.806532678071</v>
+        <v>56222.80653267807</v>
       </c>
       <c r="BQ4">
-        <v>57906.191276292047</v>
+        <v>57906.19127629205</v>
       </c>
       <c r="BR4">
-        <v>58871.314750282327</v>
+        <v>58871.31475028233</v>
       </c>
       <c r="BS4">
-        <v>58818.824138792879</v>
+        <v>58818.82413879288</v>
       </c>
       <c r="BT4">
-        <v>57798.978396207611</v>
+        <v>57798.97839620761</v>
       </c>
       <c r="BU4">
-        <v>56338.094053225192</v>
+        <v>56338.09405322519</v>
       </c>
       <c r="BV4">
-        <v>55027.073387761011</v>
+        <v>55027.07338776101</v>
       </c>
       <c r="BW4">
-        <v>53977.238428958379</v>
+        <v>53977.23842895838</v>
       </c>
       <c r="BX4">
-        <v>53000.252458399453</v>
+        <v>53000.25245839945</v>
       </c>
       <c r="BY4">
-        <v>52010.827965888973</v>
+        <v>52010.82796588897</v>
       </c>
       <c r="BZ4">
-        <v>51136.444667399119</v>
+        <v>51136.44466739912</v>
       </c>
       <c r="CA4">
-        <v>50606.506945965783</v>
+        <v>50606.50694596578</v>
       </c>
       <c r="CB4">
-        <v>50600.915978184727</v>
+        <v>50600.91597818473</v>
       </c>
       <c r="CC4">
-        <v>51288.960128386003</v>
+        <v>51288.960128386</v>
       </c>
       <c r="CD4">
-        <v>52725.480420016152</v>
+        <v>52725.48042001615</v>
       </c>
       <c r="CE4">
-        <v>54794.011190044708</v>
+        <v>54794.01119004471</v>
       </c>
       <c r="CF4">
-        <v>57297.274626395047</v>
+        <v>57297.27462639505</v>
       </c>
       <c r="CG4">
-        <v>60062.423747147986</v>
+        <v>60062.42374714799</v>
       </c>
       <c r="CH4">
-        <v>62948.619236528662</v>
+        <v>62948.61923652866</v>
       </c>
       <c r="CI4">
         <v>65741.14898598539</v>
       </c>
       <c r="CJ4">
-        <v>68234.977459453177</v>
+        <v>68234.97745945318</v>
       </c>
       <c r="CK4">
-        <v>70337.616755262366</v>
+        <v>70337.61675526237</v>
       </c>
       <c r="CL4">
-        <v>72075.064365100567</v>
+        <v>72075.06436510057</v>
       </c>
       <c r="CM4">
-        <v>73501.673501557903</v>
+        <v>73501.6735015579</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.4481658948904773E-3</v>
+        <v>0.004448165894890477</v>
       </c>
       <c r="C5">
-        <v>8.0620039455811705E-3</v>
+        <v>0.008062003945581171</v>
       </c>
       <c r="D5">
-        <v>1.4136366753319011E-2</v>
+        <v>0.01413636675331901</v>
       </c>
       <c r="E5">
-        <v>2.4208881462222911E-2</v>
+        <v>0.02420888146222291</v>
       </c>
       <c r="F5">
-        <v>4.0662726907028719E-2</v>
+        <v>0.04066272690702872</v>
       </c>
       <c r="G5">
-        <v>6.7000365739120687E-2</v>
+        <v>0.06700036573912069</v>
       </c>
       <c r="H5">
         <v>0.1081277075555921</v>
       </c>
       <c r="I5">
-        <v>0.17065133215552961</v>
+        <v>0.1706513321555296</v>
       </c>
       <c r="J5">
-        <v>0.26319630127998628</v>
+        <v>0.2631963012799863</v>
       </c>
       <c r="K5">
-        <v>0.39671289237344021</v>
+        <v>0.3967128923734402</v>
       </c>
       <c r="L5">
-        <v>0.58469436712360578</v>
+        <v>0.5846943671236058</v>
       </c>
       <c r="M5">
-        <v>0.84324383711857109</v>
+        <v>0.8432438371185711</v>
       </c>
       <c r="N5">
-        <v>1.1909515938608879</v>
+        <v>1.190951593860888</v>
       </c>
       <c r="O5">
-        <v>5.3906557893543274</v>
+        <v>5.390655789354327</v>
       </c>
       <c r="P5">
         <v>12.35829613542327</v>
       </c>
       <c r="Q5">
-        <v>23.021264366998139</v>
+        <v>23.02126436699814</v>
       </c>
       <c r="R5">
-        <v>38.392249753404563</v>
+        <v>38.39224975340456</v>
       </c>
       <c r="S5">
-        <v>59.542065026424297</v>
+        <v>59.5420650264243</v>
       </c>
       <c r="T5">
-        <v>87.611778481569118</v>
+        <v>87.61177848156912</v>
       </c>
       <c r="U5">
         <v>123.880947099644</v>
       </c>
       <c r="V5">
-        <v>170.91640537343841</v>
+        <v>170.9164053734384</v>
       </c>
       <c r="W5">
-        <v>233.12148388218961</v>
+        <v>233.1214838821896</v>
       </c>
       <c r="X5">
-        <v>316.04002813131677</v>
+        <v>316.0400281313168</v>
       </c>
       <c r="Y5">
-        <v>427.52040000117222</v>
+        <v>427.5204000011722</v>
       </c>
       <c r="Z5">
-        <v>578.43517055540394</v>
+        <v>578.4351705554039</v>
       </c>
       <c r="AA5">
-        <v>783.47933537183144</v>
+        <v>783.4793353718314</v>
       </c>
       <c r="AB5">
-        <v>1061.9850330596639</v>
+        <v>1061.985033059664</v>
       </c>
       <c r="AC5">
         <v>1438.622546739879</v>
       </c>
       <c r="AD5">
-        <v>1943.7556831729521</v>
+        <v>1943.755683172952</v>
       </c>
       <c r="AE5">
         <v>2613.228720080941</v>
@@ -4406,172 +4358,172 @@
         <v>3487.375842560999</v>
       </c>
       <c r="AG5">
-        <v>4609.0389958436372</v>
+        <v>4609.038995843637</v>
       </c>
       <c r="AH5">
         <v>6020.41659425323</v>
       </c>
       <c r="AI5">
-        <v>7758.6416795588257</v>
+        <v>7758.641679558826</v>
       </c>
       <c r="AJ5">
-        <v>9850.1646046272581</v>
+        <v>9850.164604627258</v>
       </c>
       <c r="AK5">
-        <v>12304.260504074769</v>
+        <v>12304.26050407477</v>
       </c>
       <c r="AL5">
         <v>15106.29330633614</v>
       </c>
       <c r="AM5">
-        <v>18211.743091725239</v>
+        <v>18211.74309172524</v>
       </c>
       <c r="AN5">
-        <v>21542.344161699839</v>
+        <v>21542.34416169984</v>
       </c>
       <c r="AO5">
         <v>24985.8036196584</v>
       </c>
       <c r="AP5">
-        <v>28379.741244647699</v>
+        <v>28379.7412446477</v>
       </c>
       <c r="AQ5">
-        <v>31531.578415770851</v>
+        <v>31531.57841577085</v>
       </c>
       <c r="AR5">
-        <v>34261.442787140011</v>
+        <v>34261.44278714001</v>
       </c>
       <c r="AS5">
-        <v>36407.529203702506</v>
+        <v>36407.52920370251</v>
       </c>
       <c r="AT5">
-        <v>37846.160968743927</v>
+        <v>37846.16096874393</v>
       </c>
       <c r="AU5">
-        <v>38507.817376020423</v>
+        <v>38507.81737602042</v>
       </c>
       <c r="AV5">
-        <v>38386.376896803209</v>
+        <v>38386.37689680321</v>
       </c>
       <c r="AW5">
-        <v>37540.599786790917</v>
+        <v>37540.59978679092</v>
       </c>
       <c r="AX5">
-        <v>36088.833466961718</v>
+        <v>36088.83346696172</v>
       </c>
       <c r="AY5">
-        <v>34199.146464386649</v>
+        <v>34199.14646438665</v>
       </c>
       <c r="AZ5">
         <v>32076.98180312409</v>
       </c>
       <c r="BA5">
-        <v>29951.174340814559</v>
+        <v>29951.17434081456</v>
       </c>
       <c r="BB5">
-        <v>28057.880189215572</v>
+        <v>28057.88018921557</v>
       </c>
       <c r="BC5">
-        <v>26621.915717953139</v>
+        <v>26621.91571795314</v>
       </c>
       <c r="BD5">
-        <v>25836.616501817662</v>
+        <v>25836.61650181766</v>
       </c>
       <c r="BE5">
         <v>25845.54788707507</v>
       </c>
       <c r="BF5">
-        <v>26730.377974635368</v>
+        <v>26730.37797463537</v>
       </c>
       <c r="BG5">
         <v>28507.79375613189</v>
       </c>
       <c r="BH5">
-        <v>31135.072716710591</v>
+        <v>31135.07271671059</v>
       </c>
       <c r="BI5">
-        <v>34520.836209196699</v>
+        <v>34520.8362091967</v>
       </c>
       <c r="BJ5">
-        <v>38536.589928922898</v>
+        <v>38536.5899289229</v>
       </c>
       <c r="BK5">
-        <v>43026.339823405098</v>
+        <v>43026.3398234051</v>
       </c>
       <c r="BL5">
-        <v>47814.398073681157</v>
+        <v>47814.39807368116</v>
       </c>
       <c r="BM5">
-        <v>52713.284507424898</v>
+        <v>52713.2845074249</v>
       </c>
       <c r="BN5">
-        <v>57533.287487686903</v>
+        <v>57533.2874876869</v>
       </c>
       <c r="BO5">
-        <v>62093.551035821809</v>
+        <v>62093.55103582181</v>
       </c>
       <c r="BP5">
-        <v>66233.210176423047</v>
+        <v>66233.21017642305</v>
       </c>
       <c r="BQ5">
-        <v>69821.085494257073</v>
+        <v>69821.08549425707</v>
       </c>
       <c r="BR5">
-        <v>72763.328996573662</v>
+        <v>72763.32899657366</v>
       </c>
       <c r="BS5">
-        <v>75009.087423246412</v>
+        <v>75009.08742324641</v>
       </c>
       <c r="BT5">
-        <v>76554.141017885719</v>
+        <v>76554.14101788572</v>
       </c>
       <c r="BU5">
-        <v>77441.930833104023</v>
+        <v>77441.93083310402</v>
       </c>
       <c r="BV5">
-        <v>77761.144115336807</v>
+        <v>77761.14411533681</v>
       </c>
       <c r="BW5">
-        <v>77639.474754089882</v>
+        <v>77639.47475408988</v>
       </c>
       <c r="BX5">
-        <v>77234.061273419022</v>
+        <v>77234.06127341902</v>
       </c>
       <c r="BY5">
-        <v>76719.813545623037</v>
+        <v>76719.81354562304</v>
       </c>
       <c r="BZ5">
-        <v>76276.953196180184</v>
+        <v>76276.95319618018</v>
       </c>
       <c r="CA5">
-        <v>76078.726640033419</v>
+        <v>76078.72664003342</v>
       </c>
       <c r="CB5">
-        <v>76279.880873537506</v>
+        <v>76279.88087353751</v>
       </c>
       <c r="CC5">
-        <v>77006.467059576971</v>
+        <v>77006.46705957697</v>
       </c>
       <c r="CD5">
-        <v>78347.747115384613</v>
+        <v>78347.74711538461</v>
       </c>
       <c r="CE5">
-        <v>80351.043133540428</v>
+        <v>80351.04313354043</v>
       </c>
       <c r="CF5">
-        <v>83020.056719131695</v>
+        <v>83020.05671913169</v>
       </c>
       <c r="CG5">
-        <v>86316.619565736706</v>
+        <v>86316.61956573671</v>
       </c>
       <c r="CH5">
-        <v>90165.341570393459</v>
+        <v>90165.34157039346</v>
       </c>
       <c r="CI5">
-        <v>94460.404416480902</v>
+        <v>94460.4044164809</v>
       </c>
       <c r="CJ5">
-        <v>99073.784872881923</v>
+        <v>99073.78487288192</v>
       </c>
       <c r="CK5">
         <v>103864.3190002506</v>
@@ -4589,14 +4541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -4868,84 +4820,84 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46.873131842539962</v>
+        <v>46.87313184253996</v>
       </c>
       <c r="C2">
-        <v>66.331986781487586</v>
+        <v>66.33198678148759</v>
       </c>
       <c r="D2">
-        <v>64.108938458423296</v>
+        <v>64.1089384584233</v>
       </c>
       <c r="E2">
         <v>60.87287774328054</v>
       </c>
       <c r="F2">
-        <v>97.984779533022945</v>
+        <v>97.98477953302294</v>
       </c>
       <c r="G2">
-        <v>70.695164942059364</v>
+        <v>70.69516494205936</v>
       </c>
       <c r="H2">
-        <v>125.77418892763551</v>
+        <v>125.7741889276355</v>
       </c>
       <c r="I2">
-        <v>119.54227887528729</v>
+        <v>119.5422788752873</v>
       </c>
       <c r="J2">
         <v>112.1300093206742</v>
       </c>
       <c r="K2">
-        <v>101.20329100503081</v>
+        <v>101.2032910050308</v>
       </c>
       <c r="L2">
         <v>209.8174006905885</v>
       </c>
       <c r="M2">
-        <v>142.80019597955439</v>
+        <v>142.8001959795544</v>
       </c>
       <c r="N2">
-        <v>279.40140874500872</v>
+        <v>279.4014087450087</v>
       </c>
       <c r="O2">
-        <v>301.55960956298912</v>
+        <v>301.5596095629891</v>
       </c>
       <c r="P2">
-        <v>323.96937772597232</v>
+        <v>323.9693777259723</v>
       </c>
       <c r="Q2">
-        <v>709.27389658911795</v>
+        <v>709.273896589118</v>
       </c>
       <c r="R2">
-        <v>759.43814723040975</v>
+        <v>759.4381472304098</v>
       </c>
       <c r="S2">
-        <v>810.11658419096705</v>
+        <v>810.116584190967</v>
       </c>
       <c r="T2">
-        <v>861.65608163398122</v>
+        <v>861.6560816339812</v>
       </c>
       <c r="U2">
-        <v>913.86974268005758</v>
+        <v>913.8697426800576</v>
       </c>
       <c r="V2">
         <v>917.879872821101</v>
       </c>
       <c r="W2">
-        <v>967.74090092368772</v>
+        <v>967.7409009236877</v>
       </c>
       <c r="X2">
         <v>1017.945510215898</v>
       </c>
       <c r="Y2">
-        <v>1069.0619446435051</v>
+        <v>1069.061944643505</v>
       </c>
       <c r="Z2">
-        <v>1121.4426902373291</v>
+        <v>1121.442690237329</v>
       </c>
       <c r="AA2">
         <v>520.6016895394315</v>
@@ -4954,61 +4906,61 @@
         <v>534.2213800479467</v>
       </c>
       <c r="AC2">
-        <v>551.42780919202096</v>
+        <v>551.427809192021</v>
       </c>
       <c r="AD2">
-        <v>568.14301967826759</v>
+        <v>568.1430196782676</v>
       </c>
       <c r="AE2">
-        <v>587.54136449911573</v>
+        <v>587.5413644991157</v>
       </c>
       <c r="AF2">
-        <v>371.15951963626759</v>
+        <v>371.1595196362676</v>
       </c>
       <c r="AG2">
-        <v>373.79020773638553</v>
+        <v>373.7902077363855</v>
       </c>
       <c r="AH2">
-        <v>389.43149585942371</v>
+        <v>389.4314958594237</v>
       </c>
       <c r="AI2">
-        <v>417.77292641003038</v>
+        <v>417.7729264100304</v>
       </c>
       <c r="AJ2">
-        <v>445.34541895617872</v>
+        <v>445.3454189561787</v>
       </c>
       <c r="AK2">
-        <v>590.89941212558176</v>
+        <v>590.8994121255818</v>
       </c>
       <c r="AL2">
-        <v>658.19162538356863</v>
+        <v>658.1916253835686</v>
       </c>
       <c r="AM2">
-        <v>750.82482967532519</v>
+        <v>750.8248296753252</v>
       </c>
       <c r="AN2">
-        <v>869.46425648754689</v>
+        <v>869.4642564875469</v>
       </c>
       <c r="AO2">
-        <v>953.41360453776963</v>
+        <v>953.4136045377696</v>
       </c>
       <c r="AP2">
-        <v>1187.0889501313311</v>
+        <v>1187.088950131331</v>
       </c>
       <c r="AQ2">
         <v>1232.715736157709</v>
       </c>
       <c r="AR2">
-        <v>1270.0664963908109</v>
+        <v>1270.066496390811</v>
       </c>
       <c r="AS2">
         <v>1299.483298503274</v>
       </c>
       <c r="AT2">
-        <v>1328.4694291553089</v>
+        <v>1328.469429155309</v>
       </c>
       <c r="AU2">
-        <v>1389.9596832535531</v>
+        <v>1389.959683253553</v>
       </c>
       <c r="AV2">
         <v>1373.5831168273</v>
@@ -5017,40 +4969,40 @@
         <v>1290.102312020819</v>
       </c>
       <c r="AX2">
-        <v>1158.5311170570369</v>
+        <v>1158.531117057037</v>
       </c>
       <c r="AY2">
-        <v>1092.6106860524869</v>
+        <v>1092.610686052487</v>
       </c>
       <c r="AZ2">
-        <v>1039.3690155005461</v>
+        <v>1039.369015500546</v>
       </c>
       <c r="BA2">
-        <v>1030.2597634212891</v>
+        <v>1030.259763421289</v>
       </c>
       <c r="BB2">
-        <v>999.67050921028488</v>
+        <v>999.6705092102849</v>
       </c>
       <c r="BC2">
-        <v>955.47437175111349</v>
+        <v>955.4743717511135</v>
       </c>
       <c r="BD2">
-        <v>940.10531824455074</v>
+        <v>940.1053182445507</v>
       </c>
       <c r="BE2">
-        <v>921.27171060584033</v>
+        <v>921.2717106058403</v>
       </c>
       <c r="BF2">
-        <v>954.53443278257816</v>
+        <v>954.5344327825782</v>
       </c>
       <c r="BG2">
         <v>1005.698161517797</v>
       </c>
       <c r="BH2">
-        <v>1075.1924592049129</v>
+        <v>1075.192459204913</v>
       </c>
       <c r="BI2">
-        <v>1149.5312396473309</v>
+        <v>1149.531239647331</v>
       </c>
       <c r="BJ2">
         <v>1206.558321193264</v>
@@ -5059,10 +5011,10 @@
         <v>1290.297899118809</v>
       </c>
       <c r="BL2">
-        <v>1373.7957161956581</v>
+        <v>1373.795716195658</v>
       </c>
       <c r="BM2">
-        <v>1448.8388342890471</v>
+        <v>1448.838834289047</v>
       </c>
       <c r="BN2">
         <v>1494.771240646797</v>
@@ -5083,7 +5035,7 @@
         <v>1489.167934646928</v>
       </c>
       <c r="BT2">
-        <v>1414.8107220371021</v>
+        <v>1414.810722037102</v>
       </c>
       <c r="BU2">
         <v>1348.541375142473</v>
@@ -5092,7 +5044,7 @@
         <v>1299.369674267112</v>
       </c>
       <c r="BW2">
-        <v>1268.0622133918801</v>
+        <v>1268.06221339188</v>
       </c>
       <c r="BX2">
         <v>1243.81762447808</v>
@@ -5104,7 +5056,7 @@
         <v>1183.638839198062</v>
       </c>
       <c r="CA2">
-        <v>1169.7883072744189</v>
+        <v>1169.788307274419</v>
       </c>
       <c r="CB2">
         <v>1168.786030695082</v>
@@ -5113,22 +5065,22 @@
         <v>1180.913142381818</v>
       </c>
       <c r="CD2">
-        <v>1187.9810017627281</v>
+        <v>1187.981001762728</v>
       </c>
       <c r="CE2">
         <v>1214.068611158878</v>
       </c>
       <c r="CF2">
-        <v>1240.6761730482649</v>
+        <v>1240.676173048265</v>
       </c>
       <c r="CG2">
         <v>1266.015939961618</v>
       </c>
       <c r="CH2">
-        <v>1290.1893799892821</v>
+        <v>1290.189379989282</v>
       </c>
       <c r="CI2">
-        <v>1286.9286509156241</v>
+        <v>1286.928650915624</v>
       </c>
       <c r="CJ2">
         <v>1296.567039609738</v>
@@ -5137,13 +5089,13 @@
         <v>1294.432035854524</v>
       </c>
       <c r="CL2">
-        <v>1282.5486005076989</v>
+        <v>1282.548600507699</v>
       </c>
       <c r="CM2">
         <v>1264.649311523907</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5154,103 +5106,103 @@
         <v>23.38798957595705</v>
       </c>
       <c r="D3">
-        <v>22.579391669388968</v>
+        <v>22.57939166938897</v>
       </c>
       <c r="E3">
         <v>21.42598026129285</v>
       </c>
       <c r="F3">
-        <v>34.623369471530772</v>
+        <v>34.62336947153077</v>
       </c>
       <c r="G3">
-        <v>24.894274402423669</v>
+        <v>24.89427440242367</v>
       </c>
       <c r="H3">
-        <v>44.501927053278401</v>
+        <v>44.5019270532784</v>
       </c>
       <c r="I3">
-        <v>42.259438490602939</v>
+        <v>42.25943849060294</v>
       </c>
       <c r="J3">
-        <v>39.610190456359767</v>
+        <v>39.61019045635977</v>
       </c>
       <c r="K3">
-        <v>35.704476774041552</v>
+        <v>35.70447677404155</v>
       </c>
       <c r="L3">
-        <v>74.404180750148626</v>
+        <v>74.40418075014863</v>
       </c>
       <c r="M3">
-        <v>50.511250719232727</v>
+        <v>50.51125071923273</v>
       </c>
       <c r="N3">
-        <v>99.172478982863581</v>
+        <v>99.17247898286358</v>
       </c>
       <c r="O3">
         <v>107.057506615888</v>
       </c>
       <c r="P3">
-        <v>115.03307977991039</v>
+        <v>115.0330797799104</v>
       </c>
       <c r="Q3">
-        <v>252.29882595047081</v>
+        <v>252.2988259504708</v>
       </c>
       <c r="R3">
-        <v>270.16437585921568</v>
+        <v>270.1643758592157</v>
       </c>
       <c r="S3">
-        <v>288.21334378430072</v>
+        <v>288.2133437843007</v>
       </c>
       <c r="T3">
-        <v>306.56978600199028</v>
+        <v>306.5697860019903</v>
       </c>
       <c r="U3">
-        <v>325.17106459442931</v>
+        <v>325.1710645944293</v>
       </c>
       <c r="V3">
         <v>326.6013872451868</v>
       </c>
       <c r="W3">
-        <v>344.38314597858431</v>
+        <v>344.3831459785843</v>
       </c>
       <c r="X3">
-        <v>362.29697094292521</v>
+        <v>362.2969709429252</v>
       </c>
       <c r="Y3">
-        <v>380.54752341731921</v>
+        <v>380.5475234173192</v>
       </c>
       <c r="Z3">
         <v>399.2633857537071</v>
       </c>
       <c r="AA3">
-        <v>185.22113475655101</v>
+        <v>185.221134756551</v>
       </c>
       <c r="AB3">
-        <v>190.13248671307221</v>
+        <v>190.1324867130722</v>
       </c>
       <c r="AC3">
-        <v>196.35544155455739</v>
+        <v>196.3554415545574</v>
       </c>
       <c r="AD3">
-        <v>202.40483631141211</v>
+        <v>202.4048363114121</v>
       </c>
       <c r="AE3">
         <v>209.4397052521191</v>
       </c>
       <c r="AF3">
-        <v>132.42574345320409</v>
+        <v>132.4257434532041</v>
       </c>
       <c r="AG3">
-        <v>133.44206162527291</v>
+        <v>133.4420616252729</v>
       </c>
       <c r="AH3">
-        <v>139.24351327206949</v>
+        <v>139.2435132720695</v>
       </c>
       <c r="AI3">
-        <v>149.73469117572569</v>
+        <v>149.7346911757257</v>
       </c>
       <c r="AJ3">
-        <v>159.97592979927751</v>
+        <v>159.9759297992775</v>
       </c>
       <c r="AK3">
         <v>212.5209402066065</v>
@@ -5259,124 +5211,124 @@
         <v>237.5342688437982</v>
       </c>
       <c r="AM3">
-        <v>272.10610579899111</v>
+        <v>272.1061057989911</v>
       </c>
       <c r="AN3">
-        <v>316.60414559579652</v>
+        <v>316.6041455957965</v>
       </c>
       <c r="AO3">
-        <v>348.47201336986808</v>
+        <v>348.4720133698681</v>
       </c>
       <c r="AP3">
-        <v>433.20472635804538</v>
+        <v>433.2047263580454</v>
       </c>
       <c r="AQ3">
-        <v>450.85259034687152</v>
+        <v>450.8525903468715</v>
       </c>
       <c r="AR3">
-        <v>465.43880572595339</v>
+        <v>465.4388057259534</v>
       </c>
       <c r="AS3">
-        <v>477.06959291853951</v>
+        <v>477.0695929185395</v>
       </c>
       <c r="AT3">
-        <v>488.57688905635553</v>
+        <v>488.5768890563555</v>
       </c>
       <c r="AU3">
-        <v>511.46431886792902</v>
+        <v>511.464318867929</v>
       </c>
       <c r="AV3">
         <v>505.6690597995464</v>
       </c>
       <c r="AW3">
-        <v>474.12509716207649</v>
+        <v>474.1250971620765</v>
       </c>
       <c r="AX3">
-        <v>423.96698912538812</v>
+        <v>423.9669891253881</v>
       </c>
       <c r="AY3">
-        <v>398.83785446052298</v>
+        <v>398.837854460523</v>
       </c>
       <c r="AZ3">
-        <v>379.96894234980982</v>
+        <v>379.9689423498098</v>
       </c>
       <c r="BA3">
-        <v>376.61827146800738</v>
+        <v>376.6182714680074</v>
       </c>
       <c r="BB3">
-        <v>364.91222310419528</v>
+        <v>364.9122231041953</v>
       </c>
       <c r="BC3">
-        <v>347.85428189030767</v>
+        <v>347.8542818903077</v>
       </c>
       <c r="BD3">
-        <v>341.86465498241881</v>
+        <v>341.8646549824188</v>
       </c>
       <c r="BE3">
-        <v>335.62932891268832</v>
+        <v>335.6293289126883</v>
       </c>
       <c r="BF3">
-        <v>348.41214233319442</v>
+        <v>348.4121423331944</v>
       </c>
       <c r="BG3">
-        <v>368.10423624456308</v>
+        <v>368.1042362445631</v>
       </c>
       <c r="BH3">
-        <v>394.88566071494529</v>
+        <v>394.8856607149453</v>
       </c>
       <c r="BI3">
-        <v>423.52140074397312</v>
+        <v>423.5214007439731</v>
       </c>
       <c r="BJ3">
-        <v>446.07208934764162</v>
+        <v>446.0720893476416</v>
       </c>
       <c r="BK3">
-        <v>478.32497554106362</v>
+        <v>478.3249755410636</v>
       </c>
       <c r="BL3">
-        <v>510.45359028368642</v>
+        <v>510.4535902836864</v>
       </c>
       <c r="BM3">
-        <v>539.25877024018041</v>
+        <v>539.2587702401804</v>
       </c>
       <c r="BN3">
-        <v>556.70061890770614</v>
+        <v>556.7006189077061</v>
       </c>
       <c r="BO3">
-        <v>561.10103453384829</v>
+        <v>561.1010345338483</v>
       </c>
       <c r="BP3">
         <v>566.5908550770605</v>
       </c>
       <c r="BQ3">
-        <v>569.50994458447781</v>
+        <v>569.5099445844778</v>
       </c>
       <c r="BR3">
-        <v>566.57273643325789</v>
+        <v>566.5727364332579</v>
       </c>
       <c r="BS3">
-        <v>552.48543875479993</v>
+        <v>552.4854387547999</v>
       </c>
       <c r="BT3">
-        <v>523.57294289047968</v>
+        <v>523.5729428904797</v>
       </c>
       <c r="BU3">
-        <v>497.44837066881149</v>
+        <v>497.4483706688115</v>
       </c>
       <c r="BV3">
-        <v>477.98270396179379</v>
+        <v>477.9827039617938</v>
       </c>
       <c r="BW3">
-        <v>465.44395301270413</v>
+        <v>465.4439530127041</v>
       </c>
       <c r="BX3">
-        <v>455.63949741291981</v>
+        <v>455.6394974129198</v>
       </c>
       <c r="BY3">
-        <v>441.40052851960439</v>
+        <v>441.4005285196044</v>
       </c>
       <c r="BZ3">
-        <v>431.87869302254541</v>
+        <v>431.8786930225454</v>
       </c>
       <c r="CA3">
         <v>426.0568051786093</v>
@@ -5385,78 +5337,78 @@
         <v>425.1098061138004</v>
       </c>
       <c r="CC3">
-        <v>429.09718266981821</v>
+        <v>429.0971826698182</v>
       </c>
       <c r="CD3">
-        <v>431.40346749487549</v>
+        <v>431.4034674948755</v>
       </c>
       <c r="CE3">
-        <v>440.45293259321772</v>
+        <v>440.4529325932177</v>
       </c>
       <c r="CF3">
         <v>449.545613932018</v>
       </c>
       <c r="CG3">
-        <v>457.99627623609172</v>
+        <v>457.9962762360917</v>
       </c>
       <c r="CH3">
-        <v>465.83176080397499</v>
+        <v>465.831760803975</v>
       </c>
       <c r="CI3">
-        <v>463.63230536638548</v>
+        <v>463.6323053663855</v>
       </c>
       <c r="CJ3">
-        <v>465.72810769043321</v>
+        <v>465.7281076904332</v>
       </c>
       <c r="CK3">
-        <v>463.36115410301483</v>
+        <v>463.3611541030148</v>
       </c>
       <c r="CL3">
-        <v>457.34282305123321</v>
+        <v>457.3428230512332</v>
       </c>
       <c r="CM3">
-        <v>449.08336215889233</v>
+        <v>449.0833621588923</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3257.6186592892068</v>
+        <v>3257.618659289207</v>
       </c>
       <c r="C4">
         <v>2998.273547924573</v>
       </c>
       <c r="D4">
-        <v>2460.3896537235601</v>
+        <v>2460.38965372356</v>
       </c>
       <c r="E4">
-        <v>2804.0659177598832</v>
+        <v>2804.065917759883</v>
       </c>
       <c r="F4">
-        <v>3540.4692865887928</v>
+        <v>3540.469286588793</v>
       </c>
       <c r="G4">
-        <v>3301.6533948810888</v>
+        <v>3301.653394881089</v>
       </c>
       <c r="H4">
         <v>3548.990593236414</v>
       </c>
       <c r="I4">
-        <v>3114.2206845735741</v>
+        <v>3114.220684573574</v>
       </c>
       <c r="J4">
         <v>3381.414927924362</v>
       </c>
       <c r="K4">
-        <v>3994.3504558411942</v>
+        <v>3994.350455841194</v>
       </c>
       <c r="L4">
-        <v>3784.6781402328011</v>
+        <v>3784.678140232801</v>
       </c>
       <c r="M4">
-        <v>4365.0618429536871</v>
+        <v>4365.061842953687</v>
       </c>
       <c r="N4">
         <v>23064.38085376552</v>
@@ -5468,37 +5420,37 @@
         <v>23277.48788936812</v>
       </c>
       <c r="Q4">
-        <v>73520.562123230149</v>
+        <v>73520.56212323015</v>
       </c>
       <c r="R4">
-        <v>73659.939307288325</v>
+        <v>73659.93930728832</v>
       </c>
       <c r="S4">
-        <v>73818.846148413286</v>
+        <v>73818.84614841329</v>
       </c>
       <c r="T4">
-        <v>73991.602510199707</v>
+        <v>73991.60251019971</v>
       </c>
       <c r="U4">
         <v>74173.4749878437</v>
       </c>
       <c r="V4">
-        <v>77445.409720098425</v>
+        <v>77445.40972009843</v>
       </c>
       <c r="W4">
-        <v>77648.570750916027</v>
+        <v>77648.57075091603</v>
       </c>
       <c r="X4">
         <v>77840.9964579917</v>
       </c>
       <c r="Y4">
-        <v>78045.127958465731</v>
+        <v>78045.12795846573</v>
       </c>
       <c r="Z4">
-        <v>78266.801585479203</v>
+        <v>78266.8015854792</v>
       </c>
       <c r="AA4">
-        <v>22351.933699231129</v>
+        <v>22351.93369923113</v>
       </c>
       <c r="AB4">
         <v>22582.66974616368</v>
@@ -5507,70 +5459,70 @@
         <v>22844.39148132391</v>
       </c>
       <c r="AD4">
-        <v>23080.176306974099</v>
+        <v>23080.1763069741</v>
       </c>
       <c r="AE4">
-        <v>23368.973085106361</v>
+        <v>23368.97308510636</v>
       </c>
       <c r="AF4">
-        <v>5741.0048252576007</v>
+        <v>5741.004825257601</v>
       </c>
       <c r="AG4">
-        <v>5891.6594642366481</v>
+        <v>5891.659464236648</v>
       </c>
       <c r="AH4">
-        <v>6227.0973043364475</v>
+        <v>6227.097304336447</v>
       </c>
       <c r="AI4">
-        <v>6795.0816993907119</v>
+        <v>6795.081699390712</v>
       </c>
       <c r="AJ4">
-        <v>7479.7442340138423</v>
+        <v>7479.744234013842</v>
       </c>
       <c r="AK4">
-        <v>17338.781531546359</v>
+        <v>17338.78153154636</v>
       </c>
       <c r="AL4">
-        <v>18655.896063839249</v>
+        <v>18655.89606383925</v>
       </c>
       <c r="AM4">
         <v>20177.33845544987</v>
       </c>
       <c r="AN4">
-        <v>21874.217530113408</v>
+        <v>21874.21753011341</v>
       </c>
       <c r="AO4">
-        <v>23012.114913073859</v>
+        <v>23012.11491307386</v>
       </c>
       <c r="AP4">
-        <v>35500.769420004734</v>
+        <v>35500.76942000473</v>
       </c>
       <c r="AQ4">
-        <v>35856.206697507609</v>
+        <v>35856.20669750761</v>
       </c>
       <c r="AR4">
-        <v>35975.266135694968</v>
+        <v>35975.26613569497</v>
       </c>
       <c r="AS4">
-        <v>35851.934290882993</v>
+        <v>35851.93429088299</v>
       </c>
       <c r="AT4">
-        <v>35548.406857466653</v>
+        <v>35548.40685746665</v>
       </c>
       <c r="AU4">
-        <v>38497.001232178533</v>
+        <v>38497.00123217853</v>
       </c>
       <c r="AV4">
-        <v>37589.363738761829</v>
+        <v>37589.36373876183</v>
       </c>
       <c r="AW4">
-        <v>36174.810865298197</v>
+        <v>36174.8108652982</v>
       </c>
       <c r="AX4">
-        <v>34459.004703384497</v>
+        <v>34459.0047033845</v>
       </c>
       <c r="AY4">
-        <v>33223.894902630527</v>
+        <v>33223.89490263053</v>
       </c>
       <c r="AZ4">
         <v>30235.13711615885</v>
@@ -5579,40 +5531,40 @@
         <v>29499.26708617682</v>
       </c>
       <c r="BB4">
-        <v>28826.142230571699</v>
+        <v>28826.1422305717</v>
       </c>
       <c r="BC4">
         <v>28371.78403590772</v>
       </c>
       <c r="BD4">
-        <v>28030.317913089239</v>
+        <v>28030.31791308924</v>
       </c>
       <c r="BE4">
         <v>26603.73167674155</v>
       </c>
       <c r="BF4">
-        <v>26509.547384765239</v>
+        <v>26509.54738476524</v>
       </c>
       <c r="BG4">
-        <v>26789.554893943561</v>
+        <v>26789.55489394356</v>
       </c>
       <c r="BH4">
         <v>27308.50327019277</v>
       </c>
       <c r="BI4">
-        <v>27898.464930976959</v>
+        <v>27898.46493097696</v>
       </c>
       <c r="BJ4">
-        <v>28309.344208756749</v>
+        <v>28309.34420875675</v>
       </c>
       <c r="BK4">
-        <v>28881.380773234101</v>
+        <v>28881.3807732341</v>
       </c>
       <c r="BL4">
-        <v>29315.496693021068</v>
+        <v>29315.49669302107</v>
       </c>
       <c r="BM4">
-        <v>29569.388443257809</v>
+        <v>29569.38844325781</v>
       </c>
       <c r="BN4">
         <v>29604.98396101061</v>
@@ -5624,25 +5576,25 @@
         <v>29291.6498388527</v>
       </c>
       <c r="BQ4">
-        <v>29016.234334313249</v>
+        <v>29016.23433431325</v>
       </c>
       <c r="BR4">
-        <v>28627.446280544889</v>
+        <v>28627.44628054489</v>
       </c>
       <c r="BS4">
         <v>28068.53092229327</v>
       </c>
       <c r="BT4">
-        <v>27063.373037935249</v>
+        <v>27063.37303793525</v>
       </c>
       <c r="BU4">
-        <v>26365.566026769051</v>
+        <v>26365.56602676905</v>
       </c>
       <c r="BV4">
-        <v>25941.388482604609</v>
+        <v>25941.38848260461</v>
       </c>
       <c r="BW4">
-        <v>25798.279717694721</v>
+        <v>25798.27971769472</v>
       </c>
       <c r="BX4">
         <v>25582.29250124441</v>
@@ -5654,96 +5606,96 @@
         <v>24563.66583094051</v>
       </c>
       <c r="CA4">
-        <v>24325.671085218572</v>
+        <v>24325.67108521857</v>
       </c>
       <c r="CB4">
-        <v>24081.277054597649</v>
+        <v>24081.27705459765</v>
       </c>
       <c r="CC4">
-        <v>23772.787524623291</v>
+        <v>23772.78752462329</v>
       </c>
       <c r="CD4">
-        <v>22756.290750024091</v>
+        <v>22756.29075002409</v>
       </c>
       <c r="CE4">
-        <v>22950.503561610891</v>
+        <v>22950.50356161089</v>
       </c>
       <c r="CF4">
         <v>23181.83682389187</v>
       </c>
       <c r="CG4">
-        <v>23413.104333995139</v>
+        <v>23413.10433399514</v>
       </c>
       <c r="CH4">
-        <v>23616.985595411141</v>
+        <v>23616.98559541114</v>
       </c>
       <c r="CI4">
-        <v>22215.690245836489</v>
+        <v>22215.69024583649</v>
       </c>
       <c r="CJ4">
-        <v>22278.973111749801</v>
+        <v>22278.9731117498</v>
       </c>
       <c r="CK4">
-        <v>22267.853736481618</v>
+        <v>22267.85373648162</v>
       </c>
       <c r="CL4">
-        <v>22207.820209067719</v>
+        <v>22207.82020906772</v>
       </c>
       <c r="CM4">
-        <v>22123.358305082049</v>
+        <v>22123.35830508205</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3598.0123647429591</v>
+        <v>3598.012364742959</v>
       </c>
       <c r="C5">
         <v>2632.622648419901</v>
       </c>
       <c r="D5">
-        <v>2455.2157972103109</v>
+        <v>2455.215797210311</v>
       </c>
       <c r="E5">
-        <v>2355.5186911523751</v>
+        <v>2355.518691152375</v>
       </c>
       <c r="F5">
-        <v>2721.2293176532989</v>
+        <v>2721.229317653299</v>
       </c>
       <c r="G5">
-        <v>3512.2460672028392</v>
+        <v>3512.246067202839</v>
       </c>
       <c r="H5">
-        <v>3848.4397634385941</v>
+        <v>3848.439763438594</v>
       </c>
       <c r="I5">
-        <v>3151.3794984883029</v>
+        <v>3151.379498488303</v>
       </c>
       <c r="J5">
-        <v>2983.1712766475471</v>
+        <v>2983.171276647547</v>
       </c>
       <c r="K5">
         <v>3316.558273530457</v>
       </c>
       <c r="L5">
-        <v>3360.9984396774998</v>
+        <v>3360.9984396775</v>
       </c>
       <c r="M5">
-        <v>4985.0801012266111</v>
+        <v>4985.080101226611</v>
       </c>
       <c r="N5">
-        <v>36472.598374941292</v>
+        <v>36472.59837494129</v>
       </c>
       <c r="O5">
-        <v>36524.354136372007</v>
+        <v>36524.35413637201</v>
       </c>
       <c r="P5">
-        <v>36588.209819063202</v>
+        <v>36588.2098190632</v>
       </c>
       <c r="Q5">
-        <v>121543.82166210579</v>
+        <v>121543.8216621058</v>
       </c>
       <c r="R5">
         <v>121636.4195485439</v>
@@ -5761,112 +5713,112 @@
         <v>128074.7548817185</v>
       </c>
       <c r="W5">
-        <v>128297.48551371611</v>
+        <v>128297.4855137161</v>
       </c>
       <c r="X5">
-        <v>128571.45239274971</v>
+        <v>128571.4523927497</v>
       </c>
       <c r="Y5">
         <v>128914.5159096257</v>
       </c>
       <c r="Z5">
-        <v>129350.84814771971</v>
+        <v>129350.8481477197</v>
       </c>
       <c r="AA5">
-        <v>36090.628018782467</v>
+        <v>36090.62801878247</v>
       </c>
       <c r="AB5">
-        <v>36816.604737044778</v>
+        <v>36816.60473704478</v>
       </c>
       <c r="AC5">
         <v>37755.45231351861</v>
       </c>
       <c r="AD5">
-        <v>38962.271989386973</v>
+        <v>38962.27198938697</v>
       </c>
       <c r="AE5">
-        <v>40496.110961599377</v>
+        <v>40496.11096159938</v>
       </c>
       <c r="AF5">
-        <v>11006.794843492509</v>
+        <v>11006.79484349251</v>
       </c>
       <c r="AG5">
-        <v>12942.182612584729</v>
+        <v>12942.18261258473</v>
       </c>
       <c r="AH5">
         <v>15259.803532283</v>
       </c>
       <c r="AI5">
-        <v>18517.227191263792</v>
+        <v>18517.22719126379</v>
       </c>
       <c r="AJ5">
         <v>22267.02483064733</v>
       </c>
       <c r="AK5">
-        <v>39091.203633398312</v>
+        <v>39091.20363339831</v>
       </c>
       <c r="AL5">
-        <v>43472.942717070357</v>
+        <v>43472.94271707036</v>
       </c>
       <c r="AM5">
-        <v>47936.161646120359</v>
+        <v>47936.16164612036</v>
       </c>
       <c r="AN5">
-        <v>52262.471188495612</v>
+        <v>52262.47118849561</v>
       </c>
       <c r="AO5">
         <v>56202.43274429733</v>
       </c>
       <c r="AP5">
-        <v>77615.943984018028</v>
+        <v>77615.94398401803</v>
       </c>
       <c r="AQ5">
-        <v>80118.895694677136</v>
+        <v>80118.89569467714</v>
       </c>
       <c r="AR5">
-        <v>81631.032739509057</v>
+        <v>81631.03273950906</v>
       </c>
       <c r="AS5">
-        <v>82049.057793257278</v>
+        <v>82049.05779325728</v>
       </c>
       <c r="AT5">
-        <v>81353.565210070825</v>
+        <v>81353.56521007082</v>
       </c>
       <c r="AU5">
-        <v>84804.471594675095</v>
+        <v>84804.47159467509</v>
       </c>
       <c r="AV5">
-        <v>82164.362571957492</v>
+        <v>82164.36257195749</v>
       </c>
       <c r="AW5">
-        <v>78832.781876205016</v>
+        <v>78832.78187620502</v>
       </c>
       <c r="AX5">
-        <v>75055.190449667352</v>
+        <v>75055.19044966735</v>
       </c>
       <c r="AY5">
-        <v>71091.268213497446</v>
+        <v>71091.26821349745</v>
       </c>
       <c r="AZ5">
-        <v>64097.227178120127</v>
+        <v>64097.22717812013</v>
       </c>
       <c r="BA5">
-        <v>60492.951626196467</v>
+        <v>60492.95162619647</v>
       </c>
       <c r="BB5">
-        <v>57369.909791232232</v>
+        <v>57369.90979123223</v>
       </c>
       <c r="BC5">
-        <v>54863.854725728721</v>
+        <v>54863.85472572872</v>
       </c>
       <c r="BD5">
-        <v>53049.625094455398</v>
+        <v>53049.6250944554</v>
       </c>
       <c r="BE5">
-        <v>50204.286610367933</v>
+        <v>50204.28661036793</v>
       </c>
       <c r="BF5">
-        <v>49746.240383112898</v>
+        <v>49746.2403831129</v>
       </c>
       <c r="BG5">
         <v>49844.73821577146</v>
@@ -5875,67 +5827,67 @@
         <v>50370.97121848807</v>
       </c>
       <c r="BI5">
-        <v>51181.093767505343</v>
+        <v>51181.09376750534</v>
       </c>
       <c r="BJ5">
-        <v>51834.436592947219</v>
+        <v>51834.43659294722</v>
       </c>
       <c r="BK5">
-        <v>52786.371915640339</v>
+        <v>52786.37191564034</v>
       </c>
       <c r="BL5">
-        <v>53620.315226202263</v>
+        <v>53620.31522620226</v>
       </c>
       <c r="BM5">
-        <v>54235.803365080508</v>
+        <v>54235.80336508051</v>
       </c>
       <c r="BN5">
-        <v>54556.636825823778</v>
+        <v>54556.63682582378</v>
       </c>
       <c r="BO5">
-        <v>54551.148727370448</v>
+        <v>54551.14872737045</v>
       </c>
       <c r="BP5">
-        <v>54162.797810285847</v>
+        <v>54162.79781028585</v>
       </c>
       <c r="BQ5">
-        <v>53413.842713722661</v>
+        <v>53413.84271372266</v>
       </c>
       <c r="BR5">
-        <v>52331.921414849887</v>
+        <v>52331.92141484989</v>
       </c>
       <c r="BS5">
-        <v>50962.876991813748</v>
+        <v>50962.87699181375</v>
       </c>
       <c r="BT5">
-        <v>48855.961834242618</v>
+        <v>48855.96183424262</v>
       </c>
       <c r="BU5">
-        <v>47095.709935402258</v>
+        <v>47095.70993540226</v>
       </c>
       <c r="BV5">
-        <v>45239.316762144023</v>
+        <v>45239.31676214402</v>
       </c>
       <c r="BW5">
-        <v>43348.731923798077</v>
+        <v>43348.73192379808</v>
       </c>
       <c r="BX5">
-        <v>41476.267066645232</v>
+        <v>41476.26706664523</v>
       </c>
       <c r="BY5">
-        <v>38809.197997396557</v>
+        <v>38809.19799739656</v>
       </c>
       <c r="BZ5">
-        <v>37075.090192647731</v>
+        <v>37075.09019264773</v>
       </c>
       <c r="CA5">
-        <v>35429.854093318398</v>
+        <v>35429.8540933184</v>
       </c>
       <c r="CB5">
-        <v>33866.299458867798</v>
+        <v>33866.2994588678</v>
       </c>
       <c r="CC5">
-        <v>32364.402923561011</v>
+        <v>32364.40292356101</v>
       </c>
       <c r="CD5">
         <v>29457.14682875502</v>
@@ -5944,19 +5896,19 @@
         <v>27984.25454402588</v>
       </c>
       <c r="CF5">
-        <v>26471.450588047421</v>
+        <v>26471.45058804742</v>
       </c>
       <c r="CG5">
-        <v>24884.527017333039</v>
+        <v>24884.52701733304</v>
       </c>
       <c r="CH5">
-        <v>23195.177997759121</v>
+        <v>23195.17799775912</v>
       </c>
       <c r="CI5">
-        <v>19134.761186709529</v>
+        <v>19134.76118670953</v>
       </c>
       <c r="CJ5">
-        <v>17191.055279658569</v>
+        <v>17191.05527965857</v>
       </c>
       <c r="CK5">
         <v>15115.86405881256</v>
@@ -5974,14 +5926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:91">
       <c r="B1" s="1">
         <v>2011</v>
       </c>
@@ -6253,54 +6205,54 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.3323354278281651E-11</v>
+        <v>3.332335427828165E-11</v>
       </c>
       <c r="C2">
-        <v>3.2845134534453322E-10</v>
+        <v>3.284513453445332E-10</v>
       </c>
       <c r="D2">
-        <v>2.644910172549428E-9</v>
+        <v>2.644910172549428E-09</v>
       </c>
       <c r="E2">
-        <v>1.7946521384684769E-8</v>
+        <v>1.794652138468477E-08</v>
       </c>
       <c r="F2">
-        <v>1.051714456543677E-7</v>
+        <v>1.051714456543677E-07</v>
       </c>
       <c r="G2">
-        <v>5.4303544398208331E-7</v>
+        <v>5.430354439820833E-07</v>
       </c>
       <c r="H2">
-        <v>2.5109691493009271E-6</v>
+        <v>2.510969149300927E-06</v>
       </c>
       <c r="I2">
-        <v>1.053729400572914E-5</v>
+        <v>1.053729400572914E-05</v>
       </c>
       <c r="J2">
-        <v>4.0566162729477982E-5</v>
+        <v>4.056616272947798E-05</v>
       </c>
       <c r="K2">
-        <v>1.444093715299346E-4</v>
+        <v>0.0001444093715299346</v>
       </c>
       <c r="L2">
-        <v>4.7705288010538337E-4</v>
+        <v>0.0004770528801053834</v>
       </c>
       <c r="M2">
-        <v>1.4545083440499779E-3</v>
+        <v>0.001454508344049978</v>
       </c>
       <c r="N2">
-        <v>3.9922400194988489E-3</v>
+        <v>0.003992240019498849</v>
       </c>
       <c r="O2">
-        <v>2.4876984849583669E-2</v>
+        <v>0.02487698484958367</v>
       </c>
       <c r="P2">
-        <v>8.8237618595868622E-2</v>
+        <v>0.08823761859586862</v>
       </c>
       <c r="Q2">
         <v>0.1580868901339017</v>
@@ -6309,16 +6261,16 @@
         <v>0.1889838195357223</v>
       </c>
       <c r="S2">
-        <v>0.24513269518348571</v>
+        <v>0.2451326951834857</v>
       </c>
       <c r="T2">
-        <v>0.37488423591540809</v>
+        <v>0.3748842359154081</v>
       </c>
       <c r="U2">
-        <v>0.57103795984945316</v>
+        <v>0.5710379598494532</v>
       </c>
       <c r="V2">
-        <v>0.89871392930181981</v>
+        <v>0.8987139293018198</v>
       </c>
       <c r="W2">
         <v>1.365200803200872</v>
@@ -6327,64 +6279,64 @@
         <v>1.886509118379152</v>
       </c>
       <c r="Y2">
-        <v>2.5232110522266882</v>
+        <v>2.523211052226688</v>
       </c>
       <c r="Z2">
-        <v>3.3153954075065122</v>
+        <v>3.315395407506512</v>
       </c>
       <c r="AA2">
-        <v>3.9540306827574461</v>
+        <v>3.954030682757446</v>
       </c>
       <c r="AB2">
-        <v>4.7149637626275567</v>
+        <v>4.714963762627557</v>
       </c>
       <c r="AC2">
-        <v>5.9000153056171953</v>
+        <v>5.900015305617195</v>
       </c>
       <c r="AD2">
-        <v>7.0016370909968959</v>
+        <v>7.001637090996896</v>
       </c>
       <c r="AE2">
         <v>8.40511053838887</v>
       </c>
       <c r="AF2">
-        <v>9.2917237467118206</v>
+        <v>9.291723746711821</v>
       </c>
       <c r="AG2">
-        <v>9.9995658205928137</v>
+        <v>9.999565820592814</v>
       </c>
       <c r="AH2">
         <v>12.35901563755824</v>
       </c>
       <c r="AI2">
-        <v>16.324893294247929</v>
+        <v>16.32489329424793</v>
       </c>
       <c r="AJ2">
-        <v>20.198268554202869</v>
+        <v>20.19826855420287</v>
       </c>
       <c r="AK2">
-        <v>26.368316928591369</v>
+        <v>26.36831692859137</v>
       </c>
       <c r="AL2">
-        <v>35.360029694282588</v>
+        <v>35.36002969428259</v>
       </c>
       <c r="AM2">
-        <v>48.306398942058259</v>
+        <v>48.30639894205826</v>
       </c>
       <c r="AN2">
-        <v>65.668063580783297</v>
+        <v>65.6680635807833</v>
       </c>
       <c r="AO2">
-        <v>78.858713315638099</v>
+        <v>78.8587133156381</v>
       </c>
       <c r="AP2">
-        <v>87.137100683473733</v>
+        <v>87.13710068347373</v>
       </c>
       <c r="AQ2">
         <v>94.92526671542791</v>
       </c>
       <c r="AR2">
-        <v>102.14447345112239</v>
+        <v>102.1444734511224</v>
       </c>
       <c r="AS2">
         <v>108.8326092222178</v>
@@ -6396,40 +6348,40 @@
         <v>122.7806834586825</v>
       </c>
       <c r="AV2">
-        <v>123.15414854945929</v>
+        <v>123.1541485494593</v>
       </c>
       <c r="AW2">
         <v>110.7565435051973</v>
       </c>
       <c r="AX2">
-        <v>87.809841740965581</v>
+        <v>87.80984174096558</v>
       </c>
       <c r="AY2">
         <v>76.8631592605457</v>
       </c>
       <c r="AZ2">
-        <v>79.064899815242086</v>
+        <v>79.06489981524209</v>
       </c>
       <c r="BA2">
-        <v>79.987055693617037</v>
+        <v>79.98705569361704</v>
       </c>
       <c r="BB2">
-        <v>75.621754885653772</v>
+        <v>75.62175488565377</v>
       </c>
       <c r="BC2">
-        <v>67.125286734105345</v>
+        <v>67.12528673410534</v>
       </c>
       <c r="BD2">
-        <v>64.945421045036653</v>
+        <v>64.94542104503665</v>
       </c>
       <c r="BE2">
-        <v>71.307703120538108</v>
+        <v>71.30770312053811</v>
       </c>
       <c r="BF2">
-        <v>82.274478732084987</v>
+        <v>82.27447873208499</v>
       </c>
       <c r="BG2">
-        <v>99.084006042815375</v>
+        <v>99.08400604281537</v>
       </c>
       <c r="BH2">
         <v>122.7051453668978</v>
@@ -6438,97 +6390,97 @@
         <v>149.6878868314719</v>
       </c>
       <c r="BJ2">
-        <v>180.03461355733651</v>
+        <v>180.0346135573365</v>
       </c>
       <c r="BK2">
         <v>215.27700174249</v>
       </c>
       <c r="BL2">
-        <v>253.54571816126281</v>
+        <v>253.5457181612628</v>
       </c>
       <c r="BM2">
         <v>291.9352094001211</v>
       </c>
       <c r="BN2">
-        <v>321.67691179251648</v>
+        <v>321.6769117925165</v>
       </c>
       <c r="BO2">
-        <v>343.70749613826928</v>
+        <v>343.7074961382693</v>
       </c>
       <c r="BP2">
-        <v>364.61343013206101</v>
+        <v>364.613430132061</v>
       </c>
       <c r="BQ2">
-        <v>384.22639443778257</v>
+        <v>384.2263944377826</v>
       </c>
       <c r="BR2">
-        <v>397.89694358108011</v>
+        <v>397.8969435810801</v>
       </c>
       <c r="BS2">
-        <v>397.12018847192229</v>
+        <v>397.1201884719223</v>
       </c>
       <c r="BT2">
-        <v>380.73990453382271</v>
+        <v>380.7399045338227</v>
       </c>
       <c r="BU2">
-        <v>359.35715953369089</v>
+        <v>359.3571595336909</v>
       </c>
       <c r="BV2">
-        <v>346.02555828475232</v>
+        <v>346.0255582847523</v>
       </c>
       <c r="BW2">
-        <v>342.71970270150359</v>
+        <v>342.7197027015036</v>
       </c>
       <c r="BX2">
-        <v>343.46461875989712</v>
+        <v>343.4646187598971</v>
       </c>
       <c r="BY2">
         <v>343.0248930723078</v>
       </c>
       <c r="BZ2">
-        <v>342.81719995872282</v>
+        <v>342.8171999587228</v>
       </c>
       <c r="CA2">
-        <v>349.73040200299698</v>
+        <v>349.730402002997</v>
       </c>
       <c r="CB2">
-        <v>367.90791232780822</v>
+        <v>367.9079123278082</v>
       </c>
       <c r="CC2">
-        <v>399.70121484092431</v>
+        <v>399.7012148409243</v>
       </c>
       <c r="CD2">
-        <v>444.09216698553621</v>
+        <v>444.0921669855362</v>
       </c>
       <c r="CE2">
-        <v>497.66938648921672</v>
+        <v>497.6693864892167</v>
       </c>
       <c r="CF2">
-        <v>557.42169981127597</v>
+        <v>557.421699811276</v>
       </c>
       <c r="CG2">
-        <v>622.13126652794278</v>
+        <v>622.1312665279428</v>
       </c>
       <c r="CH2">
-        <v>692.76273655181808</v>
+        <v>692.7627365518181</v>
       </c>
       <c r="CI2">
-        <v>765.33625281872639</v>
+        <v>765.3362528187264</v>
       </c>
       <c r="CJ2">
-        <v>832.00545356826512</v>
+        <v>832.0054535682651</v>
       </c>
       <c r="CK2">
-        <v>887.08070342422025</v>
+        <v>887.0807034242202</v>
       </c>
       <c r="CL2">
-        <v>930.95439125911923</v>
+        <v>930.9543912591192</v>
       </c>
       <c r="CM2">
-        <v>967.98176581121982</v>
+        <v>967.9817658112198</v>
       </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6572,190 +6524,190 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.726667188771785E-3</v>
+        <v>0.002726667188771785</v>
       </c>
       <c r="P3">
-        <v>9.7545642004178233E-3</v>
+        <v>0.009754564200417823</v>
       </c>
       <c r="Q3">
-        <v>1.753254492555404E-2</v>
+        <v>0.01753254492555404</v>
       </c>
       <c r="R3">
-        <v>2.0915618251258761E-2</v>
+        <v>0.02091561825125876</v>
       </c>
       <c r="S3">
-        <v>2.691498831020701E-2</v>
+        <v>0.02691498831020701</v>
       </c>
       <c r="T3">
-        <v>4.0537583931456192E-2</v>
+        <v>0.04053758393145619</v>
       </c>
       <c r="U3">
-        <v>6.0192796041964619E-2</v>
+        <v>0.06019279604196462</v>
       </c>
       <c r="V3">
-        <v>9.1962322794640075E-2</v>
+        <v>0.09196232279464008</v>
       </c>
       <c r="W3">
-        <v>0.13622217608027751</v>
+        <v>0.1362221760802775</v>
       </c>
       <c r="X3">
         <v>0.1842454245124138</v>
       </c>
       <c r="Y3">
-        <v>0.24195173167913611</v>
+        <v>0.2419517316791361</v>
       </c>
       <c r="Z3">
-        <v>0.31294489393985081</v>
+        <v>0.3129448939398508</v>
       </c>
       <c r="AA3">
-        <v>0.36817166897771791</v>
+        <v>0.3681716689777179</v>
       </c>
       <c r="AB3">
-        <v>0.43382098404128039</v>
+        <v>0.4338209840412804</v>
       </c>
       <c r="AC3">
-        <v>0.53714609635278177</v>
+        <v>0.5371460963527818</v>
       </c>
       <c r="AD3">
-        <v>0.63137243015883393</v>
+        <v>0.6313724301588339</v>
       </c>
       <c r="AE3">
-        <v>0.75124303703180484</v>
+        <v>0.7512430370318048</v>
       </c>
       <c r="AF3">
         <v>0.8234957813374737</v>
       </c>
       <c r="AG3">
-        <v>0.87888267134940168</v>
+        <v>0.8788826713494017</v>
       </c>
       <c r="AH3">
-        <v>1.0771113738927951</v>
+        <v>1.077111373892795</v>
       </c>
       <c r="AI3">
         <v>1.410223898641354</v>
       </c>
       <c r="AJ3">
-        <v>1.7284028566910581</v>
+        <v>1.728402856691058</v>
       </c>
       <c r="AK3">
-        <v>2.2332830054178969</v>
+        <v>2.233283005417897</v>
       </c>
       <c r="AL3">
         <v>2.961116084802895</v>
       </c>
       <c r="AM3">
-        <v>3.9948731017646391</v>
+        <v>3.994873101764639</v>
       </c>
       <c r="AN3">
-        <v>5.3556993071597052</v>
+        <v>5.355699307159705</v>
       </c>
       <c r="AO3">
-        <v>6.3332978497329782</v>
+        <v>6.333297849732978</v>
       </c>
       <c r="AP3">
-        <v>6.8955446853119824</v>
+        <v>6.895544685311982</v>
       </c>
       <c r="AQ3">
-        <v>7.4221708472111256</v>
+        <v>7.422170847211126</v>
       </c>
       <c r="AR3">
-        <v>7.9125280438327863</v>
+        <v>7.912528043832786</v>
       </c>
       <c r="AS3">
-        <v>8.3739204631572317</v>
+        <v>8.373920463157232</v>
       </c>
       <c r="AT3">
         <v>8.906199520121735</v>
       </c>
       <c r="AU3">
-        <v>9.3869024447256688</v>
+        <v>9.386902444725669</v>
       </c>
       <c r="AV3">
-        <v>9.4152867418366917</v>
+        <v>9.415286741836692</v>
       </c>
       <c r="AW3">
-        <v>8.4830045883377814</v>
+        <v>8.483004588337781</v>
       </c>
       <c r="AX3">
-        <v>6.7488897154367393</v>
+        <v>6.748889715436739</v>
       </c>
       <c r="AY3">
-        <v>5.9366261491746419</v>
+        <v>5.936626149174642</v>
       </c>
       <c r="AZ3">
-        <v>6.1443303531647384</v>
+        <v>6.144330353164738</v>
       </c>
       <c r="BA3">
-        <v>6.2608751427988842</v>
+        <v>6.260875142798884</v>
       </c>
       <c r="BB3">
-        <v>5.9671295619709142</v>
+        <v>5.967129561970914</v>
       </c>
       <c r="BC3">
-        <v>5.3433938074788054</v>
+        <v>5.343393807478805</v>
       </c>
       <c r="BD3">
-        <v>5.2184011411360327</v>
+        <v>5.218401141136033</v>
       </c>
       <c r="BE3">
-        <v>5.7859163940289138</v>
+        <v>5.785916394028914</v>
       </c>
       <c r="BF3">
-        <v>6.7435147512332714</v>
+        <v>6.743514751233271</v>
       </c>
       <c r="BG3">
-        <v>8.2054964076054215</v>
+        <v>8.205496407605422</v>
       </c>
       <c r="BH3">
         <v>10.26834920869644</v>
       </c>
       <c r="BI3">
-        <v>12.658567613721351</v>
+        <v>12.65856761372135</v>
       </c>
       <c r="BJ3">
         <v>15.3854207641618</v>
       </c>
       <c r="BK3">
-        <v>18.589945374440081</v>
+        <v>18.58994537444008</v>
       </c>
       <c r="BL3">
         <v>22.12155369480724</v>
       </c>
       <c r="BM3">
-        <v>25.731195360471901</v>
+        <v>25.7311953604719</v>
       </c>
       <c r="BN3">
-        <v>28.637116508771651</v>
+        <v>28.63711650877165</v>
       </c>
       <c r="BO3">
-        <v>30.899053734517519</v>
+        <v>30.89905373451752</v>
       </c>
       <c r="BP3">
-        <v>33.093129043695093</v>
+        <v>33.09312904369509</v>
       </c>
       <c r="BQ3">
-        <v>35.199529610630208</v>
+        <v>35.19952961063021</v>
       </c>
       <c r="BR3">
-        <v>36.783681535591583</v>
+        <v>36.78368153559158</v>
       </c>
       <c r="BS3">
-        <v>37.036356984713699</v>
+        <v>37.0363569847137</v>
       </c>
       <c r="BT3">
-        <v>35.813000851708757</v>
+        <v>35.81300085170876</v>
       </c>
       <c r="BU3">
-        <v>34.082190244368007</v>
+        <v>34.08219024436801</v>
       </c>
       <c r="BV3">
-        <v>33.081141678449718</v>
+        <v>33.08114167844972</v>
       </c>
       <c r="BW3">
-        <v>33.019068583172917</v>
+        <v>33.01906858317292</v>
       </c>
       <c r="BX3">
-        <v>33.338354437940218</v>
+        <v>33.33835443794022</v>
       </c>
       <c r="BY3">
         <v>33.53577122382935</v>
@@ -6764,120 +6716,120 @@
         <v>33.74825931351775</v>
       </c>
       <c r="CA3">
-        <v>34.658973233401838</v>
+        <v>34.65897323340184</v>
       </c>
       <c r="CB3">
-        <v>36.694792316822877</v>
+        <v>36.69479231682288</v>
       </c>
       <c r="CC3">
-        <v>40.112107332164577</v>
+        <v>40.11210733216458</v>
       </c>
       <c r="CD3">
         <v>44.83135899417659</v>
       </c>
       <c r="CE3">
-        <v>50.526014737702482</v>
+        <v>50.52601473770248</v>
       </c>
       <c r="CF3">
-        <v>56.901327414212133</v>
+        <v>56.90132741421213</v>
       </c>
       <c r="CG3">
-        <v>63.839079767837553</v>
+        <v>63.83907976783755</v>
       </c>
       <c r="CH3">
-        <v>71.442955805871904</v>
+        <v>71.4429558058719</v>
       </c>
       <c r="CI3">
-        <v>79.305683386704018</v>
+        <v>79.30568338670402</v>
       </c>
       <c r="CJ3">
-        <v>86.609338070271647</v>
+        <v>86.60933807027165</v>
       </c>
       <c r="CK3">
-        <v>92.747053168106518</v>
+        <v>92.74705316810652</v>
       </c>
       <c r="CL3">
-        <v>97.741329811081528</v>
+        <v>97.74132981108153</v>
       </c>
       <c r="CM3">
-        <v>102.03442345089719</v>
+        <v>102.0344234508972</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048270970275495E-2</v>
+        <v>0.02048270970275495</v>
       </c>
       <c r="C4">
-        <v>3.7335691945245927E-2</v>
+        <v>0.03733569194524593</v>
       </c>
       <c r="D4">
-        <v>6.5872069497038624E-2</v>
+        <v>0.06587206949703862</v>
       </c>
       <c r="E4">
         <v>0.113543414112338</v>
       </c>
       <c r="F4">
-        <v>0.19203168892010131</v>
+        <v>0.1920316889201013</v>
       </c>
       <c r="G4">
-        <v>0.31907986079148848</v>
+        <v>0.3190798607914885</v>
       </c>
       <c r="H4">
         <v>0.5220114044151537</v>
       </c>
       <c r="I4">
-        <v>0.84672607356442686</v>
+        <v>0.8467260735644269</v>
       </c>
       <c r="J4">
         <v>1.382849882195645</v>
       </c>
       <c r="K4">
-        <v>2.3318439189318729</v>
+        <v>2.331843918931873</v>
       </c>
       <c r="L4">
-        <v>4.1697175716226313</v>
+        <v>4.169717571622631</v>
       </c>
       <c r="M4">
-        <v>7.9128733982846544</v>
+        <v>7.912873398284654</v>
       </c>
       <c r="N4">
         <v>14.9368549233215</v>
       </c>
       <c r="O4">
-        <v>25.091581129361909</v>
+        <v>25.09158112936191</v>
       </c>
       <c r="P4">
-        <v>32.783825943295277</v>
+        <v>32.78382594329528</v>
       </c>
       <c r="Q4">
-        <v>38.393809743147813</v>
+        <v>38.39380974314781</v>
       </c>
       <c r="R4">
-        <v>46.333044410683669</v>
+        <v>46.33304441068367</v>
       </c>
       <c r="S4">
-        <v>57.737516965335431</v>
+        <v>57.73751696533543</v>
       </c>
       <c r="T4">
-        <v>72.332955668861629</v>
+        <v>72.33295566886163</v>
       </c>
       <c r="U4">
-        <v>89.760724028160809</v>
+        <v>89.76072402816081</v>
       </c>
       <c r="V4">
         <v>111.8272128292342</v>
       </c>
       <c r="W4">
-        <v>138.49410458188589</v>
+        <v>138.4941045818859</v>
       </c>
       <c r="X4">
-        <v>166.77001638997081</v>
+        <v>166.7700163899708</v>
       </c>
       <c r="Y4">
-        <v>201.11581566675059</v>
+        <v>201.1158156667506</v>
       </c>
       <c r="Z4">
         <v>243.8971906622661</v>
@@ -6886,25 +6838,25 @@
         <v>295.2166748684366</v>
       </c>
       <c r="AB4">
-        <v>367.68043062944179</v>
+        <v>367.6804306294418</v>
       </c>
       <c r="AC4">
-        <v>458.38044511029659</v>
+        <v>458.3804451102966</v>
       </c>
       <c r="AD4">
-        <v>558.11876086848508</v>
+        <v>558.1187608684851</v>
       </c>
       <c r="AE4">
-        <v>687.07490540383253</v>
+        <v>687.0749054038325</v>
       </c>
       <c r="AF4">
-        <v>860.19161512937126</v>
+        <v>860.1916151293713</v>
       </c>
       <c r="AG4">
-        <v>1088.9647449193731</v>
+        <v>1088.964744919373</v>
       </c>
       <c r="AH4">
-        <v>1380.3994237822769</v>
+        <v>1380.399423782277</v>
       </c>
       <c r="AI4">
         <v>1738.735651404586</v>
@@ -6916,61 +6868,61 @@
         <v>2769.916694853699</v>
       </c>
       <c r="AL4">
-        <v>3410.9412151384108</v>
+        <v>3410.941215138411</v>
       </c>
       <c r="AM4">
-        <v>4155.7728926739665</v>
+        <v>4155.772892673966</v>
       </c>
       <c r="AN4">
         <v>4991.491514469235</v>
       </c>
       <c r="AO4">
-        <v>5685.0473018308594</v>
+        <v>5685.047301830859</v>
       </c>
       <c r="AP4">
-        <v>6209.9958973455987</v>
+        <v>6209.995897345599</v>
       </c>
       <c r="AQ4">
-        <v>6659.3463028452788</v>
+        <v>6659.346302845279</v>
       </c>
       <c r="AR4">
-        <v>7011.1439159070114</v>
+        <v>7011.143915907011</v>
       </c>
       <c r="AS4">
-        <v>7246.9357278374546</v>
+        <v>7246.935727837455</v>
       </c>
       <c r="AT4">
-        <v>7374.2288899879204</v>
+        <v>7374.22888998792</v>
       </c>
       <c r="AU4">
-        <v>7364.9235952747886</v>
+        <v>7364.923595274789</v>
       </c>
       <c r="AV4">
         <v>7155.032679620128</v>
       </c>
       <c r="AW4">
-        <v>6684.5483896739261</v>
+        <v>6684.548389673926</v>
       </c>
       <c r="AX4">
-        <v>6025.2174830507729</v>
+        <v>6025.217483050773</v>
       </c>
       <c r="AY4">
-        <v>5498.5217444767504</v>
+        <v>5498.52174447675</v>
       </c>
       <c r="AZ4">
-        <v>5125.8779209816357</v>
+        <v>5125.877920981636</v>
       </c>
       <c r="BA4">
-        <v>4753.0442625461492</v>
+        <v>4753.044262546149</v>
       </c>
       <c r="BB4">
-        <v>4381.6697760014258</v>
+        <v>4381.669776001426</v>
       </c>
       <c r="BC4">
         <v>4058.942763975791</v>
       </c>
       <c r="BD4">
-        <v>3887.7499953584552</v>
+        <v>3887.749995358455</v>
       </c>
       <c r="BE4">
         <v>3895.886908079478</v>
@@ -6979,43 +6931,43 @@
         <v>4066.422646152364</v>
       </c>
       <c r="BG4">
-        <v>4420.4025841857774</v>
+        <v>4420.402584185777</v>
       </c>
       <c r="BH4">
-        <v>4952.1410069277636</v>
+        <v>4952.141006927764</v>
       </c>
       <c r="BI4">
-        <v>5593.4252268832688</v>
+        <v>5593.425226883269</v>
       </c>
       <c r="BJ4">
         <v>6311.722912881959</v>
       </c>
       <c r="BK4">
-        <v>7078.9413160087424</v>
+        <v>7078.941316008742</v>
       </c>
       <c r="BL4">
-        <v>7826.8738126092294</v>
+        <v>7826.873812609229</v>
       </c>
       <c r="BM4">
-        <v>8511.2187772760717</v>
+        <v>8511.218777276072</v>
       </c>
       <c r="BN4">
-        <v>9078.2680047323374</v>
+        <v>9078.268004732337</v>
       </c>
       <c r="BO4">
-        <v>9537.0890693373767</v>
+        <v>9537.089069337377</v>
       </c>
       <c r="BP4">
         <v>9921.671741060838</v>
       </c>
       <c r="BQ4">
-        <v>10218.739636992719</v>
+        <v>10218.73963699272</v>
       </c>
       <c r="BR4">
         <v>10389.05554416747</v>
       </c>
       <c r="BS4">
-        <v>10379.792495081099</v>
+        <v>10379.7924950811</v>
       </c>
       <c r="BT4">
         <v>10199.81971697781</v>
@@ -7024,37 +6976,37 @@
         <v>9942.016597627975</v>
       </c>
       <c r="BV4">
-        <v>9710.6600096048842</v>
+        <v>9710.660009604884</v>
       </c>
       <c r="BW4">
-        <v>9525.3950168750089</v>
+        <v>9525.395016875009</v>
       </c>
       <c r="BX4">
-        <v>9352.9857279528442</v>
+        <v>9352.985727952844</v>
       </c>
       <c r="BY4">
-        <v>9178.3814057451145</v>
+        <v>9178.381405745115</v>
       </c>
       <c r="BZ4">
-        <v>9024.0784707174935</v>
+        <v>9024.078470717493</v>
       </c>
       <c r="CA4">
-        <v>8930.5600492880803</v>
+        <v>8930.56004928808</v>
       </c>
       <c r="CB4">
-        <v>8929.5734079149533</v>
+        <v>8929.573407914953</v>
       </c>
       <c r="CC4">
-        <v>9050.9929638328249</v>
+        <v>9050.992963832825</v>
       </c>
       <c r="CD4">
-        <v>9304.4965447087307</v>
+        <v>9304.496544708731</v>
       </c>
       <c r="CE4">
-        <v>9669.5313864784785</v>
+        <v>9669.531386478478</v>
       </c>
       <c r="CF4">
-        <v>10111.283757599131</v>
+        <v>10111.28375759913</v>
       </c>
       <c r="CG4">
         <v>10599.2512494967</v>
@@ -7063,63 +7015,63 @@
         <v>11108.57986526977</v>
       </c>
       <c r="CI4">
-        <v>11601.379232820949</v>
+        <v>11601.37923282095</v>
       </c>
       <c r="CJ4">
         <v>12041.46661049174</v>
       </c>
       <c r="CK4">
-        <v>12412.520603869831</v>
+        <v>12412.52060386983</v>
       </c>
       <c r="CL4">
-        <v>12719.129005605981</v>
+        <v>12719.12900560598</v>
       </c>
       <c r="CM4">
-        <v>12970.883559098451</v>
+        <v>12970.88355909845</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1120414737226191E-3</v>
+        <v>0.001112041473722619</v>
       </c>
       <c r="C5">
-        <v>2.0155009863952931E-3</v>
+        <v>0.002015500986395293</v>
       </c>
       <c r="D5">
-        <v>3.5340916883297509E-3</v>
+        <v>0.003534091688329751</v>
       </c>
       <c r="E5">
-        <v>6.0522203655557251E-3</v>
+        <v>0.006052220365555725</v>
       </c>
       <c r="F5">
-        <v>1.016568172675718E-2</v>
+        <v>0.01016568172675718</v>
       </c>
       <c r="G5">
-        <v>1.6750091434780168E-2</v>
+        <v>0.01675009143478017</v>
       </c>
       <c r="H5">
-        <v>2.7031926888898029E-2</v>
+        <v>0.02703192688889803</v>
       </c>
       <c r="I5">
-        <v>4.2662833038882388E-2</v>
+        <v>0.04266283303888239</v>
       </c>
       <c r="J5">
-        <v>6.5799075319996556E-2</v>
+        <v>0.06579907531999656</v>
       </c>
       <c r="K5">
-        <v>9.917822309336001E-2</v>
+        <v>0.09917822309336001</v>
       </c>
       <c r="L5">
-        <v>0.14617359178090139</v>
+        <v>0.1461735917809014</v>
       </c>
       <c r="M5">
-        <v>0.21081095927964269</v>
+        <v>0.2108109592796427</v>
       </c>
       <c r="N5">
-        <v>0.29773789846522192</v>
+        <v>0.2977378984652219</v>
       </c>
       <c r="O5">
         <v>1.347663947338581</v>
@@ -7131,10 +7083,10 @@
         <v>5.755316091749533</v>
       </c>
       <c r="R5">
-        <v>9.5980624383511355</v>
+        <v>9.598062438351135</v>
       </c>
       <c r="S5">
-        <v>14.885516256606071</v>
+        <v>14.88551625660607</v>
       </c>
       <c r="T5">
         <v>21.90294462039228</v>
@@ -7143,40 +7095,40 @@
         <v>30.97023677491098</v>
       </c>
       <c r="V5">
-        <v>42.729101343359588</v>
+        <v>42.72910134335959</v>
       </c>
       <c r="W5">
-        <v>58.280370970547381</v>
+        <v>58.28037097054738</v>
       </c>
       <c r="X5">
-        <v>79.010007032829179</v>
+        <v>79.01000703282918</v>
       </c>
       <c r="Y5">
         <v>106.880100000293</v>
       </c>
       <c r="Z5">
-        <v>144.60879263885101</v>
+        <v>144.608792638851</v>
       </c>
       <c r="AA5">
         <v>195.8698338429578</v>
       </c>
       <c r="AB5">
-        <v>265.49625826491598</v>
+        <v>265.496258264916</v>
       </c>
       <c r="AC5">
-        <v>359.65563668496969</v>
+        <v>359.6556366849697</v>
       </c>
       <c r="AD5">
-        <v>485.93892079323791</v>
+        <v>485.9389207932379</v>
       </c>
       <c r="AE5">
-        <v>653.30718002023514</v>
+        <v>653.3071800202351</v>
       </c>
       <c r="AF5">
-        <v>871.84396064024963</v>
+        <v>871.8439606402496</v>
       </c>
       <c r="AG5">
-        <v>1152.2597489609091</v>
+        <v>1152.259748960909</v>
       </c>
       <c r="AH5">
         <v>1505.104148563307</v>
@@ -7185,7 +7137,7 @@
         <v>1939.660419889706</v>
       </c>
       <c r="AJ5">
-        <v>2462.5411511568141</v>
+        <v>2462.541151156814</v>
       </c>
       <c r="AK5">
         <v>3076.065126018691</v>
@@ -7194,67 +7146,67 @@
         <v>3776.573326584034</v>
       </c>
       <c r="AM5">
-        <v>4552.9357729313087</v>
+        <v>4552.935772931309</v>
       </c>
       <c r="AN5">
         <v>5385.586040424957</v>
       </c>
       <c r="AO5">
-        <v>6246.4509049145981</v>
+        <v>6246.450904914598</v>
       </c>
       <c r="AP5">
         <v>7094.935311161923</v>
       </c>
       <c r="AQ5">
-        <v>7882.8946039427101</v>
+        <v>7882.89460394271</v>
       </c>
       <c r="AR5">
         <v>8565.360696785001</v>
       </c>
       <c r="AS5">
-        <v>9101.8823009256266</v>
+        <v>9101.882300925627</v>
       </c>
       <c r="AT5">
-        <v>9461.5402421859799</v>
+        <v>9461.54024218598</v>
       </c>
       <c r="AU5">
-        <v>9626.9543440051038</v>
+        <v>9626.954344005104</v>
       </c>
       <c r="AV5">
-        <v>9596.5942242008005</v>
+        <v>9596.5942242008</v>
       </c>
       <c r="AW5">
-        <v>9385.1499466977257</v>
+        <v>9385.149946697726</v>
       </c>
       <c r="AX5">
-        <v>9022.2083667404277</v>
+        <v>9022.208366740428</v>
       </c>
       <c r="AY5">
-        <v>8549.7866160966605</v>
+        <v>8549.786616096661</v>
       </c>
       <c r="AZ5">
-        <v>8019.2454507810216</v>
+        <v>8019.245450781022</v>
       </c>
       <c r="BA5">
-        <v>7487.7935852036371</v>
+        <v>7487.793585203637</v>
       </c>
       <c r="BB5">
-        <v>7014.4700473038911</v>
+        <v>7014.470047303891</v>
       </c>
       <c r="BC5">
-        <v>6655.4789294882821</v>
+        <v>6655.478929488282</v>
       </c>
       <c r="BD5">
-        <v>6459.1541254544127</v>
+        <v>6459.154125454413</v>
       </c>
       <c r="BE5">
-        <v>6461.3869717687667</v>
+        <v>6461.386971768767</v>
       </c>
       <c r="BF5">
-        <v>6682.5944936588421</v>
+        <v>6682.594493658842</v>
       </c>
       <c r="BG5">
-        <v>7126.9484390329708</v>
+        <v>7126.948439032971</v>
       </c>
       <c r="BH5">
         <v>7783.768179177644</v>
@@ -7263,16 +7215,16 @@
         <v>8630.209052299173</v>
       </c>
       <c r="BJ5">
-        <v>9634.1474822307227</v>
+        <v>9634.147482230723</v>
       </c>
       <c r="BK5">
-        <v>10756.584955851269</v>
+        <v>10756.58495585127</v>
       </c>
       <c r="BL5">
-        <v>11953.599518420289</v>
+        <v>11953.59951842029</v>
       </c>
       <c r="BM5">
-        <v>13178.321126856221</v>
+        <v>13178.32112685622</v>
       </c>
       <c r="BN5">
         <v>14383.32187192172</v>
@@ -7281,46 +7233,46 @@
         <v>15523.38775895545</v>
       </c>
       <c r="BP5">
-        <v>16558.302544105762</v>
+        <v>16558.30254410576</v>
       </c>
       <c r="BQ5">
-        <v>17455.271373564261</v>
+        <v>17455.27137356426</v>
       </c>
       <c r="BR5">
-        <v>18190.832249143408</v>
+        <v>18190.83224914341</v>
       </c>
       <c r="BS5">
-        <v>18752.271855811599</v>
+        <v>18752.2718558116</v>
       </c>
       <c r="BT5">
         <v>19138.53525447143</v>
       </c>
       <c r="BU5">
-        <v>19360.482708275998</v>
+        <v>19360.482708276</v>
       </c>
       <c r="BV5">
-        <v>19440.286028834202</v>
+        <v>19440.2860288342</v>
       </c>
       <c r="BW5">
-        <v>19409.868688522471</v>
+        <v>19409.86868852247</v>
       </c>
       <c r="BX5">
-        <v>19308.515318354752</v>
+        <v>19308.51531835475</v>
       </c>
       <c r="BY5">
-        <v>19179.953386405759</v>
+        <v>19179.95338640576</v>
       </c>
       <c r="BZ5">
-        <v>19069.238299045039</v>
+        <v>19069.23829904504</v>
       </c>
       <c r="CA5">
-        <v>19019.681660008351</v>
+        <v>19019.68166000835</v>
       </c>
       <c r="CB5">
-        <v>19069.970218384369</v>
+        <v>19069.97021838437</v>
       </c>
       <c r="CC5">
-        <v>19251.616764894239</v>
+        <v>19251.61676489424</v>
       </c>
       <c r="CD5">
         <v>19586.93677884615</v>
@@ -7332,25 +7284,25 @@
         <v>20755.01417978292</v>
       </c>
       <c r="CG5">
-        <v>21579.154891434169</v>
+        <v>21579.15489143417</v>
       </c>
       <c r="CH5">
-        <v>22541.335392598361</v>
+        <v>22541.33539259836</v>
       </c>
       <c r="CI5">
-        <v>23615.101104120218</v>
+        <v>23615.10110412022</v>
       </c>
       <c r="CJ5">
         <v>24768.44621822047</v>
       </c>
       <c r="CK5">
-        <v>25966.079750062629</v>
+        <v>25966.07975006263</v>
       </c>
       <c r="CL5">
-        <v>27171.772251454771</v>
+        <v>27171.77225145477</v>
       </c>
       <c r="CM5">
-        <v>28350.652581897739</v>
+        <v>28350.65258189774</v>
       </c>
     </row>
   </sheetData>
